--- a/Logging/Tools/Results_Summary.xlsx
+++ b/Logging/Tools/Results_Summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/github/Forecasting/Logging/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/github/Forecasting/Logging/Tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65618F00-2F06-924F-BF5F-41538F8CD2F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26B4F0B-D0D6-DB4D-8853-B688776854AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{D6C4A1CF-C8B6-1A42-B202-9397802E1C24}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="23">
   <si>
     <t>2014/15</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>28 Day Lag</t>
+  </si>
+  <si>
+    <t>ADD STDDEV</t>
+  </si>
+  <si>
+    <t>3yrs weighted avg, patience around 20</t>
+  </si>
+  <si>
+    <t>Add normal distribition centred to 0 for weights</t>
   </si>
 </sst>
 </file>
@@ -402,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -464,51 +473,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -532,6 +496,52 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4038,32 +4048,32 @@
   <cols>
     <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="12" width="7.83203125" customWidth="1"/>
-    <col min="13" max="13" width="7.83203125" style="74" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" style="59" customWidth="1"/>
     <col min="14" max="18" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="55" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="55" t="s">
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="57"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="76"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
@@ -4094,7 +4104,7 @@
       <c r="L2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="70" t="s">
+      <c r="M2" s="55" t="s">
         <v>11</v>
       </c>
       <c r="N2" s="13" t="s">
@@ -4114,7 +4124,7 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="77" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -4148,7 +4158,7 @@
       <c r="L3" s="5">
         <v>3.43553758963114</v>
       </c>
-      <c r="M3" s="71">
+      <c r="M3" s="56">
         <f t="shared" ref="M3:M5" si="1">AVERAGE(I3:L3)</f>
         <v>2.38648426568732</v>
       </c>
@@ -4174,7 +4184,7 @@
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="59"/>
+      <c r="B4" s="78"/>
       <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
@@ -4206,7 +4216,7 @@
       <c r="L4" s="8">
         <v>5.0925985304313803</v>
       </c>
-      <c r="M4" s="72">
+      <c r="M4" s="57">
         <f t="shared" si="1"/>
         <v>3.4291134192345627</v>
       </c>
@@ -4232,7 +4242,7 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="60"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
@@ -4262,7 +4272,7 @@
       <c r="L5" s="11">
         <v>0.95260904725644702</v>
       </c>
-      <c r="M5" s="73">
+      <c r="M5" s="58">
         <f t="shared" si="1"/>
         <v>0.91678180627835093</v>
       </c>
@@ -4288,7 +4298,7 @@
       </c>
     </row>
     <row r="6" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="77" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -4311,7 +4321,7 @@
       <c r="L6" s="4">
         <v>3.8764715799860401</v>
       </c>
-      <c r="M6" s="75">
+      <c r="M6" s="60">
         <f t="shared" ref="M6:M14" si="3">AVERAGE(I6:L6)</f>
         <v>2.9697513553968622</v>
       </c>
@@ -4323,7 +4333,7 @@
       <c r="S6" s="31"/>
     </row>
     <row r="7" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="59"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
@@ -4344,7 +4354,7 @@
       <c r="L7" s="7">
         <v>5.8113440561706202</v>
       </c>
-      <c r="M7" s="76">
+      <c r="M7" s="61">
         <f t="shared" si="3"/>
         <v>3.9127758170678426</v>
       </c>
@@ -4356,7 +4366,7 @@
       <c r="S7" s="31"/>
     </row>
     <row r="8" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="60"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="9" t="s">
         <v>3</v>
       </c>
@@ -4377,7 +4387,7 @@
       <c r="L8" s="11">
         <v>0.93756979228410697</v>
       </c>
-      <c r="M8" s="77">
+      <c r="M8" s="62">
         <f t="shared" si="3"/>
         <v>0.90002519673884451</v>
       </c>
@@ -4389,7 +4399,7 @@
       <c r="S8" s="31"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="77" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -4423,7 +4433,7 @@
       <c r="L9" s="4">
         <v>5.0992717742919904</v>
       </c>
-      <c r="M9" s="75">
+      <c r="M9" s="60">
         <f t="shared" si="3"/>
         <v>3.0401082038879377</v>
       </c>
@@ -4449,7 +4459,7 @@
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="59"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="6" t="s">
         <v>2</v>
       </c>
@@ -4481,7 +4491,7 @@
       <c r="L10" s="7">
         <v>10.1773061752319</v>
       </c>
-      <c r="M10" s="76">
+      <c r="M10" s="61">
         <f t="shared" si="3"/>
         <v>5.2025534510612381</v>
       </c>
@@ -4507,7 +4517,7 @@
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="60"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="9" t="s">
         <v>3</v>
       </c>
@@ -4539,7 +4549,7 @@
       <c r="L11" s="11">
         <v>0.89986450953195596</v>
       </c>
-      <c r="M11" s="77">
+      <c r="M11" s="62">
         <f t="shared" si="3"/>
         <v>0.8782371039654342</v>
       </c>
@@ -4565,7 +4575,7 @@
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="77" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -4599,7 +4609,7 @@
       <c r="L12" s="4">
         <v>4.9369132120285499</v>
       </c>
-      <c r="M12" s="75">
+      <c r="M12" s="60">
         <f t="shared" si="3"/>
         <v>3.5515046456024724</v>
       </c>
@@ -4625,7 +4635,7 @@
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="59"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="6" t="s">
         <v>2</v>
       </c>
@@ -4657,7 +4667,7 @@
       <c r="L13" s="7">
         <v>9.0892070968884102</v>
       </c>
-      <c r="M13" s="76">
+      <c r="M13" s="61">
         <f t="shared" si="3"/>
         <v>5.407339365431282</v>
       </c>
@@ -4683,7 +4693,7 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="60"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="9" t="s">
         <v>3</v>
       </c>
@@ -4715,7 +4725,7 @@
       <c r="L14" s="11">
         <v>0.96213563093856302</v>
       </c>
-      <c r="M14" s="77">
+      <c r="M14" s="62">
         <f t="shared" si="3"/>
         <v>0.90994596363098057</v>
       </c>
@@ -4761,13 +4771,13 @@
   <dimension ref="B1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="13" width="7.83203125" customWidth="1"/>
-    <col min="14" max="14" width="7.83203125" style="88" customWidth="1"/>
+    <col min="14" max="14" width="7.83203125" style="73" customWidth="1"/>
     <col min="15" max="20" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4784,32 +4794,32 @@
       <c r="K1" s="49"/>
       <c r="L1" s="49"/>
       <c r="M1" s="49"/>
-      <c r="N1" s="78"/>
+      <c r="N1" s="63"/>
     </row>
     <row r="2" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="48"/>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="66" t="s">
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="66" t="s">
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="61" t="s">
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="87" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4842,7 +4852,7 @@
       <c r="M3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="79" t="s">
+      <c r="N3" s="64" t="s">
         <v>11</v>
       </c>
       <c r="O3" s="13" t="s">
@@ -4860,13 +4870,13 @@
       <c r="S3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="61"/>
+      <c r="T3" s="87"/>
     </row>
     <row r="4" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="88" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="32" t="s">
@@ -4900,7 +4910,7 @@
       <c r="M4" s="5">
         <v>3.8174018183023102</v>
       </c>
-      <c r="N4" s="80">
+      <c r="N4" s="65">
         <f>AVERAGE(J4:M4)</f>
         <v>2.344711916674965</v>
       </c>
@@ -4926,8 +4936,8 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="69"/>
-      <c r="C5" s="63"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="80"/>
       <c r="D5" s="33" t="s">
         <v>2</v>
       </c>
@@ -4959,8 +4969,8 @@
       <c r="M5" s="8">
         <v>6.6739345871975901</v>
       </c>
-      <c r="N5" s="81">
-        <f t="shared" ref="N5:N12" si="2">AVERAGE(J5:M5)</f>
+      <c r="N5" s="66">
+        <f t="shared" ref="N5:N16" si="2">AVERAGE(J5:M5)</f>
         <v>3.784683046079885</v>
       </c>
       <c r="O5" s="17">
@@ -4985,8 +4995,8 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="69"/>
-      <c r="C6" s="64"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="35" t="s">
         <v>3</v>
       </c>
@@ -5018,7 +5028,7 @@
       <c r="M6" s="11">
         <v>0.89387289085965904</v>
       </c>
-      <c r="N6" s="82">
+      <c r="N6" s="67">
         <f t="shared" si="2"/>
         <v>0.90070431948485419</v>
       </c>
@@ -5044,8 +5054,8 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="69"/>
-      <c r="C7" s="63" t="s">
+      <c r="B7" s="82"/>
+      <c r="C7" s="80" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -5079,7 +5089,7 @@
       <c r="M7" s="4">
         <v>3.9885256813269501</v>
       </c>
-      <c r="N7" s="83">
+      <c r="N7" s="68">
         <f t="shared" si="2"/>
         <v>2.3850224629946677</v>
       </c>
@@ -5105,8 +5115,8 @@
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="69"/>
-      <c r="C8" s="63"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="33" t="s">
         <v>2</v>
       </c>
@@ -5138,7 +5148,7 @@
       <c r="M8" s="7">
         <v>7.1204901400938203</v>
       </c>
-      <c r="N8" s="84">
+      <c r="N8" s="69">
         <f t="shared" si="2"/>
         <v>3.7068315760122053</v>
       </c>
@@ -5164,8 +5174,8 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="69"/>
-      <c r="C9" s="64"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="35" t="s">
         <v>3</v>
       </c>
@@ -5197,7 +5207,7 @@
       <c r="M9" s="10">
         <v>0.96553763117116298</v>
       </c>
-      <c r="N9" s="85">
+      <c r="N9" s="70">
         <f t="shared" si="2"/>
         <v>0.92301232047725934</v>
       </c>
@@ -5223,8 +5233,8 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="69"/>
-      <c r="C10" s="63" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="80" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="33" t="s">
@@ -5258,7 +5268,7 @@
       <c r="M10" s="4">
         <v>4.9135642051696804</v>
       </c>
-      <c r="N10" s="83">
+      <c r="N10" s="68">
         <f t="shared" si="2"/>
         <v>2.9949735999107374</v>
       </c>
@@ -5284,8 +5294,8 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="69"/>
-      <c r="C11" s="63"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="33" t="s">
         <v>2</v>
       </c>
@@ -5317,7 +5327,7 @@
       <c r="M11" s="7">
         <v>10.0702199935913</v>
       </c>
-      <c r="N11" s="84">
+      <c r="N11" s="69">
         <f t="shared" si="2"/>
         <v>5.4313469529151872</v>
       </c>
@@ -5343,8 +5353,8 @@
       </c>
     </row>
     <row r="12" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="34" t="s">
         <v>3</v>
       </c>
@@ -5376,7 +5386,7 @@
       <c r="M12" s="43">
         <v>0.89094506505740301</v>
       </c>
-      <c r="N12" s="86">
+      <c r="N12" s="71">
         <f t="shared" si="2"/>
         <v>0.86014506516166545</v>
       </c>
@@ -5411,7 +5421,7 @@
       <c r="K13" s="54"/>
       <c r="L13" s="54"/>
       <c r="M13" s="54"/>
-      <c r="N13" s="87"/>
+      <c r="N13" s="72"/>
       <c r="O13" s="54"/>
       <c r="P13" s="54"/>
       <c r="Q13" s="54"/>
@@ -5425,11 +5435,22 @@
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
       <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="87"/>
+      <c r="J14" s="21">
+        <v>1.68553034493036</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1.5020625826862199</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1.85347392895776</v>
+      </c>
+      <c r="M14" s="5">
+        <v>3.53088879060993</v>
+      </c>
+      <c r="N14" s="65">
+        <f t="shared" si="2"/>
+        <v>2.1429889117960674</v>
+      </c>
       <c r="O14" s="54"/>
       <c r="P14" s="54"/>
       <c r="Q14" s="54"/>
@@ -5443,11 +5464,22 @@
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
       <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="87"/>
+      <c r="J15" s="17">
+        <v>2.89145108940507</v>
+      </c>
+      <c r="K15" s="8">
+        <v>2.41428861776037</v>
+      </c>
+      <c r="L15" s="7">
+        <v>2.8916910345628999</v>
+      </c>
+      <c r="M15" s="7">
+        <v>7.0112605606291396</v>
+      </c>
+      <c r="N15" s="69">
+        <f t="shared" si="2"/>
+        <v>3.8021728255893699</v>
+      </c>
       <c r="O15" s="54"/>
       <c r="P15" s="54"/>
       <c r="Q15" s="54"/>
@@ -5455,17 +5487,28 @@
       <c r="S15" s="54"/>
       <c r="T15" s="54"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
       <c r="H16" s="54"/>
       <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="87"/>
+      <c r="J16" s="27">
+        <v>0.91113849598193597</v>
+      </c>
+      <c r="K16" s="10">
+        <v>0.94647925984624404</v>
+      </c>
+      <c r="L16" s="10">
+        <v>0.92030712483090504</v>
+      </c>
+      <c r="M16" s="10">
+        <v>0.96357185661028399</v>
+      </c>
+      <c r="N16" s="89">
+        <f t="shared" si="2"/>
+        <v>0.93537418431734221</v>
+      </c>
       <c r="O16" s="54"/>
       <c r="P16" s="54"/>
       <c r="Q16" s="54"/>
@@ -5483,7 +5526,7 @@
       <c r="K17" s="54"/>
       <c r="L17" s="54"/>
       <c r="M17" s="54"/>
-      <c r="N17" s="87"/>
+      <c r="N17" s="72"/>
       <c r="O17" s="54"/>
       <c r="P17" s="54"/>
       <c r="Q17" s="54"/>
@@ -5499,9 +5542,11 @@
       <c r="I18" s="54"/>
       <c r="J18" s="54"/>
       <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
+      <c r="L18" s="54" t="s">
+        <v>21</v>
+      </c>
       <c r="M18" s="54"/>
-      <c r="N18" s="87"/>
+      <c r="N18" s="72"/>
       <c r="O18" s="54"/>
       <c r="P18" s="54"/>
       <c r="Q18" s="54"/>
@@ -5519,7 +5564,7 @@
       <c r="K19" s="54"/>
       <c r="L19" s="54"/>
       <c r="M19" s="54"/>
-      <c r="N19" s="87"/>
+      <c r="N19" s="72"/>
       <c r="O19" s="54"/>
       <c r="P19" s="54"/>
       <c r="Q19" s="54"/>
@@ -5535,9 +5580,11 @@
       <c r="I20" s="54"/>
       <c r="J20" s="54"/>
       <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
+      <c r="L20" s="54" t="s">
+        <v>20</v>
+      </c>
       <c r="M20" s="54"/>
-      <c r="N20" s="87"/>
+      <c r="N20" s="72"/>
       <c r="O20" s="54"/>
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
@@ -5552,10 +5599,11 @@
       <c r="H21" s="54"/>
       <c r="I21" s="54"/>
       <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
+      <c r="L21" s="54" t="s">
+        <v>22</v>
+      </c>
       <c r="M21" s="54"/>
-      <c r="N21" s="87"/>
+      <c r="N21" s="72"/>
       <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
@@ -5573,7 +5621,7 @@
       <c r="K22" s="54"/>
       <c r="L22" s="54"/>
       <c r="M22" s="54"/>
-      <c r="N22" s="87"/>
+      <c r="N22" s="72"/>
       <c r="O22" s="54"/>
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
@@ -5583,14 +5631,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="C4:C6"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B4:B12"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="J2:N2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5612,28 +5660,28 @@
   <sheetData>
     <row r="1" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="66" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="66" t="s">
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="61" t="s">
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="87" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5683,10 +5731,10 @@
       <c r="R3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="61"/>
+      <c r="S3" s="87"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="88" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="32" t="s">
@@ -5746,7 +5794,7 @@
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="63"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="33" t="s">
         <v>2</v>
       </c>
@@ -5804,7 +5852,7 @@
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="64"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="35" t="s">
         <v>3</v>
       </c>
@@ -5860,7 +5908,7 @@
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="80" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="33" t="s">
@@ -5920,7 +5968,7 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="63"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="33" t="s">
         <v>2</v>
       </c>
@@ -5978,7 +6026,7 @@
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="64"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="35" t="s">
         <v>3</v>
       </c>
@@ -6034,7 +6082,7 @@
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="80" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="33" t="s">
@@ -6094,7 +6142,7 @@
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="63"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="33" t="s">
         <v>2</v>
       </c>
@@ -6152,7 +6200,7 @@
       </c>
     </row>
     <row r="12" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="65"/>
+      <c r="B12" s="81"/>
       <c r="C12" s="34" t="s">
         <v>3</v>
       </c>

--- a/Logging/Tools/Results_Summary.xlsx
+++ b/Logging/Tools/Results_Summary.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/github/Forecasting/Logging/Tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26B4F0B-D0D6-DB4D-8853-B688776854AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA76978-713B-A941-9CB7-5374F3182897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{D6C4A1CF-C8B6-1A42-B202-9397802E1C24}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="2" xr2:uid="{D6C4A1CF-C8B6-1A42-B202-9397802E1C24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -411,10 +410,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -496,6 +494,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -514,18 +513,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -541,7 +528,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4048,7 +4046,7 @@
   <cols>
     <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="12" width="7.83203125" customWidth="1"/>
-    <col min="13" max="13" width="7.83203125" style="59" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" style="58" customWidth="1"/>
     <col min="14" max="18" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4077,49 +4075,49 @@
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C2" s="1"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4127,172 +4125,172 @@
       <c r="B3" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>2.2819145937423202</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>3.2055692622196501</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>6.06843660680744</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>5.5311230443332597</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="28">
         <f t="shared" ref="H3:H14" si="0">AVERAGE(D3:G3)</f>
         <v>4.2717608767756676</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <v>1.9325765759873701</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>2.1790326571079102</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>1.9987902400228601</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>3.43553758963114</v>
       </c>
-      <c r="M3" s="56">
+      <c r="M3" s="55">
         <f t="shared" ref="M3:M5" si="1">AVERAGE(I3:L3)</f>
         <v>2.38648426568732</v>
       </c>
-      <c r="N3" s="21">
+      <c r="N3" s="20">
         <v>2.4536862337724701</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="3">
         <v>2.6005809067331098</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="3">
         <v>2.8639001598796501</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="3">
         <v>5.4791577726949301</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="15">
         <f>AVERAGE(N3:Q3)</f>
         <v>3.3493312682700402</v>
       </c>
-      <c r="S3" s="31">
+      <c r="S3" s="30">
         <f t="shared" ref="S3:S5" si="2">AVERAGE(R3,M3,H3)</f>
         <v>3.3358588035776759</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" s="78"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>3.5585607031087201</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>4.4216458940606298</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>7.8781587379970697</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>9.6505510894466209</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="25">
         <f t="shared" si="0"/>
         <v>6.3772291061532602</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <v>2.9939974833885299</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>3.1105951710453601</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="6">
         <v>2.51926249207298</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>5.0925985304313803</v>
       </c>
-      <c r="M4" s="57">
+      <c r="M4" s="56">
         <f t="shared" si="1"/>
         <v>3.4291134192345627</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="22">
         <v>3.6290797922743101</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="6">
         <v>3.80056395236877</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="6">
         <v>3.60957034540098</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="6">
         <v>10.214759827218</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="25">
         <f>AVERAGE(N4:Q4)</f>
         <v>5.3134934793155146</v>
       </c>
-      <c r="S4" s="30">
+      <c r="S4" s="29">
         <f t="shared" si="2"/>
         <v>5.0399453349011125</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5" s="79"/>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>0.90051848445861404</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>0.80269610876864195</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10">
         <v>0.91321636449931598</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="27">
         <f t="shared" si="0"/>
         <v>0.87214365257552406</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="18">
         <v>0.92106934980587896</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>0.89138986975171997</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>0.902058958299358</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <v>0.95260904725644702</v>
       </c>
-      <c r="M5" s="58">
+      <c r="M5" s="57">
         <f t="shared" si="1"/>
         <v>0.91678180627835093</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="26">
         <v>0.92371708656019702</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="10">
         <v>0.83245146903846901</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="9">
         <v>0.79460335028259099</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="9">
         <v>0.93644920626638195</v>
       </c>
-      <c r="R5" s="28">
+      <c r="R5" s="27">
         <f>AVERAGE(N5:Q5)</f>
         <v>0.87180527803690966</v>
       </c>
-      <c r="S5" s="30">
+      <c r="S5" s="29">
         <f t="shared" si="2"/>
         <v>0.88691024563026166</v>
       </c>
@@ -4301,275 +4299,275 @@
       <c r="B6" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="21">
+      <c r="D6" s="20"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="20">
         <v>1.87080596447854</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>4.0609339440637102</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>2.0707939330591598</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>3.8764715799860401</v>
       </c>
-      <c r="M6" s="60">
+      <c r="M6" s="59">
         <f t="shared" ref="M6:M14" si="3">AVERAGE(I6:L6)</f>
         <v>2.9697513553968622</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="31"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="30"/>
     </row>
     <row r="7" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" s="78"/>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23">
+      <c r="D7" s="22"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="22">
         <v>2.7370637825341202</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>4.5986247721409299</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>2.5040706574257001</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <v>5.8113440561706202</v>
       </c>
-      <c r="M7" s="61">
+      <c r="M7" s="60">
         <f t="shared" si="3"/>
         <v>3.9127758170678426</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="31"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="30"/>
     </row>
     <row r="8" spans="2:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="B8" s="79"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="19">
+      <c r="D8" s="18"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="18">
         <v>0.91724718224982205</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="10">
         <v>0.869856961774365</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>0.87542685064708403</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>0.93756979228410697</v>
       </c>
-      <c r="M8" s="62">
+      <c r="M8" s="61">
         <f t="shared" si="3"/>
         <v>0.90002519673884451</v>
       </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="31"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="30"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>1.5074936151504501</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>2.5636694431304901</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>2.5505278110504199</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>5.4043288230895996</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <f t="shared" si="0"/>
         <v>3.0065049231052399</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <v>2.4770045280456499</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>2.45786380767822</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>2.12629270553589</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>5.0992717742919904</v>
       </c>
-      <c r="M9" s="60">
+      <c r="M9" s="59">
         <f t="shared" si="3"/>
         <v>3.0401082038879377</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="14">
         <v>2.4683794975280802</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="3">
         <v>3.3064715862274201</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="3">
         <v>3.9645948410034202</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="3">
         <v>5.0529875755310103</v>
       </c>
-      <c r="R9" s="29">
+      <c r="R9" s="28">
         <f t="shared" ref="R9:R14" si="4">AVERAGE(N9:Q9)</f>
         <v>3.6981083750724828</v>
       </c>
-      <c r="S9" s="30">
+      <c r="S9" s="29">
         <f t="shared" ref="S9:S14" si="5">AVERAGE(R9,M9,H9)</f>
         <v>3.2482405006885533</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10" s="78"/>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <v>2.3063547611236599</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>3.9213612079620401</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>3.8611137866973899</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>10.472530364990201</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="23">
         <f t="shared" si="0"/>
         <v>5.1403400301933226</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>3.9480929374694802</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>3.88890409469604</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="6">
         <v>2.7959105968475302</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <v>10.1773061752319</v>
       </c>
-      <c r="M10" s="61">
+      <c r="M10" s="60">
         <f t="shared" si="3"/>
         <v>5.2025534510612381</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="16">
         <v>4.1546812057495099</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="6">
         <v>5.1696925163268999</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="6">
         <v>6.0678725242614702</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="6">
         <v>10.1069078445435</v>
       </c>
-      <c r="R10" s="26">
+      <c r="R10" s="25">
         <f t="shared" si="4"/>
         <v>6.3747885227203449</v>
       </c>
-      <c r="S10" s="31">
+      <c r="S10" s="30">
         <f t="shared" si="5"/>
         <v>5.5725606679916346</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11" s="79"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="26">
         <v>0.93779419882444803</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>0.819855175281336</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>0.68736206371178499</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>0.92471716243579105</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="24">
         <f t="shared" si="0"/>
         <v>0.84243215006334005</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="18">
         <v>0.90079660924073202</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="10">
         <v>0.87801778441290101</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="10">
         <v>0.83426951267614802</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="10">
         <v>0.89986450953195596</v>
       </c>
-      <c r="M11" s="62">
+      <c r="M11" s="61">
         <f t="shared" si="3"/>
         <v>0.8782371039654342</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11" s="18">
         <v>0.80390128703358199</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="10">
         <v>0.85597071067498598</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="10">
         <v>0.64890504349878997</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="10">
         <v>0.84175833197634597</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="19">
         <f t="shared" si="4"/>
         <v>0.78763384329592601</v>
       </c>
-      <c r="S11" s="31">
+      <c r="S11" s="30">
         <f t="shared" si="5"/>
         <v>0.83610103244156664</v>
       </c>
@@ -4578,174 +4576,174 @@
       <c r="B12" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>2.2342843541831998</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>3.7327993722275399</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>2.7736182523086801</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>3.9417979415889999</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="21">
         <f t="shared" si="0"/>
         <v>3.1706249800771049</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="14">
         <v>3.1352093691149299</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>2.4399948410449301</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>3.69390116022148</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>4.9369132120285499</v>
       </c>
-      <c r="M12" s="60">
+      <c r="M12" s="59">
         <f t="shared" si="3"/>
         <v>3.5515046456024724</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="14">
         <v>3.8929097211528201</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="4">
         <v>2.3631493338524101</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <v>2.3799262087836102</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="3">
         <v>5.4727374462481997</v>
       </c>
-      <c r="R12" s="16">
+      <c r="R12" s="15">
         <f t="shared" si="4"/>
         <v>3.5271806775092598</v>
       </c>
-      <c r="S12" s="31">
+      <c r="S12" s="30">
         <f t="shared" si="5"/>
         <v>3.4164367677296124</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B13" s="78"/>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>3.6865908130193499</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>4.9079523081981398</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>3.2750548249506601</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>7.0322687289940697</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="17">
         <f t="shared" si="0"/>
         <v>4.7254666687905544</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <v>4.6189800418171796</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>3.6074576252202202</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>4.3137126977993203</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <v>9.0892070968884102</v>
       </c>
-      <c r="M13" s="61">
+      <c r="M13" s="60">
         <f t="shared" si="3"/>
         <v>5.407339365431282</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="16">
         <v>4.6885878337364204</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="7">
         <v>3.4152036619106001</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="7">
         <v>3.4667221308727498</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="7">
         <v>8.8031896063792008</v>
       </c>
-      <c r="R13" s="26">
+      <c r="R13" s="25">
         <f t="shared" si="4"/>
         <v>5.0934258082247421</v>
       </c>
-      <c r="S13" s="31">
+      <c r="S13" s="30">
         <f t="shared" si="5"/>
         <v>5.0754106141488595</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14" s="79"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>0.84882376053956199</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>0.83407704247781</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>0.84945747189018705</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>0.88973826560934099</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="24">
         <f t="shared" si="0"/>
         <v>0.85552413512922509</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="18">
         <v>0.87613419051441699</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>0.89727929595409295</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="10">
         <v>0.90423473711684899</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="10">
         <v>0.96213563093856302</v>
       </c>
-      <c r="M14" s="62">
+      <c r="M14" s="61">
         <f t="shared" si="3"/>
         <v>0.90994596363098057</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N14" s="18">
         <v>0.82892458212153897</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="9">
         <v>0.86784599075652802</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="10">
         <v>0.77323543639765602</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="10">
         <v>0.83897762350197003</v>
       </c>
-      <c r="R14" s="28">
+      <c r="R14" s="27">
         <f t="shared" si="4"/>
         <v>0.82724590819442323</v>
       </c>
-      <c r="S14" s="31">
+      <c r="S14" s="30">
         <f t="shared" si="5"/>
         <v>0.86423866898487633</v>
       </c>
@@ -4770,864 +4768,864 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F65057-F8D9-5340-9C4E-E5CBE3EA5B75}">
   <dimension ref="B1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView zoomScale="118" workbookViewId="0">
+      <selection activeCell="J10" sqref="J4:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="13" width="7.83203125" customWidth="1"/>
-    <col min="14" max="14" width="7.83203125" style="73" customWidth="1"/>
+    <col min="14" max="14" width="7.83203125" style="72" customWidth="1"/>
     <col min="15" max="20" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="63"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="62"/>
     </row>
     <row r="2" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="48"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="47"/>
+      <c r="E2" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="84" t="s">
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="84" t="s">
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="87" t="s">
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="83" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="48"/>
-      <c r="E3" s="13" t="s">
+      <c r="B3" s="47"/>
+      <c r="E3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="64" t="s">
+      <c r="N3" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="87"/>
+      <c r="T3" s="83"/>
     </row>
     <row r="4" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>1.3100742774973</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>1.2030422905795799</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <v>1.4245660967290801</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="3">
         <v>2.9318551487560298</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <f>AVERAGE(E4:H4)</f>
         <v>1.7173844533904976</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="14">
         <v>1.7300874001979101</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>1.7342749630129299</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>2.09708348518671</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <v>3.8174018183023102</v>
       </c>
-      <c r="N4" s="65">
+      <c r="N4" s="64">
         <f>AVERAGE(J4:M4)</f>
         <v>2.344711916674965</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="14">
         <v>2.39589055360873</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>2.41522307562377</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>3.0017751661871501</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="4">
         <v>5.0132207076229998</v>
       </c>
-      <c r="S4" s="29">
+      <c r="S4" s="28">
         <f>AVERAGE(O4:R4)</f>
         <v>3.206527375760662</v>
       </c>
-      <c r="T4" s="50">
+      <c r="T4" s="49">
         <f t="shared" ref="T4:T11" si="0">AVERAGE(S4,N4,I4)</f>
         <v>2.4228745819420414</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="82"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="33" t="s">
+      <c r="B5" s="88"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>2.1872034520766102</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>1.8439640396892401</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>1.9678060263089301</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>5.3075219676523497</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="17">
         <f t="shared" ref="I5:I12" si="1">AVERAGE(E5:H5)</f>
         <v>2.8266238714317824</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <v>2.7442336443931801</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>2.83916625490291</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <v>2.88139769782586</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>6.6739345871975901</v>
       </c>
-      <c r="N5" s="66">
+      <c r="N5" s="65">
         <f t="shared" ref="N5:N16" si="2">AVERAGE(J5:M5)</f>
         <v>3.784683046079885</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O5" s="16">
         <v>4.3671321290137701</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="6">
         <v>3.9514385040378599</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="6">
         <v>4.64813740138118</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="7">
         <v>9.0295787549361997</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="25">
         <f t="shared" ref="S5:S12" si="3">AVERAGE(O5:R5)</f>
         <v>5.4990716973422522</v>
       </c>
-      <c r="T5" s="37">
+      <c r="T5" s="36">
         <f t="shared" si="0"/>
         <v>4.0367928716179726</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="82"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="35" t="s">
+      <c r="B6" s="88"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="26">
         <v>0.95392115472583705</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>0.96594469434404595</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>0.94937663650700199</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>0.98313147306495496</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="27">
         <f t="shared" si="1"/>
         <v>0.96309348966046004</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="18">
         <v>0.899365166579703</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>0.915706329640396</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <v>0.89387289085965904</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="10">
         <v>0.89387289085965904</v>
       </c>
-      <c r="N6" s="67">
+      <c r="N6" s="66">
         <f t="shared" si="2"/>
         <v>0.90070431948485419</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O6" s="18">
         <v>0.77516337088452802</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>0.85664846077151502</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="10">
         <v>0.72830612561988195</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="9">
         <v>0.92899458632353604</v>
       </c>
-      <c r="S6" s="20">
+      <c r="S6" s="19">
         <f t="shared" si="3"/>
         <v>0.8222781358998652</v>
       </c>
-      <c r="T6" s="40">
+      <c r="T6" s="39">
         <f t="shared" si="0"/>
         <v>0.89535864834839307</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="82"/>
-      <c r="C7" s="80" t="s">
+      <c r="B7" s="88"/>
+      <c r="C7" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>1.1421509591133401</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>1.44421326023132</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>3.1233957203399201</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>2.4826827559367701</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="28">
         <f t="shared" si="1"/>
         <v>2.0481106739053376</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="20">
         <v>1.57401887600275</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>2.1588445071356901</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>1.8187007875132799</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="3">
         <v>3.9885256813269501</v>
       </c>
-      <c r="N7" s="68">
+      <c r="N7" s="67">
         <f t="shared" si="2"/>
         <v>2.3850224629946677</v>
       </c>
-      <c r="O7" s="21">
+      <c r="O7" s="20">
         <v>1.7248034367059599</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="4">
         <v>2.2087949951993799</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>2.87894484615035</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <v>5.1789605604436302</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="15">
         <f t="shared" si="3"/>
         <v>2.9978759596248299</v>
       </c>
-      <c r="T7" s="51">
+      <c r="T7" s="50">
         <f t="shared" si="0"/>
         <v>2.4770030321749452</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="82"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="33" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <v>1.8922362586156301</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>2.3138469329932798</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>4.0183710496406899</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>4.2830303324943904</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="25">
         <f t="shared" si="1"/>
         <v>3.1268711434359977</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="22">
         <v>2.1685363209735899</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="6">
         <v>2.9410000415839801</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>2.5972998013974302</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="6">
         <v>7.1204901400938203</v>
       </c>
-      <c r="N8" s="69">
+      <c r="N8" s="68">
         <f t="shared" si="2"/>
         <v>3.7068315760122053</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="22">
         <v>2.9546475677581099</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <v>3.7351413787868202</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="6">
         <v>4.4779669434357903</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="6">
         <v>9.3227399723305506</v>
       </c>
-      <c r="S8" s="18">
+      <c r="S8" s="17">
         <f t="shared" si="3"/>
         <v>5.1226239655778176</v>
       </c>
-      <c r="T8" s="51">
+      <c r="T8" s="50">
         <f t="shared" si="0"/>
         <v>3.985442228342007</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="82"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="35" t="s">
+      <c r="B9" s="88"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <v>0.95129039093960399</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>0.95774929814817</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>0.94834174616636402</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>0.98388930571576805</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <f t="shared" si="1"/>
         <v>0.9603176852424764</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="26">
         <v>0.94417397582945595</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>0.89706160725887596</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <v>0.88527606764954203</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="9">
         <v>0.96553763117116298</v>
       </c>
-      <c r="N9" s="70">
+      <c r="N9" s="69">
         <f t="shared" si="2"/>
         <v>0.92301232047725934</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="26">
         <v>0.88304202815584198</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="9">
         <v>0.83681898447624903</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="10">
         <v>0.70566649502754697</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="9">
         <v>0.92865615628656595</v>
       </c>
-      <c r="S9" s="28">
+      <c r="S9" s="27">
         <f t="shared" si="3"/>
         <v>0.83854591598655104</v>
       </c>
-      <c r="T9" s="52">
+      <c r="T9" s="51">
         <f t="shared" si="0"/>
         <v>0.90729197390209559</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="82"/>
-      <c r="C10" s="80" t="s">
+      <c r="B10" s="88"/>
+      <c r="C10" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>1.9421848058700599</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>1.75653612613678</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>1.924476146698</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>4.9520492553710902</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="28">
         <f t="shared" si="1"/>
         <v>2.6438115835189828</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="14">
         <v>2.7367403507232702</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>2.4038953781127899</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>1.9256944656372099</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>4.9135642051696804</v>
       </c>
-      <c r="N10" s="68">
+      <c r="N10" s="67">
         <f t="shared" si="2"/>
         <v>2.9949735999107374</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="14">
         <v>2.47538495063782</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <v>4.1530623435974103</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="4">
         <v>2.2520513534545898</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="3">
         <v>5.3289675712585396</v>
       </c>
-      <c r="S10" s="29">
+      <c r="S10" s="28">
         <f t="shared" si="3"/>
         <v>3.5523665547370897</v>
       </c>
-      <c r="T10" s="51">
+      <c r="T10" s="50">
         <f t="shared" si="0"/>
         <v>3.063717246055603</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="82"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="33" t="s">
+      <c r="B11" s="88"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>3.5339386463165301</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>2.6848938465118399</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>3.4798402786254901</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>10.397066116333001</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="25">
         <f t="shared" si="1"/>
         <v>5.0239347219467154</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="16">
         <v>4.4410023689270002</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>3.7191207408904998</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>3.49504470825195</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="6">
         <v>10.0702199935913</v>
       </c>
-      <c r="N11" s="69">
+      <c r="N11" s="68">
         <f t="shared" si="2"/>
         <v>5.4313469529151872</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O11" s="16">
         <v>4.3364553451538104</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="6">
         <v>6.2726669311523402</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="7">
         <v>3.3307702541351301</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="6">
         <v>10.1623620986938</v>
       </c>
-      <c r="S11" s="26">
+      <c r="S11" s="25">
         <f t="shared" si="3"/>
         <v>6.0255636572837705</v>
       </c>
-      <c r="T11" s="51">
+      <c r="T11" s="50">
         <f t="shared" si="0"/>
         <v>5.4936151107152247</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="82"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="34" t="s">
+      <c r="B12" s="88"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="44">
         <v>0.863253834343091</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="42">
         <v>0.92128683887904905</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="42">
         <v>0.84864826532541504</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="42">
         <v>0.869668746215564</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="43">
         <f t="shared" si="1"/>
         <v>0.87571442119077969</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="44">
         <v>0.86891121213804501</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="42">
         <v>0.83869524258029604</v>
       </c>
-      <c r="L12" s="43">
+      <c r="L12" s="42">
         <v>0.84202874087091795</v>
       </c>
-      <c r="M12" s="43">
+      <c r="M12" s="42">
         <v>0.89094506505740301</v>
       </c>
-      <c r="N12" s="71">
+      <c r="N12" s="70">
         <f t="shared" si="2"/>
         <v>0.86014506516166545</v>
       </c>
-      <c r="O12" s="45">
+      <c r="O12" s="44">
         <v>0.80345273636349901</v>
       </c>
-      <c r="P12" s="43">
+      <c r="P12" s="42">
         <v>0.67541573032221403</v>
       </c>
-      <c r="Q12" s="46">
+      <c r="Q12" s="45">
         <v>0.76623517179102696</v>
       </c>
-      <c r="R12" s="43">
+      <c r="R12" s="42">
         <v>0.91149795195915995</v>
       </c>
-      <c r="S12" s="44">
+      <c r="S12" s="43">
         <f t="shared" si="3"/>
         <v>0.7891503976089751</v>
       </c>
-      <c r="T12" s="53">
+      <c r="T12" s="52">
         <f>AVERAGE(S12,N12,I12)</f>
         <v>0.84166996132047345</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="21">
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="20">
         <v>1.68553034493036</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>1.5020625826862199</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>1.85347392895776</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <v>3.53088879060993</v>
       </c>
-      <c r="N14" s="65">
+      <c r="N14" s="64">
         <f t="shared" si="2"/>
         <v>2.1429889117960674</v>
       </c>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="17">
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="16">
         <v>2.89145108940507</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="7">
         <v>2.41428861776037</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <v>2.8916910345628999</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="6">
         <v>7.0112605606291396</v>
       </c>
-      <c r="N15" s="69">
+      <c r="N15" s="68">
         <f t="shared" si="2"/>
         <v>3.8021728255893699</v>
       </c>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
     </row>
     <row r="16" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="27">
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="26">
         <v>0.91113849598193597</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="9">
         <v>0.94647925984624404</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="9">
         <v>0.92030712483090504</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="9">
         <v>0.96357185661028399</v>
       </c>
-      <c r="N16" s="89">
+      <c r="N16" s="73">
         <f t="shared" si="2"/>
         <v>0.93537418431734221</v>
       </c>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
     </row>
     <row r="17" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
     </row>
     <row r="18" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54" t="s">
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="54"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
     </row>
     <row r="19" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
     </row>
     <row r="20" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54" t="s">
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="M20" s="54"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
     </row>
     <row r="21" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="L21" s="54" t="s">
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="L21" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="M21" s="54"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
     </row>
     <row r="22" spans="5:20" x14ac:dyDescent="0.2">
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5648,8 +5646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9877B6-3CD4-0D40-B3E5-10B6D8BC7D6D}">
   <dimension ref="B1:S12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:S12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5660,599 +5658,599 @@
   <sheetData>
     <row r="1" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="84" t="s">
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="84" t="s">
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="87" t="s">
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="83" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="87"/>
+      <c r="S3" s="83"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>2.0899544617147199</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>1.6783649633504201</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>6.06843660680744</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>3.36981557305629</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="28">
         <f>AVERAGE(D4:G4)</f>
         <v>3.3016429012322175</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="14">
         <v>2.27412852691173</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>2.4704034178611498</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>2.7066106318513001</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
         <v>4.35236288204944</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="28">
         <f>AVERAGE(I4:L4)</f>
         <v>2.9508763646684049</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="14">
         <v>2.4495279159938099</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <v>2.7015869004718498</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>2.8913959571786698</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="4">
         <v>5.9394268326783601</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="15">
         <f>AVERAGE(N4:Q4)</f>
         <v>3.4954844015806721</v>
       </c>
-      <c r="S4" s="36">
+      <c r="S4" s="35">
         <f t="shared" ref="S4:S11" si="0">AVERAGE(R4,M4,H4)</f>
         <v>3.2493345558270978</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="80"/>
-      <c r="C5" s="33" t="s">
+      <c r="B5" s="85"/>
+      <c r="C5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>2.7284758836533598</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>2.5525419983373299</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>7.8781587379970697</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>6.1934178193673102</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <f t="shared" ref="H5:H12" si="1">AVERAGE(D5:G5)</f>
         <v>4.8381486098387674</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>3.49749665585141</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>3.3663510939819101</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>3.4889506872101501</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <v>7.0763448503546096</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="25">
         <f t="shared" ref="M5:M12" si="2">AVERAGE(I5:L5)</f>
         <v>4.3572858218495201</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="16">
         <v>3.3256675064777301</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <v>3.85795902891486</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="6">
         <v>3.9998557682365101</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <v>10.725709329029099</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="17">
         <f t="shared" ref="R5:R12" si="3">AVERAGE(N5:Q5)</f>
         <v>5.4772979081645499</v>
       </c>
-      <c r="S5" s="37">
+      <c r="S5" s="36">
         <f t="shared" si="0"/>
         <v>4.8909107799509464</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="83"/>
-      <c r="C6" s="35" t="s">
+      <c r="B6" s="86"/>
+      <c r="C6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>0.949315933481924</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>0.96345581631644595</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="10">
+      <c r="F6" s="10"/>
+      <c r="G6" s="9">
         <v>0.98137593342329499</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H6" s="27">
         <f t="shared" si="1"/>
         <v>0.96471589440722161</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="18">
         <v>0.92069104615386499</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>0.91381874875700597</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>0.86689517055452503</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>0.94352904192007003</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="27">
         <f t="shared" si="2"/>
         <v>0.91123350184636653</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="18">
         <v>0.85495617549254399</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="9">
         <v>0.87973578951937403</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <v>0.74492284235491502</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="10">
         <v>0.84405918827187798</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6" s="19">
         <f t="shared" si="3"/>
         <v>0.83091849890967784</v>
       </c>
-      <c r="S6" s="40">
+      <c r="S6" s="39">
         <f t="shared" si="0"/>
         <v>0.9022892983877554</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>7.9404439699041101</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>2.3099790928272199</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>2.6587617614594499</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>3.27845823636767</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="28">
         <f t="shared" si="1"/>
         <v>4.0469107651396126</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="20">
         <v>1.77612913182787</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>3.3521560934270598</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>2.2521839701919499</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>3.2594796230593799</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="15">
         <f t="shared" si="2"/>
         <v>2.6599872046265647</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="20">
         <v>2.0968853300435999</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>4.3473641684001398</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <v>2.4614511704456699</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>6.3854905092730903</v>
       </c>
-      <c r="R7" s="29">
+      <c r="R7" s="28">
         <f t="shared" si="3"/>
         <v>3.8227977945406248</v>
       </c>
-      <c r="S7" s="38">
+      <c r="S7" s="37">
         <f t="shared" si="0"/>
         <v>3.5098985881022671</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="80"/>
-      <c r="C8" s="33" t="s">
+      <c r="B8" s="85"/>
+      <c r="C8" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>10.025978476733499</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>3.3880370279168601</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>3.41888828042427</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>5.3254648797708404</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="25">
         <f t="shared" si="1"/>
         <v>5.5395921662113681</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <v>2.5958159709152602</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>5.0966569633196901</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>3.1445199449621999</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>4.5356432643851399</v>
       </c>
-      <c r="M8" s="18">
+      <c r="M8" s="17">
         <f t="shared" si="2"/>
         <v>3.8431590358955727</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="22">
         <v>3.0660923187743201</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="6">
         <v>6.4636133051062501</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <v>3.2009331214878198</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="6">
         <v>11.461019830575999</v>
       </c>
-      <c r="R8" s="26">
+      <c r="R8" s="25">
         <f t="shared" si="3"/>
         <v>6.0479146439860969</v>
       </c>
-      <c r="S8" s="38">
+      <c r="S8" s="37">
         <f t="shared" si="0"/>
         <v>5.1435552820310129</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="83"/>
-      <c r="C9" s="35" t="s">
+      <c r="B9" s="86"/>
+      <c r="C9" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="11">
+      <c r="D9" s="18"/>
+      <c r="E9" s="10">
         <v>0.921614391281808</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>0.91523353316758205</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>0.94450588597841501</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <f t="shared" si="1"/>
         <v>0.92711793680926835</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="26">
         <v>0.94343316482097905</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>0.90903512608384895</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>0.79993368323964598</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <v>0.95098560861129899</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="19">
         <f t="shared" si="2"/>
         <v>0.90084689568894316</v>
       </c>
-      <c r="N9" s="27">
+      <c r="N9" s="26">
         <v>0.87424446908523701</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="10">
         <v>0.77602429612401203</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="9">
         <v>0.81834331473342603</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="10">
         <v>0.90281033031136304</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="19">
         <f t="shared" si="3"/>
         <v>0.84285560256350944</v>
       </c>
-      <c r="S9" s="41">
+      <c r="S9" s="40">
         <f t="shared" si="0"/>
         <v>0.89027347835390691</v>
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>1.55935943126678</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>2.3762998580932599</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>2.7797334194183301</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>4.2935638427734402</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <f t="shared" si="1"/>
         <v>2.7522391378879529</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="14">
         <v>1.92396128177643</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>3.2663054466247599</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>1.99031829833984</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="3">
         <v>5.5808334350585902</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="28">
         <f t="shared" si="2"/>
         <v>3.190354615449905</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="14">
         <v>3.2772839069366499</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <v>3.6916720867157</v>
       </c>
-      <c r="P10" s="5">
+      <c r="P10" s="4">
         <v>2.1531939506530802</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <v>6.1368136405944798</v>
       </c>
-      <c r="R10" s="29">
+      <c r="R10" s="28">
         <f t="shared" si="3"/>
         <v>3.8147408962249774</v>
       </c>
-      <c r="S10" s="37">
+      <c r="S10" s="36">
         <f t="shared" si="0"/>
         <v>3.252444883187612</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="80"/>
-      <c r="C11" s="33" t="s">
+      <c r="B11" s="85"/>
+      <c r="C11" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <v>2.3338332176208501</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>3.6025302410125701</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>4.1823539733886701</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>9.6586608886718803</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="25">
         <f t="shared" si="1"/>
         <v>4.9443445801734924</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>3.1200985908508301</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>4.7773118019104004</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>3.1886281967163099</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>10.4426460266113</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="25">
         <f t="shared" si="2"/>
         <v>5.3821711540222097</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="16">
         <v>5.2892155647277797</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="6">
         <v>5.7486166954040501</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="6">
         <v>3.2819690704345699</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="6">
         <v>12.060351371765099</v>
       </c>
-      <c r="R11" s="26">
+      <c r="R11" s="25">
         <f t="shared" si="3"/>
         <v>6.5950381755828751</v>
       </c>
-      <c r="S11" s="38">
+      <c r="S11" s="37">
         <f t="shared" si="0"/>
         <v>5.6405179699261927</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="81"/>
-      <c r="C12" s="34" t="s">
+      <c r="B12" s="87"/>
+      <c r="C12" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="41">
         <v>0.94939639734185199</v>
       </c>
-      <c r="E12" s="43">
+      <c r="E12" s="42">
         <v>0.93010780230136503</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="42">
         <v>0.82490594776728798</v>
       </c>
-      <c r="G12" s="43">
+      <c r="G12" s="42">
         <v>0.90903514383611905</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="43">
         <f t="shared" si="1"/>
         <v>0.90336132281165593</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="44">
         <v>0.93270427660932498</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="45">
         <v>0.91981403979264997</v>
       </c>
-      <c r="K12" s="43">
+      <c r="K12" s="42">
         <v>0.84534874985251296</v>
       </c>
-      <c r="L12" s="43">
+      <c r="L12" s="42">
         <v>0.86416016005563601</v>
       </c>
-      <c r="M12" s="44">
+      <c r="M12" s="43">
         <f t="shared" si="2"/>
         <v>0.8905068065775309</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="44">
         <v>0.81497967272402805</v>
       </c>
-      <c r="O12" s="43">
+      <c r="O12" s="42">
         <v>0.83222925096673495</v>
       </c>
-      <c r="P12" s="43">
+      <c r="P12" s="42">
         <v>0.79364436050458997</v>
       </c>
-      <c r="Q12" s="46">
+      <c r="Q12" s="45">
         <v>0.94119617190916005</v>
       </c>
-      <c r="R12" s="47">
+      <c r="R12" s="46">
         <f t="shared" si="3"/>
         <v>0.84551236402612828</v>
       </c>
-      <c r="S12" s="39">
+      <c r="S12" s="38">
         <f>AVERAGE(R12,M12,H12)</f>
         <v>0.87979349780510496</v>
       </c>
@@ -6269,76 +6267,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E61E8695-D1EC-E743-BF15-9B94E85F1AAF}">
-  <dimension ref="A2:A18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Logging/Tools/Results_Summary.xlsx
+++ b/Logging/Tools/Results_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/github/Forecasting/Logging/Tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA76978-713B-A941-9CB7-5374F3182897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A4B212-F02F-064B-B83D-B828D55EF0EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="2" xr2:uid="{D6C4A1CF-C8B6-1A42-B202-9397802E1C24}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{D6C4A1CF-C8B6-1A42-B202-9397802E1C24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="24">
   <si>
     <t>2014/15</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Add normal distribition centred to 0 for weights</t>
+  </si>
+  <si>
+    <t>Simple</t>
   </si>
 </sst>
 </file>
@@ -4768,8 +4771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F65057-F8D9-5340-9C4E-E5CBE3EA5B75}">
   <dimension ref="B1:T22"/>
   <sheetViews>
-    <sheetView zoomScale="118" workbookViewId="0">
-      <selection activeCell="J10" sqref="J4:J10"/>
+    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5644,10 +5647,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9877B6-3CD4-0D40-B3E5-10B6D8BC7D6D}">
-  <dimension ref="B1:S12"/>
+  <dimension ref="B1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6255,8 +6258,110 @@
         <v>0.87979349780510496</v>
       </c>
     </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="20">
+        <v>1.5810997694811399</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2.36680185198251</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1.7301327569696501</v>
+      </c>
+      <c r="L13" s="3">
+        <v>3.2870444161661099</v>
+      </c>
+      <c r="M13" s="15">
+        <f>AVERAGE(I13:L13)</f>
+        <v>2.2412696986498526</v>
+      </c>
+      <c r="N13" s="14"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="36"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="85"/>
+      <c r="C14" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="22">
+        <v>2.3552181600297399</v>
+      </c>
+      <c r="J14" s="6">
+        <v>3.4294526914944399</v>
+      </c>
+      <c r="K14" s="7">
+        <v>2.1718406351287101</v>
+      </c>
+      <c r="L14" s="6">
+        <v>5.7877241048657098</v>
+      </c>
+      <c r="M14" s="17">
+        <f>AVERAGE(I14:L14)</f>
+        <v>3.4360588978796498</v>
+      </c>
+      <c r="N14" s="16"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="37"/>
+    </row>
+    <row r="15" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="87"/>
+      <c r="C15" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="41">
+        <v>0.94548338937612297</v>
+      </c>
+      <c r="J15" s="42">
+        <v>0.90537521786099895</v>
+      </c>
+      <c r="K15" s="45">
+        <v>0.93190755803998204</v>
+      </c>
+      <c r="L15" s="42">
+        <v>0.97299488614048102</v>
+      </c>
+      <c r="M15" s="46">
+        <f>AVERAGE(I15:L15)</f>
+        <v>0.93894026285439625</v>
+      </c>
+      <c r="N15" s="44"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="38"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B13:B15"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B9"/>

--- a/Logging/Tools/Results_Summary.xlsx
+++ b/Logging/Tools/Results_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/github/Forecasting/Logging/Tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95938193-94B3-9B42-B354-BDDEABDA7125}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F1125F-A4C5-B947-AE57-8897464E5B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="1" xr2:uid="{D6C4A1CF-C8B6-1A42-B202-9397802E1C24}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="21 days ahead" sheetId="8" r:id="rId5"/>
     <sheet name="Sheet8" sheetId="9" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'7 days ahead'!$A$1:$A$168</definedName>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="216">
   <si>
     <t>2014/15</t>
   </si>
@@ -643,7 +644,64 @@
     <t>L2</t>
   </si>
   <si>
-    <t>Linear Model</t>
+    <t xml:space="preserve">       2014/15   2015/16   2016/17   2017/18</t>
+  </si>
+  <si>
+    <t>MAE   2.468308  2.828279  2.265657  4.558439</t>
+  </si>
+  <si>
+    <t>RMSE  3.466635  4.261461  2.516351  7.939226</t>
+  </si>
+  <si>
+    <t>R     0.890365  0.884323  0.921866  0.932082</t>
+  </si>
+  <si>
+    <t>MAE   2.130460  2.561616  1.957223  4.024063</t>
+  </si>
+  <si>
+    <t>RMSE  3.099165  3.890308  2.258708  7.081781</t>
+  </si>
+  <si>
+    <t>R     0.911425  0.902559  0.934714  0.951486</t>
+  </si>
+  <si>
+    <t>MAE   1.944453  2.539376  1.511990  3.859262</t>
+  </si>
+  <si>
+    <t>RMSE  2.913664  3.877701  1.881698  6.951963</t>
+  </si>
+  <si>
+    <t>R     0.923776  0.903760  0.936009  0.963670</t>
+  </si>
+  <si>
+    <t>MAE   1.864277  2.470596  1.674932  3.684210</t>
+  </si>
+  <si>
+    <t>RMSE  2.780058  3.553078  2.116778  6.484152</t>
+  </si>
+  <si>
+    <t>R     0.930612  0.897311  0.923636  0.966126</t>
+  </si>
+  <si>
+    <t>MAE   1.746733  2.512099  2.291972  3.518402</t>
+  </si>
+  <si>
+    <t>RMSE  2.524580  3.611614  2.899164  5.975032</t>
+  </si>
+  <si>
+    <t>R     0.932164  0.891316  0.912073  0.963703</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>linear, no early stopping</t>
+  </si>
+  <si>
+    <t>Linear Model US</t>
+  </si>
+  <si>
+    <t>Linear Model ENG</t>
   </si>
 </sst>
 </file>
@@ -960,7 +1018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1084,36 +1142,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1126,19 +1154,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -23175,10 +23249,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F65057-F8D9-5340-9C4E-E5CBE3EA5B75}">
-  <dimension ref="B1:BW84"/>
+  <dimension ref="B1:BW83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:T15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23226,7 +23300,7 @@
       <c r="Q2" s="109"/>
       <c r="R2" s="109"/>
       <c r="S2" s="110"/>
-      <c r="T2" s="107" t="s">
+      <c r="T2" s="111" t="s">
         <v>11</v>
       </c>
     </row>
@@ -23277,13 +23351,13 @@
       <c r="S3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="107"/>
+      <c r="T3" s="111"/>
     </row>
     <row r="4" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="112" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="31" t="s">
@@ -23343,8 +23417,8 @@
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="115"/>
-      <c r="C5" s="117"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="105"/>
       <c r="D5" s="32" t="s">
         <v>2</v>
       </c>
@@ -23402,8 +23476,8 @@
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="115"/>
-      <c r="C6" s="118"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="34" t="s">
         <v>3</v>
       </c>
@@ -23461,8 +23535,8 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="115"/>
-      <c r="C7" s="117" t="s">
+      <c r="B7" s="107"/>
+      <c r="C7" s="105" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -23522,8 +23596,8 @@
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="115"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="32" t="s">
         <v>2</v>
       </c>
@@ -23581,8 +23655,8 @@
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="115"/>
-      <c r="C9" s="118"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="34" t="s">
         <v>3</v>
       </c>
@@ -23640,8 +23714,8 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="115"/>
-      <c r="C10" s="117" t="s">
+      <c r="B10" s="107"/>
+      <c r="C10" s="105" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="32" t="s">
@@ -23701,8 +23775,8 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="115"/>
-      <c r="C11" s="117"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="32" t="s">
         <v>2</v>
       </c>
@@ -23760,8 +23834,8 @@
       </c>
     </row>
     <row r="12" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="115"/>
-      <c r="C12" s="119"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="106"/>
       <c r="D12" s="33" t="s">
         <v>3</v>
       </c>
@@ -23819,9 +23893,9 @@
       </c>
     </row>
     <row r="13" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="115"/>
-      <c r="C13" s="117" t="s">
-        <v>196</v>
+      <c r="B13" s="107"/>
+      <c r="C13" s="105" t="s">
+        <v>215</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>1</v>
@@ -23839,7 +23913,7 @@
         <v>2.4567885981249198</v>
       </c>
       <c r="I13" s="58">
-        <f t="shared" ref="I13:I15" si="4">AVERAGE(E13:H13)</f>
+        <f t="shared" ref="I13:I18" si="4">AVERAGE(E13:H13)</f>
         <v>1.9137773656616575</v>
       </c>
       <c r="J13" s="53">
@@ -23875,13 +23949,13 @@
         <v>2.7530669706846824</v>
       </c>
       <c r="T13" s="82">
-        <f t="shared" ref="T13:T14" si="5">AVERAGE(S13,N13,I13)</f>
+        <f t="shared" ref="T13:T17" si="5">AVERAGE(S13,N13,I13)</f>
         <v>2.3027046783320642</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="115"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="105"/>
       <c r="D14" s="32" t="s">
         <v>2</v>
       </c>
@@ -23939,8 +24013,8 @@
       </c>
     </row>
     <row r="15" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="115"/>
-      <c r="C15" s="119"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="106"/>
       <c r="D15" s="33" t="s">
         <v>3</v>
       </c>
@@ -23998,58 +24072,180 @@
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
+      <c r="C16" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="120">
+        <v>0.41706770277815802</v>
+      </c>
+      <c r="F16" s="121">
+        <v>0.28845537866890902</v>
+      </c>
+      <c r="G16" s="121">
+        <v>0.45502722662759798</v>
+      </c>
+      <c r="H16" s="121">
+        <v>0.44319734810986899</v>
+      </c>
+      <c r="I16" s="122">
+        <f t="shared" si="4"/>
+        <v>0.40093691404613352</v>
+      </c>
+      <c r="J16" s="120">
+        <v>0.59753518712290599</v>
+      </c>
+      <c r="K16" s="121">
+        <v>0.26991678875075797</v>
+      </c>
+      <c r="L16" s="121">
+        <v>0.28298132485336802</v>
+      </c>
+      <c r="M16" s="121">
+        <v>1.29761573348202</v>
+      </c>
+      <c r="N16" s="122">
+        <f t="shared" ref="N16:N18" si="6">AVERAGE(J16:M16)</f>
+        <v>0.61201225855226293</v>
+      </c>
+      <c r="O16" s="120">
+        <v>0.46540207240376202</v>
+      </c>
+      <c r="P16" s="121">
+        <v>0.32247898103150602</v>
+      </c>
+      <c r="Q16" s="121">
+        <v>0.32183580165577003</v>
+      </c>
+      <c r="R16" s="121">
+        <v>1.4469678143754701</v>
+      </c>
+      <c r="S16" s="122">
+        <f t="shared" ref="S16:S18" si="7">AVERAGE(O16:R16)</f>
+        <v>0.63917116736662705</v>
+      </c>
+      <c r="T16" s="59">
+        <f t="shared" si="5"/>
+        <v>0.55070677998834128</v>
+      </c>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="123">
+        <v>0.64681865064097299</v>
+      </c>
+      <c r="F17" s="124">
+        <v>0.33521921960816597</v>
+      </c>
+      <c r="G17" s="124">
+        <v>0.53904331468254296</v>
+      </c>
+      <c r="H17" s="124">
+        <v>0.64644929268219098</v>
+      </c>
+      <c r="I17" s="65">
+        <f t="shared" si="4"/>
+        <v>0.54188261940346827</v>
+      </c>
+      <c r="J17" s="123">
+        <v>0.92226615665213596</v>
+      </c>
+      <c r="K17" s="124">
+        <v>0.42815557658488002</v>
+      </c>
+      <c r="L17" s="124">
+        <v>0.40203017711716299</v>
+      </c>
+      <c r="M17" s="124">
+        <v>2.0735262091425501</v>
+      </c>
+      <c r="N17" s="65">
+        <f t="shared" si="6"/>
+        <v>0.95649452987418226</v>
+      </c>
+      <c r="O17" s="123">
+        <v>0.79760083269822502</v>
+      </c>
+      <c r="P17" s="124">
+        <v>0.420823702510222</v>
+      </c>
+      <c r="Q17" s="124">
+        <v>0.40514019981382798</v>
+      </c>
+      <c r="R17" s="124">
+        <v>2.3560916667061802</v>
+      </c>
+      <c r="S17" s="65">
+        <f t="shared" si="7"/>
+        <v>0.99491410043211381</v>
+      </c>
+      <c r="T17" s="66">
+        <f t="shared" si="5"/>
+        <v>0.83109708323658804</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="106"/>
+      <c r="D18" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="125">
+        <v>0.91358303545084796</v>
+      </c>
+      <c r="F18" s="126">
+        <v>0.92982538767066103</v>
+      </c>
+      <c r="G18" s="126">
+        <v>0.96652149409682897</v>
+      </c>
+      <c r="H18" s="126">
+        <v>0.98390991213604295</v>
+      </c>
+      <c r="I18" s="79">
+        <f t="shared" si="4"/>
+        <v>0.94845995733859523</v>
+      </c>
+      <c r="J18" s="125">
+        <v>0.83752281628119496</v>
+      </c>
+      <c r="K18" s="126">
+        <v>0.88130858228160502</v>
+      </c>
+      <c r="L18" s="126">
+        <v>0.94935756111033698</v>
+      </c>
+      <c r="M18" s="126">
+        <v>0.62489278453021502</v>
+      </c>
+      <c r="N18" s="79">
+        <f t="shared" si="6"/>
+        <v>0.82327043605083794</v>
+      </c>
+      <c r="O18" s="125">
+        <v>0.83867600053653302</v>
+      </c>
+      <c r="P18" s="126">
+        <v>0.84362439499026398</v>
+      </c>
+      <c r="Q18" s="126">
+        <v>0.94760917983973003</v>
+      </c>
+      <c r="R18" s="126">
+        <v>0.51591266080917497</v>
+      </c>
+      <c r="S18" s="79">
+        <f t="shared" si="7"/>
+        <v>0.7864555590439255</v>
+      </c>
+      <c r="T18" s="81">
+        <f>AVERAGE(S18,N18,I18)</f>
+        <v>0.85272865081111959</v>
+      </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="E19" s="40"/>
@@ -24087,9 +24283,32 @@
       <c r="S20" s="40"/>
       <c r="T20" s="40"/>
     </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="J21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N21" s="50" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="102" t="s">
         <v>188</v>
+      </c>
+      <c r="H22" s="102" t="s">
+        <v>188</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>1</v>
       </c>
       <c r="J22" s="14">
         <v>3.0684389613043899</v>
@@ -24104,12 +24323,16 @@
         <v>2.6191495273029299</v>
       </c>
       <c r="N22" s="28">
-        <f t="shared" ref="N22:N27" si="6">AVERAGE(J22:M22)</f>
+        <f t="shared" ref="N22:N34" si="8">AVERAGE(J22:M22)</f>
         <v>2.9606227944049852</v>
       </c>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C23" s="112"/>
+      <c r="C23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="32" t="s">
+        <v>2</v>
+      </c>
       <c r="J23" s="16">
         <v>4.5315281239038097</v>
       </c>
@@ -24123,12 +24346,16 @@
         <v>3.4492949145557099</v>
       </c>
       <c r="N23" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.1639950676011646</v>
       </c>
     </row>
     <row r="24" spans="3:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="114"/>
+      <c r="C24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="J24" s="37">
         <v>0.78345116810206705</v>
       </c>
@@ -24142,13 +24369,19 @@
         <v>0.97279148654771797</v>
       </c>
       <c r="N24" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.81770108286106635</v>
       </c>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C25" s="111" t="s">
+      <c r="C25" s="101" t="s">
         <v>189</v>
+      </c>
+      <c r="H25" s="101" t="s">
+        <v>189</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>1</v>
       </c>
       <c r="J25" s="14">
         <v>1.93744634500599</v>
@@ -24163,12 +24396,16 @@
         <v>3.80299573727669</v>
       </c>
       <c r="N25" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.5761656798678252</v>
       </c>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C26" s="112"/>
+      <c r="C26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="32" t="s">
+        <v>2</v>
+      </c>
       <c r="J26" s="16">
         <v>3.37123492940206</v>
       </c>
@@ -24182,12 +24419,16 @@
         <v>7.60415558258675</v>
       </c>
       <c r="N26" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.4716052392978298</v>
       </c>
     </row>
     <row r="27" spans="3:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="113"/>
+      <c r="C27" s="103"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="33" t="s">
+        <v>3</v>
+      </c>
       <c r="J27" s="37">
         <v>0.89598309654233699</v>
       </c>
@@ -24201,128 +24442,368 @@
         <v>0.94370562956420001</v>
       </c>
       <c r="N27" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.89260318591471466</v>
       </c>
     </row>
-    <row r="36" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="28" spans="3:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="H29" s="101" t="s">
+        <v>213</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="14">
+        <v>1.8732540344065001</v>
+      </c>
+      <c r="K29" s="3">
+        <v>2.4986428268694998</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1.80707318159171</v>
+      </c>
+      <c r="M29" s="3">
+        <v>3.61181144055797</v>
+      </c>
+      <c r="N29" s="28">
+        <f t="shared" si="8"/>
+        <v>2.4476953708564197</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="H30" s="102"/>
+      <c r="I30" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="16">
+        <v>2.7819998455258799</v>
+      </c>
+      <c r="K30" s="6">
+        <v>3.6211088836191001</v>
+      </c>
+      <c r="L30" s="6">
+        <v>2.2652887374494601</v>
+      </c>
+      <c r="M30" s="6">
+        <v>6.2535290032036404</v>
+      </c>
+      <c r="N30" s="25">
+        <f t="shared" si="8"/>
+        <v>3.7304816174495201</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="103"/>
+      <c r="I31" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="37">
+        <v>0.92919870726067499</v>
+      </c>
+      <c r="K31" s="35">
+        <v>0.89452366975142905</v>
+      </c>
+      <c r="L31" s="35">
+        <v>0.92218031898071295</v>
+      </c>
+      <c r="M31" s="35">
+        <v>0.96489050373117802</v>
+      </c>
+      <c r="N31" s="36">
+        <f t="shared" si="8"/>
+        <v>0.92769829993099884</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
+        <v>212</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="14">
+        <v>0.49374206188761899</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.37515237299248899</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0.34477884831190903</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1.283769411008</v>
+      </c>
+      <c r="N32" s="28">
+        <f t="shared" si="8"/>
+        <v>0.62436067355000424</v>
+      </c>
+    </row>
+    <row r="33" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="I33" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="16">
+        <v>0.81850547239132498</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0.435826117046753</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0.42308887836868397</v>
+      </c>
+      <c r="M33" s="6">
+        <v>2.7257560868244801</v>
+      </c>
+      <c r="N33" s="25">
+        <f t="shared" si="8"/>
+        <v>1.1007941386578106</v>
+      </c>
+      <c r="O33">
+        <v>25</v>
+      </c>
+      <c r="P33" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="37">
+        <v>0.85792249267440401</v>
+      </c>
+      <c r="K34" s="35">
+        <v>0.89704353210232002</v>
+      </c>
+      <c r="L34" s="35">
+        <v>0.95741702509871496</v>
+      </c>
+      <c r="M34" s="35">
+        <v>0.42715329754968301</v>
+      </c>
+      <c r="N34" s="36">
+        <f t="shared" si="8"/>
+        <v>0.78488408685628053</v>
+      </c>
+      <c r="P34" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="35" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>194</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C35" t="s">
         <v>195</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="38" t="s">
+      <c r="D35" s="1"/>
+      <c r="E35" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="F36" s="38" t="s">
+      <c r="F35" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="G36" s="38" t="s">
+      <c r="G35" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="H36" s="38" t="s">
+      <c r="H35" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="38"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="38"/>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="38"/>
-      <c r="AB36" s="38"/>
-      <c r="AC36" s="38"/>
-      <c r="AD36" s="38"/>
-      <c r="AE36" s="38"/>
-      <c r="AF36" s="38"/>
-      <c r="AG36" s="38"/>
-      <c r="AH36" s="38"/>
-      <c r="AI36" s="38"/>
-      <c r="AJ36" s="38"/>
-      <c r="AK36" s="38"/>
-      <c r="AL36" s="38"/>
-      <c r="AM36" s="38"/>
-      <c r="AN36" s="38"/>
-      <c r="AO36" s="38"/>
-      <c r="AP36" s="38"/>
-      <c r="AQ36" s="38"/>
-      <c r="AR36" s="38"/>
-      <c r="AS36" s="38"/>
-      <c r="AT36" s="38"/>
-      <c r="AU36" s="38"/>
-      <c r="AV36" s="38"/>
-      <c r="AW36" s="38"/>
-      <c r="AX36" s="38"/>
-      <c r="AY36" s="38"/>
-      <c r="AZ36" s="38"/>
-      <c r="BA36" s="38"/>
-      <c r="BB36" s="38"/>
-      <c r="BC36" s="38"/>
-      <c r="BD36" s="38"/>
-      <c r="BE36" s="38"/>
-      <c r="BF36" s="38"/>
-      <c r="BG36" s="38"/>
-      <c r="BH36" s="38"/>
-      <c r="BI36" s="38"/>
-      <c r="BJ36" s="38"/>
-      <c r="BK36" s="38"/>
-      <c r="BL36" s="38"/>
-      <c r="BM36" s="38"/>
-      <c r="BN36" s="38"/>
-      <c r="BO36" s="38"/>
-      <c r="BP36" s="38"/>
-      <c r="BQ36" s="38"/>
-      <c r="BR36" s="38"/>
-      <c r="BS36" s="38"/>
-      <c r="BT36" s="38"/>
-      <c r="BU36" s="38"/>
-      <c r="BV36" s="38"/>
-      <c r="BW36" s="38"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38"/>
+      <c r="Y35" s="38"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="38"/>
+      <c r="AC35" s="38"/>
+      <c r="AD35" s="38"/>
+      <c r="AE35" s="38"/>
+      <c r="AF35" s="38"/>
+      <c r="AG35" s="38"/>
+      <c r="AH35" s="38"/>
+      <c r="AI35" s="38"/>
+      <c r="AJ35" s="38"/>
+      <c r="AK35" s="38"/>
+      <c r="AL35" s="38"/>
+      <c r="AM35" s="38"/>
+      <c r="AN35" s="38"/>
+      <c r="AO35" s="38"/>
+      <c r="AP35" s="38"/>
+      <c r="AQ35" s="38"/>
+      <c r="AR35" s="38"/>
+      <c r="AS35" s="38"/>
+      <c r="AT35" s="38"/>
+      <c r="AU35" s="38"/>
+      <c r="AV35" s="38"/>
+      <c r="AW35" s="38"/>
+      <c r="AX35" s="38"/>
+      <c r="AY35" s="38"/>
+      <c r="AZ35" s="38"/>
+      <c r="BA35" s="38"/>
+      <c r="BB35" s="38"/>
+      <c r="BC35" s="38"/>
+      <c r="BD35" s="38"/>
+      <c r="BE35" s="38"/>
+      <c r="BF35" s="38"/>
+      <c r="BG35" s="38"/>
+      <c r="BH35" s="38"/>
+      <c r="BI35" s="38"/>
+      <c r="BJ35" s="38"/>
+      <c r="BK35" s="38"/>
+      <c r="BL35" s="38"/>
+      <c r="BM35" s="38"/>
+      <c r="BN35" s="38"/>
+      <c r="BO35" s="38"/>
+      <c r="BP35" s="38"/>
+      <c r="BQ35" s="38"/>
+      <c r="BR35" s="38"/>
+      <c r="BS35" s="38"/>
+      <c r="BT35" s="38"/>
+      <c r="BU35" s="38"/>
+      <c r="BV35" s="38"/>
+      <c r="BW35" s="38"/>
+    </row>
+    <row r="36" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B36" s="117">
+        <v>0</v>
+      </c>
+      <c r="C36" s="114">
+        <v>0</v>
+      </c>
+      <c r="D36" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="90">
+        <v>4.1524657086422696</v>
+      </c>
+      <c r="F36" s="90">
+        <v>4.6212299144062303</v>
+      </c>
+      <c r="G36" s="90">
+        <v>2.6038927482353702</v>
+      </c>
+      <c r="H36" s="91">
+        <v>7.7252717680355998</v>
+      </c>
+      <c r="I36" s="40">
+        <f>AVERAGE(E36:H36)</f>
+        <v>4.7757150348298678</v>
+      </c>
+      <c r="K36" s="38"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q36" s="89"/>
+      <c r="R36" s="89"/>
+      <c r="S36" s="89"/>
+      <c r="T36" s="89"/>
+      <c r="U36" s="89"/>
+      <c r="V36" s="89"/>
+      <c r="W36" s="89"/>
+      <c r="X36" s="89"/>
+      <c r="Y36" s="89"/>
+      <c r="Z36" s="89"/>
+      <c r="AA36" s="89"/>
+      <c r="AB36" s="89"/>
+      <c r="AC36" s="89"/>
+      <c r="AD36" s="89"/>
+      <c r="AE36" s="89"/>
+      <c r="AF36" s="89"/>
+      <c r="AG36" s="89"/>
+      <c r="AH36" s="89"/>
+      <c r="AI36" s="89"/>
+      <c r="AJ36" s="89"/>
+      <c r="AK36" s="89"/>
+      <c r="AL36" s="89"/>
+      <c r="AM36" s="89"/>
+      <c r="AN36" s="89"/>
+      <c r="AO36" s="89"/>
+      <c r="AP36" s="89"/>
+      <c r="AQ36" s="89"/>
+      <c r="AR36" s="89"/>
+      <c r="AS36" s="89"/>
+      <c r="AT36" s="89"/>
+      <c r="AU36" s="89"/>
+      <c r="AV36" s="89"/>
+      <c r="AW36" s="89"/>
+      <c r="AX36" s="89"/>
+      <c r="AY36" s="89"/>
+      <c r="AZ36" s="89"/>
+      <c r="BA36" s="89"/>
+      <c r="BB36" s="89"/>
+      <c r="BC36" s="89"/>
+      <c r="BD36" s="89"/>
+      <c r="BE36" s="89"/>
+      <c r="BF36" s="89"/>
+      <c r="BG36" s="89"/>
+      <c r="BH36" s="89"/>
+      <c r="BI36" s="89"/>
+      <c r="BJ36" s="89"/>
+      <c r="BK36" s="89"/>
+      <c r="BL36" s="89"/>
+      <c r="BM36" s="89"/>
+      <c r="BN36" s="89"/>
+      <c r="BO36" s="89"/>
+      <c r="BP36" s="89"/>
+      <c r="BQ36" s="89"/>
+      <c r="BR36" s="89"/>
+      <c r="BS36" s="89"/>
+      <c r="BT36" s="89"/>
+      <c r="BU36" s="89"/>
+      <c r="BV36" s="89"/>
+      <c r="BW36" s="89"/>
     </row>
     <row r="37" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B37" s="101">
-        <v>0</v>
-      </c>
-      <c r="C37" s="104">
-        <v>0</v>
-      </c>
-      <c r="D37" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="90">
-        <v>4.1524657086422696</v>
-      </c>
-      <c r="F37" s="90">
-        <v>4.6212299144062303</v>
-      </c>
-      <c r="G37" s="90">
-        <v>2.6038927482353702</v>
-      </c>
-      <c r="H37" s="91">
-        <v>7.7252717680355998</v>
+      <c r="B37" s="118"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="6">
+        <v>5.9318441798156796</v>
+      </c>
+      <c r="F37" s="6">
+        <v>7.2630235009060202</v>
+      </c>
+      <c r="G37" s="6">
+        <v>3.4490913605214102</v>
+      </c>
+      <c r="H37" s="92">
+        <v>13.454720310084999</v>
       </c>
       <c r="I37" s="40">
-        <f>AVERAGE(E37:H37)</f>
-        <v>4.7757150348298678</v>
+        <f t="shared" ref="I37:I83" si="9">AVERAGE(E37:H37)</f>
+        <v>7.5246698378320271</v>
       </c>
       <c r="K37" s="38"/>
       <c r="L37" s="89"/>
       <c r="M37" s="89"/>
       <c r="N37" s="89"/>
-      <c r="O37" s="89"/>
-      <c r="P37" s="89"/>
+      <c r="O37" s="89">
+        <v>50</v>
+      </c>
+      <c r="P37" s="89" t="s">
+        <v>196</v>
+      </c>
       <c r="Q37" s="89"/>
       <c r="R37" s="89"/>
       <c r="S37" s="89"/>
@@ -24383,34 +24864,36 @@
       <c r="BV37" s="89"/>
       <c r="BW37" s="89"/>
     </row>
-    <row r="38" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B38" s="102"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="6">
-        <v>5.9318441798156796</v>
-      </c>
-      <c r="F38" s="6">
-        <v>7.2630235009060202</v>
-      </c>
-      <c r="G38" s="6">
-        <v>3.4490913605214102</v>
-      </c>
-      <c r="H38" s="92">
-        <v>13.454720310084999</v>
+    <row r="38" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="119"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="35">
+        <v>0.63994367884332704</v>
+      </c>
+      <c r="F38" s="35">
+        <v>0.228554344482361</v>
+      </c>
+      <c r="G38" s="35">
+        <v>0.89653657023368905</v>
+      </c>
+      <c r="H38" s="93">
+        <v>0.863702019458508</v>
       </c>
       <c r="I38" s="40">
-        <f t="shared" ref="I38:I84" si="7">AVERAGE(E38:H38)</f>
-        <v>7.5246698378320271</v>
+        <f t="shared" si="9"/>
+        <v>0.65718415325447133</v>
       </c>
       <c r="K38" s="38"/>
       <c r="L38" s="89"/>
       <c r="M38" s="89"/>
       <c r="N38" s="89"/>
       <c r="O38" s="89"/>
-      <c r="P38" s="89"/>
+      <c r="P38" s="89" t="s">
+        <v>200</v>
+      </c>
       <c r="Q38" s="89"/>
       <c r="R38" s="89"/>
       <c r="S38" s="89"/>
@@ -24471,1253 +24954,1625 @@
       <c r="BV38" s="89"/>
       <c r="BW38" s="89"/>
     </row>
-    <row r="39" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="103"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="88" t="s">
+    <row r="39" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B39" s="117">
+        <v>0</v>
+      </c>
+      <c r="C39" s="114">
+        <v>1E-3</v>
+      </c>
+      <c r="D39" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="90">
+        <v>1.72643447288342</v>
+      </c>
+      <c r="F39" s="90">
+        <v>2.49425974327748</v>
+      </c>
+      <c r="G39" s="90">
+        <v>1.55494874275693</v>
+      </c>
+      <c r="H39" s="91">
+        <v>3.5044774974776098</v>
+      </c>
+      <c r="I39" s="40">
+        <f t="shared" si="9"/>
+        <v>2.3200301140988602</v>
+      </c>
+      <c r="P39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B40" s="118"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="6">
+        <v>2.65714329431751</v>
+      </c>
+      <c r="F40" s="6">
+        <v>3.7939097476994199</v>
+      </c>
+      <c r="G40" s="6">
+        <v>1.91121454484493</v>
+      </c>
+      <c r="H40" s="92">
+        <v>6.3555201398639296</v>
+      </c>
+      <c r="I40" s="40">
+        <f t="shared" si="9"/>
+        <v>3.6794469316814471</v>
+      </c>
+      <c r="P40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="119"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="35">
-        <v>0.63994367884332704</v>
-      </c>
-      <c r="F39" s="35">
-        <v>0.228554344482361</v>
-      </c>
-      <c r="G39" s="35">
-        <v>0.89653657023368905</v>
-      </c>
-      <c r="H39" s="93">
-        <v>0.863702019458508</v>
-      </c>
-      <c r="I39" s="40">
-        <f t="shared" si="7"/>
-        <v>0.65718415325447133</v>
-      </c>
-      <c r="K39" s="38"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="89"/>
-      <c r="P39" s="89"/>
-      <c r="Q39" s="89"/>
-      <c r="R39" s="89"/>
-      <c r="S39" s="89"/>
-      <c r="T39" s="89"/>
-      <c r="U39" s="89"/>
-      <c r="V39" s="89"/>
-      <c r="W39" s="89"/>
-      <c r="X39" s="89"/>
-      <c r="Y39" s="89"/>
-      <c r="Z39" s="89"/>
-      <c r="AA39" s="89"/>
-      <c r="AB39" s="89"/>
-      <c r="AC39" s="89"/>
-      <c r="AD39" s="89"/>
-      <c r="AE39" s="89"/>
-      <c r="AF39" s="89"/>
-      <c r="AG39" s="89"/>
-      <c r="AH39" s="89"/>
-      <c r="AI39" s="89"/>
-      <c r="AJ39" s="89"/>
-      <c r="AK39" s="89"/>
-      <c r="AL39" s="89"/>
-      <c r="AM39" s="89"/>
-      <c r="AN39" s="89"/>
-      <c r="AO39" s="89"/>
-      <c r="AP39" s="89"/>
-      <c r="AQ39" s="89"/>
-      <c r="AR39" s="89"/>
-      <c r="AS39" s="89"/>
-      <c r="AT39" s="89"/>
-      <c r="AU39" s="89"/>
-      <c r="AV39" s="89"/>
-      <c r="AW39" s="89"/>
-      <c r="AX39" s="89"/>
-      <c r="AY39" s="89"/>
-      <c r="AZ39" s="89"/>
-      <c r="BA39" s="89"/>
-      <c r="BB39" s="89"/>
-      <c r="BC39" s="89"/>
-      <c r="BD39" s="89"/>
-      <c r="BE39" s="89"/>
-      <c r="BF39" s="89"/>
-      <c r="BG39" s="89"/>
-      <c r="BH39" s="89"/>
-      <c r="BI39" s="89"/>
-      <c r="BJ39" s="89"/>
-      <c r="BK39" s="89"/>
-      <c r="BL39" s="89"/>
-      <c r="BM39" s="89"/>
-      <c r="BN39" s="89"/>
-      <c r="BO39" s="89"/>
-      <c r="BP39" s="89"/>
-      <c r="BQ39" s="89"/>
-      <c r="BR39" s="89"/>
-      <c r="BS39" s="89"/>
-      <c r="BT39" s="89"/>
-      <c r="BU39" s="89"/>
-      <c r="BV39" s="89"/>
-      <c r="BW39" s="89"/>
-    </row>
-    <row r="40" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B40" s="101">
+      <c r="E41" s="35">
+        <v>0.93847467930162698</v>
+      </c>
+      <c r="F41" s="35">
+        <v>0.89941242820726996</v>
+      </c>
+      <c r="G41" s="35">
+        <v>0.94980133531008704</v>
+      </c>
+      <c r="H41" s="93">
+        <v>0.97630438806088604</v>
+      </c>
+      <c r="I41" s="29">
+        <f t="shared" si="9"/>
+        <v>0.94099820771996745</v>
+      </c>
+      <c r="O41">
+        <v>100</v>
+      </c>
+      <c r="P41" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B42" s="114">
         <v>0</v>
       </c>
-      <c r="C40" s="104">
+      <c r="C42" s="114">
+        <v>0.01</v>
+      </c>
+      <c r="D42" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" s="90">
+        <v>1.7467141098457999</v>
+      </c>
+      <c r="F42" s="90">
+        <v>2.5191056154434301</v>
+      </c>
+      <c r="G42" s="90">
+        <v>1.31232232710018</v>
+      </c>
+      <c r="H42" s="91">
+        <v>3.5598841628421498</v>
+      </c>
+      <c r="I42" s="40">
+        <f t="shared" si="9"/>
+        <v>2.2845065538078897</v>
+      </c>
+      <c r="P42" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B43" s="115"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="6">
+        <v>2.6229698252981701</v>
+      </c>
+      <c r="F43" s="6">
+        <v>3.84653258627575</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1.6460341265581599</v>
+      </c>
+      <c r="H43" s="92">
+        <v>6.4674065005447199</v>
+      </c>
+      <c r="I43" s="40">
+        <f t="shared" si="9"/>
+        <v>3.6457357596691997</v>
+      </c>
+      <c r="P43" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="35">
+        <v>0.93712461803303704</v>
+      </c>
+      <c r="F44" s="35">
+        <v>0.89804418606857805</v>
+      </c>
+      <c r="G44" s="35">
+        <v>0.95059482919563998</v>
+      </c>
+      <c r="H44" s="93">
+        <v>0.97603359739081297</v>
+      </c>
+      <c r="I44" s="29">
+        <f>AVERAGE(E44:H44)</f>
+        <v>0.94044930767201695</v>
+      </c>
+      <c r="P44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B45" s="114">
+        <v>0</v>
+      </c>
+      <c r="C45" s="114">
+        <v>0.1</v>
+      </c>
+      <c r="D45" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="90">
+        <v>1.86426666943099</v>
+      </c>
+      <c r="F45" s="90">
+        <v>2.5353052821288</v>
+      </c>
+      <c r="G45" s="90">
+        <v>1.2032610087381801</v>
+      </c>
+      <c r="H45" s="91">
+        <v>3.6537403031490299</v>
+      </c>
+      <c r="I45" s="40">
+        <f t="shared" si="9"/>
+        <v>2.3141433158617501</v>
+      </c>
+      <c r="O45">
+        <v>200</v>
+      </c>
+      <c r="P45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B46" s="115"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="6">
+        <v>2.68388436389731</v>
+      </c>
+      <c r="F46" s="6">
+        <v>3.88961708274477</v>
+      </c>
+      <c r="G46" s="6">
+        <v>1.5218619843222201</v>
+      </c>
+      <c r="H46" s="92">
+        <v>6.7182310667405902</v>
+      </c>
+      <c r="I46" s="40">
+        <f t="shared" si="9"/>
+        <v>3.7033986244262227</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="116"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="35">
+        <v>0.93227488055833196</v>
+      </c>
+      <c r="F47" s="35">
+        <v>0.89187213840675295</v>
+      </c>
+      <c r="G47" s="35">
+        <v>0.95841134696424302</v>
+      </c>
+      <c r="H47" s="93">
+        <v>0.97636288535349602</v>
+      </c>
+      <c r="I47" s="29">
+        <f t="shared" si="9"/>
+        <v>0.93973031282070596</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="B48" s="114">
         <v>1E-3</v>
       </c>
-      <c r="D40" s="87" t="s">
+      <c r="C48" s="114">
+        <v>0</v>
+      </c>
+      <c r="D48" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="90">
+      <c r="E48" s="90">
+        <v>2.4671103289256302</v>
+      </c>
+      <c r="F48" s="90">
+        <v>3.0009504488388101</v>
+      </c>
+      <c r="G48" s="90">
+        <v>2.0549105775413699</v>
+      </c>
+      <c r="H48" s="91">
+        <v>4.8664874841971599</v>
+      </c>
+      <c r="I48" s="40">
+        <f t="shared" si="9"/>
+        <v>3.0973647098757429</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B49" s="115"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="6">
+        <v>3.3330236376823801</v>
+      </c>
+      <c r="F49" s="6">
+        <v>4.6887625641694504</v>
+      </c>
+      <c r="G49" s="6">
+        <v>2.3903660026886602</v>
+      </c>
+      <c r="H49" s="92">
+        <v>8.2157136018403296</v>
+      </c>
+      <c r="I49" s="40">
+        <f t="shared" si="9"/>
+        <v>4.6569664515952045</v>
+      </c>
+      <c r="O49">
+        <v>400</v>
+      </c>
+      <c r="P49" t="s">
+        <v>196</v>
+      </c>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="116"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="35">
+        <v>0.88167561700776598</v>
+      </c>
+      <c r="F50" s="35">
+        <v>0.80199354516375498</v>
+      </c>
+      <c r="G50" s="35">
+        <v>0.92685185292808003</v>
+      </c>
+      <c r="H50" s="93">
+        <v>0.93413121817245903</v>
+      </c>
+      <c r="I50" s="40">
+        <f t="shared" si="9"/>
+        <v>0.88616305831801501</v>
+      </c>
+      <c r="P50" t="s">
+        <v>209</v>
+      </c>
+      <c r="S50" s="1"/>
+    </row>
+    <row r="51" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B51" s="114">
+        <v>1E-3</v>
+      </c>
+      <c r="C51" s="114">
+        <v>1E-3</v>
+      </c>
+      <c r="D51" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="90">
+        <v>4.1523738123238596</v>
+      </c>
+      <c r="F51" s="90">
+        <v>4.6204656901055801</v>
+      </c>
+      <c r="G51" s="90">
+        <v>2.6057334180502201</v>
+      </c>
+      <c r="H51" s="91">
+        <v>7.7254961512722096</v>
+      </c>
+      <c r="I51" s="40">
+        <f t="shared" si="9"/>
+        <v>4.7760172679379673</v>
+      </c>
+      <c r="P51" t="s">
+        <v>210</v>
+      </c>
+      <c r="S51" s="1"/>
+    </row>
+    <row r="52" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B52" s="115"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="6">
+        <v>5.9337204288090399</v>
+      </c>
+      <c r="F52" s="6">
+        <v>7.2622066620819696</v>
+      </c>
+      <c r="G52" s="6">
+        <v>3.4535217963204698</v>
+      </c>
+      <c r="H52" s="92">
+        <v>13.4597886341158</v>
+      </c>
+      <c r="I52" s="40">
+        <f t="shared" si="9"/>
+        <v>7.5273093803318201</v>
+      </c>
+      <c r="P52" t="s">
+        <v>211</v>
+      </c>
+      <c r="S52" s="1"/>
+    </row>
+    <row r="53" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="116"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="35">
+        <v>0.64008056326838703</v>
+      </c>
+      <c r="F53" s="35">
+        <v>0.23017376615436</v>
+      </c>
+      <c r="G53" s="35">
+        <v>0.896109318499695</v>
+      </c>
+      <c r="H53" s="93">
+        <v>0.86345874831935698</v>
+      </c>
+      <c r="I53" s="40">
+        <f t="shared" si="9"/>
+        <v>0.65745559906044981</v>
+      </c>
+      <c r="S53" s="1"/>
+    </row>
+    <row r="54" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="114">
+        <v>1E-3</v>
+      </c>
+      <c r="C54" s="114">
+        <v>0.01</v>
+      </c>
+      <c r="D54" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" s="90">
+        <v>2.11497434255259</v>
+      </c>
+      <c r="F54" s="90">
+        <v>2.7032801621601599</v>
+      </c>
+      <c r="G54" s="90">
+        <v>1.3778127982344801</v>
+      </c>
+      <c r="H54" s="91">
+        <v>4.1363321980046601</v>
+      </c>
+      <c r="I54" s="40">
+        <f t="shared" si="9"/>
+        <v>2.5830998752379726</v>
+      </c>
+      <c r="S54" s="1"/>
+    </row>
+    <row r="55" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="115"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="6">
+        <v>2.9793699992976399</v>
+      </c>
+      <c r="F55" s="6">
+        <v>4.2446854726325096</v>
+      </c>
+      <c r="G55" s="6">
+        <v>1.6318282514453299</v>
+      </c>
+      <c r="H55" s="92">
+        <v>7.4472769747183598</v>
+      </c>
+      <c r="I55" s="40">
+        <f t="shared" si="9"/>
+        <v>4.0757901745234602</v>
+      </c>
+      <c r="O55" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="P55" s="109"/>
+      <c r="Q55" s="109"/>
+      <c r="R55" s="109"/>
+      <c r="S55" s="110"/>
+      <c r="T55" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="U55" s="109"/>
+      <c r="V55" s="109"/>
+      <c r="W55" s="109"/>
+      <c r="X55" s="110"/>
+      <c r="Y55" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z55" s="109"/>
+      <c r="AA55" s="109"/>
+      <c r="AB55" s="109"/>
+      <c r="AC55" s="110"/>
+      <c r="AD55" s="111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="116"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="35">
+        <v>0.91948622209152797</v>
+      </c>
+      <c r="F56" s="35">
+        <v>0.86916617694888998</v>
+      </c>
+      <c r="G56" s="35">
+        <v>0.95783823348971098</v>
+      </c>
+      <c r="H56" s="93">
+        <v>0.96621375896228301</v>
+      </c>
+      <c r="I56" s="40">
+        <f t="shared" si="9"/>
+        <v>0.92817609787310296</v>
+      </c>
+      <c r="O56" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P56" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q56" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="R56" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S56" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="T56" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="U56" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="V56" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="W56" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="X56" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y56" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA56" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB56" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC56" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD56" s="111"/>
+    </row>
+    <row r="57" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B57" s="114">
+        <v>1E-3</v>
+      </c>
+      <c r="C57" s="114">
+        <v>0.1</v>
+      </c>
+      <c r="D57" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="90">
         <v>1.72643447288342</v>
       </c>
-      <c r="F40" s="90">
+      <c r="F57" s="90">
         <v>2.49425974327748</v>
       </c>
-      <c r="G40" s="90">
+      <c r="G57" s="90">
         <v>1.55494874275693</v>
       </c>
-      <c r="H40" s="91">
+      <c r="H57" s="91">
         <v>3.5044774974776098</v>
       </c>
-      <c r="I40" s="40">
-        <f t="shared" si="7"/>
+      <c r="I57" s="40">
+        <f t="shared" si="9"/>
         <v>2.3200301140988602</v>
       </c>
-    </row>
-    <row r="41" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B41" s="102"/>
-      <c r="C41" s="105"/>
-      <c r="D41" s="5" t="s">
+      <c r="M57" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="N57" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="O57" s="120">
+        <v>1.3533209564469999</v>
+      </c>
+      <c r="P57" s="121">
+        <v>2.0216258952807702</v>
+      </c>
+      <c r="Q57" s="121">
+        <v>1.82337401279394</v>
+      </c>
+      <c r="R57" s="121">
+        <v>2.4567885981249198</v>
+      </c>
+      <c r="S57" s="122">
+        <f t="shared" ref="S57:S62" si="10">AVERAGE(O57:R57)</f>
+        <v>1.9137773656616575</v>
+      </c>
+      <c r="T57" s="120">
+        <v>1.5810997694811399</v>
+      </c>
+      <c r="U57" s="121">
+        <v>2.36680185198251</v>
+      </c>
+      <c r="V57" s="121">
+        <v>1.7301327569696501</v>
+      </c>
+      <c r="W57" s="121">
+        <v>3.2870444161661099</v>
+      </c>
+      <c r="X57" s="122">
+        <f>AVERAGE(T57:W57)</f>
+        <v>2.2412696986498526</v>
+      </c>
+      <c r="Y57" s="120">
+        <v>2.2077976997067998</v>
+      </c>
+      <c r="Z57" s="121">
+        <v>2.7028930359539598</v>
+      </c>
+      <c r="AA57" s="121">
+        <v>1.7622842467031199</v>
+      </c>
+      <c r="AB57" s="121">
+        <v>4.3392929003748497</v>
+      </c>
+      <c r="AC57" s="122">
+        <f>AVERAGE(Y57:AB57)</f>
+        <v>2.7530669706846824</v>
+      </c>
+      <c r="AD57" s="59">
+        <f t="shared" ref="AD57:AD61" si="11">AVERAGE(AC57,X57,S57)</f>
+        <v>2.3027046783320642</v>
+      </c>
+    </row>
+    <row r="58" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B58" s="115"/>
+      <c r="C58" s="115"/>
+      <c r="D58" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E58" s="6">
         <v>2.65714329431751</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F58" s="6">
         <v>3.7939097476994199</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G58" s="6">
         <v>1.91121454484493</v>
       </c>
-      <c r="H41" s="92">
+      <c r="H58" s="92">
         <v>6.3555201398639296</v>
       </c>
-      <c r="I41" s="40">
-        <f t="shared" si="7"/>
+      <c r="I58" s="40">
+        <f t="shared" si="9"/>
         <v>3.6794469316814471</v>
       </c>
-    </row>
-    <row r="42" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="103"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="88" t="s">
+      <c r="M58" s="127"/>
+      <c r="N58" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O58" s="123">
+        <v>1.9671064046810001</v>
+      </c>
+      <c r="P58" s="124">
+        <v>2.87434275162419</v>
+      </c>
+      <c r="Q58" s="124">
+        <v>2.2271572407123901</v>
+      </c>
+      <c r="R58" s="124">
+        <v>4.2916734354618002</v>
+      </c>
+      <c r="S58" s="65">
+        <f t="shared" si="10"/>
+        <v>2.8400699581198454</v>
+      </c>
+      <c r="T58" s="123">
+        <v>2.3552181600297399</v>
+      </c>
+      <c r="U58" s="124">
+        <v>3.4294526914944399</v>
+      </c>
+      <c r="V58" s="124">
+        <v>2.1718406351287101</v>
+      </c>
+      <c r="W58" s="124">
+        <v>5.7877241048657098</v>
+      </c>
+      <c r="X58" s="65">
+        <f>AVERAGE(T58:W58)</f>
+        <v>3.4360588978796498</v>
+      </c>
+      <c r="Y58" s="123">
+        <v>3.3877542664457998</v>
+      </c>
+      <c r="Z58" s="124">
+        <v>4.2914708879460397</v>
+      </c>
+      <c r="AA58" s="124">
+        <v>2.20196775581985</v>
+      </c>
+      <c r="AB58" s="124">
+        <v>8.1955187485009997</v>
+      </c>
+      <c r="AC58" s="65">
+        <f>AVERAGE(Y58:AB58)</f>
+        <v>4.5191779146781723</v>
+      </c>
+      <c r="AD58" s="66">
+        <f t="shared" si="11"/>
+        <v>3.5984355902258893</v>
+      </c>
+    </row>
+    <row r="59" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="116"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E59" s="35">
         <v>0.93847467930162698</v>
       </c>
-      <c r="F42" s="35">
+      <c r="F59" s="35">
         <v>0.89941242820726996</v>
       </c>
-      <c r="G42" s="35">
+      <c r="G59" s="35">
         <v>0.94980133531008704</v>
       </c>
-      <c r="H42" s="93">
+      <c r="H59" s="93">
         <v>0.97630438806088604</v>
       </c>
-      <c r="I42" s="29">
-        <f t="shared" si="7"/>
+      <c r="I59" s="29">
+        <f t="shared" si="9"/>
         <v>0.94099820771996745</v>
       </c>
-    </row>
-    <row r="43" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B43" s="104">
+      <c r="M59" s="128"/>
+      <c r="N59" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="125">
+        <v>0.95652705583086295</v>
+      </c>
+      <c r="P59" s="126">
+        <v>0.93531218801523996</v>
+      </c>
+      <c r="Q59" s="126">
+        <v>0.96067780816877402</v>
+      </c>
+      <c r="R59" s="126">
+        <v>0.98790693605172497</v>
+      </c>
+      <c r="S59" s="79">
+        <f t="shared" si="10"/>
+        <v>0.96010599701665056</v>
+      </c>
+      <c r="T59" s="125">
+        <v>0.94548338937612297</v>
+      </c>
+      <c r="U59" s="126">
+        <v>0.90537521786099895</v>
+      </c>
+      <c r="V59" s="126">
+        <v>0.93190755803998204</v>
+      </c>
+      <c r="W59" s="126">
+        <v>0.97299488614048102</v>
+      </c>
+      <c r="X59" s="79">
+        <f>AVERAGE(T59:W59)</f>
+        <v>0.93894026285439625</v>
+      </c>
+      <c r="Y59" s="125">
+        <v>0.91730912875779802</v>
+      </c>
+      <c r="Z59" s="126">
+        <v>0.86347684415746995</v>
+      </c>
+      <c r="AA59" s="126">
+        <v>0.92536695975459204</v>
+      </c>
+      <c r="AB59" s="126">
+        <v>0.936344560943424</v>
+      </c>
+      <c r="AC59" s="79">
+        <f>AVERAGE(Y59:AB59)</f>
+        <v>0.91062437340332103</v>
+      </c>
+      <c r="AD59" s="81">
+        <f>AVERAGE(AC59,X59,S59)</f>
+        <v>0.93655687775812257</v>
+      </c>
+    </row>
+    <row r="60" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B60" s="114">
+        <v>0.01</v>
+      </c>
+      <c r="C60" s="114">
         <v>0</v>
       </c>
-      <c r="C43" s="104">
+      <c r="D60" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="90">
+        <v>2.55915794510519</v>
+      </c>
+      <c r="F60" s="90">
+        <v>3.0855673235324499</v>
+      </c>
+      <c r="G60" s="90">
+        <v>2.12118023178457</v>
+      </c>
+      <c r="H60" s="91">
+        <v>5.1646302929373498</v>
+      </c>
+      <c r="I60" s="40">
+        <f t="shared" si="9"/>
+        <v>3.23263394833989</v>
+      </c>
+      <c r="M60" s="127" t="s">
+        <v>214</v>
+      </c>
+      <c r="N60" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="O60" s="120">
+        <v>0.41706770277815802</v>
+      </c>
+      <c r="P60" s="121">
+        <v>0.28845537866890902</v>
+      </c>
+      <c r="Q60" s="121">
+        <v>0.45502722662759798</v>
+      </c>
+      <c r="R60" s="121">
+        <v>0.44319734810986899</v>
+      </c>
+      <c r="S60" s="122">
+        <f t="shared" si="10"/>
+        <v>0.40093691404613352</v>
+      </c>
+      <c r="T60" s="120">
+        <v>0.59753518712290599</v>
+      </c>
+      <c r="U60" s="121">
+        <v>0.26991678875075797</v>
+      </c>
+      <c r="V60" s="121">
+        <v>0.28298132485336802</v>
+      </c>
+      <c r="W60" s="121">
+        <v>1.29761573348202</v>
+      </c>
+      <c r="X60" s="122">
+        <f t="shared" ref="X60:X62" si="12">AVERAGE(T60:W60)</f>
+        <v>0.61201225855226293</v>
+      </c>
+      <c r="Y60" s="120">
+        <v>0.46540207240376202</v>
+      </c>
+      <c r="Z60" s="121">
+        <v>0.32247898103150602</v>
+      </c>
+      <c r="AA60" s="121">
+        <v>0.32183580165577003</v>
+      </c>
+      <c r="AB60" s="121">
+        <v>1.4469678143754701</v>
+      </c>
+      <c r="AC60" s="122">
+        <f t="shared" ref="AC60:AC62" si="13">AVERAGE(Y60:AB60)</f>
+        <v>0.63917116736662705</v>
+      </c>
+      <c r="AD60" s="59">
+        <f t="shared" ref="AD60:AD62" si="14">AVERAGE(AC60,X60,S60)</f>
+        <v>0.55070677998834128</v>
+      </c>
+    </row>
+    <row r="61" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B61" s="115"/>
+      <c r="C61" s="115"/>
+      <c r="D61" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="6">
+        <v>3.4450575424993999</v>
+      </c>
+      <c r="F61" s="6">
+        <v>4.7771098755894696</v>
+      </c>
+      <c r="G61" s="6">
+        <v>2.4396210962317602</v>
+      </c>
+      <c r="H61" s="92">
+        <v>8.67085332346144</v>
+      </c>
+      <c r="I61" s="40">
+        <f t="shared" si="9"/>
+        <v>4.8331604594455175</v>
+      </c>
+      <c r="M61" s="127"/>
+      <c r="N61" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O61" s="123">
+        <v>0.64681865064097299</v>
+      </c>
+      <c r="P61" s="124">
+        <v>0.33521921960816597</v>
+      </c>
+      <c r="Q61" s="124">
+        <v>0.53904331468254296</v>
+      </c>
+      <c r="R61" s="124">
+        <v>0.64644929268219098</v>
+      </c>
+      <c r="S61" s="65">
+        <f t="shared" si="10"/>
+        <v>0.54188261940346827</v>
+      </c>
+      <c r="T61" s="123">
+        <v>0.92226615665213596</v>
+      </c>
+      <c r="U61" s="124">
+        <v>0.42815557658488002</v>
+      </c>
+      <c r="V61" s="124">
+        <v>0.40203017711716299</v>
+      </c>
+      <c r="W61" s="124">
+        <v>2.0735262091425501</v>
+      </c>
+      <c r="X61" s="65">
+        <f t="shared" si="12"/>
+        <v>0.95649452987418226</v>
+      </c>
+      <c r="Y61" s="123">
+        <v>0.79760083269822502</v>
+      </c>
+      <c r="Z61" s="124">
+        <v>0.420823702510222</v>
+      </c>
+      <c r="AA61" s="124">
+        <v>0.40514019981382798</v>
+      </c>
+      <c r="AB61" s="124">
+        <v>2.3560916667061802</v>
+      </c>
+      <c r="AC61" s="65">
+        <f t="shared" si="13"/>
+        <v>0.99491410043211381</v>
+      </c>
+      <c r="AD61" s="66">
+        <f t="shared" si="14"/>
+        <v>0.83109708323658804</v>
+      </c>
+    </row>
+    <row r="62" spans="2:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="116"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="35">
+        <v>0.87610296568381896</v>
+      </c>
+      <c r="F62" s="35">
+        <v>0.79421949401523795</v>
+      </c>
+      <c r="G62" s="35">
+        <v>0.92077813072049897</v>
+      </c>
+      <c r="H62" s="93">
+        <v>0.92535068354991801</v>
+      </c>
+      <c r="I62" s="40">
+        <f t="shared" si="9"/>
+        <v>0.87911281849236844</v>
+      </c>
+      <c r="M62" s="128"/>
+      <c r="N62" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="125">
+        <v>0.91358303545084796</v>
+      </c>
+      <c r="P62" s="126">
+        <v>0.92982538767066103</v>
+      </c>
+      <c r="Q62" s="126">
+        <v>0.96652149409682897</v>
+      </c>
+      <c r="R62" s="126">
+        <v>0.98390991213604295</v>
+      </c>
+      <c r="S62" s="79">
+        <f t="shared" si="10"/>
+        <v>0.94845995733859523</v>
+      </c>
+      <c r="T62" s="125">
+        <v>0.83752281628119496</v>
+      </c>
+      <c r="U62" s="126">
+        <v>0.88130858228160502</v>
+      </c>
+      <c r="V62" s="126">
+        <v>0.94935756111033698</v>
+      </c>
+      <c r="W62" s="126">
+        <v>0.62489278453021502</v>
+      </c>
+      <c r="X62" s="79">
+        <f t="shared" si="12"/>
+        <v>0.82327043605083794</v>
+      </c>
+      <c r="Y62" s="125">
+        <v>0.83867600053653302</v>
+      </c>
+      <c r="Z62" s="126">
+        <v>0.84362439499026398</v>
+      </c>
+      <c r="AA62" s="126">
+        <v>0.94760917983973003</v>
+      </c>
+      <c r="AB62" s="126">
+        <v>0.51591266080917497</v>
+      </c>
+      <c r="AC62" s="79">
+        <f t="shared" si="13"/>
+        <v>0.7864555590439255</v>
+      </c>
+      <c r="AD62" s="81">
+        <f>AVERAGE(AC62,X62,S62)</f>
+        <v>0.85272865081111959</v>
+      </c>
+    </row>
+    <row r="63" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B63" s="114">
         <v>0.01</v>
       </c>
-      <c r="D43" s="87" t="s">
+      <c r="C63" s="114">
+        <v>1E-3</v>
+      </c>
+      <c r="D63" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="90">
-        <v>1.7467141098457999</v>
-      </c>
-      <c r="F43" s="90">
-        <v>2.5191056154434301</v>
-      </c>
-      <c r="G43" s="90">
-        <v>1.31232232710018</v>
-      </c>
-      <c r="H43" s="91">
-        <v>3.5598841628421498</v>
-      </c>
-      <c r="I43" s="40">
-        <f t="shared" si="7"/>
-        <v>2.2845065538078897</v>
-      </c>
-    </row>
-    <row r="44" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="5" t="s">
+      <c r="E63" s="90">
+        <v>2.8316933974568101</v>
+      </c>
+      <c r="F63" s="90">
+        <v>3.3076887077047701</v>
+      </c>
+      <c r="G63" s="90">
+        <v>2.2831948409759799</v>
+      </c>
+      <c r="H63" s="91">
+        <v>5.4827267524551404</v>
+      </c>
+      <c r="I63" s="40">
+        <f t="shared" si="9"/>
+        <v>3.476325924648175</v>
+      </c>
+      <c r="S63" s="1"/>
+    </row>
+    <row r="64" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B64" s="115"/>
+      <c r="C64" s="115"/>
+      <c r="D64" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="6">
-        <v>2.6229698252981701</v>
-      </c>
-      <c r="F44" s="6">
-        <v>3.84653258627575</v>
-      </c>
-      <c r="G44" s="6">
-        <v>1.6460341265581599</v>
-      </c>
-      <c r="H44" s="92">
-        <v>6.4674065005447199</v>
-      </c>
-      <c r="I44" s="40">
-        <f t="shared" si="7"/>
-        <v>3.6457357596691997</v>
-      </c>
-    </row>
-    <row r="45" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="106"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="88" t="s">
+      <c r="E64" s="6">
+        <v>3.8024230147162599</v>
+      </c>
+      <c r="F64" s="6">
+        <v>5.0614054544554099</v>
+      </c>
+      <c r="G64" s="6">
+        <v>2.5242589948573801</v>
+      </c>
+      <c r="H64" s="92">
+        <v>9.4793257996181506</v>
+      </c>
+      <c r="I64" s="40">
+        <f t="shared" si="9"/>
+        <v>5.2168533159118002</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="116"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="35">
-        <v>0.93712461803303704</v>
-      </c>
-      <c r="F45" s="35">
-        <v>0.89804418606857805</v>
-      </c>
-      <c r="G45" s="35">
-        <v>0.95059482919563998</v>
-      </c>
-      <c r="H45" s="93">
-        <v>0.97603359739081297</v>
-      </c>
-      <c r="I45" s="29">
-        <f>AVERAGE(E45:H45)</f>
-        <v>0.94044930767201695</v>
-      </c>
-    </row>
-    <row r="46" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B46" s="104">
+      <c r="E65" s="35">
+        <v>0.86098089711897996</v>
+      </c>
+      <c r="F65" s="35">
+        <v>0.77828907700640004</v>
+      </c>
+      <c r="G65" s="35">
+        <v>0.91664424056002403</v>
+      </c>
+      <c r="H65" s="93">
+        <v>0.90334131739828905</v>
+      </c>
+      <c r="I65" s="40">
+        <f t="shared" si="9"/>
+        <v>0.86481388302092332</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B66" s="114">
+        <v>0.01</v>
+      </c>
+      <c r="C66" s="114">
+        <v>0.01</v>
+      </c>
+      <c r="D66" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" s="90">
+        <v>4.1395039141856698</v>
+      </c>
+      <c r="F66" s="90">
+        <v>4.6152543417022498</v>
+      </c>
+      <c r="G66" s="90">
+        <v>2.62391214697241</v>
+      </c>
+      <c r="H66" s="91">
+        <v>7.7355311749669902</v>
+      </c>
+      <c r="I66" s="40">
+        <f t="shared" si="9"/>
+        <v>4.7785503944568299</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B67" s="115"/>
+      <c r="C67" s="115"/>
+      <c r="D67" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="6">
+        <v>5.9253204969127404</v>
+      </c>
+      <c r="F67" s="6">
+        <v>7.2547512659225797</v>
+      </c>
+      <c r="G67" s="6">
+        <v>3.4959534777604899</v>
+      </c>
+      <c r="H67" s="92">
+        <v>13.506068324378599</v>
+      </c>
+      <c r="I67" s="40">
+        <f t="shared" si="9"/>
+        <v>7.5455233912436022</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="116"/>
+      <c r="C68" s="116"/>
+      <c r="D68" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="35">
+        <v>0.64506646385998401</v>
+      </c>
+      <c r="F68" s="35">
+        <v>0.23999288512813499</v>
+      </c>
+      <c r="G68" s="35">
+        <v>0.89178338337562302</v>
+      </c>
+      <c r="H68" s="93">
+        <v>0.86181981587147405</v>
+      </c>
+      <c r="I68" s="40">
+        <f t="shared" si="9"/>
+        <v>0.65966563705880399</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B69" s="114">
+        <v>0.01</v>
+      </c>
+      <c r="C69" s="114">
+        <v>0.1</v>
+      </c>
+      <c r="D69" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="90">
+        <v>1.72643447288342</v>
+      </c>
+      <c r="F69" s="90">
+        <v>2.49425974327748</v>
+      </c>
+      <c r="G69" s="90">
+        <v>1.55494874275693</v>
+      </c>
+      <c r="H69" s="91">
+        <v>3.5044774974776098</v>
+      </c>
+      <c r="I69" s="40">
+        <f t="shared" si="9"/>
+        <v>2.3200301140988602</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B70" s="115"/>
+      <c r="C70" s="115"/>
+      <c r="D70" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="6">
+        <v>2.65714329431751</v>
+      </c>
+      <c r="F70" s="6">
+        <v>3.7939097476994199</v>
+      </c>
+      <c r="G70" s="6">
+        <v>1.91121454484493</v>
+      </c>
+      <c r="H70" s="92">
+        <v>6.3555201398639296</v>
+      </c>
+      <c r="I70" s="40">
+        <f t="shared" si="9"/>
+        <v>3.6794469316814471</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="116"/>
+      <c r="C71" s="116"/>
+      <c r="D71" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="35">
+        <v>0.93847467930162698</v>
+      </c>
+      <c r="F71" s="35">
+        <v>0.89941242820726996</v>
+      </c>
+      <c r="G71" s="35">
+        <v>0.94980133531008704</v>
+      </c>
+      <c r="H71" s="93">
+        <v>0.97630438806088604</v>
+      </c>
+      <c r="I71" s="29">
+        <f t="shared" si="9"/>
+        <v>0.94099820771996745</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="114">
+        <v>0.1</v>
+      </c>
+      <c r="C72" s="114">
         <v>0</v>
       </c>
-      <c r="C46" s="104">
+      <c r="D72" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="90">
+        <v>2.92871093128164</v>
+      </c>
+      <c r="F72" s="90">
+        <v>3.42502173353131</v>
+      </c>
+      <c r="G72" s="90">
+        <v>2.3510085856042502</v>
+      </c>
+      <c r="H72" s="91">
+        <v>5.7493561158678599</v>
+      </c>
+      <c r="I72" s="40">
+        <f t="shared" si="9"/>
+        <v>3.613524341571265</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="115"/>
+      <c r="C73" s="115"/>
+      <c r="D73" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="6">
+        <v>3.9539920307857299</v>
+      </c>
+      <c r="F73" s="6">
+        <v>5.1767770741248196</v>
+      </c>
+      <c r="G73" s="6">
+        <v>2.5838134845213201</v>
+      </c>
+      <c r="H73" s="92">
+        <v>9.9472642203087407</v>
+      </c>
+      <c r="I73" s="40">
+        <f t="shared" si="9"/>
+        <v>5.4154617024351523</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="116"/>
+      <c r="C74" s="116"/>
+      <c r="D74" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="35">
+        <v>0.85362996386194501</v>
+      </c>
+      <c r="F74" s="35">
+        <v>0.764342657648858</v>
+      </c>
+      <c r="G74" s="35">
+        <v>0.91019749636804903</v>
+      </c>
+      <c r="H74" s="93">
+        <v>0.89251559302593797</v>
+      </c>
+      <c r="I74" s="40">
+        <f t="shared" si="9"/>
+        <v>0.85517142772619748</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="114">
         <v>0.1</v>
       </c>
-      <c r="D46" s="87" t="s">
+      <c r="C75" s="114">
+        <v>1E-3</v>
+      </c>
+      <c r="D75" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="90">
-        <v>1.86426666943099</v>
-      </c>
-      <c r="F46" s="90">
-        <v>2.5353052821288</v>
-      </c>
-      <c r="G46" s="90">
-        <v>1.2032610087381801</v>
-      </c>
-      <c r="H46" s="91">
-        <v>3.6537403031490299</v>
-      </c>
-      <c r="I46" s="40">
-        <f t="shared" si="7"/>
-        <v>2.3141433158617501</v>
-      </c>
-    </row>
-    <row r="47" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B47" s="105"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="5" t="s">
+      <c r="E75" s="90">
+        <v>1.72643447288342</v>
+      </c>
+      <c r="F75" s="90">
+        <v>2.49425974327748</v>
+      </c>
+      <c r="G75" s="90">
+        <v>1.55494874275693</v>
+      </c>
+      <c r="H75" s="91">
+        <v>3.5044774974776098</v>
+      </c>
+      <c r="I75" s="40">
+        <f t="shared" si="9"/>
+        <v>2.3200301140988602</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="115"/>
+      <c r="C76" s="115"/>
+      <c r="D76" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="6">
-        <v>2.68388436389731</v>
-      </c>
-      <c r="F47" s="6">
-        <v>3.88961708274477</v>
-      </c>
-      <c r="G47" s="6">
-        <v>1.5218619843222201</v>
-      </c>
-      <c r="H47" s="92">
-        <v>6.7182310667405902</v>
-      </c>
-      <c r="I47" s="40">
-        <f t="shared" si="7"/>
-        <v>3.7033986244262227</v>
-      </c>
-      <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="106"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="88" t="s">
+      <c r="E76" s="6">
+        <v>2.65714329431751</v>
+      </c>
+      <c r="F76" s="6">
+        <v>3.7939097476994199</v>
+      </c>
+      <c r="G76" s="6">
+        <v>1.91121454484493</v>
+      </c>
+      <c r="H76" s="92">
+        <v>6.3555201398639296</v>
+      </c>
+      <c r="I76" s="40">
+        <f t="shared" si="9"/>
+        <v>3.6794469316814471</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="116"/>
+      <c r="C77" s="116"/>
+      <c r="D77" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="35">
-        <v>0.93227488055833196</v>
-      </c>
-      <c r="F48" s="35">
-        <v>0.89187213840675295</v>
-      </c>
-      <c r="G48" s="35">
-        <v>0.95841134696424302</v>
-      </c>
-      <c r="H48" s="93">
-        <v>0.97636288535349602</v>
-      </c>
-      <c r="I48" s="29">
-        <f t="shared" si="7"/>
-        <v>0.93973031282070596</v>
-      </c>
-      <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B49" s="104">
-        <v>1E-3</v>
-      </c>
-      <c r="C49" s="104">
-        <v>0</v>
-      </c>
-      <c r="D49" s="87" t="s">
+      <c r="E77" s="35">
+        <v>0.93847467930162698</v>
+      </c>
+      <c r="F77" s="35">
+        <v>0.89941242820726996</v>
+      </c>
+      <c r="G77" s="35">
+        <v>0.94980133531008704</v>
+      </c>
+      <c r="H77" s="93">
+        <v>0.97630438806088604</v>
+      </c>
+      <c r="I77" s="29">
+        <f t="shared" si="9"/>
+        <v>0.94099820771996745</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="114">
+        <v>0.1</v>
+      </c>
+      <c r="C78" s="114">
+        <v>0.01</v>
+      </c>
+      <c r="D78" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="90">
-        <v>2.4671103289256302</v>
-      </c>
-      <c r="F49" s="90">
-        <v>3.0009504488388101</v>
-      </c>
-      <c r="G49" s="90">
-        <v>2.0549105775413699</v>
-      </c>
-      <c r="H49" s="91">
-        <v>4.8664874841971599</v>
-      </c>
-      <c r="I49" s="40">
-        <f t="shared" si="7"/>
-        <v>3.0973647098757429</v>
-      </c>
-      <c r="P49" s="1"/>
-      <c r="S49" s="1"/>
-    </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B50" s="105"/>
-      <c r="C50" s="105"/>
-      <c r="D50" s="5" t="s">
+      <c r="E78" s="90">
+        <v>1.72643447288342</v>
+      </c>
+      <c r="F78" s="90">
+        <v>2.49425974327748</v>
+      </c>
+      <c r="G78" s="90">
+        <v>1.55494874275693</v>
+      </c>
+      <c r="H78" s="91">
+        <v>3.5044774974776098</v>
+      </c>
+      <c r="I78" s="40">
+        <f t="shared" si="9"/>
+        <v>2.3200301140988602</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="115"/>
+      <c r="C79" s="115"/>
+      <c r="D79" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="6">
-        <v>3.3330236376823801</v>
-      </c>
-      <c r="F50" s="6">
-        <v>4.6887625641694504</v>
-      </c>
-      <c r="G50" s="6">
-        <v>2.3903660026886602</v>
-      </c>
-      <c r="H50" s="92">
-        <v>8.2157136018403296</v>
-      </c>
-      <c r="I50" s="40">
-        <f t="shared" si="7"/>
-        <v>4.6569664515952045</v>
-      </c>
-      <c r="S50" s="1"/>
-    </row>
-    <row r="51" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="88" t="s">
+      <c r="E79" s="6">
+        <v>2.65714329431751</v>
+      </c>
+      <c r="F79" s="6">
+        <v>3.7939097476994199</v>
+      </c>
+      <c r="G79" s="6">
+        <v>1.91121454484493</v>
+      </c>
+      <c r="H79" s="92">
+        <v>6.3555201398639296</v>
+      </c>
+      <c r="I79" s="40">
+        <f t="shared" si="9"/>
+        <v>3.6794469316814471</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="116"/>
+      <c r="C80" s="116"/>
+      <c r="D80" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="35">
-        <v>0.88167561700776598</v>
-      </c>
-      <c r="F51" s="35">
-        <v>0.80199354516375498</v>
-      </c>
-      <c r="G51" s="35">
-        <v>0.92685185292808003</v>
-      </c>
-      <c r="H51" s="93">
-        <v>0.93413121817245903</v>
-      </c>
-      <c r="I51" s="40">
-        <f t="shared" si="7"/>
-        <v>0.88616305831801501</v>
-      </c>
-      <c r="S51" s="1"/>
-    </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B52" s="104">
-        <v>1E-3</v>
-      </c>
-      <c r="C52" s="104">
-        <v>1E-3</v>
-      </c>
-      <c r="D52" s="87" t="s">
+      <c r="E80" s="35">
+        <v>0.93847467930162698</v>
+      </c>
+      <c r="F80" s="35">
+        <v>0.89941242820726996</v>
+      </c>
+      <c r="G80" s="35">
+        <v>0.94980133531008704</v>
+      </c>
+      <c r="H80" s="93">
+        <v>0.97630438806088604</v>
+      </c>
+      <c r="I80" s="29">
+        <f t="shared" si="9"/>
+        <v>0.94099820771996745</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B81" s="114">
+        <v>0.1</v>
+      </c>
+      <c r="C81" s="114">
+        <v>0.1</v>
+      </c>
+      <c r="D81" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="E52" s="90">
-        <v>4.1523738123238596</v>
-      </c>
-      <c r="F52" s="90">
-        <v>4.6204656901055801</v>
-      </c>
-      <c r="G52" s="90">
-        <v>2.6057334180502201</v>
-      </c>
-      <c r="H52" s="91">
-        <v>7.7254961512722096</v>
-      </c>
-      <c r="I52" s="40">
-        <f t="shared" si="7"/>
-        <v>4.7760172679379673</v>
-      </c>
-      <c r="S52" s="1"/>
-    </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B53" s="105"/>
-      <c r="C53" s="105"/>
-      <c r="D53" s="5" t="s">
+      <c r="E81" s="90">
+        <v>4.2401446036209602</v>
+      </c>
+      <c r="F81" s="90">
+        <v>4.7290208272750203</v>
+      </c>
+      <c r="G81" s="90">
+        <v>2.8102457752138799</v>
+      </c>
+      <c r="H81" s="91">
+        <v>7.8768422467291197</v>
+      </c>
+      <c r="I81" s="40">
+        <f t="shared" si="9"/>
+        <v>4.9140633632097446</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B82" s="115"/>
+      <c r="C82" s="115"/>
+      <c r="D82" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="6">
-        <v>5.9337204288090399</v>
-      </c>
-      <c r="F53" s="6">
-        <v>7.2622066620819696</v>
-      </c>
-      <c r="G53" s="6">
-        <v>3.4535217963204698</v>
-      </c>
-      <c r="H53" s="92">
-        <v>13.4597886341158</v>
-      </c>
-      <c r="I53" s="40">
-        <f t="shared" si="7"/>
-        <v>7.5273093803318201</v>
-      </c>
-      <c r="S53" s="1"/>
-    </row>
-    <row r="54" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="106"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="88" t="s">
+      <c r="E82" s="6">
+        <v>6.1172924571006897</v>
+      </c>
+      <c r="F82" s="6">
+        <v>7.4196460783970304</v>
+      </c>
+      <c r="G82" s="6">
+        <v>3.91087228919644</v>
+      </c>
+      <c r="H82" s="92">
+        <v>13.910548079239399</v>
+      </c>
+      <c r="I82" s="40">
+        <f t="shared" si="9"/>
+        <v>7.8395897259833891</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="116"/>
+      <c r="C83" s="116"/>
+      <c r="D83" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="35">
-        <v>0.64008056326838703</v>
-      </c>
-      <c r="F54" s="35">
-        <v>0.23017376615436</v>
-      </c>
-      <c r="G54" s="35">
-        <v>0.896109318499695</v>
-      </c>
-      <c r="H54" s="93">
-        <v>0.86345874831935698</v>
-      </c>
-      <c r="I54" s="40">
-        <f t="shared" si="7"/>
-        <v>0.65745559906044981</v>
-      </c>
-      <c r="S54" s="1"/>
-    </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B55" s="104">
-        <v>1E-3</v>
-      </c>
-      <c r="C55" s="104">
-        <v>0.01</v>
-      </c>
-      <c r="D55" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" s="90">
-        <v>2.11497434255259</v>
-      </c>
-      <c r="F55" s="90">
-        <v>2.7032801621601599</v>
-      </c>
-      <c r="G55" s="90">
-        <v>1.3778127982344801</v>
-      </c>
-      <c r="H55" s="91">
-        <v>4.1363321980046601</v>
-      </c>
-      <c r="I55" s="40">
-        <f t="shared" si="7"/>
-        <v>2.5830998752379726</v>
-      </c>
-      <c r="S55" s="1"/>
-    </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B56" s="105"/>
-      <c r="C56" s="105"/>
-      <c r="D56" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="6">
-        <v>2.9793699992976399</v>
-      </c>
-      <c r="F56" s="6">
-        <v>4.2446854726325096</v>
-      </c>
-      <c r="G56" s="6">
-        <v>1.6318282514453299</v>
-      </c>
-      <c r="H56" s="92">
-        <v>7.4472769747183598</v>
-      </c>
-      <c r="I56" s="40">
-        <f t="shared" si="7"/>
-        <v>4.0757901745234602</v>
-      </c>
-      <c r="S56" s="1"/>
-    </row>
-    <row r="57" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="106"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="35">
-        <v>0.91948622209152797</v>
-      </c>
-      <c r="F57" s="35">
-        <v>0.86916617694888998</v>
-      </c>
-      <c r="G57" s="35">
-        <v>0.95783823348971098</v>
-      </c>
-      <c r="H57" s="93">
-        <v>0.96621375896228301</v>
-      </c>
-      <c r="I57" s="40">
-        <f t="shared" si="7"/>
-        <v>0.92817609787310296</v>
-      </c>
-      <c r="S57" s="1"/>
-    </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B58" s="104">
-        <v>1E-3</v>
-      </c>
-      <c r="C58" s="104">
-        <v>0.1</v>
-      </c>
-      <c r="D58" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" s="90">
-        <v>1.72643447288342</v>
-      </c>
-      <c r="F58" s="90">
-        <v>2.49425974327748</v>
-      </c>
-      <c r="G58" s="90">
-        <v>1.55494874275693</v>
-      </c>
-      <c r="H58" s="91">
-        <v>3.5044774974776098</v>
-      </c>
-      <c r="I58" s="40">
-        <f t="shared" si="7"/>
-        <v>2.3200301140988602</v>
-      </c>
-      <c r="S58" s="1"/>
-    </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B59" s="105"/>
-      <c r="C59" s="105"/>
-      <c r="D59" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" s="6">
-        <v>2.65714329431751</v>
-      </c>
-      <c r="F59" s="6">
-        <v>3.7939097476994199</v>
-      </c>
-      <c r="G59" s="6">
-        <v>1.91121454484493</v>
-      </c>
-      <c r="H59" s="92">
-        <v>6.3555201398639296</v>
-      </c>
-      <c r="I59" s="40">
-        <f t="shared" si="7"/>
-        <v>3.6794469316814471</v>
-      </c>
-      <c r="S59" s="1"/>
-    </row>
-    <row r="60" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="106"/>
-      <c r="C60" s="106"/>
-      <c r="D60" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="35">
-        <v>0.93847467930162698</v>
-      </c>
-      <c r="F60" s="35">
-        <v>0.89941242820726996</v>
-      </c>
-      <c r="G60" s="35">
-        <v>0.94980133531008704</v>
-      </c>
-      <c r="H60" s="93">
-        <v>0.97630438806088604</v>
-      </c>
-      <c r="I60" s="29">
-        <f t="shared" si="7"/>
-        <v>0.94099820771996745</v>
-      </c>
-      <c r="S60" s="1"/>
-    </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B61" s="104">
-        <v>0.01</v>
-      </c>
-      <c r="C61" s="104">
-        <v>0</v>
-      </c>
-      <c r="D61" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="E61" s="90">
-        <v>2.55915794510519</v>
-      </c>
-      <c r="F61" s="90">
-        <v>3.0855673235324499</v>
-      </c>
-      <c r="G61" s="90">
-        <v>2.12118023178457</v>
-      </c>
-      <c r="H61" s="91">
-        <v>5.1646302929373498</v>
-      </c>
-      <c r="I61" s="40">
-        <f t="shared" si="7"/>
-        <v>3.23263394833989</v>
-      </c>
-      <c r="S61" s="1"/>
-    </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B62" s="105"/>
-      <c r="C62" s="105"/>
-      <c r="D62" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="6">
-        <v>3.4450575424993999</v>
-      </c>
-      <c r="F62" s="6">
-        <v>4.7771098755894696</v>
-      </c>
-      <c r="G62" s="6">
-        <v>2.4396210962317602</v>
-      </c>
-      <c r="H62" s="92">
-        <v>8.67085332346144</v>
-      </c>
-      <c r="I62" s="40">
-        <f t="shared" si="7"/>
-        <v>4.8331604594455175</v>
-      </c>
-      <c r="S62" s="1"/>
-    </row>
-    <row r="63" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="106"/>
-      <c r="C63" s="106"/>
-      <c r="D63" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="35">
-        <v>0.87610296568381896</v>
-      </c>
-      <c r="F63" s="35">
-        <v>0.79421949401523795</v>
-      </c>
-      <c r="G63" s="35">
-        <v>0.92077813072049897</v>
-      </c>
-      <c r="H63" s="93">
-        <v>0.92535068354991801</v>
-      </c>
-      <c r="I63" s="40">
-        <f t="shared" si="7"/>
-        <v>0.87911281849236844</v>
-      </c>
-      <c r="S63" s="1"/>
-    </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B64" s="104">
-        <v>0.01</v>
-      </c>
-      <c r="C64" s="104">
-        <v>1E-3</v>
-      </c>
-      <c r="D64" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="E64" s="90">
-        <v>2.8316933974568101</v>
-      </c>
-      <c r="F64" s="90">
-        <v>3.3076887077047701</v>
-      </c>
-      <c r="G64" s="90">
-        <v>2.2831948409759799</v>
-      </c>
-      <c r="H64" s="91">
-        <v>5.4827267524551404</v>
-      </c>
-      <c r="I64" s="40">
-        <f t="shared" si="7"/>
-        <v>3.476325924648175</v>
-      </c>
-      <c r="S64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B65" s="105"/>
-      <c r="C65" s="105"/>
-      <c r="D65" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" s="6">
-        <v>3.8024230147162599</v>
-      </c>
-      <c r="F65" s="6">
-        <v>5.0614054544554099</v>
-      </c>
-      <c r="G65" s="6">
-        <v>2.5242589948573801</v>
-      </c>
-      <c r="H65" s="92">
-        <v>9.4793257996181506</v>
-      </c>
-      <c r="I65" s="40">
-        <f t="shared" si="7"/>
-        <v>5.2168533159118002</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="106"/>
-      <c r="C66" s="106"/>
-      <c r="D66" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="35">
-        <v>0.86098089711897996</v>
-      </c>
-      <c r="F66" s="35">
-        <v>0.77828907700640004</v>
-      </c>
-      <c r="G66" s="35">
-        <v>0.91664424056002403</v>
-      </c>
-      <c r="H66" s="93">
-        <v>0.90334131739828905</v>
-      </c>
-      <c r="I66" s="40">
-        <f t="shared" si="7"/>
-        <v>0.86481388302092332</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B67" s="104">
-        <v>0.01</v>
-      </c>
-      <c r="C67" s="104">
-        <v>0.01</v>
-      </c>
-      <c r="D67" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="E67" s="90">
-        <v>4.1395039141856698</v>
-      </c>
-      <c r="F67" s="90">
-        <v>4.6152543417022498</v>
-      </c>
-      <c r="G67" s="90">
-        <v>2.62391214697241</v>
-      </c>
-      <c r="H67" s="91">
-        <v>7.7355311749669902</v>
-      </c>
-      <c r="I67" s="40">
-        <f t="shared" si="7"/>
-        <v>4.7785503944568299</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="105"/>
-      <c r="C68" s="105"/>
-      <c r="D68" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="6">
-        <v>5.9253204969127404</v>
-      </c>
-      <c r="F68" s="6">
-        <v>7.2547512659225797</v>
-      </c>
-      <c r="G68" s="6">
-        <v>3.4959534777604899</v>
-      </c>
-      <c r="H68" s="92">
-        <v>13.506068324378599</v>
-      </c>
-      <c r="I68" s="40">
-        <f t="shared" si="7"/>
-        <v>7.5455233912436022</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="106"/>
-      <c r="C69" s="106"/>
-      <c r="D69" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="35">
-        <v>0.64506646385998401</v>
-      </c>
-      <c r="F69" s="35">
-        <v>0.23999288512813499</v>
-      </c>
-      <c r="G69" s="35">
-        <v>0.89178338337562302</v>
-      </c>
-      <c r="H69" s="93">
-        <v>0.86181981587147405</v>
-      </c>
-      <c r="I69" s="40">
-        <f t="shared" si="7"/>
-        <v>0.65966563705880399</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B70" s="104">
-        <v>0.01</v>
-      </c>
-      <c r="C70" s="104">
-        <v>0.1</v>
-      </c>
-      <c r="D70" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="E70" s="90">
-        <v>1.72643447288342</v>
-      </c>
-      <c r="F70" s="90">
-        <v>2.49425974327748</v>
-      </c>
-      <c r="G70" s="90">
-        <v>1.55494874275693</v>
-      </c>
-      <c r="H70" s="91">
-        <v>3.5044774974776098</v>
-      </c>
-      <c r="I70" s="40">
-        <f t="shared" si="7"/>
-        <v>2.3200301140988602</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B71" s="105"/>
-      <c r="C71" s="105"/>
-      <c r="D71" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E71" s="6">
-        <v>2.65714329431751</v>
-      </c>
-      <c r="F71" s="6">
-        <v>3.7939097476994199</v>
-      </c>
-      <c r="G71" s="6">
-        <v>1.91121454484493</v>
-      </c>
-      <c r="H71" s="92">
-        <v>6.3555201398639296</v>
-      </c>
-      <c r="I71" s="40">
-        <f t="shared" si="7"/>
-        <v>3.6794469316814471</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="106"/>
-      <c r="C72" s="106"/>
-      <c r="D72" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="35">
-        <v>0.93847467930162698</v>
-      </c>
-      <c r="F72" s="35">
-        <v>0.89941242820726996</v>
-      </c>
-      <c r="G72" s="35">
-        <v>0.94980133531008704</v>
-      </c>
-      <c r="H72" s="93">
-        <v>0.97630438806088604</v>
-      </c>
-      <c r="I72" s="29">
-        <f t="shared" si="7"/>
-        <v>0.94099820771996745</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="104">
-        <v>0.1</v>
-      </c>
-      <c r="C73" s="104">
-        <v>0</v>
-      </c>
-      <c r="D73" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="E73" s="90">
-        <v>2.92871093128164</v>
-      </c>
-      <c r="F73" s="90">
-        <v>3.42502173353131</v>
-      </c>
-      <c r="G73" s="90">
-        <v>2.3510085856042502</v>
-      </c>
-      <c r="H73" s="91">
-        <v>5.7493561158678599</v>
-      </c>
-      <c r="I73" s="40">
-        <f t="shared" si="7"/>
-        <v>3.613524341571265</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B74" s="105"/>
-      <c r="C74" s="105"/>
-      <c r="D74" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E74" s="6">
-        <v>3.9539920307857299</v>
-      </c>
-      <c r="F74" s="6">
-        <v>5.1767770741248196</v>
-      </c>
-      <c r="G74" s="6">
-        <v>2.5838134845213201</v>
-      </c>
-      <c r="H74" s="92">
-        <v>9.9472642203087407</v>
-      </c>
-      <c r="I74" s="40">
-        <f t="shared" si="7"/>
-        <v>5.4154617024351523</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="106"/>
-      <c r="C75" s="106"/>
-      <c r="D75" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="35">
-        <v>0.85362996386194501</v>
-      </c>
-      <c r="F75" s="35">
-        <v>0.764342657648858</v>
-      </c>
-      <c r="G75" s="35">
-        <v>0.91019749636804903</v>
-      </c>
-      <c r="H75" s="93">
-        <v>0.89251559302593797</v>
-      </c>
-      <c r="I75" s="40">
-        <f t="shared" si="7"/>
-        <v>0.85517142772619748</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B76" s="104">
-        <v>0.1</v>
-      </c>
-      <c r="C76" s="104">
-        <v>1E-3</v>
-      </c>
-      <c r="D76" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="E76" s="90">
-        <v>1.72643447288342</v>
-      </c>
-      <c r="F76" s="90">
-        <v>2.49425974327748</v>
-      </c>
-      <c r="G76" s="90">
-        <v>1.55494874275693</v>
-      </c>
-      <c r="H76" s="91">
-        <v>3.5044774974776098</v>
-      </c>
-      <c r="I76" s="40">
-        <f t="shared" si="7"/>
-        <v>2.3200301140988602</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B77" s="105"/>
-      <c r="C77" s="105"/>
-      <c r="D77" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E77" s="6">
-        <v>2.65714329431751</v>
-      </c>
-      <c r="F77" s="6">
-        <v>3.7939097476994199</v>
-      </c>
-      <c r="G77" s="6">
-        <v>1.91121454484493</v>
-      </c>
-      <c r="H77" s="92">
-        <v>6.3555201398639296</v>
-      </c>
-      <c r="I77" s="40">
-        <f t="shared" si="7"/>
-        <v>3.6794469316814471</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="106"/>
-      <c r="C78" s="106"/>
-      <c r="D78" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="E78" s="35">
-        <v>0.93847467930162698</v>
-      </c>
-      <c r="F78" s="35">
-        <v>0.89941242820726996</v>
-      </c>
-      <c r="G78" s="35">
-        <v>0.94980133531008704</v>
-      </c>
-      <c r="H78" s="93">
-        <v>0.97630438806088604</v>
-      </c>
-      <c r="I78" s="29">
-        <f t="shared" si="7"/>
-        <v>0.94099820771996745</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="104">
-        <v>0.1</v>
-      </c>
-      <c r="C79" s="104">
-        <v>0.01</v>
-      </c>
-      <c r="D79" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="E79" s="90">
-        <v>1.72643447288342</v>
-      </c>
-      <c r="F79" s="90">
-        <v>2.49425974327748</v>
-      </c>
-      <c r="G79" s="90">
-        <v>1.55494874275693</v>
-      </c>
-      <c r="H79" s="91">
-        <v>3.5044774974776098</v>
-      </c>
-      <c r="I79" s="40">
-        <f t="shared" si="7"/>
-        <v>2.3200301140988602</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B80" s="105"/>
-      <c r="C80" s="105"/>
-      <c r="D80" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E80" s="6">
-        <v>2.65714329431751</v>
-      </c>
-      <c r="F80" s="6">
-        <v>3.7939097476994199</v>
-      </c>
-      <c r="G80" s="6">
-        <v>1.91121454484493</v>
-      </c>
-      <c r="H80" s="92">
-        <v>6.3555201398639296</v>
-      </c>
-      <c r="I80" s="40">
-        <f t="shared" si="7"/>
-        <v>3.6794469316814471</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="106"/>
-      <c r="C81" s="106"/>
-      <c r="D81" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="35">
-        <v>0.93847467930162698</v>
-      </c>
-      <c r="F81" s="35">
-        <v>0.89941242820726996</v>
-      </c>
-      <c r="G81" s="35">
-        <v>0.94980133531008704</v>
-      </c>
-      <c r="H81" s="93">
-        <v>0.97630438806088604</v>
-      </c>
-      <c r="I81" s="29">
-        <f t="shared" si="7"/>
-        <v>0.94099820771996745</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B82" s="104">
-        <v>0.1</v>
-      </c>
-      <c r="C82" s="104">
-        <v>0.1</v>
-      </c>
-      <c r="D82" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="E82" s="90">
-        <v>4.2401446036209602</v>
-      </c>
-      <c r="F82" s="90">
-        <v>4.7290208272750203</v>
-      </c>
-      <c r="G82" s="90">
-        <v>2.8102457752138799</v>
-      </c>
-      <c r="H82" s="91">
-        <v>7.8768422467291197</v>
-      </c>
-      <c r="I82" s="40">
-        <f t="shared" si="7"/>
-        <v>4.9140633632097446</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" s="105"/>
-      <c r="C83" s="105"/>
-      <c r="D83" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E83" s="6">
-        <v>6.1172924571006897</v>
-      </c>
-      <c r="F83" s="6">
-        <v>7.4196460783970304</v>
-      </c>
-      <c r="G83" s="6">
-        <v>3.91087228919644</v>
-      </c>
-      <c r="H83" s="92">
-        <v>13.910548079239399</v>
+      <c r="E83" s="94">
+        <v>0.63595102324108799</v>
+      </c>
+      <c r="F83" s="94">
+        <v>0.183735386127161</v>
+      </c>
+      <c r="G83" s="94">
+        <v>0.85649719391784296</v>
+      </c>
+      <c r="H83" s="94">
+        <v>0.851872690874097</v>
       </c>
       <c r="I83" s="40">
-        <f t="shared" si="7"/>
-        <v>7.8395897259833891</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="106"/>
-      <c r="C84" s="106"/>
-      <c r="D84" s="88" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="94">
-        <v>0.63595102324108799</v>
-      </c>
-      <c r="F84" s="94">
-        <v>0.183735386127161</v>
-      </c>
-      <c r="G84" s="94">
-        <v>0.85649719391784296</v>
-      </c>
-      <c r="H84" s="94">
-        <v>0.851872690874097</v>
-      </c>
-      <c r="I84" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.63201407354004724</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B4:B15"/>
-    <mergeCell ref="O2:S2"/>
+  <mergeCells count="53">
+    <mergeCell ref="T55:X55"/>
+    <mergeCell ref="Y55:AC55"/>
+    <mergeCell ref="AD55:AD56"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="M57:M59"/>
+    <mergeCell ref="M60:M62"/>
+    <mergeCell ref="O55:S55"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C48:C50"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="J2:N2"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B4:B15"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="H25:H27"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31762,7 +32617,7 @@
         <v>0.69354093000000006</v>
       </c>
       <c r="C161">
-        <f t="shared" ref="C161:C192" si="8">ABS(B161)</f>
+        <f t="shared" ref="C161:C167" si="8">ABS(B161)</f>
         <v>0.69354093000000006</v>
       </c>
       <c r="D161">
@@ -35824,15 +36679,15 @@
         <v>2.2632472037315399</v>
       </c>
       <c r="N39">
-        <f t="shared" ref="N37:N100" si="4">ABS(C39-I39)</f>
+        <f t="shared" ref="N39:N100" si="4">ABS(C39-I39)</f>
         <v>11.0606663069811</v>
       </c>
       <c r="O39">
-        <f t="shared" ref="O37:O100" si="5">ABS(D39-J39)</f>
+        <f t="shared" ref="O39:O100" si="5">ABS(D39-J39)</f>
         <v>6.082220338469801</v>
       </c>
       <c r="P39">
-        <f t="shared" ref="P37:P100" si="6">ABS(E39-K39)</f>
+        <f t="shared" ref="P39:P100" si="6">ABS(E39-K39)</f>
         <v>5.3246371142783762</v>
       </c>
     </row>
@@ -51554,4 +52409,458 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E019DA8-E2E3-2148-BB37-7355A811A3F3}">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="18" width="7.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="52"/>
+      <c r="C1" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="108" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="111" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="52"/>
+      <c r="C2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="111"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="129" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="120">
+        <v>1.3533209564469999</v>
+      </c>
+      <c r="D3" s="121">
+        <v>2.0216258952807702</v>
+      </c>
+      <c r="E3" s="121">
+        <v>1.82337401279394</v>
+      </c>
+      <c r="F3" s="121">
+        <v>2.4567885981249198</v>
+      </c>
+      <c r="G3" s="122">
+        <f t="shared" ref="G3:G8" si="0">AVERAGE(C3:F3)</f>
+        <v>1.9137773656616575</v>
+      </c>
+      <c r="H3" s="120">
+        <v>1.5810997694811399</v>
+      </c>
+      <c r="I3" s="121">
+        <v>2.36680185198251</v>
+      </c>
+      <c r="J3" s="121">
+        <v>1.7301327569696501</v>
+      </c>
+      <c r="K3" s="121">
+        <v>3.2870444161661099</v>
+      </c>
+      <c r="L3" s="122">
+        <f>AVERAGE(H3:K3)</f>
+        <v>2.2412696986498526</v>
+      </c>
+      <c r="M3" s="120">
+        <v>2.2077976997067998</v>
+      </c>
+      <c r="N3" s="121">
+        <v>2.7028930359539598</v>
+      </c>
+      <c r="O3" s="121">
+        <v>1.7622842467031199</v>
+      </c>
+      <c r="P3" s="121">
+        <v>4.3392929003748497</v>
+      </c>
+      <c r="Q3" s="122">
+        <f>AVERAGE(M3:P3)</f>
+        <v>2.7530669706846824</v>
+      </c>
+      <c r="R3" s="59">
+        <f t="shared" ref="R3:R7" si="1">AVERAGE(Q3,L3,G3)</f>
+        <v>2.3027046783320642</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="127"/>
+      <c r="B4" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="123">
+        <v>1.9671064046810001</v>
+      </c>
+      <c r="D4" s="124">
+        <v>2.87434275162419</v>
+      </c>
+      <c r="E4" s="124">
+        <v>2.2271572407123901</v>
+      </c>
+      <c r="F4" s="124">
+        <v>4.2916734354618002</v>
+      </c>
+      <c r="G4" s="65">
+        <f t="shared" si="0"/>
+        <v>2.8400699581198454</v>
+      </c>
+      <c r="H4" s="123">
+        <v>2.3552181600297399</v>
+      </c>
+      <c r="I4" s="124">
+        <v>3.4294526914944399</v>
+      </c>
+      <c r="J4" s="124">
+        <v>2.1718406351287101</v>
+      </c>
+      <c r="K4" s="124">
+        <v>5.7877241048657098</v>
+      </c>
+      <c r="L4" s="65">
+        <f>AVERAGE(H4:K4)</f>
+        <v>3.4360588978796498</v>
+      </c>
+      <c r="M4" s="123">
+        <v>3.3877542664457998</v>
+      </c>
+      <c r="N4" s="124">
+        <v>4.2914708879460397</v>
+      </c>
+      <c r="O4" s="124">
+        <v>2.20196775581985</v>
+      </c>
+      <c r="P4" s="124">
+        <v>8.1955187485009997</v>
+      </c>
+      <c r="Q4" s="65">
+        <f>AVERAGE(M4:P4)</f>
+        <v>4.5191779146781723</v>
+      </c>
+      <c r="R4" s="66">
+        <f t="shared" si="1"/>
+        <v>3.5984355902258893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="128"/>
+      <c r="B5" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="125">
+        <v>0.95652705583086295</v>
+      </c>
+      <c r="D5" s="126">
+        <v>0.93531218801523996</v>
+      </c>
+      <c r="E5" s="126">
+        <v>0.96067780816877402</v>
+      </c>
+      <c r="F5" s="126">
+        <v>0.98790693605172497</v>
+      </c>
+      <c r="G5" s="79">
+        <f t="shared" si="0"/>
+        <v>0.96010599701665056</v>
+      </c>
+      <c r="H5" s="125">
+        <v>0.94548338937612297</v>
+      </c>
+      <c r="I5" s="126">
+        <v>0.90537521786099895</v>
+      </c>
+      <c r="J5" s="126">
+        <v>0.93190755803998204</v>
+      </c>
+      <c r="K5" s="126">
+        <v>0.97299488614048102</v>
+      </c>
+      <c r="L5" s="79">
+        <f>AVERAGE(H5:K5)</f>
+        <v>0.93894026285439625</v>
+      </c>
+      <c r="M5" s="125">
+        <v>0.91730912875779802</v>
+      </c>
+      <c r="N5" s="126">
+        <v>0.86347684415746995</v>
+      </c>
+      <c r="O5" s="126">
+        <v>0.92536695975459204</v>
+      </c>
+      <c r="P5" s="126">
+        <v>0.936344560943424</v>
+      </c>
+      <c r="Q5" s="79">
+        <f>AVERAGE(M5:P5)</f>
+        <v>0.91062437340332103</v>
+      </c>
+      <c r="R5" s="81">
+        <f>AVERAGE(Q5,L5,G5)</f>
+        <v>0.93655687775812257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="127" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="120">
+        <v>0.41706770277815802</v>
+      </c>
+      <c r="D6" s="121">
+        <v>0.28845537866890902</v>
+      </c>
+      <c r="E6" s="121">
+        <v>0.45502722662759798</v>
+      </c>
+      <c r="F6" s="121">
+        <v>0.44319734810986899</v>
+      </c>
+      <c r="G6" s="122">
+        <f t="shared" si="0"/>
+        <v>0.40093691404613352</v>
+      </c>
+      <c r="H6" s="120">
+        <v>0.59753518712290599</v>
+      </c>
+      <c r="I6" s="121">
+        <v>0.26991678875075797</v>
+      </c>
+      <c r="J6" s="121">
+        <v>0.28298132485336802</v>
+      </c>
+      <c r="K6" s="121">
+        <v>1.29761573348202</v>
+      </c>
+      <c r="L6" s="122">
+        <f t="shared" ref="L6:L8" si="2">AVERAGE(H6:K6)</f>
+        <v>0.61201225855226293</v>
+      </c>
+      <c r="M6" s="120">
+        <v>0.46540207240376202</v>
+      </c>
+      <c r="N6" s="121">
+        <v>0.32247898103150602</v>
+      </c>
+      <c r="O6" s="121">
+        <v>0.32183580165577003</v>
+      </c>
+      <c r="P6" s="121">
+        <v>1.4469678143754701</v>
+      </c>
+      <c r="Q6" s="122">
+        <f t="shared" ref="Q6:Q8" si="3">AVERAGE(M6:P6)</f>
+        <v>0.63917116736662705</v>
+      </c>
+      <c r="R6" s="59">
+        <f t="shared" ref="R6:R8" si="4">AVERAGE(Q6,L6,G6)</f>
+        <v>0.55070677998834128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="127"/>
+      <c r="B7" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="123">
+        <v>0.64681865064097299</v>
+      </c>
+      <c r="D7" s="124">
+        <v>0.33521921960816597</v>
+      </c>
+      <c r="E7" s="124">
+        <v>0.53904331468254296</v>
+      </c>
+      <c r="F7" s="124">
+        <v>0.64644929268219098</v>
+      </c>
+      <c r="G7" s="65">
+        <f t="shared" si="0"/>
+        <v>0.54188261940346827</v>
+      </c>
+      <c r="H7" s="123">
+        <v>0.92226615665213596</v>
+      </c>
+      <c r="I7" s="124">
+        <v>0.42815557658488002</v>
+      </c>
+      <c r="J7" s="124">
+        <v>0.40203017711716299</v>
+      </c>
+      <c r="K7" s="124">
+        <v>2.0735262091425501</v>
+      </c>
+      <c r="L7" s="65">
+        <f t="shared" si="2"/>
+        <v>0.95649452987418226</v>
+      </c>
+      <c r="M7" s="123">
+        <v>0.79760083269822502</v>
+      </c>
+      <c r="N7" s="124">
+        <v>0.420823702510222</v>
+      </c>
+      <c r="O7" s="124">
+        <v>0.40514019981382798</v>
+      </c>
+      <c r="P7" s="124">
+        <v>2.3560916667061802</v>
+      </c>
+      <c r="Q7" s="65">
+        <f t="shared" si="3"/>
+        <v>0.99491410043211381</v>
+      </c>
+      <c r="R7" s="66">
+        <f t="shared" si="4"/>
+        <v>0.83109708323658804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="128"/>
+      <c r="B8" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="125">
+        <v>0.91358303545084796</v>
+      </c>
+      <c r="D8" s="126">
+        <v>0.92982538767066103</v>
+      </c>
+      <c r="E8" s="126">
+        <v>0.96652149409682897</v>
+      </c>
+      <c r="F8" s="126">
+        <v>0.98390991213604295</v>
+      </c>
+      <c r="G8" s="79">
+        <f t="shared" si="0"/>
+        <v>0.94845995733859523</v>
+      </c>
+      <c r="H8" s="125">
+        <v>0.83752281628119496</v>
+      </c>
+      <c r="I8" s="126">
+        <v>0.88130858228160502</v>
+      </c>
+      <c r="J8" s="126">
+        <v>0.94935756111033698</v>
+      </c>
+      <c r="K8" s="126">
+        <v>0.62489278453021502</v>
+      </c>
+      <c r="L8" s="79">
+        <f t="shared" si="2"/>
+        <v>0.82327043605083794</v>
+      </c>
+      <c r="M8" s="125">
+        <v>0.83867600053653302</v>
+      </c>
+      <c r="N8" s="126">
+        <v>0.84362439499026398</v>
+      </c>
+      <c r="O8" s="126">
+        <v>0.94760917983973003</v>
+      </c>
+      <c r="P8" s="126">
+        <v>0.51591266080917497</v>
+      </c>
+      <c r="Q8" s="79">
+        <f t="shared" si="3"/>
+        <v>0.7864555590439255</v>
+      </c>
+      <c r="R8" s="81">
+        <f>AVERAGE(Q8,L8,G8)</f>
+        <v>0.85272865081111959</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Logging/Tools/Results_Summary.xlsx
+++ b/Logging/Tools/Results_Summary.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/github/Forecasting/Logging/Tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D6D06A-4C85-EC46-9AC6-1FE3DE0687A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E4912A-ABBC-0748-8D84-FF8C773EC0BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{D6C4A1CF-C8B6-1A42-B202-9397802E1C24}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{D6C4A1CF-C8B6-1A42-B202-9397802E1C24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
-    <sheet name="7 days ahead" sheetId="6" r:id="rId2"/>
-    <sheet name="14 days ahead" sheetId="7" r:id="rId3"/>
-    <sheet name="21 days ahead" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
+    <sheet name="7 days ahead" sheetId="6" r:id="rId3"/>
+    <sheet name="14 days ahead" sheetId="7" r:id="rId4"/>
+    <sheet name="21 days ahead" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'7 days ahead'!$A$1:$A$168</definedName>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="236">
   <si>
     <t>2014/15</t>
   </si>
@@ -717,6 +718,63 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>GRU with Confidence Intervals</t>
+  </si>
+  <si>
+    <t>Linear Model with Confidence Intervals</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>28 Days</t>
+  </si>
+  <si>
+    <t>Epochs</t>
+  </si>
+  <si>
+    <t>Regularisation</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Weather Data</t>
+  </si>
+  <si>
+    <t>Day of the Year</t>
+  </si>
+  <si>
+    <t>Num Runs</t>
+  </si>
+  <si>
+    <t>Batch Size</t>
+  </si>
+  <si>
+    <t>Initialisation</t>
+  </si>
+  <si>
+    <t>Glorot Uniform</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Negative Log Likelihood</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Early Stopping</t>
+  </si>
+  <si>
+    <t>Parameter</t>
   </si>
 </sst>
 </file>
@@ -777,7 +835,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1073,11 +1131,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1261,12 +1378,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1274,6 +1385,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1285,16 +1417,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1306,39 +1468,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6691,8 +6927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F65057-F8D9-5340-9C4E-E5CBE3EA5B75}">
   <dimension ref="B1:BW103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y51" sqref="V51:Y57"/>
+    <sheetView topLeftCell="S21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26:AE44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6702,7 +6938,7 @@
     <col min="15" max="20" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="13"/>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -6717,34 +6953,34 @@
       <c r="M1" s="14"/>
       <c r="N1" s="16"/>
     </row>
-    <row r="2" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
-      <c r="E2" s="137" t="s">
+      <c r="E2" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="137" t="s">
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="137" t="s">
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="140" t="s">
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="141" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -6791,13 +7027,13 @@
       <c r="S3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="140"/>
-    </row>
-    <row r="4" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="136" t="s">
+      <c r="T3" s="141"/>
+    </row>
+    <row r="4" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="142" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -6856,9 +7092,9 @@
         <v>2.4228745819420414</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B5" s="136"/>
-      <c r="C5" s="131"/>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B5" s="140"/>
+      <c r="C5" s="138"/>
       <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
@@ -6915,9 +7151,9 @@
         <v>4.0367928716179726</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B6" s="136"/>
-      <c r="C6" s="142"/>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B6" s="140"/>
+      <c r="C6" s="143"/>
       <c r="D6" s="11" t="s">
         <v>3</v>
       </c>
@@ -6974,9 +7210,9 @@
         <v>0.89535864834839307</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B7" s="136"/>
-      <c r="C7" s="131" t="s">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B7" s="140"/>
+      <c r="C7" s="138" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -7035,9 +7271,9 @@
         <v>2.4770030321749452</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B8" s="136"/>
-      <c r="C8" s="131"/>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B8" s="140"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="9" t="s">
         <v>2</v>
       </c>
@@ -7094,9 +7330,9 @@
         <v>3.985442228342007</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="136"/>
-      <c r="C9" s="142"/>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B9" s="140"/>
+      <c r="C9" s="143"/>
       <c r="D9" s="11" t="s">
         <v>3</v>
       </c>
@@ -7153,9 +7389,9 @@
         <v>0.90729197390209559</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="136"/>
-      <c r="C10" s="131" t="s">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B10" s="140"/>
+      <c r="C10" s="138" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -7214,9 +7450,9 @@
         <v>3.063717246055603</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="136"/>
-      <c r="C11" s="131"/>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B11" s="140"/>
+      <c r="C11" s="138"/>
       <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
@@ -7273,9 +7509,9 @@
         <v>5.4936151107152247</v>
       </c>
     </row>
-    <row r="12" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="136"/>
-      <c r="C12" s="132"/>
+    <row r="12" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="140"/>
+      <c r="C12" s="139"/>
       <c r="D12" s="10" t="s">
         <v>3</v>
       </c>
@@ -7332,9 +7568,9 @@
         <v>0.84166996132047345</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="136"/>
-      <c r="C13" s="131" t="s">
+    <row r="13" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="140"/>
+      <c r="C13" s="138" t="s">
         <v>208</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -7393,9 +7629,9 @@
         <v>2.3027046783320642</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="136"/>
-      <c r="C14" s="131"/>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B14" s="140"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="9" t="s">
         <v>2</v>
       </c>
@@ -7451,10 +7687,14 @@
         <f t="shared" si="5"/>
         <v>3.5984355902258893</v>
       </c>
-    </row>
-    <row r="15" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="136"/>
-      <c r="C15" s="132"/>
+      <c r="W14">
+        <f>-0.2*60</f>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="140"/>
+      <c r="C15" s="139"/>
       <c r="D15" s="10" t="s">
         <v>3</v>
       </c>
@@ -7511,8 +7751,8 @@
         <v>0.93655687775812257</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C16" s="131" t="s">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="C16" s="138" t="s">
         <v>207</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -7572,7 +7812,7 @@
       </c>
     </row>
     <row r="17" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="C17" s="131"/>
+      <c r="C17" s="138"/>
       <c r="D17" s="9" t="s">
         <v>2</v>
       </c>
@@ -7630,7 +7870,7 @@
       </c>
     </row>
     <row r="18" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="132"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="10" t="s">
         <v>3</v>
       </c>
@@ -7688,7 +7928,7 @@
       </c>
     </row>
     <row r="19" spans="2:39" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="131" t="s">
+      <c r="C19" s="138" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -7723,7 +7963,7 @@
       <c r="T19" s="48"/>
     </row>
     <row r="20" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="C20" s="131"/>
+      <c r="C20" s="138"/>
       <c r="D20" s="9" t="s">
         <v>2</v>
       </c>
@@ -7756,7 +7996,7 @@
       <c r="T20" s="48"/>
     </row>
     <row r="21" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="132"/>
+      <c r="C21" s="139"/>
       <c r="D21" s="10" t="s">
         <v>3</v>
       </c>
@@ -7789,7 +8029,7 @@
       <c r="T21" s="52"/>
     </row>
     <row r="22" spans="2:39" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="131" t="s">
+      <c r="C22" s="138" t="s">
         <v>183</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -7824,7 +8064,7 @@
       <c r="T22" s="25"/>
     </row>
     <row r="23" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="C23" s="131"/>
+      <c r="C23" s="138"/>
       <c r="D23" s="9" t="s">
         <v>2</v>
       </c>
@@ -7857,7 +8097,7 @@
       <c r="T23" s="32"/>
     </row>
     <row r="24" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="132"/>
+      <c r="C24" s="139"/>
       <c r="D24" s="10" t="s">
         <v>3</v>
       </c>
@@ -7891,48 +8131,48 @@
     </row>
     <row r="25" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="137" t="s">
+      <c r="E26" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="137" t="s">
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="138"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="138"/>
-      <c r="N26" s="139"/>
-      <c r="O26" s="137" t="s">
+      <c r="K26" s="129"/>
+      <c r="L26" s="129"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="130"/>
+      <c r="O26" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="P26" s="138"/>
-      <c r="Q26" s="138"/>
-      <c r="R26" s="138"/>
-      <c r="S26" s="139"/>
+      <c r="P26" s="129"/>
+      <c r="Q26" s="129"/>
+      <c r="R26" s="129"/>
+      <c r="S26" s="130"/>
       <c r="T26" s="68"/>
-      <c r="X26" s="146" t="s">
+      <c r="X26" s="127" t="s">
         <v>209</v>
       </c>
-      <c r="Y26" s="146"/>
-      <c r="Z26" s="146"/>
-      <c r="AA26" s="146"/>
-      <c r="AB26" s="146"/>
-      <c r="AC26" s="146"/>
-      <c r="AD26" s="146"/>
-      <c r="AE26" s="146"/>
-      <c r="AF26" s="146" t="s">
+      <c r="Y26" s="127"/>
+      <c r="Z26" s="127"/>
+      <c r="AA26" s="127"/>
+      <c r="AB26" s="127"/>
+      <c r="AC26" s="127"/>
+      <c r="AD26" s="127"/>
+      <c r="AE26" s="127"/>
+      <c r="AF26" s="127" t="s">
         <v>206</v>
       </c>
-      <c r="AG26" s="146"/>
-      <c r="AH26" s="146"/>
-      <c r="AI26" s="146"/>
-      <c r="AJ26" s="146"/>
-      <c r="AK26" s="146"/>
-      <c r="AL26" s="146"/>
-      <c r="AM26" s="146"/>
+      <c r="AG26" s="127"/>
+      <c r="AH26" s="127"/>
+      <c r="AI26" s="127"/>
+      <c r="AJ26" s="127"/>
+      <c r="AK26" s="127"/>
+      <c r="AL26" s="127"/>
+      <c r="AM26" s="127"/>
     </row>
     <row r="27" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E27" s="69" t="s">
@@ -7983,36 +8223,36 @@
       <c r="T27" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="X27" s="146" t="s">
+      <c r="X27" s="127" t="s">
         <v>210</v>
       </c>
-      <c r="Y27" s="146"/>
-      <c r="Z27" s="146"/>
-      <c r="AA27" s="146"/>
-      <c r="AB27" s="146" t="s">
+      <c r="Y27" s="127"/>
+      <c r="Z27" s="127"/>
+      <c r="AA27" s="127"/>
+      <c r="AB27" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="AC27" s="146"/>
-      <c r="AD27" s="146"/>
-      <c r="AE27" s="146"/>
-      <c r="AF27" s="146" t="s">
+      <c r="AC27" s="127"/>
+      <c r="AD27" s="127"/>
+      <c r="AE27" s="127"/>
+      <c r="AF27" s="127" t="s">
         <v>210</v>
       </c>
-      <c r="AG27" s="146"/>
-      <c r="AH27" s="146"/>
-      <c r="AI27" s="146"/>
-      <c r="AJ27" s="146" t="s">
+      <c r="AG27" s="127"/>
+      <c r="AH27" s="127"/>
+      <c r="AI27" s="127"/>
+      <c r="AJ27" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="AK27" s="146"/>
-      <c r="AL27" s="146"/>
-      <c r="AM27" s="146"/>
+      <c r="AK27" s="127"/>
+      <c r="AL27" s="127"/>
+      <c r="AM27" s="127"/>
     </row>
     <row r="28" spans="2:39" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="143" t="s">
+      <c r="B28" s="134" t="s">
         <v>209</v>
       </c>
-      <c r="C28" s="126" t="s">
+      <c r="C28" s="131" t="s">
         <v>210</v>
       </c>
       <c r="D28" s="53" t="s">
@@ -8126,8 +8366,8 @@
       </c>
     </row>
     <row r="29" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B29" s="129"/>
-      <c r="C29" s="127"/>
+      <c r="B29" s="135"/>
+      <c r="C29" s="132"/>
       <c r="D29" s="2" t="s">
         <v>2</v>
       </c>
@@ -8183,7 +8423,7 @@
         <f t="shared" ref="T29:T39" si="12">AVERAGE(I29,N29,S29)</f>
         <v>3.5639650679250701</v>
       </c>
-      <c r="V29" s="118">
+      <c r="V29" s="151">
         <v>7</v>
       </c>
       <c r="W29" s="101" t="s">
@@ -8239,8 +8479,8 @@
       </c>
     </row>
     <row r="30" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B30" s="129"/>
-      <c r="C30" s="127"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="132"/>
       <c r="D30" s="2" t="s">
         <v>3</v>
       </c>
@@ -8296,7 +8536,7 @@
         <f t="shared" si="12"/>
         <v>0.93524402885015689</v>
       </c>
-      <c r="V30" s="119"/>
+      <c r="V30" s="152"/>
       <c r="W30" s="105" t="s">
         <v>6</v>
       </c>
@@ -8350,8 +8590,8 @@
       </c>
     </row>
     <row r="31" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="129"/>
-      <c r="C31" s="128"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="133"/>
       <c r="D31" s="54" t="s">
         <v>211</v>
       </c>
@@ -8407,7 +8647,7 @@
         <f t="shared" si="12"/>
         <v>15.833333333333334</v>
       </c>
-      <c r="V31" s="119"/>
+      <c r="V31" s="152"/>
       <c r="W31" s="105" t="s">
         <v>7</v>
       </c>
@@ -8461,8 +8701,8 @@
       </c>
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B32" s="129"/>
-      <c r="C32" s="126" t="s">
+      <c r="B32" s="135"/>
+      <c r="C32" s="131" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="53" t="s">
@@ -8520,7 +8760,7 @@
         <f t="shared" si="12"/>
         <v>2.2776308536949266</v>
       </c>
-      <c r="V32" s="119"/>
+      <c r="V32" s="152"/>
       <c r="W32" s="105" t="s">
         <v>8</v>
       </c>
@@ -8574,8 +8814,8 @@
       </c>
     </row>
     <row r="33" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="129"/>
-      <c r="C33" s="127"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="132"/>
       <c r="D33" s="2" t="s">
         <v>2</v>
       </c>
@@ -8631,7 +8871,7 @@
         <f t="shared" si="12"/>
         <v>3.7603605058238752</v>
       </c>
-      <c r="V33" s="120"/>
+      <c r="V33" s="153"/>
       <c r="W33" s="72" t="s">
         <v>9</v>
       </c>
@@ -8701,8 +8941,8 @@
       </c>
     </row>
     <row r="34" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B34" s="129"/>
-      <c r="C34" s="127"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="132"/>
       <c r="D34" s="2" t="s">
         <v>3</v>
       </c>
@@ -8758,7 +8998,7 @@
         <f t="shared" si="12"/>
         <v>0.91488429714260311</v>
       </c>
-      <c r="V34" s="118">
+      <c r="V34" s="151">
         <v>14</v>
       </c>
       <c r="W34" s="101" t="s">
@@ -8814,8 +9054,8 @@
       </c>
     </row>
     <row r="35" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="129"/>
-      <c r="C35" s="128"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="133"/>
       <c r="D35" s="95" t="s">
         <v>211</v>
       </c>
@@ -8871,7 +9111,7 @@
         <f t="shared" si="12"/>
         <v>10.583333333333334</v>
       </c>
-      <c r="V35" s="119"/>
+      <c r="V35" s="152"/>
       <c r="W35" s="105" t="s">
         <v>6</v>
       </c>
@@ -8925,8 +9165,8 @@
       </c>
     </row>
     <row r="36" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B36" s="129"/>
-      <c r="C36" s="127" t="s">
+      <c r="B36" s="135"/>
+      <c r="C36" s="132" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -8984,7 +9224,7 @@
         <f t="shared" si="12"/>
         <v>3.0008085841689058</v>
       </c>
-      <c r="V36" s="119"/>
+      <c r="V36" s="152"/>
       <c r="W36" s="105" t="s">
         <v>7</v>
       </c>
@@ -9038,8 +9278,8 @@
       </c>
     </row>
     <row r="37" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B37" s="129"/>
-      <c r="C37" s="127"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="132"/>
       <c r="D37" s="2" t="s">
         <v>2</v>
       </c>
@@ -9095,7 +9335,7 @@
         <f t="shared" si="12"/>
         <v>5.158547971052232</v>
       </c>
-      <c r="V37" s="119"/>
+      <c r="V37" s="152"/>
       <c r="W37" s="105" t="s">
         <v>8</v>
       </c>
@@ -9149,8 +9389,8 @@
       </c>
     </row>
     <row r="38" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="129"/>
-      <c r="C38" s="127"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="132"/>
       <c r="D38" s="2" t="s">
         <v>3</v>
       </c>
@@ -9206,7 +9446,7 @@
         <f t="shared" si="12"/>
         <v>0.87064370203199515</v>
       </c>
-      <c r="V38" s="120"/>
+      <c r="V38" s="153"/>
       <c r="W38" s="72" t="s">
         <v>9</v>
       </c>
@@ -9276,8 +9516,8 @@
       </c>
     </row>
     <row r="39" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="144"/>
-      <c r="C39" s="145"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="137"/>
       <c r="D39" s="92" t="s">
         <v>212</v>
       </c>
@@ -9333,7 +9573,7 @@
         <f t="shared" si="12"/>
         <v>23.25</v>
       </c>
-      <c r="V39" s="118">
+      <c r="V39" s="151">
         <v>21</v>
       </c>
       <c r="W39" s="101" t="s">
@@ -9389,10 +9629,10 @@
       </c>
     </row>
     <row r="40" spans="2:39" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="129" t="s">
+      <c r="B40" s="135" t="s">
         <v>206</v>
       </c>
-      <c r="C40" s="127" t="s">
+      <c r="C40" s="132" t="s">
         <v>210</v>
       </c>
       <c r="D40" s="13" t="s">
@@ -9450,7 +9690,7 @@
         <f>AVERAGE(I40,N40,S40)</f>
         <v>0.48197307962486019</v>
       </c>
-      <c r="V40" s="119"/>
+      <c r="V40" s="152"/>
       <c r="W40" s="105" t="s">
         <v>6</v>
       </c>
@@ -9504,8 +9744,8 @@
       </c>
     </row>
     <row r="41" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B41" s="129"/>
-      <c r="C41" s="127"/>
+      <c r="B41" s="135"/>
+      <c r="C41" s="132"/>
       <c r="D41" s="13" t="s">
         <v>2</v>
       </c>
@@ -9561,7 +9801,7 @@
         <f>AVERAGE(I41,N41,S41)</f>
         <v>0.71483607643238045</v>
       </c>
-      <c r="V41" s="119"/>
+      <c r="V41" s="152"/>
       <c r="W41" s="105" t="s">
         <v>7</v>
       </c>
@@ -9615,8 +9855,8 @@
       </c>
     </row>
     <row r="42" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B42" s="129"/>
-      <c r="C42" s="127"/>
+      <c r="B42" s="135"/>
+      <c r="C42" s="132"/>
       <c r="D42" s="13" t="s">
         <v>3</v>
       </c>
@@ -9672,7 +9912,7 @@
         <f>AVERAGE(I42,N42,S42)</f>
         <v>0.89514895097951153</v>
       </c>
-      <c r="V42" s="119"/>
+      <c r="V42" s="152"/>
       <c r="W42" s="105" t="s">
         <v>8</v>
       </c>
@@ -9726,8 +9966,8 @@
       </c>
     </row>
     <row r="43" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="129"/>
-      <c r="C43" s="128"/>
+      <c r="B43" s="135"/>
+      <c r="C43" s="133"/>
       <c r="D43" s="54" t="s">
         <v>211</v>
       </c>
@@ -9783,7 +10023,7 @@
         <f>AVERAGE(I43,N43,S43)</f>
         <v>12.666666666666666</v>
       </c>
-      <c r="V43" s="120"/>
+      <c r="V43" s="153"/>
       <c r="W43" s="72" t="s">
         <v>9</v>
       </c>
@@ -9853,8 +10093,8 @@
       </c>
     </row>
     <row r="44" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B44" s="129"/>
-      <c r="C44" s="126" t="s">
+      <c r="B44" s="135"/>
+      <c r="C44" s="131" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="13" t="s">
@@ -9912,10 +10152,10 @@
         <f t="shared" ref="T44:T51" si="21">AVERAGE(I44,N44,S44)</f>
         <v>0.38309457795371937</v>
       </c>
-      <c r="V44" s="121" t="s">
+      <c r="V44" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="W44" s="122"/>
+      <c r="W44" s="155"/>
       <c r="X44" s="113">
         <f t="shared" ref="X44:AM44" si="22">AVERAGE(X33,X38,X43)</f>
         <v>2.1519019847241818</v>
@@ -9982,8 +10222,8 @@
       </c>
     </row>
     <row r="45" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B45" s="129"/>
-      <c r="C45" s="127"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="132"/>
       <c r="D45" s="13" t="s">
         <v>2</v>
       </c>
@@ -10041,8 +10281,8 @@
       </c>
     </row>
     <row r="46" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B46" s="129"/>
-      <c r="C46" s="127"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="132"/>
       <c r="D46" s="13" t="s">
         <v>3</v>
       </c>
@@ -10100,8 +10340,8 @@
       </c>
     </row>
     <row r="47" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="129"/>
-      <c r="C47" s="128"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="133"/>
       <c r="D47" s="54" t="s">
         <v>212</v>
       </c>
@@ -10159,8 +10399,8 @@
       </c>
     </row>
     <row r="48" spans="2:39" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="129"/>
-      <c r="C48" s="126" t="s">
+      <c r="B48" s="135"/>
+      <c r="C48" s="131" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="13" t="s">
@@ -10220,8 +10460,8 @@
       </c>
     </row>
     <row r="49" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B49" s="129"/>
-      <c r="C49" s="127"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="132"/>
       <c r="D49" s="13" t="s">
         <v>2</v>
       </c>
@@ -10279,8 +10519,8 @@
       </c>
     </row>
     <row r="50" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B50" s="129"/>
-      <c r="C50" s="127"/>
+      <c r="B50" s="135"/>
+      <c r="C50" s="132"/>
       <c r="D50" s="13" t="s">
         <v>3</v>
       </c>
@@ -10338,8 +10578,8 @@
       </c>
     </row>
     <row r="51" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="130"/>
-      <c r="C51" s="128"/>
+      <c r="B51" s="147"/>
+      <c r="C51" s="133"/>
       <c r="D51" s="54" t="s">
         <v>212</v>
       </c>
@@ -10476,10 +10716,10 @@
       <c r="BW55" s="13"/>
     </row>
     <row r="56" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B56" s="133">
+      <c r="B56" s="148">
         <v>0</v>
       </c>
-      <c r="C56" s="123">
+      <c r="C56" s="144">
         <v>0</v>
       </c>
       <c r="D56" s="53" t="s">
@@ -10543,8 +10783,8 @@
       <c r="BW56" s="55"/>
     </row>
     <row r="57" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B57" s="134"/>
-      <c r="C57" s="124"/>
+      <c r="B57" s="149"/>
+      <c r="C57" s="145"/>
       <c r="D57" s="2" t="s">
         <v>2</v>
       </c>
@@ -10610,8 +10850,8 @@
       <c r="BW57" s="55"/>
     </row>
     <row r="58" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="135"/>
-      <c r="C58" s="125"/>
+      <c r="B58" s="150"/>
+      <c r="C58" s="146"/>
       <c r="D58" s="54" t="s">
         <v>3</v>
       </c>
@@ -10677,10 +10917,10 @@
       <c r="BW58" s="55"/>
     </row>
     <row r="59" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B59" s="133">
+      <c r="B59" s="148">
         <v>0</v>
       </c>
-      <c r="C59" s="123">
+      <c r="C59" s="144">
         <v>1E-3</v>
       </c>
       <c r="D59" s="53" t="s">
@@ -10714,8 +10954,8 @@
       <c r="P59" s="55"/>
     </row>
     <row r="60" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B60" s="134"/>
-      <c r="C60" s="124"/>
+      <c r="B60" s="149"/>
+      <c r="C60" s="145"/>
       <c r="D60" s="2" t="s">
         <v>2</v>
       </c>
@@ -10745,8 +10985,8 @@
       <c r="P60" s="55"/>
     </row>
     <row r="61" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="135"/>
-      <c r="C61" s="125"/>
+      <c r="B61" s="150"/>
+      <c r="C61" s="146"/>
       <c r="D61" s="54" t="s">
         <v>3</v>
       </c>
@@ -10772,10 +11012,10 @@
       <c r="N61"/>
     </row>
     <row r="62" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B62" s="123">
+      <c r="B62" s="144">
         <v>0</v>
       </c>
-      <c r="C62" s="123">
+      <c r="C62" s="144">
         <v>0.01</v>
       </c>
       <c r="D62" s="53" t="s">
@@ -10803,8 +11043,8 @@
       <c r="N62"/>
     </row>
     <row r="63" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B63" s="124"/>
-      <c r="C63" s="124"/>
+      <c r="B63" s="145"/>
+      <c r="C63" s="145"/>
       <c r="D63" s="2" t="s">
         <v>2</v>
       </c>
@@ -10833,8 +11073,8 @@
       <c r="N63"/>
     </row>
     <row r="64" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="125"/>
-      <c r="C64" s="125"/>
+      <c r="B64" s="146"/>
+      <c r="C64" s="146"/>
       <c r="D64" s="54" t="s">
         <v>3</v>
       </c>
@@ -10860,10 +11100,10 @@
       <c r="N64"/>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B65" s="123">
+      <c r="B65" s="144">
         <v>0</v>
       </c>
-      <c r="C65" s="123">
+      <c r="C65" s="144">
         <v>0.1</v>
       </c>
       <c r="D65" s="53" t="s">
@@ -10891,8 +11131,8 @@
       <c r="N65"/>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B66" s="124"/>
-      <c r="C66" s="124"/>
+      <c r="B66" s="145"/>
+      <c r="C66" s="145"/>
       <c r="D66" s="2" t="s">
         <v>2</v>
       </c>
@@ -10918,8 +11158,8 @@
       <c r="N66"/>
     </row>
     <row r="67" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="125"/>
-      <c r="C67" s="125"/>
+      <c r="B67" s="146"/>
+      <c r="C67" s="146"/>
       <c r="D67" s="54" t="s">
         <v>3</v>
       </c>
@@ -10948,10 +11188,10 @@
       <c r="N67"/>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B68" s="123">
+      <c r="B68" s="144">
         <v>1E-3</v>
       </c>
-      <c r="C68" s="123">
+      <c r="C68" s="144">
         <v>0</v>
       </c>
       <c r="D68" s="53" t="s">
@@ -10979,8 +11219,8 @@
       <c r="N68"/>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B69" s="124"/>
-      <c r="C69" s="124"/>
+      <c r="B69" s="145"/>
+      <c r="C69" s="145"/>
       <c r="D69" s="2" t="s">
         <v>2</v>
       </c>
@@ -11006,8 +11246,8 @@
       <c r="N69"/>
     </row>
     <row r="70" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="125"/>
-      <c r="C70" s="125"/>
+      <c r="B70" s="146"/>
+      <c r="C70" s="146"/>
       <c r="D70" s="54" t="s">
         <v>3</v>
       </c>
@@ -11034,10 +11274,10 @@
       <c r="O70" s="1"/>
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B71" s="123">
+      <c r="B71" s="144">
         <v>1E-3</v>
       </c>
-      <c r="C71" s="123">
+      <c r="C71" s="144">
         <v>1E-3</v>
       </c>
       <c r="D71" s="53" t="s">
@@ -11069,8 +11309,8 @@
       <c r="O71" s="1"/>
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B72" s="124"/>
-      <c r="C72" s="124"/>
+      <c r="B72" s="145"/>
+      <c r="C72" s="145"/>
       <c r="D72" s="2" t="s">
         <v>2</v>
       </c>
@@ -11097,8 +11337,8 @@
       <c r="O72" s="1"/>
     </row>
     <row r="73" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="125"/>
-      <c r="C73" s="125"/>
+      <c r="B73" s="146"/>
+      <c r="C73" s="146"/>
       <c r="D73" s="54" t="s">
         <v>3</v>
       </c>
@@ -11126,10 +11366,10 @@
       <c r="S73" s="1"/>
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B74" s="123">
+      <c r="B74" s="144">
         <v>1E-3</v>
       </c>
-      <c r="C74" s="123">
+      <c r="C74" s="144">
         <v>0.01</v>
       </c>
       <c r="D74" s="53" t="s">
@@ -11158,8 +11398,8 @@
       <c r="O74" s="1"/>
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B75" s="124"/>
-      <c r="C75" s="124"/>
+      <c r="B75" s="145"/>
+      <c r="C75" s="145"/>
       <c r="D75" s="2" t="s">
         <v>2</v>
       </c>
@@ -11182,8 +11422,8 @@
       <c r="N75"/>
     </row>
     <row r="76" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="125"/>
-      <c r="C76" s="125"/>
+      <c r="B76" s="146"/>
+      <c r="C76" s="146"/>
       <c r="D76" s="54" t="s">
         <v>3</v>
       </c>
@@ -11206,10 +11446,10 @@
       <c r="N76"/>
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B77" s="123">
+      <c r="B77" s="144">
         <v>1E-3</v>
       </c>
-      <c r="C77" s="123">
+      <c r="C77" s="144">
         <v>0.1</v>
       </c>
       <c r="D77" s="53" t="s">
@@ -11234,8 +11474,8 @@
       <c r="N77"/>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B78" s="124"/>
-      <c r="C78" s="124"/>
+      <c r="B78" s="145"/>
+      <c r="C78" s="145"/>
       <c r="D78" s="2" t="s">
         <v>2</v>
       </c>
@@ -11258,8 +11498,8 @@
       <c r="N78"/>
     </row>
     <row r="79" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="125"/>
-      <c r="C79" s="125"/>
+      <c r="B79" s="146"/>
+      <c r="C79" s="146"/>
       <c r="D79" s="54" t="s">
         <v>3</v>
       </c>
@@ -11282,10 +11522,10 @@
       <c r="N79"/>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B80" s="123">
+      <c r="B80" s="144">
         <v>0.01</v>
       </c>
-      <c r="C80" s="123">
+      <c r="C80" s="144">
         <v>0</v>
       </c>
       <c r="D80" s="53" t="s">
@@ -11310,8 +11550,8 @@
       <c r="N80"/>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B81" s="124"/>
-      <c r="C81" s="124"/>
+      <c r="B81" s="145"/>
+      <c r="C81" s="145"/>
       <c r="D81" s="2" t="s">
         <v>2</v>
       </c>
@@ -11334,8 +11574,8 @@
       <c r="N81"/>
     </row>
     <row r="82" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="125"/>
-      <c r="C82" s="125"/>
+      <c r="B82" s="146"/>
+      <c r="C82" s="146"/>
       <c r="D82" s="54" t="s">
         <v>3</v>
       </c>
@@ -11358,10 +11598,10 @@
       <c r="N82"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B83" s="123">
+      <c r="B83" s="144">
         <v>0.01</v>
       </c>
-      <c r="C83" s="123">
+      <c r="C83" s="144">
         <v>1E-3</v>
       </c>
       <c r="D83" s="53" t="s">
@@ -11386,8 +11626,8 @@
       <c r="N83"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B84" s="124"/>
-      <c r="C84" s="124"/>
+      <c r="B84" s="145"/>
+      <c r="C84" s="145"/>
       <c r="D84" s="2" t="s">
         <v>2</v>
       </c>
@@ -11410,8 +11650,8 @@
       <c r="N84"/>
     </row>
     <row r="85" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="125"/>
-      <c r="C85" s="125"/>
+      <c r="B85" s="146"/>
+      <c r="C85" s="146"/>
       <c r="D85" s="54" t="s">
         <v>3</v>
       </c>
@@ -11434,10 +11674,10 @@
       <c r="N85"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B86" s="123">
+      <c r="B86" s="144">
         <v>0.01</v>
       </c>
-      <c r="C86" s="123">
+      <c r="C86" s="144">
         <v>0.01</v>
       </c>
       <c r="D86" s="53" t="s">
@@ -11462,8 +11702,8 @@
       <c r="N86"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B87" s="124"/>
-      <c r="C87" s="124"/>
+      <c r="B87" s="145"/>
+      <c r="C87" s="145"/>
       <c r="D87" s="2" t="s">
         <v>2</v>
       </c>
@@ -11486,8 +11726,8 @@
       <c r="N87"/>
     </row>
     <row r="88" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="125"/>
-      <c r="C88" s="125"/>
+      <c r="B88" s="146"/>
+      <c r="C88" s="146"/>
       <c r="D88" s="54" t="s">
         <v>3</v>
       </c>
@@ -11510,10 +11750,10 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B89" s="123">
+      <c r="B89" s="144">
         <v>0.01</v>
       </c>
-      <c r="C89" s="123">
+      <c r="C89" s="144">
         <v>0.1</v>
       </c>
       <c r="D89" s="53" t="s">
@@ -11538,8 +11778,8 @@
       <c r="N89"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B90" s="124"/>
-      <c r="C90" s="124"/>
+      <c r="B90" s="145"/>
+      <c r="C90" s="145"/>
       <c r="D90" s="2" t="s">
         <v>2</v>
       </c>
@@ -11562,8 +11802,8 @@
       <c r="N90"/>
     </row>
     <row r="91" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="125"/>
-      <c r="C91" s="125"/>
+      <c r="B91" s="146"/>
+      <c r="C91" s="146"/>
       <c r="D91" s="54" t="s">
         <v>3</v>
       </c>
@@ -11586,10 +11826,10 @@
       <c r="N91"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B92" s="123">
+      <c r="B92" s="144">
         <v>0.1</v>
       </c>
-      <c r="C92" s="123">
+      <c r="C92" s="144">
         <v>0</v>
       </c>
       <c r="D92" s="53" t="s">
@@ -11614,8 +11854,8 @@
       <c r="N92"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B93" s="124"/>
-      <c r="C93" s="124"/>
+      <c r="B93" s="145"/>
+      <c r="C93" s="145"/>
       <c r="D93" s="2" t="s">
         <v>2</v>
       </c>
@@ -11637,8 +11877,8 @@
       </c>
     </row>
     <row r="94" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="125"/>
-      <c r="C94" s="125"/>
+      <c r="B94" s="146"/>
+      <c r="C94" s="146"/>
       <c r="D94" s="54" t="s">
         <v>3</v>
       </c>
@@ -11660,10 +11900,10 @@
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B95" s="123">
+      <c r="B95" s="144">
         <v>0.1</v>
       </c>
-      <c r="C95" s="123">
+      <c r="C95" s="144">
         <v>1E-3</v>
       </c>
       <c r="D95" s="53" t="s">
@@ -11687,8 +11927,8 @@
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B96" s="124"/>
-      <c r="C96" s="124"/>
+      <c r="B96" s="145"/>
+      <c r="C96" s="145"/>
       <c r="D96" s="2" t="s">
         <v>2</v>
       </c>
@@ -11710,8 +11950,8 @@
       </c>
     </row>
     <row r="97" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="125"/>
-      <c r="C97" s="125"/>
+      <c r="B97" s="146"/>
+      <c r="C97" s="146"/>
       <c r="D97" s="54" t="s">
         <v>3</v>
       </c>
@@ -11733,10 +11973,10 @@
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B98" s="123">
+      <c r="B98" s="144">
         <v>0.1</v>
       </c>
-      <c r="C98" s="123">
+      <c r="C98" s="144">
         <v>0.01</v>
       </c>
       <c r="D98" s="53" t="s">
@@ -11760,8 +12000,8 @@
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B99" s="124"/>
-      <c r="C99" s="124"/>
+      <c r="B99" s="145"/>
+      <c r="C99" s="145"/>
       <c r="D99" s="2" t="s">
         <v>2</v>
       </c>
@@ -11783,8 +12023,8 @@
       </c>
     </row>
     <row r="100" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="125"/>
-      <c r="C100" s="125"/>
+      <c r="B100" s="146"/>
+      <c r="C100" s="146"/>
       <c r="D100" s="54" t="s">
         <v>3</v>
       </c>
@@ -11806,10 +12046,10 @@
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B101" s="123">
+      <c r="B101" s="144">
         <v>0.1</v>
       </c>
-      <c r="C101" s="123">
+      <c r="C101" s="144">
         <v>0.1</v>
       </c>
       <c r="D101" s="53" t="s">
@@ -11833,8 +12073,8 @@
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B102" s="124"/>
-      <c r="C102" s="124"/>
+      <c r="B102" s="145"/>
+      <c r="C102" s="145"/>
       <c r="D102" s="2" t="s">
         <v>2</v>
       </c>
@@ -11856,8 +12096,8 @@
       </c>
     </row>
     <row r="103" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="125"/>
-      <c r="C103" s="125"/>
+      <c r="B103" s="146"/>
+      <c r="C103" s="146"/>
       <c r="D103" s="54" t="s">
         <v>3</v>
       </c>
@@ -11880,37 +12120,24 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="AF26:AM26"/>
-    <mergeCell ref="X27:AA27"/>
-    <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="AJ27:AM27"/>
-    <mergeCell ref="X26:AE26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:S26"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="B28:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B4:B15"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="V29:V33"/>
+    <mergeCell ref="V34:V38"/>
+    <mergeCell ref="V39:V43"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C64"/>
     <mergeCell ref="C101:C103"/>
     <mergeCell ref="B62:B64"/>
     <mergeCell ref="B65:B67"/>
@@ -11927,24 +12154,37 @@
     <mergeCell ref="B98:B100"/>
     <mergeCell ref="B101:B103"/>
     <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="B40:B51"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="V29:V33"/>
-    <mergeCell ref="V34:V38"/>
-    <mergeCell ref="V39:V43"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B4:B15"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="AF26:AM26"/>
+    <mergeCell ref="X27:AA27"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AJ27:AM27"/>
+    <mergeCell ref="X26:AE26"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11952,6 +12192,1905 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFB687B-AE8A-9E4C-93B1-A2032A687EEF}">
+  <dimension ref="C4:Y58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21:M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="24" max="24" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X5" s="172" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y5" s="173" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="13"/>
+      <c r="F6" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="128" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="141" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="121" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y6" s="124" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="13"/>
+      <c r="F7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U7" s="141"/>
+      <c r="X7" s="122" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y7" s="125" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="3:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="140" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="131" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="89">
+        <v>1.88859227383446</v>
+      </c>
+      <c r="G8" s="74">
+        <v>2.4394765425882001</v>
+      </c>
+      <c r="H8" s="74">
+        <v>1.2464504398454599</v>
+      </c>
+      <c r="I8" s="75">
+        <v>3.1531473150135501</v>
+      </c>
+      <c r="J8" s="76">
+        <f>AVERAGE(F8:I8)</f>
+        <v>2.1819166428204175</v>
+      </c>
+      <c r="K8" s="89">
+        <v>2.20488301676775</v>
+      </c>
+      <c r="L8" s="74">
+        <v>2.5948577687192298</v>
+      </c>
+      <c r="M8" s="74">
+        <v>1.6361221877885901</v>
+      </c>
+      <c r="N8" s="74">
+        <v>3.7660561565634199</v>
+      </c>
+      <c r="O8" s="76">
+        <f>AVERAGE(K8:N8)</f>
+        <v>2.5504797824597478</v>
+      </c>
+      <c r="P8" s="89">
+        <v>2.63980864909824</v>
+      </c>
+      <c r="Q8" s="74">
+        <v>3.11141102059951</v>
+      </c>
+      <c r="R8" s="75">
+        <v>2.1549645407998299</v>
+      </c>
+      <c r="S8" s="74">
+        <v>4.8042653181545898</v>
+      </c>
+      <c r="T8" s="76">
+        <f>AVERAGE(P8:S8)</f>
+        <v>3.1776123821630424</v>
+      </c>
+      <c r="U8" s="91">
+        <f>AVERAGE(J8,O8,T8)</f>
+        <v>2.6366696024810694</v>
+      </c>
+      <c r="X8" s="122" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y8" s="125">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C9" s="140"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="26">
+        <v>2.59165720584447</v>
+      </c>
+      <c r="G9" s="28">
+        <v>3.6985519699639902</v>
+      </c>
+      <c r="H9" s="27">
+        <v>1.52064727305979</v>
+      </c>
+      <c r="I9" s="27">
+        <v>5.4298722955533503</v>
+      </c>
+      <c r="J9" s="82">
+        <f>AVERAGE(F9:I9)</f>
+        <v>3.3101821861054002</v>
+      </c>
+      <c r="K9" s="26">
+        <v>3.2013188394651602</v>
+      </c>
+      <c r="L9" s="28">
+        <v>3.9865014193878601</v>
+      </c>
+      <c r="M9" s="27">
+        <v>1.9751604258767701</v>
+      </c>
+      <c r="N9" s="28">
+        <v>6.88452412655153</v>
+      </c>
+      <c r="O9" s="81">
+        <f t="shared" ref="O9:O10" si="0">AVERAGE(K9:N9)</f>
+        <v>4.0118762028203303</v>
+      </c>
+      <c r="P9" s="26">
+        <v>3.88970385511591</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>4.5032490436190296</v>
+      </c>
+      <c r="R9" s="27">
+        <v>2.69456632543171</v>
+      </c>
+      <c r="S9" s="28">
+        <v>8.7122527323115797</v>
+      </c>
+      <c r="T9" s="81">
+        <f t="shared" ref="T9:T10" si="1">AVERAGE(P9:S9)</f>
+        <v>4.9499429891195579</v>
+      </c>
+      <c r="U9" s="91">
+        <f t="shared" ref="U9:U15" si="2">AVERAGE(J9,O9,T9)</f>
+        <v>4.090667126015096</v>
+      </c>
+      <c r="X9" s="122" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y9" s="125">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C10" s="140"/>
+      <c r="D10" s="132"/>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.92528922808715897</v>
+      </c>
+      <c r="G10" s="27">
+        <v>0.91731307019144204</v>
+      </c>
+      <c r="H10" s="27">
+        <v>0.96607855073938698</v>
+      </c>
+      <c r="I10" s="28">
+        <v>0.97967690834607302</v>
+      </c>
+      <c r="J10" s="82">
+        <f>AVERAGE(F10:I10)</f>
+        <v>0.9470894393410153</v>
+      </c>
+      <c r="K10" s="26">
+        <v>0.86211416571558996</v>
+      </c>
+      <c r="L10" s="28">
+        <v>0.85984276104255097</v>
+      </c>
+      <c r="M10" s="28">
+        <v>0.93683635929012099</v>
+      </c>
+      <c r="N10" s="28">
+        <v>0.92598361339384805</v>
+      </c>
+      <c r="O10" s="81">
+        <f t="shared" si="0"/>
+        <v>0.89619422486052747</v>
+      </c>
+      <c r="P10" s="26">
+        <v>0.77413283081775097</v>
+      </c>
+      <c r="Q10" s="28">
+        <v>0.76103474519610004</v>
+      </c>
+      <c r="R10" s="27">
+        <v>0.89432312515617896</v>
+      </c>
+      <c r="S10" s="28">
+        <v>0.83218065673479502</v>
+      </c>
+      <c r="T10" s="81">
+        <f t="shared" si="1"/>
+        <v>0.81541783947620627</v>
+      </c>
+      <c r="U10" s="91">
+        <f t="shared" si="2"/>
+        <v>0.88623383455924964</v>
+      </c>
+      <c r="X10" s="122" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y10" s="174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:25" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="140"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="49">
+        <v>-2</v>
+      </c>
+      <c r="G11" s="44">
+        <v>17</v>
+      </c>
+      <c r="H11" s="50">
+        <v>-17</v>
+      </c>
+      <c r="I11" s="50">
+        <v>9</v>
+      </c>
+      <c r="J11" s="95" cm="1">
+        <f t="array" ref="J11">AVERAGE(ABS(F11:I11))</f>
+        <v>11.25</v>
+      </c>
+      <c r="K11" s="49">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="50">
+        <v>12</v>
+      </c>
+      <c r="M11" s="50">
+        <v>-13</v>
+      </c>
+      <c r="N11" s="44">
+        <v>16</v>
+      </c>
+      <c r="O11" s="95" cm="1">
+        <f t="array" ref="O11">AVERAGE(ABS(K11:N11))</f>
+        <v>10.5</v>
+      </c>
+      <c r="P11" s="49">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="44">
+        <v>-128</v>
+      </c>
+      <c r="R11" s="44">
+        <v>-6</v>
+      </c>
+      <c r="S11" s="44">
+        <v>23</v>
+      </c>
+      <c r="T11" s="86" cm="1">
+        <f t="array" ref="T11">AVERAGE(ABS(P11:S11))</f>
+        <v>40.75</v>
+      </c>
+      <c r="U11" s="88">
+        <f t="shared" si="2"/>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="X11" s="122" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y11" s="125" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C12" s="140"/>
+      <c r="D12" s="131" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="73">
+        <v>1.36725643528292</v>
+      </c>
+      <c r="G12" s="75">
+        <v>1.9206822348157899</v>
+      </c>
+      <c r="H12" s="75">
+        <v>1.19860244117899</v>
+      </c>
+      <c r="I12" s="74">
+        <v>3.5267121083115698</v>
+      </c>
+      <c r="J12" s="77" cm="1">
+        <f t="array" ref="J12">AVERAGE(ABS(F12:I12))</f>
+        <v>2.0033133048973175</v>
+      </c>
+      <c r="K12" s="73">
+        <v>1.6127340801352501</v>
+      </c>
+      <c r="L12" s="75">
+        <v>1.80342525350414</v>
+      </c>
+      <c r="M12" s="75">
+        <v>1.3021965625966001</v>
+      </c>
+      <c r="N12" s="75">
+        <v>3.42516909127299</v>
+      </c>
+      <c r="O12" s="77">
+        <f>AVERAGE(K12:N12)</f>
+        <v>2.0358812468772451</v>
+      </c>
+      <c r="P12" s="73">
+        <v>2.03346934894642</v>
+      </c>
+      <c r="Q12" s="75">
+        <v>2.0795192420620499</v>
+      </c>
+      <c r="R12" s="74">
+        <v>2.30948274738962</v>
+      </c>
+      <c r="S12" s="75">
+        <v>3.1658921553716599</v>
+      </c>
+      <c r="T12" s="77">
+        <f>AVERAGE(P12:S12)</f>
+        <v>2.3970908734424374</v>
+      </c>
+      <c r="U12" s="78">
+        <f t="shared" si="2"/>
+        <v>2.1454284750723329</v>
+      </c>
+      <c r="X12" s="122" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y12" s="125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="C13" s="140"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="42">
+        <v>2.0689040376305501</v>
+      </c>
+      <c r="G13" s="27">
+        <v>2.7482410764018499</v>
+      </c>
+      <c r="H13" s="28">
+        <v>1.92402035600969</v>
+      </c>
+      <c r="I13" s="28">
+        <v>6.5143418149448902</v>
+      </c>
+      <c r="J13" s="81" cm="1">
+        <f t="array" ref="J13">AVERAGE(ABS(F13:I13))</f>
+        <v>3.3138768212467449</v>
+      </c>
+      <c r="K13" s="42">
+        <v>2.4002367772018798</v>
+      </c>
+      <c r="L13" s="27">
+        <v>3.0195471174164301</v>
+      </c>
+      <c r="M13" s="28">
+        <v>2.0263847559545098</v>
+      </c>
+      <c r="N13" s="27">
+        <v>6.3432324244527498</v>
+      </c>
+      <c r="O13" s="82">
+        <f t="shared" ref="O13:O14" si="3">AVERAGE(K13:N13)</f>
+        <v>3.4473502687563924</v>
+      </c>
+      <c r="P13" s="42">
+        <v>3.4728840103370802</v>
+      </c>
+      <c r="Q13" s="27">
+        <v>3.2358569159613801</v>
+      </c>
+      <c r="R13" s="28">
+        <v>3.28202655837354</v>
+      </c>
+      <c r="S13" s="27">
+        <v>6.0402931230179897</v>
+      </c>
+      <c r="T13" s="82">
+        <f t="shared" ref="T13:T14" si="4">AVERAGE(P13:S13)</f>
+        <v>4.0077651519224977</v>
+      </c>
+      <c r="U13" s="83">
+        <f t="shared" si="2"/>
+        <v>3.589664080641878</v>
+      </c>
+      <c r="X13" s="122" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y13" s="125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="D14" s="132"/>
+      <c r="E14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="42">
+        <v>0.94653761926636104</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0.913545883822244</v>
+      </c>
+      <c r="H14" s="28">
+        <v>0.92695104036785703</v>
+      </c>
+      <c r="I14" s="27">
+        <v>0.98782151962900799</v>
+      </c>
+      <c r="J14" s="81" cm="1">
+        <f t="array" ref="J14">AVERAGE(ABS(F14:I14))</f>
+        <v>0.94371401577136749</v>
+      </c>
+      <c r="K14" s="42">
+        <v>0.94835615230597603</v>
+      </c>
+      <c r="L14" s="27">
+        <v>0.90035813444998203</v>
+      </c>
+      <c r="M14" s="27">
+        <v>0.94134036018612899</v>
+      </c>
+      <c r="N14" s="27">
+        <v>0.96568338875711102</v>
+      </c>
+      <c r="O14" s="82">
+        <f t="shared" si="3"/>
+        <v>0.93893450892479957</v>
+      </c>
+      <c r="P14" s="42">
+        <v>0.86258631235820504</v>
+      </c>
+      <c r="Q14" s="27">
+        <v>0.91291858690101302</v>
+      </c>
+      <c r="R14" s="28">
+        <v>0.858369696353942</v>
+      </c>
+      <c r="S14" s="27">
+        <v>0.91592370939289502</v>
+      </c>
+      <c r="T14" s="82">
+        <f t="shared" si="4"/>
+        <v>0.88744957625151377</v>
+      </c>
+      <c r="U14" s="83">
+        <f t="shared" si="2"/>
+        <v>0.92336603364922698</v>
+      </c>
+      <c r="X14" s="122" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y14" s="125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="133"/>
+      <c r="E15" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="43">
+        <v>-8</v>
+      </c>
+      <c r="G15" s="50">
+        <v>5</v>
+      </c>
+      <c r="H15" s="44">
+        <v>-25</v>
+      </c>
+      <c r="I15" s="50">
+        <v>9</v>
+      </c>
+      <c r="J15" s="86" cm="1">
+        <f t="array" ref="J15">AVERAGE(ABS(F15:I15))</f>
+        <v>11.75</v>
+      </c>
+      <c r="K15" s="49">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="44">
+        <v>-50</v>
+      </c>
+      <c r="M15" s="44">
+        <v>-19</v>
+      </c>
+      <c r="N15" s="50">
+        <v>12</v>
+      </c>
+      <c r="O15" s="86" cm="1">
+        <f t="array" ref="O15">AVERAGE(ABS(K15:N15))</f>
+        <v>20.5</v>
+      </c>
+      <c r="P15" s="43">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="50">
+        <v>-5</v>
+      </c>
+      <c r="R15" s="50">
+        <v>-4</v>
+      </c>
+      <c r="S15" s="50">
+        <v>15</v>
+      </c>
+      <c r="T15" s="95" cm="1">
+        <f t="array" ref="T15">AVERAGE(ABS(P15:S15))</f>
+        <v>13.5</v>
+      </c>
+      <c r="U15" s="96">
+        <f t="shared" si="2"/>
+        <v>15.25</v>
+      </c>
+      <c r="X15" s="122" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y15" s="125" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X16" s="123" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y16" s="126" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
+      <c r="F19" s="131" t="s">
+        <v>218</v>
+      </c>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="160" t="s">
+        <v>217</v>
+      </c>
+      <c r="K19" s="160"/>
+      <c r="L19" s="160"/>
+      <c r="M19" s="161"/>
+    </row>
+    <row r="20" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="97" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20" s="98" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="186" t="s">
+        <v>211</v>
+      </c>
+      <c r="J20" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="100" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="4:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="151">
+        <v>7</v>
+      </c>
+      <c r="E21" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="107">
+        <v>1.88859227383446</v>
+      </c>
+      <c r="G21" s="165">
+        <v>2.59165720584447</v>
+      </c>
+      <c r="H21" s="165">
+        <v>0.92528922808715897</v>
+      </c>
+      <c r="I21" s="175">
+        <v>-2</v>
+      </c>
+      <c r="J21" s="114">
+        <v>1.3953039029454499</v>
+      </c>
+      <c r="K21" s="114">
+        <v>2.2410296522764201</v>
+      </c>
+      <c r="L21" s="114">
+        <v>0.95539454820134895</v>
+      </c>
+      <c r="M21" s="115">
+        <v>-8</v>
+      </c>
+      <c r="O21" s="14">
+        <v>1.3953039029454499</v>
+      </c>
+      <c r="P21" s="14">
+        <v>1.43611328003703</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>1.43662992745592</v>
+      </c>
+      <c r="R21" s="14">
+        <v>2.64327513122756</v>
+      </c>
+    </row>
+    <row r="22" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D22" s="152"/>
+      <c r="E22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="107">
+        <v>2.4394765425882001</v>
+      </c>
+      <c r="G22" s="165">
+        <v>3.6985519699639902</v>
+      </c>
+      <c r="H22" s="165">
+        <v>0.91731307019144204</v>
+      </c>
+      <c r="I22" s="176">
+        <v>17</v>
+      </c>
+      <c r="J22" s="166">
+        <v>1.43611328003703</v>
+      </c>
+      <c r="K22" s="166">
+        <v>2.1674456180120298</v>
+      </c>
+      <c r="L22" s="166">
+        <v>0.94566824672413197</v>
+      </c>
+      <c r="M22" s="108">
+        <v>5</v>
+      </c>
+      <c r="O22" s="14">
+        <v>2.2410296522764201</v>
+      </c>
+      <c r="P22" s="14">
+        <v>2.1674456180120298</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>2.3696005644861899</v>
+      </c>
+      <c r="R22" s="14">
+        <v>4.6866517625012403</v>
+      </c>
+      <c r="S22" s="14">
+        <v>1.3953039029454499</v>
+      </c>
+      <c r="T22" s="14">
+        <v>2.2410296522764201</v>
+      </c>
+      <c r="U22" s="14">
+        <v>0.95539454820134895</v>
+      </c>
+      <c r="V22" s="14">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="23" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D23" s="152"/>
+      <c r="E23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="104">
+        <v>1.2464504398454599</v>
+      </c>
+      <c r="G23" s="166">
+        <v>1.52064727305979</v>
+      </c>
+      <c r="H23" s="166">
+        <v>0.96607855073938698</v>
+      </c>
+      <c r="I23" s="175">
+        <v>-17</v>
+      </c>
+      <c r="J23" s="165">
+        <v>1.43662992745592</v>
+      </c>
+      <c r="K23" s="165">
+        <v>2.3696005644861899</v>
+      </c>
+      <c r="L23" s="165">
+        <v>0.925151573702932</v>
+      </c>
+      <c r="M23" s="103">
+        <v>-21</v>
+      </c>
+      <c r="O23" s="14">
+        <v>0.95539454820134895</v>
+      </c>
+      <c r="P23" s="14">
+        <v>0.94566824672413197</v>
+      </c>
+      <c r="Q23" s="14">
+        <v>0.925151573702932</v>
+      </c>
+      <c r="R23" s="14">
+        <v>0.97624377007180496</v>
+      </c>
+      <c r="S23" s="14">
+        <v>1.43611328003703</v>
+      </c>
+      <c r="T23" s="14">
+        <v>2.1674456180120298</v>
+      </c>
+      <c r="U23" s="14">
+        <v>0.94566824672413197</v>
+      </c>
+      <c r="V23" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D24" s="152"/>
+      <c r="E24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="107">
+        <v>3.1531473150135501</v>
+      </c>
+      <c r="G24" s="165">
+        <v>5.4298722955533503</v>
+      </c>
+      <c r="H24" s="166">
+        <v>0.97967690834607302</v>
+      </c>
+      <c r="I24" s="176">
+        <v>9</v>
+      </c>
+      <c r="J24" s="166">
+        <v>2.64327513122756</v>
+      </c>
+      <c r="K24" s="166">
+        <v>4.6866517625012403</v>
+      </c>
+      <c r="L24" s="165">
+        <v>0.97624377007180496</v>
+      </c>
+      <c r="M24" s="108">
+        <v>1</v>
+      </c>
+      <c r="O24" s="14">
+        <v>-8</v>
+      </c>
+      <c r="P24" s="14">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>-21</v>
+      </c>
+      <c r="R24" s="14">
+        <v>1</v>
+      </c>
+      <c r="S24" s="14">
+        <v>1.43662992745592</v>
+      </c>
+      <c r="T24" s="14">
+        <v>2.3696005644861899</v>
+      </c>
+      <c r="U24" s="14">
+        <v>0.925151573702932</v>
+      </c>
+      <c r="V24" s="14">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="25" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="153"/>
+      <c r="E25" s="156" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="112">
+        <f>AVERAGE(F21:F24)</f>
+        <v>2.1819166428204175</v>
+      </c>
+      <c r="G25" s="109">
+        <f>AVERAGE(G21:G24)</f>
+        <v>3.3101821861054002</v>
+      </c>
+      <c r="H25" s="109">
+        <f>AVERAGE(H21:H24)</f>
+        <v>0.9470894393410153</v>
+      </c>
+      <c r="I25" s="188" cm="1">
+        <f t="array" ref="I25">AVERAGE(ABS(I21:I24))</f>
+        <v>11.25</v>
+      </c>
+      <c r="J25" s="110">
+        <f>AVERAGE(J21:J24)</f>
+        <v>1.7278305604164901</v>
+      </c>
+      <c r="K25" s="110">
+        <f>AVERAGE(K21:K24)</f>
+        <v>2.86618189931897</v>
+      </c>
+      <c r="L25" s="110">
+        <f>AVERAGE(L21:L24)</f>
+        <v>0.95061453467505452</v>
+      </c>
+      <c r="M25" s="181" cm="1">
+        <f t="array" ref="M25">AVERAGE(ABS(M21:M24))</f>
+        <v>8.75</v>
+      </c>
+      <c r="S25" s="14">
+        <v>2.64327513122756</v>
+      </c>
+      <c r="T25" s="14">
+        <v>4.6866517625012403</v>
+      </c>
+      <c r="U25" s="14">
+        <v>0.97624377007180496</v>
+      </c>
+      <c r="V25" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="151">
+        <v>14</v>
+      </c>
+      <c r="E26" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="167">
+        <v>2.20488301676775</v>
+      </c>
+      <c r="G26" s="168">
+        <v>3.2013188394651602</v>
+      </c>
+      <c r="H26" s="168">
+        <v>0.86211416571558996</v>
+      </c>
+      <c r="I26" s="178">
+        <v>-1</v>
+      </c>
+      <c r="J26" s="114">
+        <v>1.6127340801352501</v>
+      </c>
+      <c r="K26" s="114">
+        <v>2.4002367772018798</v>
+      </c>
+      <c r="L26" s="114">
+        <v>0.94835615230597603</v>
+      </c>
+      <c r="M26" s="180">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D27" s="152"/>
+      <c r="E27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="107">
+        <v>2.5948577687192298</v>
+      </c>
+      <c r="G27" s="165">
+        <v>3.9865014193878601</v>
+      </c>
+      <c r="H27" s="165">
+        <v>0.85984276104255097</v>
+      </c>
+      <c r="I27" s="175">
+        <v>12</v>
+      </c>
+      <c r="J27" s="166">
+        <v>1.80342525350414</v>
+      </c>
+      <c r="K27" s="166">
+        <v>3.0195471174164301</v>
+      </c>
+      <c r="L27" s="166">
+        <v>0.90035813444998203</v>
+      </c>
+      <c r="M27" s="103">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="28" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D28" s="152"/>
+      <c r="E28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="107">
+        <v>1.6361221877885901</v>
+      </c>
+      <c r="G28" s="166">
+        <v>1.9751604258767701</v>
+      </c>
+      <c r="H28" s="165">
+        <v>0.93683635929012099</v>
+      </c>
+      <c r="I28" s="175">
+        <v>-13</v>
+      </c>
+      <c r="J28" s="166">
+        <v>1.3021965625966001</v>
+      </c>
+      <c r="K28" s="165">
+        <v>2.0263847559545098</v>
+      </c>
+      <c r="L28" s="166">
+        <v>0.94134036018612899</v>
+      </c>
+      <c r="M28" s="103">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="29" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D29" s="152"/>
+      <c r="E29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="107">
+        <v>3.7660561565634199</v>
+      </c>
+      <c r="G29" s="165">
+        <v>6.88452412655153</v>
+      </c>
+      <c r="H29" s="165">
+        <v>0.92598361339384805</v>
+      </c>
+      <c r="I29" s="176">
+        <v>16</v>
+      </c>
+      <c r="J29" s="166">
+        <v>3.42516909127299</v>
+      </c>
+      <c r="K29" s="166">
+        <v>6.3432324244527498</v>
+      </c>
+      <c r="L29" s="166">
+        <v>0.96568338875711102</v>
+      </c>
+      <c r="M29" s="108">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="153"/>
+      <c r="E30" s="157" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="112">
+        <f>AVERAGE(F26:F29)</f>
+        <v>2.5504797824597478</v>
+      </c>
+      <c r="G30" s="109">
+        <f>AVERAGE(G26:G29)</f>
+        <v>4.0118762028203303</v>
+      </c>
+      <c r="H30" s="109">
+        <f>AVERAGE(H26:H29)</f>
+        <v>0.89619422486052747</v>
+      </c>
+      <c r="I30" s="177" cm="1">
+        <f t="array" ref="I30">AVERAGE(ABS(I26:I29))</f>
+        <v>10.5</v>
+      </c>
+      <c r="J30" s="110">
+        <f>AVERAGE(J26:J29)</f>
+        <v>2.0358812468772451</v>
+      </c>
+      <c r="K30" s="110">
+        <f>AVERAGE(K26:K29)</f>
+        <v>3.4473502687563924</v>
+      </c>
+      <c r="L30" s="110">
+        <f>AVERAGE(L26:L29)</f>
+        <v>0.93893450892479957</v>
+      </c>
+      <c r="M30" s="111" cm="1">
+        <f t="array" ref="M30">AVERAGE(ABS(M26:M29))</f>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="31" spans="4:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="151">
+        <v>21</v>
+      </c>
+      <c r="E31" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="167">
+        <v>2.63980864909824</v>
+      </c>
+      <c r="G31" s="168">
+        <v>3.88970385511591</v>
+      </c>
+      <c r="H31" s="168">
+        <v>0.77413283081775097</v>
+      </c>
+      <c r="I31" s="178">
+        <v>6</v>
+      </c>
+      <c r="J31" s="114">
+        <v>2.03346934894642</v>
+      </c>
+      <c r="K31" s="114">
+        <v>3.4728840103370802</v>
+      </c>
+      <c r="L31" s="114">
+        <v>0.86258631235820504</v>
+      </c>
+      <c r="M31" s="115">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D32" s="152"/>
+      <c r="E32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="107">
+        <v>3.11141102059951</v>
+      </c>
+      <c r="G32" s="165">
+        <v>4.5032490436190296</v>
+      </c>
+      <c r="H32" s="165">
+        <v>0.76103474519610004</v>
+      </c>
+      <c r="I32" s="176">
+        <v>-128</v>
+      </c>
+      <c r="J32" s="166">
+        <v>2.0795192420620499</v>
+      </c>
+      <c r="K32" s="166">
+        <v>3.2358569159613801</v>
+      </c>
+      <c r="L32" s="166">
+        <v>0.91291858690101302</v>
+      </c>
+      <c r="M32" s="108">
+        <v>-5</v>
+      </c>
+      <c r="P32" s="189"/>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D33" s="152"/>
+      <c r="E33" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="104">
+        <v>2.1549645407998299</v>
+      </c>
+      <c r="G33" s="166">
+        <v>2.69456632543171</v>
+      </c>
+      <c r="H33" s="166">
+        <v>0.89432312515617896</v>
+      </c>
+      <c r="I33" s="176">
+        <v>-6</v>
+      </c>
+      <c r="J33" s="165">
+        <v>2.30948274738962</v>
+      </c>
+      <c r="K33" s="165">
+        <v>3.28202655837354</v>
+      </c>
+      <c r="L33" s="165">
+        <v>0.858369696353942</v>
+      </c>
+      <c r="M33" s="108">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D34" s="152"/>
+      <c r="E34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="107">
+        <v>4.8042653181545898</v>
+      </c>
+      <c r="G34" s="165">
+        <v>8.7122527323115797</v>
+      </c>
+      <c r="H34" s="165">
+        <v>0.83218065673479502</v>
+      </c>
+      <c r="I34" s="176">
+        <v>23</v>
+      </c>
+      <c r="J34" s="166">
+        <v>3.1658921553716599</v>
+      </c>
+      <c r="K34" s="166">
+        <v>6.0402931230179897</v>
+      </c>
+      <c r="L34" s="166">
+        <v>0.91592370939289502</v>
+      </c>
+      <c r="M34" s="108">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="153"/>
+      <c r="E35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="107">
+        <f>AVERAGE(F31:F34)</f>
+        <v>3.1776123821630424</v>
+      </c>
+      <c r="G35" s="165">
+        <f>AVERAGE(G31:G34)</f>
+        <v>4.9499429891195579</v>
+      </c>
+      <c r="H35" s="165">
+        <f>AVERAGE(H31:H34)</f>
+        <v>0.81541783947620627</v>
+      </c>
+      <c r="I35" s="176" cm="1">
+        <f t="array" ref="I35">AVERAGE(ABS(I31:I34))</f>
+        <v>40.75</v>
+      </c>
+      <c r="J35" s="110">
+        <f>AVERAGE(J31:J34)</f>
+        <v>2.3970908734424374</v>
+      </c>
+      <c r="K35" s="110">
+        <f>AVERAGE(K31:K34)</f>
+        <v>4.0077651519224977</v>
+      </c>
+      <c r="L35" s="110">
+        <f>AVERAGE(L31:L34)</f>
+        <v>0.88744957625151377</v>
+      </c>
+      <c r="M35" s="181" cm="1">
+        <f t="array" ref="M35">AVERAGE(ABS(M31:M34))</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="162" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="163"/>
+      <c r="F36" s="169">
+        <f>AVERAGE(F25,F30,F35)</f>
+        <v>2.6366696024810694</v>
+      </c>
+      <c r="G36" s="170">
+        <f>AVERAGE(G25,G30,G35)</f>
+        <v>4.090667126015096</v>
+      </c>
+      <c r="H36" s="170">
+        <f>AVERAGE(H25,H30,H35)</f>
+        <v>0.88623383455924964</v>
+      </c>
+      <c r="I36" s="179">
+        <f>AVERAGE(I25,I30,I35)</f>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="J36" s="171">
+        <f>AVERAGE(J25,J30,J35)</f>
+        <v>2.0536008935787242</v>
+      </c>
+      <c r="K36" s="171">
+        <f>AVERAGE(K25,K30,K35)</f>
+        <v>3.4404324399992867</v>
+      </c>
+      <c r="L36" s="171">
+        <f>AVERAGE(L25,L30,L35)</f>
+        <v>0.92566620661712262</v>
+      </c>
+      <c r="M36" s="182">
+        <f>AVERAGE(M25,M30,M35)</f>
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="127" t="s">
+        <v>210</v>
+      </c>
+      <c r="G41" s="127"/>
+      <c r="H41" s="127"/>
+      <c r="I41" s="187"/>
+      <c r="J41" s="185" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="127"/>
+      <c r="L41" s="127"/>
+      <c r="M41" s="127"/>
+    </row>
+    <row r="42" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="97" t="s">
+        <v>215</v>
+      </c>
+      <c r="E42" s="98" t="s">
+        <v>216</v>
+      </c>
+      <c r="F42" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="186" t="s">
+        <v>211</v>
+      </c>
+      <c r="J42" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="L42" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="100" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D43" s="151">
+        <v>7</v>
+      </c>
+      <c r="E43" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="104">
+        <v>1.1070353752755</v>
+      </c>
+      <c r="G43" s="166">
+        <v>1.71065271503125</v>
+      </c>
+      <c r="H43" s="166">
+        <v>0.97102104724119298</v>
+      </c>
+      <c r="I43" s="176">
+        <v>-8</v>
+      </c>
+      <c r="J43" s="165">
+        <v>1.10039806108107</v>
+      </c>
+      <c r="K43" s="106">
+        <v>1.8662734667024501</v>
+      </c>
+      <c r="L43" s="106">
+        <v>0.95325832223974005</v>
+      </c>
+      <c r="M43" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D44" s="152"/>
+      <c r="E44" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="107">
+        <v>1.7518155433089799</v>
+      </c>
+      <c r="G44" s="165">
+        <v>2.67512928879747</v>
+      </c>
+      <c r="H44" s="165">
+        <v>0.94075340656478901</v>
+      </c>
+      <c r="I44" s="176">
+        <v>17</v>
+      </c>
+      <c r="J44" s="166">
+        <v>1.2890154038693</v>
+      </c>
+      <c r="K44" s="102">
+        <v>1.99847807058555</v>
+      </c>
+      <c r="L44" s="102">
+        <v>0.96949236584153597</v>
+      </c>
+      <c r="M44" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D45" s="152"/>
+      <c r="E45" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="104">
+        <v>1.04479746213702</v>
+      </c>
+      <c r="G45" s="166">
+        <v>1.35308256131581</v>
+      </c>
+      <c r="H45" s="166">
+        <v>0.96879591456060898</v>
+      </c>
+      <c r="I45" s="176">
+        <v>-25</v>
+      </c>
+      <c r="J45" s="165">
+        <v>1.87001411846128</v>
+      </c>
+      <c r="K45" s="106">
+        <v>2.7141148662689401</v>
+      </c>
+      <c r="L45" s="106">
+        <v>0.92859027188879795</v>
+      </c>
+      <c r="M45" s="108">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D46" s="152"/>
+      <c r="E46" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="107">
+        <v>2.6761359061132599</v>
+      </c>
+      <c r="G46" s="165">
+        <v>4.9397442690724001</v>
+      </c>
+      <c r="H46" s="166">
+        <v>0.98515001616769504</v>
+      </c>
+      <c r="I46" s="175">
+        <v>8</v>
+      </c>
+      <c r="J46" s="166">
+        <v>2.30257578140928</v>
+      </c>
+      <c r="K46" s="102">
+        <v>4.0813406210604999</v>
+      </c>
+      <c r="L46" s="106">
+        <v>0.97775233796657401</v>
+      </c>
+      <c r="M46" s="103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="153"/>
+      <c r="E47" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="112">
+        <f>AVERAGE(F43:F46)</f>
+        <v>1.6449460717086901</v>
+      </c>
+      <c r="G47" s="109">
+        <f>AVERAGE(G43:G46)</f>
+        <v>2.6696522085542327</v>
+      </c>
+      <c r="H47" s="110">
+        <f>AVERAGE(H43:H46)</f>
+        <v>0.96643009613357156</v>
+      </c>
+      <c r="I47" s="188" cm="1">
+        <f t="array" ref="I47">AVERAGE(ABS(I43:I46))</f>
+        <v>14.5</v>
+      </c>
+      <c r="J47" s="110">
+        <f>AVERAGE(J43:J46)</f>
+        <v>1.6405008412052324</v>
+      </c>
+      <c r="K47" s="110">
+        <f>AVERAGE(K43:K46)</f>
+        <v>2.6650517561543601</v>
+      </c>
+      <c r="L47" s="109">
+        <f>AVERAGE(L43:L46)</f>
+        <v>0.95727332448416202</v>
+      </c>
+      <c r="M47" s="181" cm="1">
+        <f t="array" ref="M47">AVERAGE(ABS(M43:M46))</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="48" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D48" s="151">
+        <v>14</v>
+      </c>
+      <c r="E48" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="113">
+        <v>1.66751317768397</v>
+      </c>
+      <c r="G48" s="114">
+        <v>2.58097335892377</v>
+      </c>
+      <c r="H48" s="114">
+        <v>0.954445957009327</v>
+      </c>
+      <c r="I48" s="178">
+        <v>-1</v>
+      </c>
+      <c r="J48" s="168">
+        <v>1.6694034748597599</v>
+      </c>
+      <c r="K48" s="168">
+        <v>2.8631346027687301</v>
+      </c>
+      <c r="L48" s="168">
+        <v>0.91627292446532504</v>
+      </c>
+      <c r="M48" s="115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D49" s="152"/>
+      <c r="E49" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="107">
+        <v>2.3132246887406902</v>
+      </c>
+      <c r="G49" s="165">
+        <v>3.4058351124445201</v>
+      </c>
+      <c r="H49" s="165">
+        <v>0.89100951575892395</v>
+      </c>
+      <c r="I49" s="176">
+        <v>24</v>
+      </c>
+      <c r="J49" s="166">
+        <v>1.68814282715754</v>
+      </c>
+      <c r="K49" s="102">
+        <v>2.6370715572724599</v>
+      </c>
+      <c r="L49" s="102">
+        <v>0.92553063381835099</v>
+      </c>
+      <c r="M49" s="108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D50" s="152"/>
+      <c r="E50" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="104">
+        <v>1.18240441860918</v>
+      </c>
+      <c r="G50" s="166">
+        <v>1.54027935246862</v>
+      </c>
+      <c r="H50" s="166">
+        <v>0.95365281351530395</v>
+      </c>
+      <c r="I50" s="176">
+        <v>-20</v>
+      </c>
+      <c r="J50" s="165">
+        <v>2.3955166648425901</v>
+      </c>
+      <c r="K50" s="106">
+        <v>3.9394499960077098</v>
+      </c>
+      <c r="L50" s="106">
+        <v>0.81399577288686298</v>
+      </c>
+      <c r="M50" s="108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D51" s="152"/>
+      <c r="E51" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="104">
+        <v>3.38073406616734</v>
+      </c>
+      <c r="G51" s="165">
+        <v>6.5032005417382903</v>
+      </c>
+      <c r="H51" s="166">
+        <v>0.95746143633606295</v>
+      </c>
+      <c r="I51" s="175">
+        <v>15</v>
+      </c>
+      <c r="J51" s="165">
+        <v>3.49637808647475</v>
+      </c>
+      <c r="K51" s="102">
+        <v>5.5705857717349998</v>
+      </c>
+      <c r="L51" s="106">
+        <v>0.95114531328013696</v>
+      </c>
+      <c r="M51" s="103">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="153"/>
+      <c r="E52" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="183">
+        <f>AVERAGE(F48:F51)</f>
+        <v>2.1359690878002953</v>
+      </c>
+      <c r="G52" s="110">
+        <f>AVERAGE(G48:G51)</f>
+        <v>3.5075720913937998</v>
+      </c>
+      <c r="H52" s="110">
+        <f>AVERAGE(H48:H51)</f>
+        <v>0.93914243065490455</v>
+      </c>
+      <c r="I52" s="188" cm="1">
+        <f t="array" ref="I52">AVERAGE(ABS(I48:I51))</f>
+        <v>15</v>
+      </c>
+      <c r="J52" s="109">
+        <f>AVERAGE(J48:J51)</f>
+        <v>2.3123602633336597</v>
+      </c>
+      <c r="K52" s="109">
+        <f>AVERAGE(K48:K51)</f>
+        <v>3.7525604819459746</v>
+      </c>
+      <c r="L52" s="109">
+        <f>AVERAGE(L48:L51)</f>
+        <v>0.90173616111266897</v>
+      </c>
+      <c r="M52" s="181" cm="1">
+        <f t="array" ref="M52">AVERAGE(ABS(M48:M51))</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D53" s="151">
+        <v>21</v>
+      </c>
+      <c r="E53" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="113">
+        <v>2.1129973554038899</v>
+      </c>
+      <c r="G53" s="114">
+        <v>3.2221003644184001</v>
+      </c>
+      <c r="H53" s="114">
+        <v>0.92579779817735197</v>
+      </c>
+      <c r="I53" s="178">
+        <v>6</v>
+      </c>
+      <c r="J53" s="168">
+        <v>2.14389271031561</v>
+      </c>
+      <c r="K53" s="168">
+        <v>3.8133579830603002</v>
+      </c>
+      <c r="L53" s="168">
+        <v>0.86590238254708896</v>
+      </c>
+      <c r="M53" s="115">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D54" s="152"/>
+      <c r="E54" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="107">
+        <v>2.7022792382965002</v>
+      </c>
+      <c r="G54" s="165">
+        <v>4.3644126052041301</v>
+      </c>
+      <c r="H54" s="165">
+        <v>0.84116428262109</v>
+      </c>
+      <c r="I54" s="176">
+        <v>31</v>
+      </c>
+      <c r="J54" s="166">
+        <v>2.3045171885303999</v>
+      </c>
+      <c r="K54" s="102">
+        <v>3.4848589581447</v>
+      </c>
+      <c r="L54" s="102">
+        <v>0.88070730043297996</v>
+      </c>
+      <c r="M54" s="108">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D55" s="152"/>
+      <c r="E55" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="104">
+        <v>1.5929165836094401</v>
+      </c>
+      <c r="G55" s="166">
+        <v>1.9831003708369099</v>
+      </c>
+      <c r="H55" s="166">
+        <v>0.92825204303803599</v>
+      </c>
+      <c r="I55" s="175">
+        <v>-13</v>
+      </c>
+      <c r="J55" s="165">
+        <v>1.77413054896351</v>
+      </c>
+      <c r="K55" s="106">
+        <v>2.6534778524276499</v>
+      </c>
+      <c r="L55" s="106">
+        <v>0.86806701328723801</v>
+      </c>
+      <c r="M55" s="103">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="56" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D56" s="152"/>
+      <c r="E56" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="104">
+        <v>4.2909700013444096</v>
+      </c>
+      <c r="G56" s="166">
+        <v>8.4890702748492703</v>
+      </c>
+      <c r="H56" s="165">
+        <v>0.90542411521149901</v>
+      </c>
+      <c r="I56" s="176">
+        <v>22</v>
+      </c>
+      <c r="J56" s="165">
+        <v>5.2975853783740297</v>
+      </c>
+      <c r="K56" s="106">
+        <v>9.5021823238525105</v>
+      </c>
+      <c r="L56" s="102">
+        <v>0.92789692705660498</v>
+      </c>
+      <c r="M56" s="108">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="153"/>
+      <c r="E57" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="183">
+        <f>AVERAGE(F53:F56)</f>
+        <v>2.6747907946635596</v>
+      </c>
+      <c r="G57" s="110">
+        <f>AVERAGE(G53:G56)</f>
+        <v>4.5146709038271773</v>
+      </c>
+      <c r="H57" s="110">
+        <f>AVERAGE(H53:H56)</f>
+        <v>0.90015955976199424</v>
+      </c>
+      <c r="I57" s="188" cm="1">
+        <f t="array" ref="I57">AVERAGE(ABS(I53:I56))</f>
+        <v>18</v>
+      </c>
+      <c r="J57" s="109">
+        <f>AVERAGE(J53:J56)</f>
+        <v>2.8800314565458871</v>
+      </c>
+      <c r="K57" s="109">
+        <f>AVERAGE(K53:K56)</f>
+        <v>4.8634692793712908</v>
+      </c>
+      <c r="L57" s="109">
+        <f>AVERAGE(L53:L56)</f>
+        <v>0.88564340583097789</v>
+      </c>
+      <c r="M57" s="181" cm="1">
+        <f t="array" ref="M57">AVERAGE(ABS(M53:M56))</f>
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="58" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="162" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="163"/>
+      <c r="F58" s="184">
+        <f>AVERAGE(F47,F52,F57)</f>
+        <v>2.1519019847241818</v>
+      </c>
+      <c r="G58" s="171">
+        <f>AVERAGE(G47,G52,G57)</f>
+        <v>3.5639650679250701</v>
+      </c>
+      <c r="H58" s="171">
+        <f>AVERAGE(H47,H52,H57)</f>
+        <v>0.93524402885015689</v>
+      </c>
+      <c r="I58" s="179">
+        <f>AVERAGE(I47,I52,I57)</f>
+        <v>15.833333333333334</v>
+      </c>
+      <c r="J58" s="170">
+        <f>AVERAGE(J47,J52,J57)</f>
+        <v>2.2776308536949266</v>
+      </c>
+      <c r="K58" s="170">
+        <f>AVERAGE(K47,K52,K57)</f>
+        <v>3.7603605058238752</v>
+      </c>
+      <c r="L58" s="170">
+        <f>AVERAGE(L47,L52,L57)</f>
+        <v>0.91488429714260311</v>
+      </c>
+      <c r="M58" s="182">
+        <f>AVERAGE(M47,M52,M57)</f>
+        <v>10.583333333333334</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="D43:D47"/>
+    <mergeCell ref="D48:D52"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC96AA3-E044-144A-B026-D009812BC32F}">
   <dimension ref="A1:C167"/>
   <sheetViews>
@@ -13971,7 +16110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A44D2E-4DA1-9949-B83F-DAD6031E1B50}">
   <dimension ref="A1:H167"/>
   <sheetViews>
@@ -18166,7 +20305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67C2143-9BE0-C048-822E-D3B2E93454E8}">
   <dimension ref="A1:C167"/>
   <sheetViews>

--- a/Logging/Tools/Results_Summary.xlsx
+++ b/Logging/Tools/Results_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/github/Forecasting/Logging/Tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E4912A-ABBC-0748-8D84-FF8C773EC0BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2BAB60-33F0-9D44-9210-6589301FAC88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{D6C4A1CF-C8B6-1A42-B202-9397802E1C24}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{D6C4A1CF-C8B6-1A42-B202-9397802E1C24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="237">
   <si>
     <t>2014/15</t>
   </si>
@@ -775,6 +775,9 @@
   </si>
   <si>
     <t>Parameter</t>
+  </si>
+  <si>
+    <t>Linear Model with Confidence Intervals and Squared Inputs</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="188">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1396,93 +1399,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1493,28 +1409,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1562,19 +1460,120 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6927,8 +6926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F65057-F8D9-5340-9C4E-E5CBE3EA5B75}">
   <dimension ref="B1:BW103"/>
   <sheetViews>
-    <sheetView topLeftCell="S21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V26" sqref="V26:AE44"/>
+    <sheetView topLeftCell="R3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X56" sqref="X56:AA59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6955,28 +6954,28 @@
     </row>
     <row r="2" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
-      <c r="E2" s="128" t="s">
+      <c r="E2" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="128" t="s">
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="128" t="s">
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="141" t="s">
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="174" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7027,13 +7026,13 @@
       <c r="S3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="141"/>
+      <c r="T3" s="174"/>
     </row>
     <row r="4" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="142" t="s">
+      <c r="C4" s="175" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -7093,8 +7092,8 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="140"/>
-      <c r="C5" s="138"/>
+      <c r="B5" s="170"/>
+      <c r="C5" s="165"/>
       <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
@@ -7152,8 +7151,8 @@
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="140"/>
-      <c r="C6" s="143"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="176"/>
       <c r="D6" s="11" t="s">
         <v>3</v>
       </c>
@@ -7211,8 +7210,8 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="140"/>
-      <c r="C7" s="138" t="s">
+      <c r="B7" s="170"/>
+      <c r="C7" s="165" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -7272,8 +7271,8 @@
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="140"/>
-      <c r="C8" s="138"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="165"/>
       <c r="D8" s="9" t="s">
         <v>2</v>
       </c>
@@ -7331,8 +7330,8 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="140"/>
-      <c r="C9" s="143"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="11" t="s">
         <v>3</v>
       </c>
@@ -7390,8 +7389,8 @@
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="140"/>
-      <c r="C10" s="138" t="s">
+      <c r="B10" s="170"/>
+      <c r="C10" s="165" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -7451,8 +7450,8 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="140"/>
-      <c r="C11" s="138"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="165"/>
       <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
@@ -7510,8 +7509,8 @@
       </c>
     </row>
     <row r="12" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="140"/>
-      <c r="C12" s="139"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="166"/>
       <c r="D12" s="10" t="s">
         <v>3</v>
       </c>
@@ -7569,8 +7568,8 @@
       </c>
     </row>
     <row r="13" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="140"/>
-      <c r="C13" s="138" t="s">
+      <c r="B13" s="170"/>
+      <c r="C13" s="165" t="s">
         <v>208</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -7630,8 +7629,8 @@
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="140"/>
-      <c r="C14" s="138"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="165"/>
       <c r="D14" s="9" t="s">
         <v>2</v>
       </c>
@@ -7693,8 +7692,8 @@
       </c>
     </row>
     <row r="15" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="140"/>
-      <c r="C15" s="139"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="166"/>
       <c r="D15" s="10" t="s">
         <v>3</v>
       </c>
@@ -7752,7 +7751,7 @@
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="C16" s="138" t="s">
+      <c r="C16" s="165" t="s">
         <v>207</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -7812,7 +7811,7 @@
       </c>
     </row>
     <row r="17" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="C17" s="138"/>
+      <c r="C17" s="165"/>
       <c r="D17" s="9" t="s">
         <v>2</v>
       </c>
@@ -7870,7 +7869,7 @@
       </c>
     </row>
     <row r="18" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="139"/>
+      <c r="C18" s="166"/>
       <c r="D18" s="10" t="s">
         <v>3</v>
       </c>
@@ -7928,7 +7927,7 @@
       </c>
     </row>
     <row r="19" spans="2:39" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="138" t="s">
+      <c r="C19" s="165" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -7963,7 +7962,7 @@
       <c r="T19" s="48"/>
     </row>
     <row r="20" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="C20" s="138"/>
+      <c r="C20" s="165"/>
       <c r="D20" s="9" t="s">
         <v>2</v>
       </c>
@@ -7996,7 +7995,7 @@
       <c r="T20" s="48"/>
     </row>
     <row r="21" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="139"/>
+      <c r="C21" s="166"/>
       <c r="D21" s="10" t="s">
         <v>3</v>
       </c>
@@ -8029,7 +8028,7 @@
       <c r="T21" s="52"/>
     </row>
     <row r="22" spans="2:39" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="138" t="s">
+      <c r="C22" s="165" t="s">
         <v>183</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -8064,7 +8063,7 @@
       <c r="T22" s="25"/>
     </row>
     <row r="23" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="C23" s="138"/>
+      <c r="C23" s="165"/>
       <c r="D23" s="9" t="s">
         <v>2</v>
       </c>
@@ -8097,7 +8096,7 @@
       <c r="T23" s="32"/>
     </row>
     <row r="24" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="139"/>
+      <c r="C24" s="166"/>
       <c r="D24" s="10" t="s">
         <v>3</v>
       </c>
@@ -8131,48 +8130,48 @@
     </row>
     <row r="25" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="128" t="s">
+      <c r="E26" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="128" t="s">
+      <c r="F26" s="172"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="173"/>
+      <c r="J26" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="129"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="130"/>
-      <c r="O26" s="128" t="s">
+      <c r="K26" s="172"/>
+      <c r="L26" s="172"/>
+      <c r="M26" s="172"/>
+      <c r="N26" s="173"/>
+      <c r="O26" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="P26" s="129"/>
-      <c r="Q26" s="129"/>
-      <c r="R26" s="129"/>
-      <c r="S26" s="130"/>
+      <c r="P26" s="172"/>
+      <c r="Q26" s="172"/>
+      <c r="R26" s="172"/>
+      <c r="S26" s="173"/>
       <c r="T26" s="68"/>
-      <c r="X26" s="127" t="s">
+      <c r="X26" s="180" t="s">
         <v>209</v>
       </c>
-      <c r="Y26" s="127"/>
-      <c r="Z26" s="127"/>
-      <c r="AA26" s="127"/>
-      <c r="AB26" s="127"/>
-      <c r="AC26" s="127"/>
-      <c r="AD26" s="127"/>
-      <c r="AE26" s="127"/>
-      <c r="AF26" s="127" t="s">
+      <c r="Y26" s="180"/>
+      <c r="Z26" s="180"/>
+      <c r="AA26" s="180"/>
+      <c r="AB26" s="180"/>
+      <c r="AC26" s="180"/>
+      <c r="AD26" s="180"/>
+      <c r="AE26" s="180"/>
+      <c r="AF26" s="180" t="s">
         <v>206</v>
       </c>
-      <c r="AG26" s="127"/>
-      <c r="AH26" s="127"/>
-      <c r="AI26" s="127"/>
-      <c r="AJ26" s="127"/>
-      <c r="AK26" s="127"/>
-      <c r="AL26" s="127"/>
-      <c r="AM26" s="127"/>
+      <c r="AG26" s="180"/>
+      <c r="AH26" s="180"/>
+      <c r="AI26" s="180"/>
+      <c r="AJ26" s="180"/>
+      <c r="AK26" s="180"/>
+      <c r="AL26" s="180"/>
+      <c r="AM26" s="180"/>
     </row>
     <row r="27" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E27" s="69" t="s">
@@ -8223,36 +8222,36 @@
       <c r="T27" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="X27" s="127" t="s">
+      <c r="X27" s="180" t="s">
         <v>210</v>
       </c>
-      <c r="Y27" s="127"/>
-      <c r="Z27" s="127"/>
-      <c r="AA27" s="127"/>
-      <c r="AB27" s="127" t="s">
+      <c r="Y27" s="180"/>
+      <c r="Z27" s="180"/>
+      <c r="AA27" s="180"/>
+      <c r="AB27" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="AC27" s="127"/>
-      <c r="AD27" s="127"/>
-      <c r="AE27" s="127"/>
-      <c r="AF27" s="127" t="s">
+      <c r="AC27" s="180"/>
+      <c r="AD27" s="180"/>
+      <c r="AE27" s="180"/>
+      <c r="AF27" s="180" t="s">
         <v>210</v>
       </c>
-      <c r="AG27" s="127"/>
-      <c r="AH27" s="127"/>
-      <c r="AI27" s="127"/>
-      <c r="AJ27" s="127" t="s">
+      <c r="AG27" s="180"/>
+      <c r="AH27" s="180"/>
+      <c r="AI27" s="180"/>
+      <c r="AJ27" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="AK27" s="127"/>
-      <c r="AL27" s="127"/>
-      <c r="AM27" s="127"/>
+      <c r="AK27" s="180"/>
+      <c r="AL27" s="180"/>
+      <c r="AM27" s="180"/>
     </row>
     <row r="28" spans="2:39" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="134" t="s">
+      <c r="B28" s="177" t="s">
         <v>209</v>
       </c>
-      <c r="C28" s="131" t="s">
+      <c r="C28" s="160" t="s">
         <v>210</v>
       </c>
       <c r="D28" s="53" t="s">
@@ -8366,8 +8365,8 @@
       </c>
     </row>
     <row r="29" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B29" s="135"/>
-      <c r="C29" s="132"/>
+      <c r="B29" s="163"/>
+      <c r="C29" s="161"/>
       <c r="D29" s="2" t="s">
         <v>2</v>
       </c>
@@ -8423,7 +8422,7 @@
         <f t="shared" ref="T29:T39" si="12">AVERAGE(I29,N29,S29)</f>
         <v>3.5639650679250701</v>
       </c>
-      <c r="V29" s="151">
+      <c r="V29" s="152">
         <v>7</v>
       </c>
       <c r="W29" s="101" t="s">
@@ -8479,8 +8478,8 @@
       </c>
     </row>
     <row r="30" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B30" s="135"/>
-      <c r="C30" s="132"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="161"/>
       <c r="D30" s="2" t="s">
         <v>3</v>
       </c>
@@ -8536,7 +8535,7 @@
         <f t="shared" si="12"/>
         <v>0.93524402885015689</v>
       </c>
-      <c r="V30" s="152"/>
+      <c r="V30" s="153"/>
       <c r="W30" s="105" t="s">
         <v>6</v>
       </c>
@@ -8590,8 +8589,8 @@
       </c>
     </row>
     <row r="31" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="135"/>
-      <c r="C31" s="133"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="162"/>
       <c r="D31" s="54" t="s">
         <v>211</v>
       </c>
@@ -8647,7 +8646,7 @@
         <f t="shared" si="12"/>
         <v>15.833333333333334</v>
       </c>
-      <c r="V31" s="152"/>
+      <c r="V31" s="153"/>
       <c r="W31" s="105" t="s">
         <v>7</v>
       </c>
@@ -8701,8 +8700,8 @@
       </c>
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B32" s="135"/>
-      <c r="C32" s="131" t="s">
+      <c r="B32" s="163"/>
+      <c r="C32" s="160" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="53" t="s">
@@ -8760,7 +8759,7 @@
         <f t="shared" si="12"/>
         <v>2.2776308536949266</v>
       </c>
-      <c r="V32" s="152"/>
+      <c r="V32" s="153"/>
       <c r="W32" s="105" t="s">
         <v>8</v>
       </c>
@@ -8813,9 +8812,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="135"/>
-      <c r="C33" s="132"/>
+    <row r="33" spans="2:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="163"/>
+      <c r="C33" s="161"/>
       <c r="D33" s="2" t="s">
         <v>2</v>
       </c>
@@ -8871,7 +8870,7 @@
         <f t="shared" si="12"/>
         <v>3.7603605058238752</v>
       </c>
-      <c r="V33" s="153"/>
+      <c r="V33" s="154"/>
       <c r="W33" s="72" t="s">
         <v>9</v>
       </c>
@@ -8940,9 +8939,9 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="34" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B34" s="135"/>
-      <c r="C34" s="132"/>
+    <row r="34" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B34" s="163"/>
+      <c r="C34" s="161"/>
       <c r="D34" s="2" t="s">
         <v>3</v>
       </c>
@@ -8998,7 +8997,7 @@
         <f t="shared" si="12"/>
         <v>0.91488429714260311</v>
       </c>
-      <c r="V34" s="151">
+      <c r="V34" s="152">
         <v>14</v>
       </c>
       <c r="W34" s="101" t="s">
@@ -9053,9 +9052,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="135"/>
-      <c r="C35" s="133"/>
+    <row r="35" spans="2:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="163"/>
+      <c r="C35" s="162"/>
       <c r="D35" s="95" t="s">
         <v>211</v>
       </c>
@@ -9111,7 +9110,7 @@
         <f t="shared" si="12"/>
         <v>10.583333333333334</v>
       </c>
-      <c r="V35" s="152"/>
+      <c r="V35" s="153"/>
       <c r="W35" s="105" t="s">
         <v>6</v>
       </c>
@@ -9164,9 +9163,9 @@
         <v>-55</v>
       </c>
     </row>
-    <row r="36" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B36" s="135"/>
-      <c r="C36" s="132" t="s">
+    <row r="36" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B36" s="163"/>
+      <c r="C36" s="161" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -9224,7 +9223,7 @@
         <f t="shared" si="12"/>
         <v>3.0008085841689058</v>
       </c>
-      <c r="V36" s="152"/>
+      <c r="V36" s="153"/>
       <c r="W36" s="105" t="s">
         <v>7</v>
       </c>
@@ -9277,9 +9276,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B37" s="135"/>
-      <c r="C37" s="132"/>
+    <row r="37" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B37" s="163"/>
+      <c r="C37" s="161"/>
       <c r="D37" s="2" t="s">
         <v>2</v>
       </c>
@@ -9335,7 +9334,7 @@
         <f t="shared" si="12"/>
         <v>5.158547971052232</v>
       </c>
-      <c r="V37" s="152"/>
+      <c r="V37" s="153"/>
       <c r="W37" s="105" t="s">
         <v>8</v>
       </c>
@@ -9388,9 +9387,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="135"/>
-      <c r="C38" s="132"/>
+    <row r="38" spans="2:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="163"/>
+      <c r="C38" s="161"/>
       <c r="D38" s="2" t="s">
         <v>3</v>
       </c>
@@ -9446,7 +9445,7 @@
         <f t="shared" si="12"/>
         <v>0.87064370203199515</v>
       </c>
-      <c r="V38" s="153"/>
+      <c r="V38" s="154"/>
       <c r="W38" s="72" t="s">
         <v>9</v>
       </c>
@@ -9515,9 +9514,9 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="39" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="136"/>
-      <c r="C39" s="137"/>
+    <row r="39" spans="2:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="178"/>
+      <c r="C39" s="179"/>
       <c r="D39" s="92" t="s">
         <v>212</v>
       </c>
@@ -9573,7 +9572,7 @@
         <f t="shared" si="12"/>
         <v>23.25</v>
       </c>
-      <c r="V39" s="151">
+      <c r="V39" s="152">
         <v>21</v>
       </c>
       <c r="W39" s="101" t="s">
@@ -9628,11 +9627,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="2:39" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="135" t="s">
+    <row r="40" spans="2:40" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="163" t="s">
         <v>206</v>
       </c>
-      <c r="C40" s="132" t="s">
+      <c r="C40" s="161" t="s">
         <v>210</v>
       </c>
       <c r="D40" s="13" t="s">
@@ -9690,7 +9689,7 @@
         <f>AVERAGE(I40,N40,S40)</f>
         <v>0.48197307962486019</v>
       </c>
-      <c r="V40" s="152"/>
+      <c r="V40" s="153"/>
       <c r="W40" s="105" t="s">
         <v>6</v>
       </c>
@@ -9743,9 +9742,9 @@
         <v>-48</v>
       </c>
     </row>
-    <row r="41" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B41" s="135"/>
-      <c r="C41" s="132"/>
+    <row r="41" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B41" s="163"/>
+      <c r="C41" s="161"/>
       <c r="D41" s="13" t="s">
         <v>2</v>
       </c>
@@ -9801,7 +9800,7 @@
         <f>AVERAGE(I41,N41,S41)</f>
         <v>0.71483607643238045</v>
       </c>
-      <c r="V41" s="152"/>
+      <c r="V41" s="153"/>
       <c r="W41" s="105" t="s">
         <v>7</v>
       </c>
@@ -9854,9 +9853,9 @@
         <v>-19</v>
       </c>
     </row>
-    <row r="42" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B42" s="135"/>
-      <c r="C42" s="132"/>
+    <row r="42" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B42" s="163"/>
+      <c r="C42" s="161"/>
       <c r="D42" s="13" t="s">
         <v>3</v>
       </c>
@@ -9912,7 +9911,7 @@
         <f>AVERAGE(I42,N42,S42)</f>
         <v>0.89514895097951153</v>
       </c>
-      <c r="V42" s="152"/>
+      <c r="V42" s="153"/>
       <c r="W42" s="105" t="s">
         <v>8</v>
       </c>
@@ -9965,9 +9964,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="135"/>
-      <c r="C43" s="133"/>
+    <row r="43" spans="2:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="163"/>
+      <c r="C43" s="162"/>
       <c r="D43" s="54" t="s">
         <v>211</v>
       </c>
@@ -10023,7 +10022,7 @@
         <f>AVERAGE(I43,N43,S43)</f>
         <v>12.666666666666666</v>
       </c>
-      <c r="V43" s="153"/>
+      <c r="V43" s="154"/>
       <c r="W43" s="72" t="s">
         <v>9</v>
       </c>
@@ -10092,9 +10091,9 @@
         <v>29.25</v>
       </c>
     </row>
-    <row r="44" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B44" s="135"/>
-      <c r="C44" s="131" t="s">
+    <row r="44" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B44" s="163"/>
+      <c r="C44" s="160" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="13" t="s">
@@ -10152,10 +10151,10 @@
         <f t="shared" ref="T44:T51" si="21">AVERAGE(I44,N44,S44)</f>
         <v>0.38309457795371937</v>
       </c>
-      <c r="V44" s="154" t="s">
+      <c r="V44" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="W44" s="155"/>
+      <c r="W44" s="156"/>
       <c r="X44" s="113">
         <f t="shared" ref="X44:AM44" si="22">AVERAGE(X33,X38,X43)</f>
         <v>2.1519019847241818</v>
@@ -10221,9 +10220,9 @@
         <v>22.666666666666668</v>
       </c>
     </row>
-    <row r="45" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B45" s="135"/>
-      <c r="C45" s="132"/>
+    <row r="45" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B45" s="163"/>
+      <c r="C45" s="161"/>
       <c r="D45" s="13" t="s">
         <v>2</v>
       </c>
@@ -10280,9 +10279,9 @@
         <v>0.64001520720967164</v>
       </c>
     </row>
-    <row r="46" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="B46" s="135"/>
-      <c r="C46" s="132"/>
+    <row r="46" spans="2:40" x14ac:dyDescent="0.2">
+      <c r="B46" s="163"/>
+      <c r="C46" s="161"/>
       <c r="D46" s="13" t="s">
         <v>3</v>
       </c>
@@ -10339,9 +10338,9 @@
         <v>0.89019675793226261</v>
       </c>
     </row>
-    <row r="47" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="135"/>
-      <c r="C47" s="133"/>
+    <row r="47" spans="2:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="163"/>
+      <c r="C47" s="162"/>
       <c r="D47" s="54" t="s">
         <v>212</v>
       </c>
@@ -10398,9 +10397,9 @@
         <v>22.666666666666668</v>
       </c>
     </row>
-    <row r="48" spans="2:39" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="135"/>
-      <c r="C48" s="131" t="s">
+    <row r="48" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="163"/>
+      <c r="C48" s="160" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="13" t="s">
@@ -10458,10 +10457,34 @@
         <f t="shared" si="21"/>
         <v>0.39189308315984867</v>
       </c>
+      <c r="AF48" s="14">
+        <v>0.35796936955289599</v>
+      </c>
+      <c r="AG48" s="14">
+        <v>0.66473447345483505</v>
+      </c>
+      <c r="AH48" s="14">
+        <v>0.92222008954877499</v>
+      </c>
+      <c r="AI48" s="14">
+        <v>14</v>
+      </c>
+      <c r="AK48" s="14">
+        <v>0.35796936955289599</v>
+      </c>
+      <c r="AL48" s="14">
+        <v>0.66473447345483505</v>
+      </c>
+      <c r="AM48" s="14">
+        <v>0.92222008954877499</v>
+      </c>
+      <c r="AN48" s="14">
+        <v>14</v>
+      </c>
     </row>
     <row r="49" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B49" s="135"/>
-      <c r="C49" s="132"/>
+      <c r="B49" s="163"/>
+      <c r="C49" s="161"/>
       <c r="D49" s="13" t="s">
         <v>2</v>
       </c>
@@ -10517,10 +10540,34 @@
         <f t="shared" si="21"/>
         <v>0.65457595636860355</v>
       </c>
+      <c r="AF49" s="14">
+        <v>0.70783747752433801</v>
+      </c>
+      <c r="AG49" s="14">
+        <v>0.91714326933989698</v>
+      </c>
+      <c r="AH49" s="14">
+        <v>0.68507741763765395</v>
+      </c>
+      <c r="AI49" s="14">
+        <v>-76</v>
+      </c>
+      <c r="AK49" s="14">
+        <v>0.70783747752433801</v>
+      </c>
+      <c r="AL49" s="14">
+        <v>0.91714326933989698</v>
+      </c>
+      <c r="AM49" s="14">
+        <v>0.68507741763765395</v>
+      </c>
+      <c r="AN49" s="14">
+        <v>-76</v>
+      </c>
     </row>
     <row r="50" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B50" s="135"/>
-      <c r="C50" s="132"/>
+      <c r="B50" s="163"/>
+      <c r="C50" s="161"/>
       <c r="D50" s="13" t="s">
         <v>3</v>
       </c>
@@ -10576,10 +10623,46 @@
         <f t="shared" si="21"/>
         <v>0.9228938832775202</v>
       </c>
+      <c r="X50" s="14">
+        <v>2.18889478259779</v>
+      </c>
+      <c r="Y50" s="14">
+        <v>3.1818987539986998</v>
+      </c>
+      <c r="Z50" s="14">
+        <v>0.916741705190941</v>
+      </c>
+      <c r="AA50" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AF50" s="14">
+        <v>0.31514394509268701</v>
+      </c>
+      <c r="AG50" s="14">
+        <v>0.60444995035413995</v>
+      </c>
+      <c r="AH50" s="14">
+        <v>0.91300985657772304</v>
+      </c>
+      <c r="AI50" s="14">
+        <v>27</v>
+      </c>
+      <c r="AK50" s="14">
+        <v>0.31514394509268701</v>
+      </c>
+      <c r="AL50" s="14">
+        <v>0.60444995035413995</v>
+      </c>
+      <c r="AM50" s="14">
+        <v>0.91300985657772304</v>
+      </c>
+      <c r="AN50" s="14">
+        <v>27</v>
+      </c>
     </row>
     <row r="51" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="147"/>
-      <c r="C51" s="133"/>
+      <c r="B51" s="164"/>
+      <c r="C51" s="162"/>
       <c r="D51" s="54" t="s">
         <v>212</v>
       </c>
@@ -10635,14 +10718,90 @@
         <f t="shared" si="21"/>
         <v>15.333333333333334</v>
       </c>
-    </row>
-    <row r="52" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="X51" s="14">
+        <v>2.4345324171165399</v>
+      </c>
+      <c r="Y51" s="14">
+        <v>3.87634162808421</v>
+      </c>
+      <c r="Z51" s="14">
+        <v>0.90012737645273899</v>
+      </c>
+      <c r="AA51" s="14">
+        <v>24</v>
+      </c>
+      <c r="AF51" s="14">
+        <v>0.47714903688258298</v>
+      </c>
+      <c r="AG51" s="14">
+        <v>0.85981918366161003</v>
+      </c>
+      <c r="AH51" s="14">
+        <v>0.97298149372320797</v>
+      </c>
+      <c r="AI51" s="14">
+        <v>-25</v>
+      </c>
+      <c r="AK51" s="14">
+        <v>0.47714903688258298</v>
+      </c>
+      <c r="AL51" s="14">
+        <v>0.85981918366161003</v>
+      </c>
+      <c r="AM51" s="14">
+        <v>0.97298149372320797</v>
+      </c>
+      <c r="AN51" s="14">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="52" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="N52"/>
+      <c r="X52" s="14">
+        <v>1.4884645490472499</v>
+      </c>
+      <c r="Y52" s="14">
+        <v>1.8761973152521301</v>
+      </c>
+      <c r="Z52" s="14">
+        <v>0.93133083264287697</v>
+      </c>
+      <c r="AA52" s="14">
+        <v>-10</v>
+      </c>
+      <c r="AF52" s="112">
+        <f>AVERAGE(AF48:AF51)</f>
+        <v>0.46452495726312598</v>
+      </c>
+      <c r="AG52" s="109">
+        <f>AVERAGE(AG48:AG51)</f>
+        <v>0.76153671920262056</v>
+      </c>
+      <c r="AH52" s="110">
+        <f>AVERAGE(AH48:AH51)</f>
+        <v>0.87332221437183999</v>
+      </c>
+      <c r="AI52" s="111" cm="1">
+        <f t="array" ref="AI52">AVERAGE(ABS(AI48:AI51))</f>
+        <v>35.5</v>
+      </c>
     </row>
     <row r="53" spans="2:75" x14ac:dyDescent="0.2">
       <c r="N53"/>
-    </row>
-    <row r="54" spans="2:75" x14ac:dyDescent="0.2">
+      <c r="X53" s="14">
+        <v>2.34718667513649</v>
+      </c>
+      <c r="Y53" s="14">
+        <v>5.1280902147820804</v>
+      </c>
+      <c r="Z53" s="14">
+        <v>0.94798486909373503</v>
+      </c>
+      <c r="AA53" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>214</v>
       </c>
@@ -10650,6 +10809,34 @@
         <v>213</v>
       </c>
       <c r="N54"/>
+      <c r="X54" s="112">
+        <f>AVERAGE(X50:X53)</f>
+        <v>2.1147696059745176</v>
+      </c>
+      <c r="Y54" s="109">
+        <f>AVERAGE(Y50:Y53)</f>
+        <v>3.5156319780292802</v>
+      </c>
+      <c r="Z54" s="110">
+        <f>AVERAGE(Z50:Z53)</f>
+        <v>0.92404619584507297</v>
+      </c>
+      <c r="AA54" s="111" cm="1">
+        <f t="array" ref="AA54">AVERAGE(ABS(AA50:AA53))</f>
+        <v>12.5</v>
+      </c>
+      <c r="AC54" s="14">
+        <v>2.4567639652206101</v>
+      </c>
+      <c r="AD54" s="14">
+        <v>2.5687105568278001</v>
+      </c>
+      <c r="AE54" s="14">
+        <v>1.4237578110570199</v>
+      </c>
+      <c r="AF54" s="14">
+        <v>4.1331423251827397</v>
+      </c>
     </row>
     <row r="55" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
@@ -10681,6 +10868,18 @@
       <c r="U55" s="13"/>
       <c r="V55" s="13"/>
       <c r="W55" s="13"/>
+      <c r="AC55" s="14">
+        <v>3.60906396395155</v>
+      </c>
+      <c r="AD55" s="14">
+        <v>4.1564176321666499</v>
+      </c>
+      <c r="AE55" s="14">
+        <v>1.84851632832792</v>
+      </c>
+      <c r="AF55" s="14">
+        <v>7.7586509468645399</v>
+      </c>
       <c r="AQ55" s="13"/>
       <c r="AR55" s="13"/>
       <c r="AS55" s="13"/>
@@ -10716,10 +10915,10 @@
       <c r="BW55" s="13"/>
     </row>
     <row r="56" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B56" s="148">
+      <c r="B56" s="167">
         <v>0</v>
       </c>
-      <c r="C56" s="144">
+      <c r="C56" s="157">
         <v>0</v>
       </c>
       <c r="D56" s="53" t="s">
@@ -10748,6 +10947,30 @@
       <c r="U56" s="55"/>
       <c r="V56" s="55"/>
       <c r="W56" s="55"/>
+      <c r="X56" s="14">
+        <v>2.4567639652206101</v>
+      </c>
+      <c r="Y56" s="14">
+        <v>3.60906396395155</v>
+      </c>
+      <c r="Z56" s="14">
+        <v>0.90480715838214798</v>
+      </c>
+      <c r="AA56" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AC56" s="14">
+        <v>0.90480715838214798</v>
+      </c>
+      <c r="AD56" s="14">
+        <v>0.89542968062926698</v>
+      </c>
+      <c r="AE56" s="14">
+        <v>0.94037969334473304</v>
+      </c>
+      <c r="AF56" s="14">
+        <v>0.93867726209864499</v>
+      </c>
       <c r="AQ56" s="55"/>
       <c r="AR56" s="55"/>
       <c r="AS56" s="55"/>
@@ -10783,8 +11006,8 @@
       <c r="BW56" s="55"/>
     </row>
     <row r="57" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B57" s="149"/>
-      <c r="C57" s="145"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="158"/>
       <c r="D57" s="2" t="s">
         <v>2</v>
       </c>
@@ -10815,6 +11038,30 @@
       <c r="U57" s="55"/>
       <c r="V57" s="55"/>
       <c r="W57" s="55"/>
+      <c r="X57" s="14">
+        <v>2.5687105568278001</v>
+      </c>
+      <c r="Y57" s="14">
+        <v>4.1564176321666499</v>
+      </c>
+      <c r="Z57" s="14">
+        <v>0.89542968062926698</v>
+      </c>
+      <c r="AA57" s="14">
+        <v>12</v>
+      </c>
+      <c r="AC57" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AD57" s="14">
+        <v>12</v>
+      </c>
+      <c r="AE57" s="14">
+        <v>-10</v>
+      </c>
+      <c r="AF57" s="14">
+        <v>15</v>
+      </c>
       <c r="AQ57" s="55"/>
       <c r="AR57" s="55"/>
       <c r="AS57" s="55"/>
@@ -10850,8 +11097,8 @@
       <c r="BW57" s="55"/>
     </row>
     <row r="58" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="150"/>
-      <c r="C58" s="146"/>
+      <c r="B58" s="169"/>
+      <c r="C58" s="159"/>
       <c r="D58" s="54" t="s">
         <v>3</v>
       </c>
@@ -10882,6 +11129,22 @@
       <c r="U58" s="55"/>
       <c r="V58" s="55"/>
       <c r="W58" s="55"/>
+      <c r="X58" s="14">
+        <v>1.4237578110570199</v>
+      </c>
+      <c r="Y58" s="14">
+        <v>1.84851632832792</v>
+      </c>
+      <c r="Z58" s="14">
+        <v>0.94037969334473304</v>
+      </c>
+      <c r="AA58" s="14">
+        <v>-10</v>
+      </c>
+      <c r="AC58" s="14"/>
+      <c r="AD58" s="14"/>
+      <c r="AE58" s="14"/>
+      <c r="AF58" s="14"/>
       <c r="AQ58" s="55"/>
       <c r="AR58" s="55"/>
       <c r="AS58" s="55"/>
@@ -10917,10 +11180,10 @@
       <c r="BW58" s="55"/>
     </row>
     <row r="59" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B59" s="148">
+      <c r="B59" s="167">
         <v>0</v>
       </c>
-      <c r="C59" s="144">
+      <c r="C59" s="157">
         <v>1E-3</v>
       </c>
       <c r="D59" s="53" t="s">
@@ -10952,10 +11215,34 @@
       <c r="N59" s="55"/>
       <c r="O59" s="55"/>
       <c r="P59" s="55"/>
-    </row>
-    <row r="60" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B60" s="149"/>
-      <c r="C60" s="145"/>
+      <c r="X59" s="14">
+        <v>4.1331423251827397</v>
+      </c>
+      <c r="Y59" s="14">
+        <v>7.7586509468645399</v>
+      </c>
+      <c r="Z59" s="14">
+        <v>0.93867726209864499</v>
+      </c>
+      <c r="AA59" s="14">
+        <v>15</v>
+      </c>
+      <c r="AC59" s="14">
+        <v>2.4567639652206101</v>
+      </c>
+      <c r="AD59" s="14">
+        <v>3.60906396395155</v>
+      </c>
+      <c r="AE59" s="14">
+        <v>0.90480715838214798</v>
+      </c>
+      <c r="AF59" s="14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="168"/>
+      <c r="C60" s="158"/>
       <c r="D60" s="2" t="s">
         <v>2</v>
       </c>
@@ -10983,10 +11270,38 @@
       <c r="N60" s="55"/>
       <c r="O60" s="55"/>
       <c r="P60" s="55"/>
+      <c r="X60" s="112">
+        <f>AVERAGE(X56:X59)</f>
+        <v>2.6455936645720426</v>
+      </c>
+      <c r="Y60" s="109">
+        <f>AVERAGE(Y56:Y59)</f>
+        <v>4.3431622178276648</v>
+      </c>
+      <c r="Z60" s="110">
+        <f>AVERAGE(Z56:Z59)</f>
+        <v>0.91982344861369825</v>
+      </c>
+      <c r="AA60" s="111" cm="1">
+        <f t="array" ref="AA60">AVERAGE(ABS(AA56:AA59))</f>
+        <v>9.5</v>
+      </c>
+      <c r="AC60" s="14">
+        <v>2.5687105568278001</v>
+      </c>
+      <c r="AD60" s="14">
+        <v>4.1564176321666499</v>
+      </c>
+      <c r="AE60" s="14">
+        <v>0.89542968062926698</v>
+      </c>
+      <c r="AF60" s="14">
+        <v>12</v>
+      </c>
     </row>
     <row r="61" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="150"/>
-      <c r="C61" s="146"/>
+      <c r="B61" s="169"/>
+      <c r="C61" s="159"/>
       <c r="D61" s="54" t="s">
         <v>3</v>
       </c>
@@ -11010,12 +11325,24 @@
         <v>195</v>
       </c>
       <c r="N61"/>
+      <c r="AC61" s="14">
+        <v>1.4237578110570199</v>
+      </c>
+      <c r="AD61" s="14">
+        <v>1.84851632832792</v>
+      </c>
+      <c r="AE61" s="14">
+        <v>0.94037969334473304</v>
+      </c>
+      <c r="AF61" s="14">
+        <v>-10</v>
+      </c>
     </row>
     <row r="62" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B62" s="144">
+      <c r="B62" s="157">
         <v>0</v>
       </c>
-      <c r="C62" s="144">
+      <c r="C62" s="157">
         <v>0.01</v>
       </c>
       <c r="D62" s="53" t="s">
@@ -11041,10 +11368,22 @@
         <v>196</v>
       </c>
       <c r="N62"/>
+      <c r="AC62" s="14">
+        <v>4.1331423251827397</v>
+      </c>
+      <c r="AD62" s="14">
+        <v>7.7586509468645399</v>
+      </c>
+      <c r="AE62" s="14">
+        <v>0.93867726209864499</v>
+      </c>
+      <c r="AF62" s="14">
+        <v>15</v>
+      </c>
     </row>
     <row r="63" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B63" s="145"/>
-      <c r="C63" s="145"/>
+      <c r="B63" s="158"/>
+      <c r="C63" s="158"/>
       <c r="D63" s="2" t="s">
         <v>2</v>
       </c>
@@ -11071,10 +11410,14 @@
         <v>190</v>
       </c>
       <c r="N63"/>
+      <c r="AC63" s="14"/>
+      <c r="AD63" s="14"/>
+      <c r="AE63" s="14"/>
+      <c r="AF63" s="14"/>
     </row>
     <row r="64" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="146"/>
-      <c r="C64" s="146"/>
+      <c r="B64" s="159"/>
+      <c r="C64" s="159"/>
       <c r="D64" s="54" t="s">
         <v>3</v>
       </c>
@@ -11098,12 +11441,16 @@
         <v>197</v>
       </c>
       <c r="N64"/>
+      <c r="AC64" s="14"/>
+      <c r="AD64" s="14"/>
+      <c r="AE64" s="14"/>
+      <c r="AF64" s="14"/>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B65" s="144">
+      <c r="B65" s="157">
         <v>0</v>
       </c>
-      <c r="C65" s="144">
+      <c r="C65" s="157">
         <v>0.1</v>
       </c>
       <c r="D65" s="53" t="s">
@@ -11131,8 +11478,8 @@
       <c r="N65"/>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B66" s="145"/>
-      <c r="C66" s="145"/>
+      <c r="B66" s="158"/>
+      <c r="C66" s="158"/>
       <c r="D66" s="2" t="s">
         <v>2</v>
       </c>
@@ -11158,8 +11505,8 @@
       <c r="N66"/>
     </row>
     <row r="67" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="146"/>
-      <c r="C67" s="146"/>
+      <c r="B67" s="159"/>
+      <c r="C67" s="159"/>
       <c r="D67" s="54" t="s">
         <v>3</v>
       </c>
@@ -11188,10 +11535,10 @@
       <c r="N67"/>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B68" s="144">
+      <c r="B68" s="157">
         <v>1E-3</v>
       </c>
-      <c r="C68" s="144">
+      <c r="C68" s="157">
         <v>0</v>
       </c>
       <c r="D68" s="53" t="s">
@@ -11219,8 +11566,8 @@
       <c r="N68"/>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B69" s="145"/>
-      <c r="C69" s="145"/>
+      <c r="B69" s="158"/>
+      <c r="C69" s="158"/>
       <c r="D69" s="2" t="s">
         <v>2</v>
       </c>
@@ -11246,8 +11593,8 @@
       <c r="N69"/>
     </row>
     <row r="70" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="146"/>
-      <c r="C70" s="146"/>
+      <c r="B70" s="159"/>
+      <c r="C70" s="159"/>
       <c r="D70" s="54" t="s">
         <v>3</v>
       </c>
@@ -11274,10 +11621,10 @@
       <c r="O70" s="1"/>
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B71" s="144">
+      <c r="B71" s="157">
         <v>1E-3</v>
       </c>
-      <c r="C71" s="144">
+      <c r="C71" s="157">
         <v>1E-3</v>
       </c>
       <c r="D71" s="53" t="s">
@@ -11309,8 +11656,8 @@
       <c r="O71" s="1"/>
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B72" s="145"/>
-      <c r="C72" s="145"/>
+      <c r="B72" s="158"/>
+      <c r="C72" s="158"/>
       <c r="D72" s="2" t="s">
         <v>2</v>
       </c>
@@ -11337,8 +11684,8 @@
       <c r="O72" s="1"/>
     </row>
     <row r="73" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="146"/>
-      <c r="C73" s="146"/>
+      <c r="B73" s="159"/>
+      <c r="C73" s="159"/>
       <c r="D73" s="54" t="s">
         <v>3</v>
       </c>
@@ -11366,10 +11713,10 @@
       <c r="S73" s="1"/>
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B74" s="144">
+      <c r="B74" s="157">
         <v>1E-3</v>
       </c>
-      <c r="C74" s="144">
+      <c r="C74" s="157">
         <v>0.01</v>
       </c>
       <c r="D74" s="53" t="s">
@@ -11398,8 +11745,8 @@
       <c r="O74" s="1"/>
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B75" s="145"/>
-      <c r="C75" s="145"/>
+      <c r="B75" s="158"/>
+      <c r="C75" s="158"/>
       <c r="D75" s="2" t="s">
         <v>2</v>
       </c>
@@ -11422,8 +11769,8 @@
       <c r="N75"/>
     </row>
     <row r="76" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="146"/>
-      <c r="C76" s="146"/>
+      <c r="B76" s="159"/>
+      <c r="C76" s="159"/>
       <c r="D76" s="54" t="s">
         <v>3</v>
       </c>
@@ -11446,10 +11793,10 @@
       <c r="N76"/>
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B77" s="144">
+      <c r="B77" s="157">
         <v>1E-3</v>
       </c>
-      <c r="C77" s="144">
+      <c r="C77" s="157">
         <v>0.1</v>
       </c>
       <c r="D77" s="53" t="s">
@@ -11474,8 +11821,8 @@
       <c r="N77"/>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B78" s="145"/>
-      <c r="C78" s="145"/>
+      <c r="B78" s="158"/>
+      <c r="C78" s="158"/>
       <c r="D78" s="2" t="s">
         <v>2</v>
       </c>
@@ -11498,8 +11845,8 @@
       <c r="N78"/>
     </row>
     <row r="79" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="146"/>
-      <c r="C79" s="146"/>
+      <c r="B79" s="159"/>
+      <c r="C79" s="159"/>
       <c r="D79" s="54" t="s">
         <v>3</v>
       </c>
@@ -11522,10 +11869,10 @@
       <c r="N79"/>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B80" s="144">
+      <c r="B80" s="157">
         <v>0.01</v>
       </c>
-      <c r="C80" s="144">
+      <c r="C80" s="157">
         <v>0</v>
       </c>
       <c r="D80" s="53" t="s">
@@ -11550,8 +11897,8 @@
       <c r="N80"/>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B81" s="145"/>
-      <c r="C81" s="145"/>
+      <c r="B81" s="158"/>
+      <c r="C81" s="158"/>
       <c r="D81" s="2" t="s">
         <v>2</v>
       </c>
@@ -11574,8 +11921,8 @@
       <c r="N81"/>
     </row>
     <row r="82" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="146"/>
-      <c r="C82" s="146"/>
+      <c r="B82" s="159"/>
+      <c r="C82" s="159"/>
       <c r="D82" s="54" t="s">
         <v>3</v>
       </c>
@@ -11598,10 +11945,10 @@
       <c r="N82"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B83" s="144">
+      <c r="B83" s="157">
         <v>0.01</v>
       </c>
-      <c r="C83" s="144">
+      <c r="C83" s="157">
         <v>1E-3</v>
       </c>
       <c r="D83" s="53" t="s">
@@ -11626,8 +11973,8 @@
       <c r="N83"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B84" s="145"/>
-      <c r="C84" s="145"/>
+      <c r="B84" s="158"/>
+      <c r="C84" s="158"/>
       <c r="D84" s="2" t="s">
         <v>2</v>
       </c>
@@ -11650,8 +11997,8 @@
       <c r="N84"/>
     </row>
     <row r="85" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="146"/>
-      <c r="C85" s="146"/>
+      <c r="B85" s="159"/>
+      <c r="C85" s="159"/>
       <c r="D85" s="54" t="s">
         <v>3</v>
       </c>
@@ -11674,10 +12021,10 @@
       <c r="N85"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B86" s="144">
+      <c r="B86" s="157">
         <v>0.01</v>
       </c>
-      <c r="C86" s="144">
+      <c r="C86" s="157">
         <v>0.01</v>
       </c>
       <c r="D86" s="53" t="s">
@@ -11702,8 +12049,8 @@
       <c r="N86"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B87" s="145"/>
-      <c r="C87" s="145"/>
+      <c r="B87" s="158"/>
+      <c r="C87" s="158"/>
       <c r="D87" s="2" t="s">
         <v>2</v>
       </c>
@@ -11726,8 +12073,8 @@
       <c r="N87"/>
     </row>
     <row r="88" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="146"/>
-      <c r="C88" s="146"/>
+      <c r="B88" s="159"/>
+      <c r="C88" s="159"/>
       <c r="D88" s="54" t="s">
         <v>3</v>
       </c>
@@ -11750,10 +12097,10 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B89" s="144">
+      <c r="B89" s="157">
         <v>0.01</v>
       </c>
-      <c r="C89" s="144">
+      <c r="C89" s="157">
         <v>0.1</v>
       </c>
       <c r="D89" s="53" t="s">
@@ -11778,8 +12125,8 @@
       <c r="N89"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B90" s="145"/>
-      <c r="C90" s="145"/>
+      <c r="B90" s="158"/>
+      <c r="C90" s="158"/>
       <c r="D90" s="2" t="s">
         <v>2</v>
       </c>
@@ -11802,8 +12149,8 @@
       <c r="N90"/>
     </row>
     <row r="91" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="146"/>
-      <c r="C91" s="146"/>
+      <c r="B91" s="159"/>
+      <c r="C91" s="159"/>
       <c r="D91" s="54" t="s">
         <v>3</v>
       </c>
@@ -11826,10 +12173,10 @@
       <c r="N91"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B92" s="144">
+      <c r="B92" s="157">
         <v>0.1</v>
       </c>
-      <c r="C92" s="144">
+      <c r="C92" s="157">
         <v>0</v>
       </c>
       <c r="D92" s="53" t="s">
@@ -11854,8 +12201,8 @@
       <c r="N92"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B93" s="145"/>
-      <c r="C93" s="145"/>
+      <c r="B93" s="158"/>
+      <c r="C93" s="158"/>
       <c r="D93" s="2" t="s">
         <v>2</v>
       </c>
@@ -11877,8 +12224,8 @@
       </c>
     </row>
     <row r="94" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="146"/>
-      <c r="C94" s="146"/>
+      <c r="B94" s="159"/>
+      <c r="C94" s="159"/>
       <c r="D94" s="54" t="s">
         <v>3</v>
       </c>
@@ -11900,10 +12247,10 @@
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B95" s="144">
+      <c r="B95" s="157">
         <v>0.1</v>
       </c>
-      <c r="C95" s="144">
+      <c r="C95" s="157">
         <v>1E-3</v>
       </c>
       <c r="D95" s="53" t="s">
@@ -11927,8 +12274,8 @@
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B96" s="145"/>
-      <c r="C96" s="145"/>
+      <c r="B96" s="158"/>
+      <c r="C96" s="158"/>
       <c r="D96" s="2" t="s">
         <v>2</v>
       </c>
@@ -11950,8 +12297,8 @@
       </c>
     </row>
     <row r="97" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="146"/>
-      <c r="C97" s="146"/>
+      <c r="B97" s="159"/>
+      <c r="C97" s="159"/>
       <c r="D97" s="54" t="s">
         <v>3</v>
       </c>
@@ -11973,10 +12320,10 @@
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B98" s="144">
+      <c r="B98" s="157">
         <v>0.1</v>
       </c>
-      <c r="C98" s="144">
+      <c r="C98" s="157">
         <v>0.01</v>
       </c>
       <c r="D98" s="53" t="s">
@@ -12000,8 +12347,8 @@
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B99" s="145"/>
-      <c r="C99" s="145"/>
+      <c r="B99" s="158"/>
+      <c r="C99" s="158"/>
       <c r="D99" s="2" t="s">
         <v>2</v>
       </c>
@@ -12023,8 +12370,8 @@
       </c>
     </row>
     <row r="100" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="146"/>
-      <c r="C100" s="146"/>
+      <c r="B100" s="159"/>
+      <c r="C100" s="159"/>
       <c r="D100" s="54" t="s">
         <v>3</v>
       </c>
@@ -12046,10 +12393,10 @@
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B101" s="144">
+      <c r="B101" s="157">
         <v>0.1</v>
       </c>
-      <c r="C101" s="144">
+      <c r="C101" s="157">
         <v>0.1</v>
       </c>
       <c r="D101" s="53" t="s">
@@ -12073,8 +12420,8 @@
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B102" s="145"/>
-      <c r="C102" s="145"/>
+      <c r="B102" s="158"/>
+      <c r="C102" s="158"/>
       <c r="D102" s="2" t="s">
         <v>2</v>
       </c>
@@ -12096,8 +12443,8 @@
       </c>
     </row>
     <row r="103" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="146"/>
-      <c r="C103" s="146"/>
+      <c r="B103" s="159"/>
+      <c r="C103" s="159"/>
       <c r="D103" s="54" t="s">
         <v>3</v>
       </c>
@@ -12120,24 +12467,37 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="V29:V33"/>
-    <mergeCell ref="V34:V38"/>
-    <mergeCell ref="V39:V43"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="B40:B51"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="AF26:AM26"/>
+    <mergeCell ref="X27:AA27"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AJ27:AM27"/>
+    <mergeCell ref="X26:AE26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B4:B15"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C83:C85"/>
     <mergeCell ref="C101:C103"/>
     <mergeCell ref="B62:B64"/>
     <mergeCell ref="B65:B67"/>
@@ -12154,49 +12514,37 @@
     <mergeCell ref="B98:B100"/>
     <mergeCell ref="B101:B103"/>
     <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B4:B15"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:S26"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="B28:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="AF26:AM26"/>
-    <mergeCell ref="X27:AA27"/>
-    <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="AJ27:AM27"/>
-    <mergeCell ref="X26:AE26"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="V29:V33"/>
+    <mergeCell ref="V34:V38"/>
+    <mergeCell ref="V39:V43"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="C65:C67"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFB687B-AE8A-9E4C-93B1-A2032A687EEF}">
-  <dimension ref="C4:Y58"/>
+  <dimension ref="C4:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:M25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12208,37 +12556,37 @@
   <sheetData>
     <row r="4" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="X5" s="172" t="s">
+      <c r="X5" s="137" t="s">
         <v>235</v>
       </c>
-      <c r="Y5" s="173" t="s">
+      <c r="Y5" s="138" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="6" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="13"/>
-      <c r="F6" s="128" t="s">
+      <c r="F6" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="128" t="s">
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="128" t="s">
+      <c r="L6" s="172"/>
+      <c r="M6" s="172"/>
+      <c r="N6" s="172"/>
+      <c r="O6" s="173"/>
+      <c r="P6" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="141" t="s">
+      <c r="Q6" s="172"/>
+      <c r="R6" s="172"/>
+      <c r="S6" s="172"/>
+      <c r="T6" s="173"/>
+      <c r="U6" s="174" t="s">
         <v>9</v>
       </c>
       <c r="X6" s="121" t="s">
@@ -12295,7 +12643,7 @@
       <c r="T7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="141"/>
+      <c r="U7" s="174"/>
       <c r="X7" s="122" t="s">
         <v>212</v>
       </c>
@@ -12304,10 +12652,10 @@
       </c>
     </row>
     <row r="8" spans="3:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="131" t="s">
+      <c r="D8" s="160" t="s">
         <v>210</v>
       </c>
       <c r="E8" s="53" t="s">
@@ -12373,8 +12721,8 @@
       </c>
     </row>
     <row r="9" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C9" s="140"/>
-      <c r="D9" s="132"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="161"/>
       <c r="E9" s="2" t="s">
         <v>2</v>
       </c>
@@ -12438,8 +12786,8 @@
       </c>
     </row>
     <row r="10" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C10" s="140"/>
-      <c r="D10" s="132"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="161"/>
       <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
@@ -12498,13 +12846,13 @@
       <c r="X10" s="122" t="s">
         <v>234</v>
       </c>
-      <c r="Y10" s="174" t="b">
+      <c r="Y10" s="139" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="3:25" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="140"/>
-      <c r="D11" s="133"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="162"/>
       <c r="E11" s="54" t="s">
         <v>211</v>
       </c>
@@ -12568,8 +12916,8 @@
       </c>
     </row>
     <row r="12" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C12" s="140"/>
-      <c r="D12" s="131" t="s">
+      <c r="C12" s="170"/>
+      <c r="D12" s="160" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="53" t="s">
@@ -12635,8 +12983,8 @@
       </c>
     </row>
     <row r="13" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C13" s="140"/>
-      <c r="D13" s="132"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="161"/>
       <c r="E13" s="2" t="s">
         <v>2</v>
       </c>
@@ -12700,7 +13048,7 @@
       </c>
     </row>
     <row r="14" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="D14" s="132"/>
+      <c r="D14" s="161"/>
       <c r="E14" s="2" t="s">
         <v>3</v>
       </c>
@@ -12764,7 +13112,7 @@
       </c>
     </row>
     <row r="15" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="133"/>
+      <c r="D15" s="162"/>
       <c r="E15" s="50" t="s">
         <v>211</v>
       </c>
@@ -12836,21 +13184,31 @@
       </c>
     </row>
     <row r="18" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="158"/>
-      <c r="E19" s="158"/>
-      <c r="F19" s="131" t="s">
+    <row r="19" spans="4:22" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="129"/>
+      <c r="E19" s="129"/>
+      <c r="F19" s="160" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="164"/>
-      <c r="J19" s="160" t="s">
+      <c r="G19" s="185"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="K19" s="160"/>
-      <c r="L19" s="160"/>
-      <c r="M19" s="161"/>
+      <c r="K19" s="185"/>
+      <c r="L19" s="185"/>
+      <c r="M19" s="187"/>
+      <c r="N19" s="160" t="s">
+        <v>236</v>
+      </c>
+      <c r="O19" s="185"/>
+      <c r="P19" s="185"/>
+      <c r="Q19" s="186"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
     </row>
     <row r="20" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D20" s="97" t="s">
@@ -12868,7 +13226,7 @@
       <c r="H20" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="186" t="s">
+      <c r="I20" s="150" t="s">
         <v>211</v>
       </c>
       <c r="J20" s="98" t="s">
@@ -12883,25 +13241,41 @@
       <c r="M20" s="100" t="s">
         <v>211</v>
       </c>
+      <c r="N20" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="150" t="s">
+        <v>211</v>
+      </c>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
     </row>
     <row r="21" spans="4:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="151">
+      <c r="D21" s="152">
         <v>7</v>
       </c>
-      <c r="E21" s="159" t="s">
+      <c r="E21" s="130" t="s">
         <v>0</v>
       </c>
       <c r="F21" s="107">
-        <v>1.88859227383446</v>
-      </c>
-      <c r="G21" s="165">
-        <v>2.59165720584447</v>
-      </c>
-      <c r="H21" s="165">
-        <v>0.92528922808715897</v>
-      </c>
-      <c r="I21" s="175">
-        <v>-2</v>
+        <v>1.9564223092324899</v>
+      </c>
+      <c r="G21" s="131">
+        <v>2.7898785700676898</v>
+      </c>
+      <c r="H21" s="131">
+        <v>0.93519973480315999</v>
+      </c>
+      <c r="I21" s="140">
+        <v>-3</v>
       </c>
       <c r="J21" s="114">
         <v>1.3953039029454499</v>
@@ -12915,201 +13289,184 @@
       <c r="M21" s="115">
         <v>-8</v>
       </c>
-      <c r="O21" s="14">
-        <v>1.3953039029454499</v>
-      </c>
-      <c r="P21" s="14">
-        <v>1.43611328003703</v>
-      </c>
-      <c r="Q21" s="14">
-        <v>1.43662992745592</v>
-      </c>
-      <c r="R21" s="14">
-        <v>2.64327513122756</v>
-      </c>
+      <c r="N21" s="133">
+        <v>2.9512770024242001</v>
+      </c>
+      <c r="O21" s="133">
+        <v>4.3127364592540296</v>
+      </c>
+      <c r="P21" s="133">
+        <v>0.86352584150675904</v>
+      </c>
+      <c r="Q21" s="115">
+        <v>-8</v>
+      </c>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
     </row>
     <row r="22" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D22" s="152"/>
+      <c r="D22" s="153"/>
       <c r="E22" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="107">
-        <v>2.4394765425882001</v>
-      </c>
-      <c r="G22" s="165">
-        <v>3.6985519699639902</v>
-      </c>
-      <c r="H22" s="165">
-        <v>0.91731307019144204</v>
-      </c>
-      <c r="I22" s="176">
+        <v>2.4302778542036299</v>
+      </c>
+      <c r="G22" s="131">
+        <v>3.7246070271155398</v>
+      </c>
+      <c r="H22" s="131">
+        <v>0.92083933133732099</v>
+      </c>
+      <c r="I22" s="141">
         <v>17</v>
       </c>
-      <c r="J22" s="166">
+      <c r="J22" s="132">
         <v>1.43611328003703</v>
       </c>
-      <c r="K22" s="166">
+      <c r="K22" s="132">
         <v>2.1674456180120298</v>
       </c>
-      <c r="L22" s="166">
+      <c r="L22" s="132">
         <v>0.94566824672413197</v>
       </c>
       <c r="M22" s="108">
         <v>5</v>
       </c>
-      <c r="O22" s="14">
-        <v>2.2410296522764201</v>
-      </c>
-      <c r="P22" s="14">
-        <v>2.1674456180120298</v>
-      </c>
-      <c r="Q22" s="14">
-        <v>2.3696005644861899</v>
-      </c>
-      <c r="R22" s="14">
-        <v>4.6866517625012403</v>
-      </c>
-      <c r="S22" s="14">
-        <v>1.3953039029454499</v>
-      </c>
-      <c r="T22" s="14">
-        <v>2.2410296522764201</v>
-      </c>
-      <c r="U22" s="14">
-        <v>0.95539454820134895</v>
-      </c>
-      <c r="V22" s="14">
-        <v>-8</v>
-      </c>
+      <c r="N22" s="131">
+        <v>2.6259942309225002</v>
+      </c>
+      <c r="O22" s="131">
+        <v>4.0622906378416799</v>
+      </c>
+      <c r="P22" s="131">
+        <v>0.91021773196631095</v>
+      </c>
+      <c r="Q22" s="103">
+        <v>17</v>
+      </c>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
     </row>
     <row r="23" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D23" s="152"/>
+      <c r="D23" s="153"/>
       <c r="E23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="104">
-        <v>1.2464504398454599</v>
-      </c>
-      <c r="G23" s="166">
-        <v>1.52064727305979</v>
-      </c>
-      <c r="H23" s="166">
-        <v>0.96607855073938698</v>
-      </c>
-      <c r="I23" s="175">
-        <v>-17</v>
-      </c>
-      <c r="J23" s="165">
+        <v>1.18227722221772</v>
+      </c>
+      <c r="G23" s="132">
+        <v>1.4563743635887201</v>
+      </c>
+      <c r="H23" s="132">
+        <v>0.96987730378416304</v>
+      </c>
+      <c r="I23" s="140">
+        <v>-18</v>
+      </c>
+      <c r="J23" s="131">
         <v>1.43662992745592</v>
       </c>
-      <c r="K23" s="165">
+      <c r="K23" s="131">
         <v>2.3696005644861899</v>
       </c>
-      <c r="L23" s="165">
+      <c r="L23" s="131">
         <v>0.925151573702932</v>
       </c>
       <c r="M23" s="103">
         <v>-21</v>
       </c>
-      <c r="O23" s="14">
-        <v>0.95539454820134895</v>
-      </c>
-      <c r="P23" s="14">
-        <v>0.94566824672413197</v>
-      </c>
-      <c r="Q23" s="14">
-        <v>0.925151573702932</v>
-      </c>
-      <c r="R23" s="14">
-        <v>0.97624377007180496</v>
-      </c>
-      <c r="S23" s="14">
-        <v>1.43611328003703</v>
-      </c>
-      <c r="T23" s="14">
-        <v>2.1674456180120298</v>
-      </c>
-      <c r="U23" s="14">
-        <v>0.94566824672413197</v>
-      </c>
-      <c r="V23" s="14">
-        <v>5</v>
-      </c>
+      <c r="N23" s="131">
+        <v>1.50589329905638</v>
+      </c>
+      <c r="O23" s="131">
+        <v>2.0698032495027499</v>
+      </c>
+      <c r="P23" s="131">
+        <v>0.96135869199740298</v>
+      </c>
+      <c r="Q23" s="103">
+        <v>-17</v>
+      </c>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
     </row>
     <row r="24" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D24" s="152"/>
+      <c r="D24" s="153"/>
       <c r="E24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="107">
-        <v>3.1531473150135501</v>
-      </c>
-      <c r="G24" s="165">
-        <v>5.4298722955533503</v>
-      </c>
-      <c r="H24" s="166">
-        <v>0.97967690834607302</v>
-      </c>
-      <c r="I24" s="176">
+        <v>3.3324126233429401</v>
+      </c>
+      <c r="G24" s="131">
+        <v>5.9976397930397898</v>
+      </c>
+      <c r="H24" s="132">
+        <v>0.98191973538189703</v>
+      </c>
+      <c r="I24" s="141">
         <v>9</v>
       </c>
-      <c r="J24" s="166">
+      <c r="J24" s="132">
         <v>2.64327513122756</v>
       </c>
-      <c r="K24" s="166">
+      <c r="K24" s="132">
         <v>4.6866517625012403</v>
       </c>
-      <c r="L24" s="165">
+      <c r="L24" s="131">
         <v>0.97624377007180496</v>
       </c>
       <c r="M24" s="108">
         <v>1</v>
       </c>
-      <c r="O24" s="14">
-        <v>-8</v>
-      </c>
-      <c r="P24" s="14">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="14">
-        <v>-21</v>
-      </c>
-      <c r="R24" s="14">
-        <v>1</v>
-      </c>
-      <c r="S24" s="14">
-        <v>1.43662992745592</v>
-      </c>
-      <c r="T24" s="14">
-        <v>2.3696005644861899</v>
-      </c>
-      <c r="U24" s="14">
-        <v>0.925151573702932</v>
-      </c>
-      <c r="V24" s="14">
-        <v>-21</v>
-      </c>
+      <c r="N24" s="131">
+        <v>3.5480996358027301</v>
+      </c>
+      <c r="O24" s="131">
+        <v>5.8785085877251104</v>
+      </c>
+      <c r="P24" s="131">
+        <v>0.973848575563387</v>
+      </c>
+      <c r="Q24" s="103">
+        <v>10</v>
+      </c>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
     </row>
     <row r="25" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="153"/>
-      <c r="E25" s="156" t="s">
+      <c r="D25" s="154"/>
+      <c r="E25" s="127" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="112">
         <f>AVERAGE(F21:F24)</f>
-        <v>2.1819166428204175</v>
+        <v>2.2253475022491949</v>
       </c>
       <c r="G25" s="109">
         <f>AVERAGE(G21:G24)</f>
-        <v>3.3101821861054002</v>
-      </c>
-      <c r="H25" s="109">
+        <v>3.4921249384529349</v>
+      </c>
+      <c r="H25" s="110">
         <f>AVERAGE(H21:H24)</f>
-        <v>0.9470894393410153</v>
-      </c>
-      <c r="I25" s="188" cm="1">
+        <v>0.95195902632663532</v>
+      </c>
+      <c r="I25" s="151" cm="1">
         <f t="array" ref="I25">AVERAGE(ABS(I21:I24))</f>
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="J25" s="110">
         <f>AVERAGE(J21:J24)</f>
@@ -13123,40 +13480,49 @@
         <f>AVERAGE(L21:L24)</f>
         <v>0.95061453467505452</v>
       </c>
-      <c r="M25" s="181" cm="1">
+      <c r="M25" s="146" cm="1">
         <f t="array" ref="M25">AVERAGE(ABS(M21:M24))</f>
         <v>8.75</v>
       </c>
-      <c r="S25" s="14">
-        <v>2.64327513122756</v>
-      </c>
-      <c r="T25" s="14">
-        <v>4.6866517625012403</v>
-      </c>
-      <c r="U25" s="14">
-        <v>0.97624377007180496</v>
-      </c>
-      <c r="V25" s="14">
-        <v>1</v>
-      </c>
+      <c r="N25" s="109">
+        <f>AVERAGE(N21:N24)</f>
+        <v>2.6578160420514525</v>
+      </c>
+      <c r="O25" s="109">
+        <f>AVERAGE(O21:O24)</f>
+        <v>4.0808347335808923</v>
+      </c>
+      <c r="P25" s="109">
+        <f>AVERAGE(P21:P24)</f>
+        <v>0.92723771025846502</v>
+      </c>
+      <c r="Q25" s="111" cm="1">
+        <f t="array" ref="Q25">AVERAGE(ABS(Q21:Q24))</f>
+        <v>13</v>
+      </c>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
     </row>
     <row r="26" spans="4:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="151">
+      <c r="D26" s="152">
         <v>14</v>
       </c>
-      <c r="E26" s="159" t="s">
+      <c r="E26" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="167">
-        <v>2.20488301676775</v>
-      </c>
-      <c r="G26" s="168">
-        <v>3.2013188394651602</v>
-      </c>
-      <c r="H26" s="168">
-        <v>0.86211416571558996</v>
-      </c>
-      <c r="I26" s="178">
+      <c r="F26" s="107">
+        <v>2.2015640480718801</v>
+      </c>
+      <c r="G26" s="131">
+        <v>3.21185429999632</v>
+      </c>
+      <c r="H26" s="131">
+        <v>0.87748009004939498</v>
+      </c>
+      <c r="I26" s="140">
         <v>-1</v>
       </c>
       <c r="J26" s="114">
@@ -13168,120 +13534,220 @@
       <c r="L26" s="114">
         <v>0.94835615230597603</v>
       </c>
-      <c r="M26" s="180">
+      <c r="M26" s="145">
         <v>-1</v>
       </c>
+      <c r="N26" s="133">
+        <v>2.08940999846627</v>
+      </c>
+      <c r="O26" s="133">
+        <v>3.03673428906832</v>
+      </c>
+      <c r="P26" s="133">
+        <v>0.86824773134951405</v>
+      </c>
+      <c r="Q26" s="115">
+        <v>-1</v>
+      </c>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14">
+        <v>2.9577961416509502</v>
+      </c>
+      <c r="T26" s="14">
+        <v>3.6086103265852998</v>
+      </c>
+      <c r="U26" s="14">
+        <v>2.29420340487271</v>
+      </c>
+      <c r="V26" s="14">
+        <v>5.0369887593202503</v>
+      </c>
     </row>
     <row r="27" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D27" s="152"/>
+      <c r="D27" s="153"/>
       <c r="E27" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F27" s="107">
-        <v>2.5948577687192298</v>
-      </c>
-      <c r="G27" s="165">
-        <v>3.9865014193878601</v>
-      </c>
-      <c r="H27" s="165">
-        <v>0.85984276104255097</v>
-      </c>
-      <c r="I27" s="175">
+        <v>2.6121105803018101</v>
+      </c>
+      <c r="G27" s="131">
+        <v>4.1363807396934504</v>
+      </c>
+      <c r="H27" s="131">
+        <v>0.87245432969783698</v>
+      </c>
+      <c r="I27" s="140">
         <v>12</v>
       </c>
-      <c r="J27" s="166">
+      <c r="J27" s="132">
         <v>1.80342525350414</v>
       </c>
-      <c r="K27" s="166">
+      <c r="K27" s="132">
         <v>3.0195471174164301</v>
       </c>
-      <c r="L27" s="166">
+      <c r="L27" s="132">
         <v>0.90035813444998203</v>
       </c>
       <c r="M27" s="103">
         <v>-50</v>
       </c>
+      <c r="N27" s="131">
+        <v>2.59341289774882</v>
+      </c>
+      <c r="O27" s="131">
+        <v>3.9283370715763701</v>
+      </c>
+      <c r="P27" s="131">
+        <v>0.82727861848427597</v>
+      </c>
+      <c r="Q27" s="103">
+        <v>24</v>
+      </c>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14">
+        <v>4.3657949130589202</v>
+      </c>
+      <c r="T27" s="14">
+        <v>5.4770218720708899</v>
+      </c>
+      <c r="U27" s="14">
+        <v>2.8968259156070699</v>
+      </c>
+      <c r="V27" s="14">
+        <v>9.1738224310701302</v>
+      </c>
     </row>
     <row r="28" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D28" s="152"/>
+      <c r="D28" s="153"/>
       <c r="E28" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="107">
-        <v>1.6361221877885901</v>
-      </c>
-      <c r="G28" s="166">
-        <v>1.9751604258767701</v>
-      </c>
-      <c r="H28" s="165">
-        <v>0.93683635929012099</v>
-      </c>
-      <c r="I28" s="175">
-        <v>-13</v>
-      </c>
-      <c r="J28" s="166">
+        <v>1.4230237455358901</v>
+      </c>
+      <c r="G28" s="132">
+        <v>1.79986332618016</v>
+      </c>
+      <c r="H28" s="132">
+        <v>0.94216001326646603</v>
+      </c>
+      <c r="I28" s="140">
+        <v>-11</v>
+      </c>
+      <c r="J28" s="132">
         <v>1.3021965625966001</v>
       </c>
-      <c r="K28" s="165">
+      <c r="K28" s="131">
         <v>2.0263847559545098</v>
       </c>
-      <c r="L28" s="166">
+      <c r="L28" s="131">
         <v>0.94134036018612899</v>
       </c>
       <c r="M28" s="103">
         <v>-19</v>
       </c>
+      <c r="N28" s="131">
+        <v>2.16553174994056</v>
+      </c>
+      <c r="O28" s="131">
+        <v>2.68736298828924</v>
+      </c>
+      <c r="P28" s="131">
+        <v>0.93198970183851204</v>
+      </c>
+      <c r="Q28" s="103">
+        <v>-12</v>
+      </c>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14">
+        <v>0.71245087138951502</v>
+      </c>
+      <c r="T28" s="14">
+        <v>0.62210520724011198</v>
+      </c>
+      <c r="U28" s="14">
+        <v>0.86830984627044105</v>
+      </c>
+      <c r="V28" s="14">
+        <v>0.81204631699589402</v>
+      </c>
     </row>
     <row r="29" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D29" s="152"/>
+      <c r="D29" s="153"/>
       <c r="E29" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="107">
-        <v>3.7660561565634199</v>
-      </c>
-      <c r="G29" s="165">
-        <v>6.88452412655153</v>
-      </c>
-      <c r="H29" s="165">
-        <v>0.92598361339384805</v>
-      </c>
-      <c r="I29" s="176">
-        <v>16</v>
-      </c>
-      <c r="J29" s="166">
+        <v>3.8615626660905198</v>
+      </c>
+      <c r="G29" s="131">
+        <v>7.1237079074965699</v>
+      </c>
+      <c r="H29" s="132">
+        <v>0.93352159047577898</v>
+      </c>
+      <c r="I29" s="141">
+        <v>15</v>
+      </c>
+      <c r="J29" s="132">
         <v>3.42516909127299</v>
       </c>
-      <c r="K29" s="166">
+      <c r="K29" s="132">
         <v>6.3432324244527498</v>
       </c>
-      <c r="L29" s="166">
+      <c r="L29" s="132">
         <v>0.96568338875711102</v>
       </c>
       <c r="M29" s="108">
         <v>12</v>
       </c>
+      <c r="N29" s="131">
+        <v>3.0913191031952398</v>
+      </c>
+      <c r="O29" s="131">
+        <v>5.4776606910288299</v>
+      </c>
+      <c r="P29" s="131">
+        <v>0.93035650943687997</v>
+      </c>
+      <c r="Q29" s="103">
+        <v>15</v>
+      </c>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14">
+        <v>-57</v>
+      </c>
+      <c r="T29" s="14">
+        <v>-128</v>
+      </c>
+      <c r="U29" s="14">
+        <v>-6</v>
+      </c>
+      <c r="V29" s="14">
+        <v>23</v>
+      </c>
     </row>
     <row r="30" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="153"/>
-      <c r="E30" s="157" t="s">
+      <c r="D30" s="154"/>
+      <c r="E30" s="128" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="112">
         <f>AVERAGE(F26:F29)</f>
-        <v>2.5504797824597478</v>
+        <v>2.524565260000025</v>
       </c>
       <c r="G30" s="109">
         <f>AVERAGE(G26:G29)</f>
-        <v>4.0118762028203303</v>
+        <v>4.0679515683416252</v>
       </c>
       <c r="H30" s="109">
         <f>AVERAGE(H26:H29)</f>
-        <v>0.89619422486052747</v>
-      </c>
-      <c r="I30" s="177" cm="1">
+        <v>0.90640400587236925</v>
+      </c>
+      <c r="I30" s="142" cm="1">
         <f t="array" ref="I30">AVERAGE(ABS(I26:I29))</f>
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="J30" s="110">
         <f>AVERAGE(J26:J29)</f>
@@ -13299,24 +13765,41 @@
         <f t="array" ref="M30">AVERAGE(ABS(M26:M29))</f>
         <v>20.5</v>
       </c>
+      <c r="N30" s="109">
+        <f>AVERAGE(N26:N29)</f>
+        <v>2.4849184373377224</v>
+      </c>
+      <c r="O30" s="109">
+        <f>AVERAGE(O26:O29)</f>
+        <v>3.7825237599906902</v>
+      </c>
+      <c r="P30" s="109">
+        <f>AVERAGE(P26:P29)</f>
+        <v>0.88946814027729548</v>
+      </c>
+      <c r="Q30" s="111" cm="1">
+        <f t="array" ref="Q30">AVERAGE(ABS(Q26:Q29))</f>
+        <v>13</v>
+      </c>
+      <c r="R30" s="14"/>
     </row>
     <row r="31" spans="4:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="151">
+      <c r="D31" s="152">
         <v>21</v>
       </c>
-      <c r="E31" s="159" t="s">
+      <c r="E31" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="F31" s="167">
-        <v>2.63980864909824</v>
-      </c>
-      <c r="G31" s="168">
-        <v>3.88970385511591</v>
-      </c>
-      <c r="H31" s="168">
-        <v>0.77413283081775097</v>
-      </c>
-      <c r="I31" s="178">
+      <c r="F31" s="107">
+        <v>2.6003421049615798</v>
+      </c>
+      <c r="G31" s="131">
+        <v>3.8533046101259498</v>
+      </c>
+      <c r="H31" s="131">
+        <v>0.78209572947344197</v>
+      </c>
+      <c r="I31" s="140">
         <v>6</v>
       </c>
       <c r="J31" s="114">
@@ -13331,118 +13814,169 @@
       <c r="M31" s="115">
         <v>30</v>
       </c>
+      <c r="N31" s="133">
+        <v>2.9577961416509502</v>
+      </c>
+      <c r="O31" s="133">
+        <v>4.3657949130589202</v>
+      </c>
+      <c r="P31" s="133">
+        <v>0.71245087138951502</v>
+      </c>
+      <c r="Q31" s="115">
+        <v>-57</v>
+      </c>
+      <c r="R31" s="14"/>
     </row>
     <row r="32" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D32" s="152"/>
+      <c r="D32" s="153"/>
       <c r="E32" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F32" s="107">
-        <v>3.11141102059951</v>
-      </c>
-      <c r="G32" s="165">
-        <v>4.5032490436190296</v>
-      </c>
-      <c r="H32" s="165">
-        <v>0.76103474519610004</v>
-      </c>
-      <c r="I32" s="176">
+        <v>3.072833434658</v>
+      </c>
+      <c r="G32" s="131">
+        <v>4.6761081714629498</v>
+      </c>
+      <c r="H32" s="131">
+        <v>0.75827596468298997</v>
+      </c>
+      <c r="I32" s="141">
         <v>-128</v>
       </c>
-      <c r="J32" s="166">
+      <c r="J32" s="132">
         <v>2.0795192420620499</v>
       </c>
-      <c r="K32" s="166">
+      <c r="K32" s="132">
         <v>3.2358569159613801</v>
       </c>
-      <c r="L32" s="166">
+      <c r="L32" s="132">
         <v>0.91291858690101302</v>
       </c>
       <c r="M32" s="108">
         <v>-5</v>
       </c>
-      <c r="P32" s="189"/>
-    </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D33" s="152"/>
+      <c r="N32" s="131">
+        <v>3.6086103265852998</v>
+      </c>
+      <c r="O32" s="131">
+        <v>5.4770218720708899</v>
+      </c>
+      <c r="P32" s="131">
+        <v>0.62210520724011198</v>
+      </c>
+      <c r="Q32" s="103">
+        <v>-128</v>
+      </c>
+      <c r="R32" s="14"/>
+    </row>
+    <row r="33" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D33" s="153"/>
       <c r="E33" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="104">
-        <v>2.1549645407998299</v>
-      </c>
-      <c r="G33" s="166">
-        <v>2.69456632543171</v>
-      </c>
-      <c r="H33" s="166">
-        <v>0.89432312515617896</v>
-      </c>
-      <c r="I33" s="176">
-        <v>-6</v>
-      </c>
-      <c r="J33" s="165">
+        <v>1.97738331803615</v>
+      </c>
+      <c r="G33" s="132">
+        <v>2.47347283854304</v>
+      </c>
+      <c r="H33" s="132">
+        <v>0.90040220118840397</v>
+      </c>
+      <c r="I33" s="140">
+        <v>-4</v>
+      </c>
+      <c r="J33" s="131">
         <v>2.30948274738962</v>
       </c>
-      <c r="K33" s="165">
+      <c r="K33" s="131">
         <v>3.28202655837354</v>
       </c>
-      <c r="L33" s="165">
+      <c r="L33" s="131">
         <v>0.858369696353942</v>
       </c>
       <c r="M33" s="108">
         <v>-4</v>
       </c>
-    </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D34" s="152"/>
+      <c r="N33" s="131">
+        <v>2.29420340487271</v>
+      </c>
+      <c r="O33" s="131">
+        <v>2.8968259156070699</v>
+      </c>
+      <c r="P33" s="131">
+        <v>0.86830984627044105</v>
+      </c>
+      <c r="Q33" s="103">
+        <v>-6</v>
+      </c>
+      <c r="R33" s="14"/>
+    </row>
+    <row r="34" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D34" s="153"/>
       <c r="E34" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="107">
-        <v>4.8042653181545898</v>
-      </c>
-      <c r="G34" s="165">
-        <v>8.7122527323115797</v>
-      </c>
-      <c r="H34" s="165">
-        <v>0.83218065673479502</v>
-      </c>
-      <c r="I34" s="176">
-        <v>23</v>
-      </c>
-      <c r="J34" s="166">
+        <v>4.8334136982145104</v>
+      </c>
+      <c r="G34" s="131">
+        <v>8.9407553087070006</v>
+      </c>
+      <c r="H34" s="131">
+        <v>0.84338822854782203</v>
+      </c>
+      <c r="I34" s="141">
+        <v>22</v>
+      </c>
+      <c r="J34" s="132">
         <v>3.1658921553716599</v>
       </c>
-      <c r="K34" s="166">
+      <c r="K34" s="132">
         <v>6.0402931230179897</v>
       </c>
-      <c r="L34" s="166">
+      <c r="L34" s="132">
         <v>0.91592370939289502</v>
       </c>
       <c r="M34" s="108">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="153"/>
+      <c r="N34" s="131">
+        <v>5.0369887593202503</v>
+      </c>
+      <c r="O34" s="131">
+        <v>9.1738224310701302</v>
+      </c>
+      <c r="P34" s="131">
+        <v>0.81204631699589402</v>
+      </c>
+      <c r="Q34" s="103">
+        <v>23</v>
+      </c>
+      <c r="R34" s="14"/>
+    </row>
+    <row r="35" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="154"/>
       <c r="E35" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="107">
         <f>AVERAGE(F31:F34)</f>
-        <v>3.1776123821630424</v>
-      </c>
-      <c r="G35" s="165">
+        <v>3.12099313896756</v>
+      </c>
+      <c r="G35" s="131">
         <f>AVERAGE(G31:G34)</f>
-        <v>4.9499429891195579</v>
-      </c>
-      <c r="H35" s="165">
+        <v>4.9859102322097346</v>
+      </c>
+      <c r="H35" s="131">
         <f>AVERAGE(H31:H34)</f>
-        <v>0.81541783947620627</v>
-      </c>
-      <c r="I35" s="176" cm="1">
+        <v>0.82104053097316443</v>
+      </c>
+      <c r="I35" s="141" cm="1">
         <f t="array" ref="I35">AVERAGE(ABS(I31:I34))</f>
-        <v>40.75</v>
+        <v>40</v>
       </c>
       <c r="J35" s="110">
         <f>AVERAGE(J31:J34)</f>
@@ -13456,637 +13990,725 @@
         <f>AVERAGE(L31:L34)</f>
         <v>0.88744957625151377</v>
       </c>
-      <c r="M35" s="181" cm="1">
+      <c r="M35" s="146" cm="1">
         <f t="array" ref="M35">AVERAGE(ABS(M31:M34))</f>
         <v>13.5</v>
       </c>
-    </row>
-    <row r="36" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="162" t="s">
+      <c r="N35" s="109">
+        <f>AVERAGE(N31:N34)</f>
+        <v>3.4743996581073024</v>
+      </c>
+      <c r="O35" s="109">
+        <f>AVERAGE(O31:O34)</f>
+        <v>5.4783662829517521</v>
+      </c>
+      <c r="P35" s="109">
+        <f>AVERAGE(P31:P34)</f>
+        <v>0.75372806047399044</v>
+      </c>
+      <c r="Q35" s="111" cm="1">
+        <f t="array" ref="Q35">AVERAGE(ABS(Q31:Q34))</f>
+        <v>53.5</v>
+      </c>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14">
+        <v>2.9512770024242001</v>
+      </c>
+      <c r="T35" s="14">
+        <v>2.6259942309225002</v>
+      </c>
+      <c r="U35" s="14">
+        <v>1.50589329905638</v>
+      </c>
+      <c r="V35" s="14">
+        <v>3.5480996358027301</v>
+      </c>
+    </row>
+    <row r="36" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="163"/>
-      <c r="F36" s="169">
-        <f>AVERAGE(F25,F30,F35)</f>
-        <v>2.6366696024810694</v>
-      </c>
-      <c r="G36" s="170">
-        <f>AVERAGE(G25,G30,G35)</f>
-        <v>4.090667126015096</v>
-      </c>
-      <c r="H36" s="170">
-        <f>AVERAGE(H25,H30,H35)</f>
-        <v>0.88623383455924964</v>
-      </c>
-      <c r="I36" s="179">
-        <f>AVERAGE(I25,I30,I35)</f>
-        <v>20.833333333333332</v>
-      </c>
-      <c r="J36" s="171">
-        <f>AVERAGE(J25,J30,J35)</f>
+      <c r="E36" s="182"/>
+      <c r="F36" s="134">
+        <f t="shared" ref="F36:M36" si="5">AVERAGE(F25,F30,F35)</f>
+        <v>2.6236353004055935</v>
+      </c>
+      <c r="G36" s="135">
+        <f t="shared" si="5"/>
+        <v>4.1819955796680981</v>
+      </c>
+      <c r="H36" s="135">
+        <f t="shared" si="5"/>
+        <v>0.89313452105738966</v>
+      </c>
+      <c r="I36" s="144">
+        <f t="shared" si="5"/>
+        <v>20.5</v>
+      </c>
+      <c r="J36" s="136">
+        <f t="shared" si="5"/>
         <v>2.0536008935787242</v>
       </c>
-      <c r="K36" s="171">
-        <f>AVERAGE(K25,K30,K35)</f>
+      <c r="K36" s="136">
+        <f t="shared" si="5"/>
         <v>3.4404324399992867</v>
       </c>
-      <c r="L36" s="171">
-        <f>AVERAGE(L25,L30,L35)</f>
+      <c r="L36" s="136">
+        <f t="shared" si="5"/>
         <v>0.92566620661712262</v>
       </c>
-      <c r="M36" s="182">
-        <f>AVERAGE(M25,M30,M35)</f>
+      <c r="M36" s="147">
+        <f t="shared" si="5"/>
         <v>14.25</v>
       </c>
-    </row>
-    <row r="40" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F41" s="127" t="s">
+      <c r="N36" s="134">
+        <f t="shared" ref="N36:Q36" si="6">AVERAGE(N25,N30,N35)</f>
+        <v>2.8723780458321588</v>
+      </c>
+      <c r="O36" s="135">
+        <f t="shared" si="6"/>
+        <v>4.4472415921744455</v>
+      </c>
+      <c r="P36" s="135">
+        <f t="shared" si="6"/>
+        <v>0.85681130366991687</v>
+      </c>
+      <c r="Q36" s="144">
+        <f t="shared" si="6"/>
+        <v>26.5</v>
+      </c>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14">
+        <v>4.3127364592540296</v>
+      </c>
+      <c r="T36" s="14">
+        <v>4.0622906378416799</v>
+      </c>
+      <c r="U36" s="14">
+        <v>2.0698032495027499</v>
+      </c>
+      <c r="V36" s="14">
+        <v>5.8785085877251104</v>
+      </c>
+    </row>
+    <row r="37" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14">
+        <v>0.86352584150675904</v>
+      </c>
+      <c r="T37" s="14">
+        <v>0.91021773196631095</v>
+      </c>
+      <c r="U37" s="14">
+        <v>0.96135869199740298</v>
+      </c>
+      <c r="V37" s="14">
+        <v>0.973848575563387</v>
+      </c>
+    </row>
+    <row r="38" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="180" t="s">
         <v>210</v>
       </c>
-      <c r="G41" s="127"/>
-      <c r="H41" s="127"/>
-      <c r="I41" s="187"/>
-      <c r="J41" s="185" t="s">
+      <c r="G38" s="180"/>
+      <c r="H38" s="180"/>
+      <c r="I38" s="183"/>
+      <c r="J38" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="K41" s="127"/>
-      <c r="L41" s="127"/>
-      <c r="M41" s="127"/>
-    </row>
-    <row r="42" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="97" t="s">
+      <c r="K38" s="180"/>
+      <c r="L38" s="180"/>
+      <c r="M38" s="180"/>
+      <c r="S38" s="14">
+        <v>-8</v>
+      </c>
+      <c r="T38" s="14">
+        <v>17</v>
+      </c>
+      <c r="U38" s="14">
+        <v>-17</v>
+      </c>
+      <c r="V38" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="97" t="s">
         <v>215</v>
       </c>
-      <c r="E42" s="98" t="s">
+      <c r="E39" s="98" t="s">
         <v>216</v>
       </c>
-      <c r="F42" s="97" t="s">
+      <c r="F39" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="G42" s="98" t="s">
+      <c r="G39" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="H42" s="98" t="s">
+      <c r="H39" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="I42" s="186" t="s">
+      <c r="I39" s="150" t="s">
         <v>211</v>
       </c>
-      <c r="J42" s="98" t="s">
+      <c r="J39" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="K42" s="98" t="s">
+      <c r="K39" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="L42" s="98" t="s">
+      <c r="L39" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="100" t="s">
+      <c r="M39" s="100" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D43" s="151">
+    <row r="40" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D40" s="152">
         <v>7</v>
       </c>
-      <c r="E43" s="118" t="s">
+      <c r="E40" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="F43" s="104">
+      <c r="F40" s="104">
         <v>1.1070353752755</v>
       </c>
-      <c r="G43" s="166">
+      <c r="G40" s="132">
         <v>1.71065271503125</v>
       </c>
-      <c r="H43" s="166">
+      <c r="H40" s="132">
         <v>0.97102104724119298</v>
       </c>
-      <c r="I43" s="176">
+      <c r="I40" s="141">
         <v>-8</v>
       </c>
-      <c r="J43" s="165">
+      <c r="J40" s="131">
         <v>1.10039806108107</v>
       </c>
-      <c r="K43" s="106">
+      <c r="K40" s="106">
         <v>1.8662734667024501</v>
       </c>
+      <c r="L40" s="106">
+        <v>0.95325832223974005</v>
+      </c>
+      <c r="M40" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D41" s="153"/>
+      <c r="E41" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="107">
+        <v>1.7518155433089799</v>
+      </c>
+      <c r="G41" s="131">
+        <v>2.67512928879747</v>
+      </c>
+      <c r="H41" s="131">
+        <v>0.94075340656478901</v>
+      </c>
+      <c r="I41" s="141">
+        <v>17</v>
+      </c>
+      <c r="J41" s="132">
+        <v>1.2890154038693</v>
+      </c>
+      <c r="K41" s="102">
+        <v>1.99847807058555</v>
+      </c>
+      <c r="L41" s="102">
+        <v>0.96949236584153597</v>
+      </c>
+      <c r="M41" s="108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D42" s="153"/>
+      <c r="E42" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="104">
+        <v>1.04479746213702</v>
+      </c>
+      <c r="G42" s="132">
+        <v>1.35308256131581</v>
+      </c>
+      <c r="H42" s="132">
+        <v>0.96879591456060898</v>
+      </c>
+      <c r="I42" s="141">
+        <v>-25</v>
+      </c>
+      <c r="J42" s="131">
+        <v>1.87001411846128</v>
+      </c>
+      <c r="K42" s="106">
+        <v>2.7141148662689401</v>
+      </c>
+      <c r="L42" s="106">
+        <v>0.92859027188879795</v>
+      </c>
+      <c r="M42" s="108">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="43" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D43" s="153"/>
+      <c r="E43" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="107">
+        <v>2.6761359061132599</v>
+      </c>
+      <c r="G43" s="131">
+        <v>4.9397442690724001</v>
+      </c>
+      <c r="H43" s="132">
+        <v>0.98515001616769504</v>
+      </c>
+      <c r="I43" s="140">
+        <v>8</v>
+      </c>
+      <c r="J43" s="132">
+        <v>2.30257578140928</v>
+      </c>
+      <c r="K43" s="102">
+        <v>4.0813406210604999</v>
+      </c>
       <c r="L43" s="106">
-        <v>0.95325832223974005</v>
-      </c>
-      <c r="M43" s="108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D44" s="152"/>
-      <c r="E44" s="119" t="s">
+        <v>0.97775233796657401</v>
+      </c>
+      <c r="M43" s="103">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="154"/>
+      <c r="E44" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="112">
+        <f>AVERAGE(F40:F43)</f>
+        <v>1.6449460717086901</v>
+      </c>
+      <c r="G44" s="109">
+        <f>AVERAGE(G40:G43)</f>
+        <v>2.6696522085542327</v>
+      </c>
+      <c r="H44" s="110">
+        <f>AVERAGE(H40:H43)</f>
+        <v>0.96643009613357156</v>
+      </c>
+      <c r="I44" s="151" cm="1">
+        <f t="array" ref="I44">AVERAGE(ABS(I40:I43))</f>
+        <v>14.5</v>
+      </c>
+      <c r="J44" s="110">
+        <f>AVERAGE(J40:J43)</f>
+        <v>1.6405008412052324</v>
+      </c>
+      <c r="K44" s="110">
+        <f>AVERAGE(K40:K43)</f>
+        <v>2.6650517561543601</v>
+      </c>
+      <c r="L44" s="109">
+        <f>AVERAGE(L40:L43)</f>
+        <v>0.95727332448416202</v>
+      </c>
+      <c r="M44" s="146" cm="1">
+        <f t="array" ref="M44">AVERAGE(ABS(M40:M43))</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="45" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D45" s="152">
+        <v>14</v>
+      </c>
+      <c r="E45" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="113">
+        <v>1.66751317768397</v>
+      </c>
+      <c r="G45" s="114">
+        <v>2.58097335892377</v>
+      </c>
+      <c r="H45" s="114">
+        <v>0.954445957009327</v>
+      </c>
+      <c r="I45" s="143">
+        <v>-1</v>
+      </c>
+      <c r="J45" s="133">
+        <v>1.6694034748597599</v>
+      </c>
+      <c r="K45" s="133">
+        <v>2.8631346027687301</v>
+      </c>
+      <c r="L45" s="133">
+        <v>0.91627292446532504</v>
+      </c>
+      <c r="M45" s="115">
         <v>6</v>
       </c>
-      <c r="F44" s="107">
-        <v>1.7518155433089799</v>
-      </c>
-      <c r="G44" s="165">
-        <v>2.67512928879747</v>
-      </c>
-      <c r="H44" s="165">
-        <v>0.94075340656478901</v>
-      </c>
-      <c r="I44" s="176">
-        <v>17</v>
-      </c>
-      <c r="J44" s="166">
-        <v>1.2890154038693</v>
-      </c>
-      <c r="K44" s="102">
-        <v>1.99847807058555</v>
-      </c>
-      <c r="L44" s="102">
-        <v>0.96949236584153597</v>
-      </c>
-      <c r="M44" s="108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D45" s="152"/>
-      <c r="E45" s="119" t="s">
+    </row>
+    <row r="46" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D46" s="153"/>
+      <c r="E46" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="107">
+        <v>2.3132246887406902</v>
+      </c>
+      <c r="G46" s="131">
+        <v>3.4058351124445201</v>
+      </c>
+      <c r="H46" s="131">
+        <v>0.89100951575892395</v>
+      </c>
+      <c r="I46" s="141">
+        <v>24</v>
+      </c>
+      <c r="J46" s="132">
+        <v>1.68814282715754</v>
+      </c>
+      <c r="K46" s="102">
+        <v>2.6370715572724599</v>
+      </c>
+      <c r="L46" s="102">
+        <v>0.92553063381835099</v>
+      </c>
+      <c r="M46" s="108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D47" s="153"/>
+      <c r="E47" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="104">
-        <v>1.04479746213702</v>
-      </c>
-      <c r="G45" s="166">
-        <v>1.35308256131581</v>
-      </c>
-      <c r="H45" s="166">
-        <v>0.96879591456060898</v>
-      </c>
-      <c r="I45" s="176">
-        <v>-25</v>
-      </c>
-      <c r="J45" s="165">
-        <v>1.87001411846128</v>
-      </c>
-      <c r="K45" s="106">
-        <v>2.7141148662689401</v>
-      </c>
-      <c r="L45" s="106">
-        <v>0.92859027188879795</v>
-      </c>
-      <c r="M45" s="108">
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D46" s="152"/>
-      <c r="E46" s="119" t="s">
+      <c r="F47" s="104">
+        <v>1.18240441860918</v>
+      </c>
+      <c r="G47" s="132">
+        <v>1.54027935246862</v>
+      </c>
+      <c r="H47" s="132">
+        <v>0.95365281351530395</v>
+      </c>
+      <c r="I47" s="141">
+        <v>-20</v>
+      </c>
+      <c r="J47" s="131">
+        <v>2.3955166648425901</v>
+      </c>
+      <c r="K47" s="106">
+        <v>3.9394499960077098</v>
+      </c>
+      <c r="L47" s="106">
+        <v>0.81399577288686298</v>
+      </c>
+      <c r="M47" s="108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="4:22" x14ac:dyDescent="0.2">
+      <c r="D48" s="153"/>
+      <c r="E48" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="107">
-        <v>2.6761359061132599</v>
-      </c>
-      <c r="G46" s="165">
-        <v>4.9397442690724001</v>
-      </c>
-      <c r="H46" s="166">
-        <v>0.98515001616769504</v>
-      </c>
-      <c r="I46" s="175">
+      <c r="F48" s="104">
+        <v>3.38073406616734</v>
+      </c>
+      <c r="G48" s="131">
+        <v>6.5032005417382903</v>
+      </c>
+      <c r="H48" s="132">
+        <v>0.95746143633606295</v>
+      </c>
+      <c r="I48" s="140">
+        <v>15</v>
+      </c>
+      <c r="J48" s="131">
+        <v>3.49637808647475</v>
+      </c>
+      <c r="K48" s="102">
+        <v>5.5705857717349998</v>
+      </c>
+      <c r="L48" s="106">
+        <v>0.95114531328013696</v>
+      </c>
+      <c r="M48" s="103">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="154"/>
+      <c r="E49" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="148">
+        <f>AVERAGE(F45:F48)</f>
+        <v>2.1359690878002953</v>
+      </c>
+      <c r="G49" s="110">
+        <f>AVERAGE(G45:G48)</f>
+        <v>3.5075720913937998</v>
+      </c>
+      <c r="H49" s="110">
+        <f>AVERAGE(H45:H48)</f>
+        <v>0.93914243065490455</v>
+      </c>
+      <c r="I49" s="151" cm="1">
+        <f t="array" ref="I49">AVERAGE(ABS(I45:I48))</f>
+        <v>15</v>
+      </c>
+      <c r="J49" s="109">
+        <f>AVERAGE(J45:J48)</f>
+        <v>2.3123602633336597</v>
+      </c>
+      <c r="K49" s="109">
+        <f>AVERAGE(K45:K48)</f>
+        <v>3.7525604819459746</v>
+      </c>
+      <c r="L49" s="109">
+        <f>AVERAGE(L45:L48)</f>
+        <v>0.90173616111266897</v>
+      </c>
+      <c r="M49" s="146" cm="1">
+        <f t="array" ref="M49">AVERAGE(ABS(M45:M48))</f>
         <v>8</v>
       </c>
-      <c r="J46" s="166">
-        <v>2.30257578140928</v>
-      </c>
-      <c r="K46" s="102">
-        <v>4.0813406210604999</v>
-      </c>
-      <c r="L46" s="106">
-        <v>0.97775233796657401</v>
-      </c>
-      <c r="M46" s="103">
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D50" s="152">
+        <v>21</v>
+      </c>
+      <c r="E50" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="113">
+        <v>2.1129973554038899</v>
+      </c>
+      <c r="G50" s="114">
+        <v>3.2221003644184001</v>
+      </c>
+      <c r="H50" s="114">
+        <v>0.92579779817735197</v>
+      </c>
+      <c r="I50" s="143">
+        <v>6</v>
+      </c>
+      <c r="J50" s="133">
+        <v>2.14389271031561</v>
+      </c>
+      <c r="K50" s="133">
+        <v>3.8133579830603002</v>
+      </c>
+      <c r="L50" s="133">
+        <v>0.86590238254708896</v>
+      </c>
+      <c r="M50" s="115">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D51" s="153"/>
+      <c r="E51" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="107">
+        <v>2.7022792382965002</v>
+      </c>
+      <c r="G51" s="131">
+        <v>4.3644126052041301</v>
+      </c>
+      <c r="H51" s="131">
+        <v>0.84116428262109</v>
+      </c>
+      <c r="I51" s="141">
+        <v>31</v>
+      </c>
+      <c r="J51" s="132">
+        <v>2.3045171885303999</v>
+      </c>
+      <c r="K51" s="102">
+        <v>3.4848589581447</v>
+      </c>
+      <c r="L51" s="102">
+        <v>0.88070730043297996</v>
+      </c>
+      <c r="M51" s="108">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D52" s="153"/>
+      <c r="E52" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="104">
+        <v>1.5929165836094401</v>
+      </c>
+      <c r="G52" s="132">
+        <v>1.9831003708369099</v>
+      </c>
+      <c r="H52" s="132">
+        <v>0.92825204303803599</v>
+      </c>
+      <c r="I52" s="140">
+        <v>-13</v>
+      </c>
+      <c r="J52" s="131">
+        <v>1.77413054896351</v>
+      </c>
+      <c r="K52" s="106">
+        <v>2.6534778524276499</v>
+      </c>
+      <c r="L52" s="106">
+        <v>0.86806701328723801</v>
+      </c>
+      <c r="M52" s="103">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="53" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D53" s="153"/>
+      <c r="E53" s="119" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="153"/>
-      <c r="E47" s="120" t="s">
+      <c r="F53" s="104">
+        <v>4.2909700013444096</v>
+      </c>
+      <c r="G53" s="132">
+        <v>8.4890702748492703</v>
+      </c>
+      <c r="H53" s="131">
+        <v>0.90542411521149901</v>
+      </c>
+      <c r="I53" s="141">
+        <v>22</v>
+      </c>
+      <c r="J53" s="131">
+        <v>5.2975853783740297</v>
+      </c>
+      <c r="K53" s="106">
+        <v>9.5021823238525105</v>
+      </c>
+      <c r="L53" s="102">
+        <v>0.92789692705660498</v>
+      </c>
+      <c r="M53" s="108">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="154"/>
+      <c r="E54" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="112">
-        <f>AVERAGE(F43:F46)</f>
-        <v>1.6449460717086901</v>
-      </c>
-      <c r="G47" s="109">
-        <f>AVERAGE(G43:G46)</f>
-        <v>2.6696522085542327</v>
-      </c>
-      <c r="H47" s="110">
-        <f>AVERAGE(H43:H46)</f>
-        <v>0.96643009613357156</v>
-      </c>
-      <c r="I47" s="188" cm="1">
-        <f t="array" ref="I47">AVERAGE(ABS(I43:I46))</f>
-        <v>14.5</v>
-      </c>
-      <c r="J47" s="110">
-        <f>AVERAGE(J43:J46)</f>
-        <v>1.6405008412052324</v>
-      </c>
-      <c r="K47" s="110">
-        <f>AVERAGE(K43:K46)</f>
-        <v>2.6650517561543601</v>
-      </c>
-      <c r="L47" s="109">
-        <f>AVERAGE(L43:L46)</f>
-        <v>0.95727332448416202</v>
-      </c>
-      <c r="M47" s="181" cm="1">
-        <f t="array" ref="M47">AVERAGE(ABS(M43:M46))</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D48" s="151">
-        <v>14</v>
-      </c>
-      <c r="E48" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="F48" s="113">
-        <v>1.66751317768397</v>
-      </c>
-      <c r="G48" s="114">
-        <v>2.58097335892377</v>
-      </c>
-      <c r="H48" s="114">
-        <v>0.954445957009327</v>
-      </c>
-      <c r="I48" s="178">
-        <v>-1</v>
-      </c>
-      <c r="J48" s="168">
-        <v>1.6694034748597599</v>
-      </c>
-      <c r="K48" s="168">
-        <v>2.8631346027687301</v>
-      </c>
-      <c r="L48" s="168">
-        <v>0.91627292446532504</v>
-      </c>
-      <c r="M48" s="115">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D49" s="152"/>
-      <c r="E49" s="119" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="107">
-        <v>2.3132246887406902</v>
-      </c>
-      <c r="G49" s="165">
-        <v>3.4058351124445201</v>
-      </c>
-      <c r="H49" s="165">
-        <v>0.89100951575892395</v>
-      </c>
-      <c r="I49" s="176">
-        <v>24</v>
-      </c>
-      <c r="J49" s="166">
-        <v>1.68814282715754</v>
-      </c>
-      <c r="K49" s="102">
-        <v>2.6370715572724599</v>
-      </c>
-      <c r="L49" s="102">
-        <v>0.92553063381835099</v>
-      </c>
-      <c r="M49" s="108">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D50" s="152"/>
-      <c r="E50" s="119" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="104">
-        <v>1.18240441860918</v>
-      </c>
-      <c r="G50" s="166">
-        <v>1.54027935246862</v>
-      </c>
-      <c r="H50" s="166">
-        <v>0.95365281351530395</v>
-      </c>
-      <c r="I50" s="176">
-        <v>-20</v>
-      </c>
-      <c r="J50" s="165">
-        <v>2.3955166648425901</v>
-      </c>
-      <c r="K50" s="106">
-        <v>3.9394499960077098</v>
-      </c>
-      <c r="L50" s="106">
-        <v>0.81399577288686298</v>
-      </c>
-      <c r="M50" s="108">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D51" s="152"/>
-      <c r="E51" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" s="104">
-        <v>3.38073406616734</v>
-      </c>
-      <c r="G51" s="165">
-        <v>6.5032005417382903</v>
-      </c>
-      <c r="H51" s="166">
-        <v>0.95746143633606295</v>
-      </c>
-      <c r="I51" s="175">
-        <v>15</v>
-      </c>
-      <c r="J51" s="165">
-        <v>3.49637808647475</v>
-      </c>
-      <c r="K51" s="102">
-        <v>5.5705857717349998</v>
-      </c>
-      <c r="L51" s="106">
-        <v>0.95114531328013696</v>
-      </c>
-      <c r="M51" s="103">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="153"/>
-      <c r="E52" s="120" t="s">
+      <c r="F54" s="148">
+        <f>AVERAGE(F50:F53)</f>
+        <v>2.6747907946635596</v>
+      </c>
+      <c r="G54" s="110">
+        <f>AVERAGE(G50:G53)</f>
+        <v>4.5146709038271773</v>
+      </c>
+      <c r="H54" s="110">
+        <f>AVERAGE(H50:H53)</f>
+        <v>0.90015955976199424</v>
+      </c>
+      <c r="I54" s="151" cm="1">
+        <f t="array" ref="I54">AVERAGE(ABS(I50:I53))</f>
+        <v>18</v>
+      </c>
+      <c r="J54" s="109">
+        <f>AVERAGE(J50:J53)</f>
+        <v>2.8800314565458871</v>
+      </c>
+      <c r="K54" s="109">
+        <f>AVERAGE(K50:K53)</f>
+        <v>4.8634692793712908</v>
+      </c>
+      <c r="L54" s="109">
+        <f>AVERAGE(L50:L53)</f>
+        <v>0.88564340583097789</v>
+      </c>
+      <c r="M54" s="146" cm="1">
+        <f t="array" ref="M54">AVERAGE(ABS(M50:M53))</f>
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="183">
-        <f>AVERAGE(F48:F51)</f>
-        <v>2.1359690878002953</v>
-      </c>
-      <c r="G52" s="110">
-        <f>AVERAGE(G48:G51)</f>
-        <v>3.5075720913937998</v>
-      </c>
-      <c r="H52" s="110">
-        <f>AVERAGE(H48:H51)</f>
-        <v>0.93914243065490455</v>
-      </c>
-      <c r="I52" s="188" cm="1">
-        <f t="array" ref="I52">AVERAGE(ABS(I48:I51))</f>
-        <v>15</v>
-      </c>
-      <c r="J52" s="109">
-        <f>AVERAGE(J48:J51)</f>
-        <v>2.3123602633336597</v>
-      </c>
-      <c r="K52" s="109">
-        <f>AVERAGE(K48:K51)</f>
-        <v>3.7525604819459746</v>
-      </c>
-      <c r="L52" s="109">
-        <f>AVERAGE(L48:L51)</f>
-        <v>0.90173616111266897</v>
-      </c>
-      <c r="M52" s="181" cm="1">
-        <f t="array" ref="M52">AVERAGE(ABS(M48:M51))</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D53" s="151">
-        <v>21</v>
-      </c>
-      <c r="E53" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="F53" s="113">
-        <v>2.1129973554038899</v>
-      </c>
-      <c r="G53" s="114">
-        <v>3.2221003644184001</v>
-      </c>
-      <c r="H53" s="114">
-        <v>0.92579779817735197</v>
-      </c>
-      <c r="I53" s="178">
-        <v>6</v>
-      </c>
-      <c r="J53" s="168">
-        <v>2.14389271031561</v>
-      </c>
-      <c r="K53" s="168">
-        <v>3.8133579830603002</v>
-      </c>
-      <c r="L53" s="168">
-        <v>0.86590238254708896</v>
-      </c>
-      <c r="M53" s="115">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D54" s="152"/>
-      <c r="E54" s="119" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" s="107">
-        <v>2.7022792382965002</v>
-      </c>
-      <c r="G54" s="165">
-        <v>4.3644126052041301</v>
-      </c>
-      <c r="H54" s="165">
-        <v>0.84116428262109</v>
-      </c>
-      <c r="I54" s="176">
-        <v>31</v>
-      </c>
-      <c r="J54" s="166">
-        <v>2.3045171885303999</v>
-      </c>
-      <c r="K54" s="102">
-        <v>3.4848589581447</v>
-      </c>
-      <c r="L54" s="102">
-        <v>0.88070730043297996</v>
-      </c>
-      <c r="M54" s="108">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D55" s="152"/>
-      <c r="E55" s="119" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" s="104">
-        <v>1.5929165836094401</v>
-      </c>
-      <c r="G55" s="166">
-        <v>1.9831003708369099</v>
-      </c>
-      <c r="H55" s="166">
-        <v>0.92825204303803599</v>
-      </c>
-      <c r="I55" s="175">
-        <v>-13</v>
-      </c>
-      <c r="J55" s="165">
-        <v>1.77413054896351</v>
-      </c>
-      <c r="K55" s="106">
-        <v>2.6534778524276499</v>
-      </c>
-      <c r="L55" s="106">
-        <v>0.86806701328723801</v>
-      </c>
-      <c r="M55" s="103">
-        <v>-19</v>
-      </c>
-    </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D56" s="152"/>
-      <c r="E56" s="119" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56" s="104">
-        <v>4.2909700013444096</v>
-      </c>
-      <c r="G56" s="166">
-        <v>8.4890702748492703</v>
-      </c>
-      <c r="H56" s="165">
-        <v>0.90542411521149901</v>
-      </c>
-      <c r="I56" s="176">
-        <v>22</v>
-      </c>
-      <c r="J56" s="165">
-        <v>5.2975853783740297</v>
-      </c>
-      <c r="K56" s="106">
-        <v>9.5021823238525105</v>
-      </c>
-      <c r="L56" s="102">
-        <v>0.92789692705660498</v>
-      </c>
-      <c r="M56" s="108">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="153"/>
-      <c r="E57" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="183">
-        <f>AVERAGE(F53:F56)</f>
-        <v>2.6747907946635596</v>
-      </c>
-      <c r="G57" s="110">
-        <f>AVERAGE(G53:G56)</f>
-        <v>4.5146709038271773</v>
-      </c>
-      <c r="H57" s="110">
-        <f>AVERAGE(H53:H56)</f>
-        <v>0.90015955976199424</v>
-      </c>
-      <c r="I57" s="188" cm="1">
-        <f t="array" ref="I57">AVERAGE(ABS(I53:I56))</f>
-        <v>18</v>
-      </c>
-      <c r="J57" s="109">
-        <f>AVERAGE(J53:J56)</f>
-        <v>2.8800314565458871</v>
-      </c>
-      <c r="K57" s="109">
-        <f>AVERAGE(K53:K56)</f>
-        <v>4.8634692793712908</v>
-      </c>
-      <c r="L57" s="109">
-        <f>AVERAGE(L53:L56)</f>
-        <v>0.88564340583097789</v>
-      </c>
-      <c r="M57" s="181" cm="1">
-        <f t="array" ref="M57">AVERAGE(ABS(M53:M56))</f>
-        <v>15.25</v>
-      </c>
-    </row>
-    <row r="58" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D58" s="162" t="s">
-        <v>9</v>
-      </c>
-      <c r="E58" s="163"/>
-      <c r="F58" s="184">
-        <f>AVERAGE(F47,F52,F57)</f>
+      <c r="E55" s="182"/>
+      <c r="F55" s="149">
+        <f t="shared" ref="F55:M55" si="7">AVERAGE(F44,F49,F54)</f>
         <v>2.1519019847241818</v>
       </c>
-      <c r="G58" s="171">
-        <f>AVERAGE(G47,G52,G57)</f>
+      <c r="G55" s="136">
+        <f t="shared" si="7"/>
         <v>3.5639650679250701</v>
       </c>
-      <c r="H58" s="171">
-        <f>AVERAGE(H47,H52,H57)</f>
+      <c r="H55" s="136">
+        <f t="shared" si="7"/>
         <v>0.93524402885015689</v>
       </c>
-      <c r="I58" s="179">
-        <f>AVERAGE(I47,I52,I57)</f>
+      <c r="I55" s="144">
+        <f t="shared" si="7"/>
         <v>15.833333333333334</v>
       </c>
-      <c r="J58" s="170">
-        <f>AVERAGE(J47,J52,J57)</f>
+      <c r="J55" s="135">
+        <f t="shared" si="7"/>
         <v>2.2776308536949266</v>
       </c>
-      <c r="K58" s="170">
-        <f>AVERAGE(K47,K52,K57)</f>
+      <c r="K55" s="135">
+        <f t="shared" si="7"/>
         <v>3.7603605058238752</v>
       </c>
-      <c r="L58" s="170">
-        <f>AVERAGE(L47,L52,L57)</f>
+      <c r="L55" s="135">
+        <f t="shared" si="7"/>
         <v>0.91488429714260311</v>
       </c>
-      <c r="M58" s="182">
-        <f>AVERAGE(M47,M52,M57)</f>
+      <c r="M55" s="147">
+        <f t="shared" si="7"/>
         <v>10.583333333333334</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="D43:D47"/>
-    <mergeCell ref="D48:D52"/>
+  <mergeCells count="20">
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:U7"/>
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="J19:M19"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="C8:C13"/>
-    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="D50:D54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="D45:D49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/Logging/Tools/Results_Summary.xlsx
+++ b/Logging/Tools/Results_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Documents/github/Forecasting/Logging/Tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2BAB60-33F0-9D44-9210-6589301FAC88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAF5F60-6BFA-2249-BF66-367BD3317654}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{D6C4A1CF-C8B6-1A42-B202-9397802E1C24}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{D6C4A1CF-C8B6-1A42-B202-9397802E1C24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="239">
   <si>
     <t>2014/15</t>
   </si>
@@ -778,6 +778,12 @@
   </si>
   <si>
     <t>Linear Model with Confidence Intervals and Squared Inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRU			</t>
+  </si>
+  <si>
+    <t>GRU + Model Uncertainty</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1475,19 +1481,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1499,16 +1502,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1520,37 +1553,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1565,14 +1589,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6926,8 +6954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8F65057-F8D9-5340-9C4E-E5CBE3EA5B75}">
   <dimension ref="B1:BW103"/>
   <sheetViews>
-    <sheetView topLeftCell="R3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X56" sqref="X56:AA59"/>
+    <sheetView topLeftCell="D49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE38" sqref="AE38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6954,28 +6982,28 @@
     </row>
     <row r="2" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
-      <c r="E2" s="171" t="s">
+      <c r="E2" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="173"/>
-      <c r="J2" s="171" t="s">
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="173"/>
-      <c r="O2" s="171" t="s">
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="157"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="174" t="s">
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="169" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7026,13 +7054,13 @@
       <c r="S3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="174"/>
+      <c r="T3" s="169"/>
     </row>
     <row r="4" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="170" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -7092,8 +7120,8 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="170"/>
-      <c r="C5" s="165"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="166"/>
       <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
@@ -7151,8 +7179,8 @@
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="170"/>
-      <c r="C6" s="176"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="171"/>
       <c r="D6" s="11" t="s">
         <v>3</v>
       </c>
@@ -7210,8 +7238,8 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="170"/>
-      <c r="C7" s="165" t="s">
+      <c r="B7" s="168"/>
+      <c r="C7" s="166" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -7271,8 +7299,8 @@
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="170"/>
-      <c r="C8" s="165"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="166"/>
       <c r="D8" s="9" t="s">
         <v>2</v>
       </c>
@@ -7330,8 +7358,8 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="170"/>
-      <c r="C9" s="176"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="171"/>
       <c r="D9" s="11" t="s">
         <v>3</v>
       </c>
@@ -7389,8 +7417,8 @@
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B10" s="170"/>
-      <c r="C10" s="165" t="s">
+      <c r="B10" s="168"/>
+      <c r="C10" s="166" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -7450,8 +7478,8 @@
       </c>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="170"/>
-      <c r="C11" s="165"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="166"/>
       <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
@@ -7509,8 +7537,8 @@
       </c>
     </row>
     <row r="12" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="170"/>
-      <c r="C12" s="166"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="167"/>
       <c r="D12" s="10" t="s">
         <v>3</v>
       </c>
@@ -7568,8 +7596,8 @@
       </c>
     </row>
     <row r="13" spans="2:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="170"/>
-      <c r="C13" s="165" t="s">
+      <c r="B13" s="168"/>
+      <c r="C13" s="166" t="s">
         <v>208</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -7629,8 +7657,8 @@
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="170"/>
-      <c r="C14" s="165"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="166"/>
       <c r="D14" s="9" t="s">
         <v>2</v>
       </c>
@@ -7692,8 +7720,8 @@
       </c>
     </row>
     <row r="15" spans="2:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="170"/>
-      <c r="C15" s="166"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="167"/>
       <c r="D15" s="10" t="s">
         <v>3</v>
       </c>
@@ -7751,7 +7779,7 @@
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="166" t="s">
         <v>207</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -7811,7 +7839,7 @@
       </c>
     </row>
     <row r="17" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="C17" s="165"/>
+      <c r="C17" s="166"/>
       <c r="D17" s="9" t="s">
         <v>2</v>
       </c>
@@ -7869,7 +7897,7 @@
       </c>
     </row>
     <row r="18" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="166"/>
+      <c r="C18" s="167"/>
       <c r="D18" s="10" t="s">
         <v>3</v>
       </c>
@@ -7927,7 +7955,7 @@
       </c>
     </row>
     <row r="19" spans="2:39" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="165" t="s">
+      <c r="C19" s="166" t="s">
         <v>182</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -7962,7 +7990,7 @@
       <c r="T19" s="48"/>
     </row>
     <row r="20" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="C20" s="165"/>
+      <c r="C20" s="166"/>
       <c r="D20" s="9" t="s">
         <v>2</v>
       </c>
@@ -7995,7 +8023,7 @@
       <c r="T20" s="48"/>
     </row>
     <row r="21" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="166"/>
+      <c r="C21" s="167"/>
       <c r="D21" s="10" t="s">
         <v>3</v>
       </c>
@@ -8028,7 +8056,7 @@
       <c r="T21" s="52"/>
     </row>
     <row r="22" spans="2:39" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="165" t="s">
+      <c r="C22" s="166" t="s">
         <v>183</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -8063,7 +8091,7 @@
       <c r="T22" s="25"/>
     </row>
     <row r="23" spans="2:39" x14ac:dyDescent="0.2">
-      <c r="C23" s="165"/>
+      <c r="C23" s="166"/>
       <c r="D23" s="9" t="s">
         <v>2</v>
       </c>
@@ -8096,7 +8124,7 @@
       <c r="T23" s="32"/>
     </row>
     <row r="24" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="166"/>
+      <c r="C24" s="167"/>
       <c r="D24" s="10" t="s">
         <v>3</v>
       </c>
@@ -8130,48 +8158,48 @@
     </row>
     <row r="25" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E26" s="171" t="s">
+      <c r="E26" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="171" t="s">
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="172"/>
-      <c r="L26" s="172"/>
-      <c r="M26" s="172"/>
-      <c r="N26" s="173"/>
-      <c r="O26" s="171" t="s">
+      <c r="K26" s="157"/>
+      <c r="L26" s="157"/>
+      <c r="M26" s="157"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="P26" s="172"/>
-      <c r="Q26" s="172"/>
-      <c r="R26" s="172"/>
-      <c r="S26" s="173"/>
+      <c r="P26" s="157"/>
+      <c r="Q26" s="157"/>
+      <c r="R26" s="157"/>
+      <c r="S26" s="158"/>
       <c r="T26" s="68"/>
-      <c r="X26" s="180" t="s">
+      <c r="X26" s="155" t="s">
         <v>209</v>
       </c>
-      <c r="Y26" s="180"/>
-      <c r="Z26" s="180"/>
-      <c r="AA26" s="180"/>
-      <c r="AB26" s="180"/>
-      <c r="AC26" s="180"/>
-      <c r="AD26" s="180"/>
-      <c r="AE26" s="180"/>
-      <c r="AF26" s="180" t="s">
+      <c r="Y26" s="155"/>
+      <c r="Z26" s="155"/>
+      <c r="AA26" s="155"/>
+      <c r="AB26" s="155"/>
+      <c r="AC26" s="155"/>
+      <c r="AD26" s="155"/>
+      <c r="AE26" s="155"/>
+      <c r="AF26" s="155" t="s">
         <v>206</v>
       </c>
-      <c r="AG26" s="180"/>
-      <c r="AH26" s="180"/>
-      <c r="AI26" s="180"/>
-      <c r="AJ26" s="180"/>
-      <c r="AK26" s="180"/>
-      <c r="AL26" s="180"/>
-      <c r="AM26" s="180"/>
+      <c r="AG26" s="155"/>
+      <c r="AH26" s="155"/>
+      <c r="AI26" s="155"/>
+      <c r="AJ26" s="155"/>
+      <c r="AK26" s="155"/>
+      <c r="AL26" s="155"/>
+      <c r="AM26" s="155"/>
     </row>
     <row r="27" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E27" s="69" t="s">
@@ -8222,36 +8250,36 @@
       <c r="T27" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="X27" s="180" t="s">
+      <c r="X27" s="155" t="s">
         <v>210</v>
       </c>
-      <c r="Y27" s="180"/>
-      <c r="Z27" s="180"/>
-      <c r="AA27" s="180"/>
-      <c r="AB27" s="180" t="s">
+      <c r="Y27" s="155"/>
+      <c r="Z27" s="155"/>
+      <c r="AA27" s="155"/>
+      <c r="AB27" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="AC27" s="180"/>
-      <c r="AD27" s="180"/>
-      <c r="AE27" s="180"/>
-      <c r="AF27" s="180" t="s">
+      <c r="AC27" s="155"/>
+      <c r="AD27" s="155"/>
+      <c r="AE27" s="155"/>
+      <c r="AF27" s="155" t="s">
         <v>210</v>
       </c>
-      <c r="AG27" s="180"/>
-      <c r="AH27" s="180"/>
-      <c r="AI27" s="180"/>
-      <c r="AJ27" s="180" t="s">
+      <c r="AG27" s="155"/>
+      <c r="AH27" s="155"/>
+      <c r="AI27" s="155"/>
+      <c r="AJ27" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="AK27" s="180"/>
-      <c r="AL27" s="180"/>
-      <c r="AM27" s="180"/>
+      <c r="AK27" s="155"/>
+      <c r="AL27" s="155"/>
+      <c r="AM27" s="155"/>
     </row>
     <row r="28" spans="2:39" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="177" t="s">
+      <c r="B28" s="162" t="s">
         <v>209</v>
       </c>
-      <c r="C28" s="160" t="s">
+      <c r="C28" s="159" t="s">
         <v>210</v>
       </c>
       <c r="D28" s="53" t="s">
@@ -8366,7 +8394,7 @@
     </row>
     <row r="29" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B29" s="163"/>
-      <c r="C29" s="161"/>
+      <c r="C29" s="160"/>
       <c r="D29" s="2" t="s">
         <v>2</v>
       </c>
@@ -8422,7 +8450,7 @@
         <f t="shared" ref="T29:T39" si="12">AVERAGE(I29,N29,S29)</f>
         <v>3.5639650679250701</v>
       </c>
-      <c r="V29" s="152">
+      <c r="V29" s="179">
         <v>7</v>
       </c>
       <c r="W29" s="101" t="s">
@@ -8479,7 +8507,7 @@
     </row>
     <row r="30" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B30" s="163"/>
-      <c r="C30" s="161"/>
+      <c r="C30" s="160"/>
       <c r="D30" s="2" t="s">
         <v>3</v>
       </c>
@@ -8535,7 +8563,7 @@
         <f t="shared" si="12"/>
         <v>0.93524402885015689</v>
       </c>
-      <c r="V30" s="153"/>
+      <c r="V30" s="180"/>
       <c r="W30" s="105" t="s">
         <v>6</v>
       </c>
@@ -8590,7 +8618,7 @@
     </row>
     <row r="31" spans="2:39" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="163"/>
-      <c r="C31" s="162"/>
+      <c r="C31" s="161"/>
       <c r="D31" s="54" t="s">
         <v>211</v>
       </c>
@@ -8646,7 +8674,7 @@
         <f t="shared" si="12"/>
         <v>15.833333333333334</v>
       </c>
-      <c r="V31" s="153"/>
+      <c r="V31" s="180"/>
       <c r="W31" s="105" t="s">
         <v>7</v>
       </c>
@@ -8701,7 +8729,7 @@
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B32" s="163"/>
-      <c r="C32" s="160" t="s">
+      <c r="C32" s="159" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="53" t="s">
@@ -8759,7 +8787,7 @@
         <f t="shared" si="12"/>
         <v>2.2776308536949266</v>
       </c>
-      <c r="V32" s="153"/>
+      <c r="V32" s="180"/>
       <c r="W32" s="105" t="s">
         <v>8</v>
       </c>
@@ -8814,7 +8842,7 @@
     </row>
     <row r="33" spans="2:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="163"/>
-      <c r="C33" s="161"/>
+      <c r="C33" s="160"/>
       <c r="D33" s="2" t="s">
         <v>2</v>
       </c>
@@ -8870,7 +8898,7 @@
         <f t="shared" si="12"/>
         <v>3.7603605058238752</v>
       </c>
-      <c r="V33" s="154"/>
+      <c r="V33" s="181"/>
       <c r="W33" s="72" t="s">
         <v>9</v>
       </c>
@@ -8941,7 +8969,7 @@
     </row>
     <row r="34" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B34" s="163"/>
-      <c r="C34" s="161"/>
+      <c r="C34" s="160"/>
       <c r="D34" s="2" t="s">
         <v>3</v>
       </c>
@@ -8997,7 +9025,7 @@
         <f t="shared" si="12"/>
         <v>0.91488429714260311</v>
       </c>
-      <c r="V34" s="152">
+      <c r="V34" s="179">
         <v>14</v>
       </c>
       <c r="W34" s="101" t="s">
@@ -9054,7 +9082,7 @@
     </row>
     <row r="35" spans="2:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="163"/>
-      <c r="C35" s="162"/>
+      <c r="C35" s="161"/>
       <c r="D35" s="95" t="s">
         <v>211</v>
       </c>
@@ -9110,7 +9138,7 @@
         <f t="shared" si="12"/>
         <v>10.583333333333334</v>
       </c>
-      <c r="V35" s="153"/>
+      <c r="V35" s="180"/>
       <c r="W35" s="105" t="s">
         <v>6</v>
       </c>
@@ -9165,7 +9193,7 @@
     </row>
     <row r="36" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B36" s="163"/>
-      <c r="C36" s="161" t="s">
+      <c r="C36" s="160" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -9223,7 +9251,7 @@
         <f t="shared" si="12"/>
         <v>3.0008085841689058</v>
       </c>
-      <c r="V36" s="153"/>
+      <c r="V36" s="180"/>
       <c r="W36" s="105" t="s">
         <v>7</v>
       </c>
@@ -9278,7 +9306,7 @@
     </row>
     <row r="37" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B37" s="163"/>
-      <c r="C37" s="161"/>
+      <c r="C37" s="160"/>
       <c r="D37" s="2" t="s">
         <v>2</v>
       </c>
@@ -9334,7 +9362,7 @@
         <f t="shared" si="12"/>
         <v>5.158547971052232</v>
       </c>
-      <c r="V37" s="153"/>
+      <c r="V37" s="180"/>
       <c r="W37" s="105" t="s">
         <v>8</v>
       </c>
@@ -9389,7 +9417,7 @@
     </row>
     <row r="38" spans="2:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="163"/>
-      <c r="C38" s="161"/>
+      <c r="C38" s="160"/>
       <c r="D38" s="2" t="s">
         <v>3</v>
       </c>
@@ -9445,7 +9473,7 @@
         <f t="shared" si="12"/>
         <v>0.87064370203199515</v>
       </c>
-      <c r="V38" s="154"/>
+      <c r="V38" s="181"/>
       <c r="W38" s="72" t="s">
         <v>9</v>
       </c>
@@ -9515,8 +9543,8 @@
       </c>
     </row>
     <row r="39" spans="2:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="178"/>
-      <c r="C39" s="179"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="165"/>
       <c r="D39" s="92" t="s">
         <v>212</v>
       </c>
@@ -9572,7 +9600,7 @@
         <f t="shared" si="12"/>
         <v>23.25</v>
       </c>
-      <c r="V39" s="152">
+      <c r="V39" s="179">
         <v>21</v>
       </c>
       <c r="W39" s="101" t="s">
@@ -9631,7 +9659,7 @@
       <c r="B40" s="163" t="s">
         <v>206</v>
       </c>
-      <c r="C40" s="161" t="s">
+      <c r="C40" s="160" t="s">
         <v>210</v>
       </c>
       <c r="D40" s="13" t="s">
@@ -9689,7 +9717,7 @@
         <f>AVERAGE(I40,N40,S40)</f>
         <v>0.48197307962486019</v>
       </c>
-      <c r="V40" s="153"/>
+      <c r="V40" s="180"/>
       <c r="W40" s="105" t="s">
         <v>6</v>
       </c>
@@ -9744,7 +9772,7 @@
     </row>
     <row r="41" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B41" s="163"/>
-      <c r="C41" s="161"/>
+      <c r="C41" s="160"/>
       <c r="D41" s="13" t="s">
         <v>2</v>
       </c>
@@ -9800,7 +9828,7 @@
         <f>AVERAGE(I41,N41,S41)</f>
         <v>0.71483607643238045</v>
       </c>
-      <c r="V41" s="153"/>
+      <c r="V41" s="180"/>
       <c r="W41" s="105" t="s">
         <v>7</v>
       </c>
@@ -9855,7 +9883,7 @@
     </row>
     <row r="42" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B42" s="163"/>
-      <c r="C42" s="161"/>
+      <c r="C42" s="160"/>
       <c r="D42" s="13" t="s">
         <v>3</v>
       </c>
@@ -9911,7 +9939,7 @@
         <f>AVERAGE(I42,N42,S42)</f>
         <v>0.89514895097951153</v>
       </c>
-      <c r="V42" s="153"/>
+      <c r="V42" s="180"/>
       <c r="W42" s="105" t="s">
         <v>8</v>
       </c>
@@ -9966,7 +9994,7 @@
     </row>
     <row r="43" spans="2:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="163"/>
-      <c r="C43" s="162"/>
+      <c r="C43" s="161"/>
       <c r="D43" s="54" t="s">
         <v>211</v>
       </c>
@@ -10022,7 +10050,7 @@
         <f>AVERAGE(I43,N43,S43)</f>
         <v>12.666666666666666</v>
       </c>
-      <c r="V43" s="154"/>
+      <c r="V43" s="181"/>
       <c r="W43" s="72" t="s">
         <v>9</v>
       </c>
@@ -10093,7 +10121,7 @@
     </row>
     <row r="44" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B44" s="163"/>
-      <c r="C44" s="160" t="s">
+      <c r="C44" s="159" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="13" t="s">
@@ -10151,10 +10179,10 @@
         <f t="shared" ref="T44:T51" si="21">AVERAGE(I44,N44,S44)</f>
         <v>0.38309457795371937</v>
       </c>
-      <c r="V44" s="155" t="s">
+      <c r="V44" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="W44" s="156"/>
+      <c r="W44" s="183"/>
       <c r="X44" s="113">
         <f t="shared" ref="X44:AM44" si="22">AVERAGE(X33,X38,X43)</f>
         <v>2.1519019847241818</v>
@@ -10222,7 +10250,7 @@
     </row>
     <row r="45" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B45" s="163"/>
-      <c r="C45" s="161"/>
+      <c r="C45" s="160"/>
       <c r="D45" s="13" t="s">
         <v>2</v>
       </c>
@@ -10281,7 +10309,7 @@
     </row>
     <row r="46" spans="2:40" x14ac:dyDescent="0.2">
       <c r="B46" s="163"/>
-      <c r="C46" s="161"/>
+      <c r="C46" s="160"/>
       <c r="D46" s="13" t="s">
         <v>3</v>
       </c>
@@ -10340,7 +10368,7 @@
     </row>
     <row r="47" spans="2:40" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="163"/>
-      <c r="C47" s="162"/>
+      <c r="C47" s="161"/>
       <c r="D47" s="54" t="s">
         <v>212</v>
       </c>
@@ -10399,7 +10427,7 @@
     </row>
     <row r="48" spans="2:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="163"/>
-      <c r="C48" s="160" t="s">
+      <c r="C48" s="159" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="13" t="s">
@@ -10484,7 +10512,7 @@
     </row>
     <row r="49" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B49" s="163"/>
-      <c r="C49" s="161"/>
+      <c r="C49" s="160"/>
       <c r="D49" s="13" t="s">
         <v>2</v>
       </c>
@@ -10567,7 +10595,7 @@
     </row>
     <row r="50" spans="2:75" x14ac:dyDescent="0.2">
       <c r="B50" s="163"/>
-      <c r="C50" s="161"/>
+      <c r="C50" s="160"/>
       <c r="D50" s="13" t="s">
         <v>3</v>
       </c>
@@ -10661,8 +10689,8 @@
       </c>
     </row>
     <row r="51" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="164"/>
-      <c r="C51" s="162"/>
+      <c r="B51" s="175"/>
+      <c r="C51" s="161"/>
       <c r="D51" s="54" t="s">
         <v>212</v>
       </c>
@@ -10915,10 +10943,10 @@
       <c r="BW55" s="13"/>
     </row>
     <row r="56" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B56" s="167">
+      <c r="B56" s="176">
         <v>0</v>
       </c>
-      <c r="C56" s="157">
+      <c r="C56" s="172">
         <v>0</v>
       </c>
       <c r="D56" s="53" t="s">
@@ -11006,8 +11034,8 @@
       <c r="BW56" s="55"/>
     </row>
     <row r="57" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B57" s="168"/>
-      <c r="C57" s="158"/>
+      <c r="B57" s="177"/>
+      <c r="C57" s="173"/>
       <c r="D57" s="2" t="s">
         <v>2</v>
       </c>
@@ -11097,8 +11125,8 @@
       <c r="BW57" s="55"/>
     </row>
     <row r="58" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="169"/>
-      <c r="C58" s="159"/>
+      <c r="B58" s="178"/>
+      <c r="C58" s="174"/>
       <c r="D58" s="54" t="s">
         <v>3</v>
       </c>
@@ -11180,10 +11208,10 @@
       <c r="BW58" s="55"/>
     </row>
     <row r="59" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B59" s="167">
+      <c r="B59" s="176">
         <v>0</v>
       </c>
-      <c r="C59" s="157">
+      <c r="C59" s="172">
         <v>1E-3</v>
       </c>
       <c r="D59" s="53" t="s">
@@ -11241,8 +11269,8 @@
       </c>
     </row>
     <row r="60" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="168"/>
-      <c r="C60" s="158"/>
+      <c r="B60" s="177"/>
+      <c r="C60" s="173"/>
       <c r="D60" s="2" t="s">
         <v>2</v>
       </c>
@@ -11300,8 +11328,8 @@
       </c>
     </row>
     <row r="61" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="169"/>
-      <c r="C61" s="159"/>
+      <c r="B61" s="178"/>
+      <c r="C61" s="174"/>
       <c r="D61" s="54" t="s">
         <v>3</v>
       </c>
@@ -11339,10 +11367,10 @@
       </c>
     </row>
     <row r="62" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B62" s="157">
+      <c r="B62" s="172">
         <v>0</v>
       </c>
-      <c r="C62" s="157">
+      <c r="C62" s="172">
         <v>0.01</v>
       </c>
       <c r="D62" s="53" t="s">
@@ -11382,8 +11410,8 @@
       </c>
     </row>
     <row r="63" spans="2:75" x14ac:dyDescent="0.2">
-      <c r="B63" s="158"/>
-      <c r="C63" s="158"/>
+      <c r="B63" s="173"/>
+      <c r="C63" s="173"/>
       <c r="D63" s="2" t="s">
         <v>2</v>
       </c>
@@ -11416,8 +11444,8 @@
       <c r="AF63" s="14"/>
     </row>
     <row r="64" spans="2:75" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="159"/>
-      <c r="C64" s="159"/>
+      <c r="B64" s="174"/>
+      <c r="C64" s="174"/>
       <c r="D64" s="54" t="s">
         <v>3</v>
       </c>
@@ -11447,10 +11475,10 @@
       <c r="AF64" s="14"/>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B65" s="157">
+      <c r="B65" s="172">
         <v>0</v>
       </c>
-      <c r="C65" s="157">
+      <c r="C65" s="172">
         <v>0.1</v>
       </c>
       <c r="D65" s="53" t="s">
@@ -11478,8 +11506,8 @@
       <c r="N65"/>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B66" s="158"/>
-      <c r="C66" s="158"/>
+      <c r="B66" s="173"/>
+      <c r="C66" s="173"/>
       <c r="D66" s="2" t="s">
         <v>2</v>
       </c>
@@ -11505,8 +11533,8 @@
       <c r="N66"/>
     </row>
     <row r="67" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="159"/>
-      <c r="C67" s="159"/>
+      <c r="B67" s="174"/>
+      <c r="C67" s="174"/>
       <c r="D67" s="54" t="s">
         <v>3</v>
       </c>
@@ -11535,10 +11563,10 @@
       <c r="N67"/>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B68" s="157">
+      <c r="B68" s="172">
         <v>1E-3</v>
       </c>
-      <c r="C68" s="157">
+      <c r="C68" s="172">
         <v>0</v>
       </c>
       <c r="D68" s="53" t="s">
@@ -11566,8 +11594,8 @@
       <c r="N68"/>
     </row>
     <row r="69" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B69" s="158"/>
-      <c r="C69" s="158"/>
+      <c r="B69" s="173"/>
+      <c r="C69" s="173"/>
       <c r="D69" s="2" t="s">
         <v>2</v>
       </c>
@@ -11593,8 +11621,8 @@
       <c r="N69"/>
     </row>
     <row r="70" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="159"/>
-      <c r="C70" s="159"/>
+      <c r="B70" s="174"/>
+      <c r="C70" s="174"/>
       <c r="D70" s="54" t="s">
         <v>3</v>
       </c>
@@ -11621,10 +11649,10 @@
       <c r="O70" s="1"/>
     </row>
     <row r="71" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B71" s="157">
+      <c r="B71" s="172">
         <v>1E-3</v>
       </c>
-      <c r="C71" s="157">
+      <c r="C71" s="172">
         <v>1E-3</v>
       </c>
       <c r="D71" s="53" t="s">
@@ -11656,8 +11684,8 @@
       <c r="O71" s="1"/>
     </row>
     <row r="72" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B72" s="158"/>
-      <c r="C72" s="158"/>
+      <c r="B72" s="173"/>
+      <c r="C72" s="173"/>
       <c r="D72" s="2" t="s">
         <v>2</v>
       </c>
@@ -11684,8 +11712,8 @@
       <c r="O72" s="1"/>
     </row>
     <row r="73" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="159"/>
-      <c r="C73" s="159"/>
+      <c r="B73" s="174"/>
+      <c r="C73" s="174"/>
       <c r="D73" s="54" t="s">
         <v>3</v>
       </c>
@@ -11713,10 +11741,10 @@
       <c r="S73" s="1"/>
     </row>
     <row r="74" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B74" s="157">
+      <c r="B74" s="172">
         <v>1E-3</v>
       </c>
-      <c r="C74" s="157">
+      <c r="C74" s="172">
         <v>0.01</v>
       </c>
       <c r="D74" s="53" t="s">
@@ -11745,8 +11773,8 @@
       <c r="O74" s="1"/>
     </row>
     <row r="75" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B75" s="158"/>
-      <c r="C75" s="158"/>
+      <c r="B75" s="173"/>
+      <c r="C75" s="173"/>
       <c r="D75" s="2" t="s">
         <v>2</v>
       </c>
@@ -11769,8 +11797,8 @@
       <c r="N75"/>
     </row>
     <row r="76" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="159"/>
-      <c r="C76" s="159"/>
+      <c r="B76" s="174"/>
+      <c r="C76" s="174"/>
       <c r="D76" s="54" t="s">
         <v>3</v>
       </c>
@@ -11793,10 +11821,10 @@
       <c r="N76"/>
     </row>
     <row r="77" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B77" s="157">
+      <c r="B77" s="172">
         <v>1E-3</v>
       </c>
-      <c r="C77" s="157">
+      <c r="C77" s="172">
         <v>0.1</v>
       </c>
       <c r="D77" s="53" t="s">
@@ -11821,8 +11849,8 @@
       <c r="N77"/>
     </row>
     <row r="78" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B78" s="158"/>
-      <c r="C78" s="158"/>
+      <c r="B78" s="173"/>
+      <c r="C78" s="173"/>
       <c r="D78" s="2" t="s">
         <v>2</v>
       </c>
@@ -11845,8 +11873,8 @@
       <c r="N78"/>
     </row>
     <row r="79" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="159"/>
-      <c r="C79" s="159"/>
+      <c r="B79" s="174"/>
+      <c r="C79" s="174"/>
       <c r="D79" s="54" t="s">
         <v>3</v>
       </c>
@@ -11869,10 +11897,10 @@
       <c r="N79"/>
     </row>
     <row r="80" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B80" s="157">
+      <c r="B80" s="172">
         <v>0.01</v>
       </c>
-      <c r="C80" s="157">
+      <c r="C80" s="172">
         <v>0</v>
       </c>
       <c r="D80" s="53" t="s">
@@ -11897,8 +11925,8 @@
       <c r="N80"/>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B81" s="158"/>
-      <c r="C81" s="158"/>
+      <c r="B81" s="173"/>
+      <c r="C81" s="173"/>
       <c r="D81" s="2" t="s">
         <v>2</v>
       </c>
@@ -11921,8 +11949,8 @@
       <c r="N81"/>
     </row>
     <row r="82" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="159"/>
-      <c r="C82" s="159"/>
+      <c r="B82" s="174"/>
+      <c r="C82" s="174"/>
       <c r="D82" s="54" t="s">
         <v>3</v>
       </c>
@@ -11945,10 +11973,10 @@
       <c r="N82"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B83" s="157">
+      <c r="B83" s="172">
         <v>0.01</v>
       </c>
-      <c r="C83" s="157">
+      <c r="C83" s="172">
         <v>1E-3</v>
       </c>
       <c r="D83" s="53" t="s">
@@ -11973,8 +12001,8 @@
       <c r="N83"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B84" s="158"/>
-      <c r="C84" s="158"/>
+      <c r="B84" s="173"/>
+      <c r="C84" s="173"/>
       <c r="D84" s="2" t="s">
         <v>2</v>
       </c>
@@ -11997,8 +12025,8 @@
       <c r="N84"/>
     </row>
     <row r="85" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="159"/>
-      <c r="C85" s="159"/>
+      <c r="B85" s="174"/>
+      <c r="C85" s="174"/>
       <c r="D85" s="54" t="s">
         <v>3</v>
       </c>
@@ -12021,10 +12049,10 @@
       <c r="N85"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B86" s="157">
+      <c r="B86" s="172">
         <v>0.01</v>
       </c>
-      <c r="C86" s="157">
+      <c r="C86" s="172">
         <v>0.01</v>
       </c>
       <c r="D86" s="53" t="s">
@@ -12049,8 +12077,8 @@
       <c r="N86"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B87" s="158"/>
-      <c r="C87" s="158"/>
+      <c r="B87" s="173"/>
+      <c r="C87" s="173"/>
       <c r="D87" s="2" t="s">
         <v>2</v>
       </c>
@@ -12073,8 +12101,8 @@
       <c r="N87"/>
     </row>
     <row r="88" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="159"/>
-      <c r="C88" s="159"/>
+      <c r="B88" s="174"/>
+      <c r="C88" s="174"/>
       <c r="D88" s="54" t="s">
         <v>3</v>
       </c>
@@ -12097,10 +12125,10 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B89" s="157">
+      <c r="B89" s="172">
         <v>0.01</v>
       </c>
-      <c r="C89" s="157">
+      <c r="C89" s="172">
         <v>0.1</v>
       </c>
       <c r="D89" s="53" t="s">
@@ -12125,8 +12153,8 @@
       <c r="N89"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B90" s="158"/>
-      <c r="C90" s="158"/>
+      <c r="B90" s="173"/>
+      <c r="C90" s="173"/>
       <c r="D90" s="2" t="s">
         <v>2</v>
       </c>
@@ -12149,8 +12177,8 @@
       <c r="N90"/>
     </row>
     <row r="91" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="159"/>
-      <c r="C91" s="159"/>
+      <c r="B91" s="174"/>
+      <c r="C91" s="174"/>
       <c r="D91" s="54" t="s">
         <v>3</v>
       </c>
@@ -12173,10 +12201,10 @@
       <c r="N91"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B92" s="157">
+      <c r="B92" s="172">
         <v>0.1</v>
       </c>
-      <c r="C92" s="157">
+      <c r="C92" s="172">
         <v>0</v>
       </c>
       <c r="D92" s="53" t="s">
@@ -12201,8 +12229,8 @@
       <c r="N92"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B93" s="158"/>
-      <c r="C93" s="158"/>
+      <c r="B93" s="173"/>
+      <c r="C93" s="173"/>
       <c r="D93" s="2" t="s">
         <v>2</v>
       </c>
@@ -12224,8 +12252,8 @@
       </c>
     </row>
     <row r="94" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="159"/>
-      <c r="C94" s="159"/>
+      <c r="B94" s="174"/>
+      <c r="C94" s="174"/>
       <c r="D94" s="54" t="s">
         <v>3</v>
       </c>
@@ -12247,10 +12275,10 @@
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B95" s="157">
+      <c r="B95" s="172">
         <v>0.1</v>
       </c>
-      <c r="C95" s="157">
+      <c r="C95" s="172">
         <v>1E-3</v>
       </c>
       <c r="D95" s="53" t="s">
@@ -12274,8 +12302,8 @@
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B96" s="158"/>
-      <c r="C96" s="158"/>
+      <c r="B96" s="173"/>
+      <c r="C96" s="173"/>
       <c r="D96" s="2" t="s">
         <v>2</v>
       </c>
@@ -12297,8 +12325,8 @@
       </c>
     </row>
     <row r="97" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="159"/>
-      <c r="C97" s="159"/>
+      <c r="B97" s="174"/>
+      <c r="C97" s="174"/>
       <c r="D97" s="54" t="s">
         <v>3</v>
       </c>
@@ -12320,10 +12348,10 @@
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B98" s="157">
+      <c r="B98" s="172">
         <v>0.1</v>
       </c>
-      <c r="C98" s="157">
+      <c r="C98" s="172">
         <v>0.01</v>
       </c>
       <c r="D98" s="53" t="s">
@@ -12347,8 +12375,8 @@
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B99" s="158"/>
-      <c r="C99" s="158"/>
+      <c r="B99" s="173"/>
+      <c r="C99" s="173"/>
       <c r="D99" s="2" t="s">
         <v>2</v>
       </c>
@@ -12370,8 +12398,8 @@
       </c>
     </row>
     <row r="100" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="159"/>
-      <c r="C100" s="159"/>
+      <c r="B100" s="174"/>
+      <c r="C100" s="174"/>
       <c r="D100" s="54" t="s">
         <v>3</v>
       </c>
@@ -12393,10 +12421,10 @@
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B101" s="157">
+      <c r="B101" s="172">
         <v>0.1</v>
       </c>
-      <c r="C101" s="157">
+      <c r="C101" s="172">
         <v>0.1</v>
       </c>
       <c r="D101" s="53" t="s">
@@ -12420,8 +12448,8 @@
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B102" s="158"/>
-      <c r="C102" s="158"/>
+      <c r="B102" s="173"/>
+      <c r="C102" s="173"/>
       <c r="D102" s="2" t="s">
         <v>2</v>
       </c>
@@ -12443,8 +12471,8 @@
       </c>
     </row>
     <row r="103" spans="2:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="159"/>
-      <c r="C103" s="159"/>
+      <c r="B103" s="174"/>
+      <c r="C103" s="174"/>
       <c r="D103" s="54" t="s">
         <v>3</v>
       </c>
@@ -12467,37 +12495,24 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="AF26:AM26"/>
-    <mergeCell ref="X27:AA27"/>
-    <mergeCell ref="AB27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="AJ27:AM27"/>
-    <mergeCell ref="X26:AE26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="O26:S26"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="B28:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="B4:B15"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="V29:V33"/>
+    <mergeCell ref="V34:V38"/>
+    <mergeCell ref="V39:V43"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C48:C51"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C64"/>
     <mergeCell ref="C101:C103"/>
     <mergeCell ref="B62:B64"/>
     <mergeCell ref="B65:B67"/>
@@ -12514,24 +12529,37 @@
     <mergeCell ref="B98:B100"/>
     <mergeCell ref="B101:B103"/>
     <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C48:C51"/>
-    <mergeCell ref="B40:B51"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="V29:V33"/>
-    <mergeCell ref="V34:V38"/>
-    <mergeCell ref="V39:V43"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B4:B15"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="AF26:AM26"/>
+    <mergeCell ref="X27:AA27"/>
+    <mergeCell ref="AB27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="AJ27:AM27"/>
+    <mergeCell ref="X26:AE26"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12541,10 +12569,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFB687B-AE8A-9E4C-93B1-A2032A687EEF}">
-  <dimension ref="C4:Y55"/>
+  <dimension ref="C4:Y74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58:M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12565,28 +12593,28 @@
     </row>
     <row r="6" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="13"/>
-      <c r="F6" s="171" t="s">
+      <c r="F6" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="171" t="s">
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="156" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="172"/>
-      <c r="M6" s="172"/>
-      <c r="N6" s="172"/>
-      <c r="O6" s="173"/>
-      <c r="P6" s="171" t="s">
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="158"/>
+      <c r="P6" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="172"/>
-      <c r="R6" s="172"/>
-      <c r="S6" s="172"/>
-      <c r="T6" s="173"/>
-      <c r="U6" s="174" t="s">
+      <c r="Q6" s="157"/>
+      <c r="R6" s="157"/>
+      <c r="S6" s="157"/>
+      <c r="T6" s="158"/>
+      <c r="U6" s="169" t="s">
         <v>9</v>
       </c>
       <c r="X6" s="121" t="s">
@@ -12643,7 +12671,7 @@
       <c r="T7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="U7" s="174"/>
+      <c r="U7" s="169"/>
       <c r="X7" s="122" t="s">
         <v>212</v>
       </c>
@@ -12652,10 +12680,10 @@
       </c>
     </row>
     <row r="8" spans="3:25" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="170" t="s">
+      <c r="C8" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="160" t="s">
+      <c r="D8" s="159" t="s">
         <v>210</v>
       </c>
       <c r="E8" s="53" t="s">
@@ -12721,8 +12749,8 @@
       </c>
     </row>
     <row r="9" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C9" s="170"/>
-      <c r="D9" s="161"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="160"/>
       <c r="E9" s="2" t="s">
         <v>2</v>
       </c>
@@ -12786,8 +12814,8 @@
       </c>
     </row>
     <row r="10" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C10" s="170"/>
-      <c r="D10" s="161"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="160"/>
       <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
@@ -12851,8 +12879,8 @@
       </c>
     </row>
     <row r="11" spans="3:25" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="170"/>
-      <c r="D11" s="162"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="161"/>
       <c r="E11" s="54" t="s">
         <v>211</v>
       </c>
@@ -12916,8 +12944,8 @@
       </c>
     </row>
     <row r="12" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C12" s="170"/>
-      <c r="D12" s="160" t="s">
+      <c r="C12" s="168"/>
+      <c r="D12" s="159" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="53" t="s">
@@ -12983,8 +13011,8 @@
       </c>
     </row>
     <row r="13" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="C13" s="170"/>
-      <c r="D13" s="161"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="160"/>
       <c r="E13" s="2" t="s">
         <v>2</v>
       </c>
@@ -13048,7 +13076,7 @@
       </c>
     </row>
     <row r="14" spans="3:25" x14ac:dyDescent="0.2">
-      <c r="D14" s="161"/>
+      <c r="D14" s="160"/>
       <c r="E14" s="2" t="s">
         <v>3</v>
       </c>
@@ -13112,7 +13140,7 @@
       </c>
     </row>
     <row r="15" spans="3:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="162"/>
+      <c r="D15" s="161"/>
       <c r="E15" s="50" t="s">
         <v>211</v>
       </c>
@@ -13187,24 +13215,24 @@
     <row r="19" spans="4:22" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D19" s="129"/>
       <c r="E19" s="129"/>
-      <c r="F19" s="160" t="s">
+      <c r="F19" s="159" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="185"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="185" t="s">
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="184" t="s">
         <v>217</v>
       </c>
-      <c r="K19" s="185"/>
-      <c r="L19" s="185"/>
-      <c r="M19" s="187"/>
-      <c r="N19" s="160" t="s">
+      <c r="K19" s="184"/>
+      <c r="L19" s="184"/>
+      <c r="M19" s="186"/>
+      <c r="N19" s="159" t="s">
         <v>236</v>
       </c>
-      <c r="O19" s="185"/>
-      <c r="P19" s="185"/>
-      <c r="Q19" s="186"/>
+      <c r="O19" s="184"/>
+      <c r="P19" s="184"/>
+      <c r="Q19" s="185"/>
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
@@ -13259,7 +13287,7 @@
       <c r="U20" s="14"/>
     </row>
     <row r="21" spans="4:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="152">
+      <c r="D21" s="179">
         <v>7</v>
       </c>
       <c r="E21" s="130" t="s">
@@ -13307,7 +13335,7 @@
       <c r="U21" s="14"/>
     </row>
     <row r="22" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D22" s="153"/>
+      <c r="D22" s="180"/>
       <c r="E22" s="6" t="s">
         <v>6</v>
       </c>
@@ -13354,7 +13382,7 @@
       <c r="V22" s="14"/>
     </row>
     <row r="23" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D23" s="153"/>
+      <c r="D23" s="180"/>
       <c r="E23" s="6" t="s">
         <v>7</v>
       </c>
@@ -13401,7 +13429,7 @@
       <c r="V23" s="14"/>
     </row>
     <row r="24" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D24" s="153"/>
+      <c r="D24" s="180"/>
       <c r="E24" s="6" t="s">
         <v>8</v>
       </c>
@@ -13448,7 +13476,7 @@
       <c r="V24" s="14"/>
     </row>
     <row r="25" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="154"/>
+      <c r="D25" s="181"/>
       <c r="E25" s="127" t="s">
         <v>9</v>
       </c>
@@ -13507,7 +13535,7 @@
       <c r="V25" s="14"/>
     </row>
     <row r="26" spans="4:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="152">
+      <c r="D26" s="179">
         <v>14</v>
       </c>
       <c r="E26" s="130" t="s">
@@ -13550,21 +13578,13 @@
         <v>-1</v>
       </c>
       <c r="R26" s="14"/>
-      <c r="S26" s="14">
-        <v>2.9577961416509502</v>
-      </c>
-      <c r="T26" s="14">
-        <v>3.6086103265852998</v>
-      </c>
-      <c r="U26" s="14">
-        <v>2.29420340487271</v>
-      </c>
-      <c r="V26" s="14">
-        <v>5.0369887593202503</v>
-      </c>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
     </row>
     <row r="27" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D27" s="153"/>
+      <c r="D27" s="180"/>
       <c r="E27" s="6" t="s">
         <v>6</v>
       </c>
@@ -13605,21 +13625,13 @@
         <v>24</v>
       </c>
       <c r="R27" s="14"/>
-      <c r="S27" s="14">
-        <v>4.3657949130589202</v>
-      </c>
-      <c r="T27" s="14">
-        <v>5.4770218720708899</v>
-      </c>
-      <c r="U27" s="14">
-        <v>2.8968259156070699</v>
-      </c>
-      <c r="V27" s="14">
-        <v>9.1738224310701302</v>
-      </c>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
     </row>
     <row r="28" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D28" s="153"/>
+      <c r="D28" s="180"/>
       <c r="E28" s="6" t="s">
         <v>7</v>
       </c>
@@ -13660,21 +13672,13 @@
         <v>-12</v>
       </c>
       <c r="R28" s="14"/>
-      <c r="S28" s="14">
-        <v>0.71245087138951502</v>
-      </c>
-      <c r="T28" s="14">
-        <v>0.62210520724011198</v>
-      </c>
-      <c r="U28" s="14">
-        <v>0.86830984627044105</v>
-      </c>
-      <c r="V28" s="14">
-        <v>0.81204631699589402</v>
-      </c>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
     </row>
     <row r="29" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D29" s="153"/>
+      <c r="D29" s="180"/>
       <c r="E29" s="6" t="s">
         <v>8</v>
       </c>
@@ -13715,21 +13719,13 @@
         <v>15</v>
       </c>
       <c r="R29" s="14"/>
-      <c r="S29" s="14">
-        <v>-57</v>
-      </c>
-      <c r="T29" s="14">
-        <v>-128</v>
-      </c>
-      <c r="U29" s="14">
-        <v>-6</v>
-      </c>
-      <c r="V29" s="14">
-        <v>23</v>
-      </c>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
     </row>
     <row r="30" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="154"/>
+      <c r="D30" s="181"/>
       <c r="E30" s="128" t="s">
         <v>9</v>
       </c>
@@ -13784,7 +13780,7 @@
       <c r="R30" s="14"/>
     </row>
     <row r="31" spans="4:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D31" s="152">
+      <c r="D31" s="179">
         <v>21</v>
       </c>
       <c r="E31" s="130" t="s">
@@ -13829,7 +13825,7 @@
       <c r="R31" s="14"/>
     </row>
     <row r="32" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D32" s="153"/>
+      <c r="D32" s="180"/>
       <c r="E32" s="6" t="s">
         <v>6</v>
       </c>
@@ -13872,7 +13868,7 @@
       <c r="R32" s="14"/>
     </row>
     <row r="33" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D33" s="153"/>
+      <c r="D33" s="180"/>
       <c r="E33" s="6" t="s">
         <v>7</v>
       </c>
@@ -13915,7 +13911,7 @@
       <c r="R33" s="14"/>
     </row>
     <row r="34" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D34" s="153"/>
+      <c r="D34" s="180"/>
       <c r="E34" s="6" t="s">
         <v>8</v>
       </c>
@@ -13958,7 +13954,7 @@
       <c r="R34" s="14"/>
     </row>
     <row r="35" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="154"/>
+      <c r="D35" s="181"/>
       <c r="E35" s="6" t="s">
         <v>9</v>
       </c>
@@ -14011,24 +14007,16 @@
         <v>53.5</v>
       </c>
       <c r="R35" s="14"/>
-      <c r="S35" s="14">
-        <v>2.9512770024242001</v>
-      </c>
-      <c r="T35" s="14">
-        <v>2.6259942309225002</v>
-      </c>
-      <c r="U35" s="14">
-        <v>1.50589329905638</v>
-      </c>
-      <c r="V35" s="14">
-        <v>3.5480996358027301</v>
-      </c>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
     </row>
     <row r="36" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="181" t="s">
+      <c r="D36" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="182"/>
+      <c r="E36" s="188"/>
       <c r="F36" s="134">
         <f t="shared" ref="F36:M36" si="5">AVERAGE(F25,F30,F35)</f>
         <v>2.6236353004055935</v>
@@ -14078,61 +14066,37 @@
         <v>26.5</v>
       </c>
       <c r="R36" s="14"/>
-      <c r="S36" s="14">
-        <v>4.3127364592540296</v>
-      </c>
-      <c r="T36" s="14">
-        <v>4.0622906378416799</v>
-      </c>
-      <c r="U36" s="14">
-        <v>2.0698032495027499</v>
-      </c>
-      <c r="V36" s="14">
-        <v>5.8785085877251104</v>
-      </c>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
     </row>
     <row r="37" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
-      <c r="S37" s="14">
-        <v>0.86352584150675904</v>
-      </c>
-      <c r="T37" s="14">
-        <v>0.91021773196631095</v>
-      </c>
-      <c r="U37" s="14">
-        <v>0.96135869199740298</v>
-      </c>
-      <c r="V37" s="14">
-        <v>0.973848575563387</v>
-      </c>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
     </row>
     <row r="38" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F38" s="180" t="s">
+      <c r="F38" s="155" t="s">
         <v>210</v>
       </c>
-      <c r="G38" s="180"/>
-      <c r="H38" s="180"/>
-      <c r="I38" s="183"/>
-      <c r="J38" s="184" t="s">
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="189"/>
+      <c r="J38" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="K38" s="180"/>
-      <c r="L38" s="180"/>
-      <c r="M38" s="180"/>
-      <c r="S38" s="14">
-        <v>-8</v>
-      </c>
-      <c r="T38" s="14">
-        <v>17</v>
-      </c>
-      <c r="U38" s="14">
-        <v>-17</v>
-      </c>
-      <c r="V38" s="14">
-        <v>10</v>
-      </c>
+      <c r="K38" s="155"/>
+      <c r="L38" s="155"/>
+      <c r="M38" s="155"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
     </row>
     <row r="39" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D39" s="97" t="s">
@@ -14167,7 +14131,7 @@
       </c>
     </row>
     <row r="40" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D40" s="152">
+      <c r="D40" s="179">
         <v>7</v>
       </c>
       <c r="E40" s="118" t="s">
@@ -14197,9 +14161,16 @@
       <c r="M40" s="108">
         <v>2</v>
       </c>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
     </row>
     <row r="41" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D41" s="153"/>
+      <c r="D41" s="180"/>
       <c r="E41" s="119" t="s">
         <v>6</v>
       </c>
@@ -14227,9 +14198,16 @@
       <c r="M41" s="108">
         <v>2</v>
       </c>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
     </row>
     <row r="42" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D42" s="153"/>
+      <c r="D42" s="180"/>
       <c r="E42" s="119" t="s">
         <v>7</v>
       </c>
@@ -14257,9 +14235,16 @@
       <c r="M42" s="108">
         <v>-22</v>
       </c>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
     </row>
     <row r="43" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D43" s="153"/>
+      <c r="D43" s="180"/>
       <c r="E43" s="119" t="s">
         <v>8</v>
       </c>
@@ -14287,9 +14272,16 @@
       <c r="M43" s="103">
         <v>8</v>
       </c>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
     </row>
     <row r="44" spans="4:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="154"/>
+      <c r="D44" s="181"/>
       <c r="E44" s="120" t="s">
         <v>9</v>
       </c>
@@ -14325,9 +14317,16 @@
         <f t="array" ref="M44">AVERAGE(ABS(M40:M43))</f>
         <v>8.5</v>
       </c>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
     </row>
     <row r="45" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D45" s="152">
+      <c r="D45" s="179">
         <v>14</v>
       </c>
       <c r="E45" s="118" t="s">
@@ -14357,9 +14356,18 @@
       <c r="M45" s="115">
         <v>6</v>
       </c>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
     </row>
     <row r="46" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D46" s="153"/>
+      <c r="D46" s="180"/>
       <c r="E46" s="119" t="s">
         <v>6</v>
       </c>
@@ -14387,9 +14395,18 @@
       <c r="M46" s="108">
         <v>10</v>
       </c>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
     </row>
     <row r="47" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D47" s="153"/>
+      <c r="D47" s="180"/>
       <c r="E47" s="119" t="s">
         <v>7</v>
       </c>
@@ -14417,9 +14434,18 @@
       <c r="M47" s="108">
         <v>4</v>
       </c>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
     </row>
     <row r="48" spans="4:22" x14ac:dyDescent="0.2">
-      <c r="D48" s="153"/>
+      <c r="D48" s="180"/>
       <c r="E48" s="119" t="s">
         <v>8</v>
       </c>
@@ -14447,9 +14473,18 @@
       <c r="M48" s="103">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="154"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+    </row>
+    <row r="49" spans="4:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="181"/>
       <c r="E49" s="120" t="s">
         <v>9</v>
       </c>
@@ -14485,9 +14520,16 @@
         <f t="array" ref="M49">AVERAGE(ABS(M45:M48))</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D50" s="152">
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+    </row>
+    <row r="50" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="D50" s="179">
         <v>21</v>
       </c>
       <c r="E50" s="118" t="s">
@@ -14517,9 +14559,16 @@
       <c r="M50" s="115">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D51" s="153"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+    </row>
+    <row r="51" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="D51" s="180"/>
       <c r="E51" s="119" t="s">
         <v>6</v>
       </c>
@@ -14547,9 +14596,16 @@
       <c r="M51" s="108">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D52" s="153"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+    </row>
+    <row r="52" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="D52" s="180"/>
       <c r="E52" s="119" t="s">
         <v>7</v>
       </c>
@@ -14577,9 +14633,17 @@
       <c r="M52" s="103">
         <v>-19</v>
       </c>
-    </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D53" s="153"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="14"/>
+    </row>
+    <row r="53" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="D53" s="180"/>
       <c r="E53" s="119" t="s">
         <v>8</v>
       </c>
@@ -14607,9 +14671,17 @@
       <c r="M53" s="108">
         <v>12</v>
       </c>
-    </row>
-    <row r="54" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="154"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+    </row>
+    <row r="54" spans="4:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="181"/>
       <c r="E54" s="120" t="s">
         <v>9</v>
       </c>
@@ -14645,12 +14717,21 @@
         <f t="array" ref="M54">AVERAGE(ABS(M50:M53))</f>
         <v>15.25</v>
       </c>
-    </row>
-    <row r="55" spans="4:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="181" t="s">
+      <c r="O54" s="191"/>
+      <c r="P54" s="191"/>
+      <c r="Q54" s="191"/>
+      <c r="R54" s="191"/>
+      <c r="S54" s="129"/>
+      <c r="T54" s="191"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+    </row>
+    <row r="55" spans="4:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="182"/>
+      <c r="E55" s="188"/>
       <c r="F55" s="149">
         <f t="shared" ref="F55:M55" si="7">AVERAGE(F44,F49,F54)</f>
         <v>2.1519019847241818</v>
@@ -14683,9 +14764,354 @@
         <f t="shared" si="7"/>
         <v>10.583333333333334</v>
       </c>
+      <c r="O55" s="191"/>
+      <c r="P55" s="191"/>
+      <c r="Q55" s="191"/>
+      <c r="R55" s="191"/>
+      <c r="S55" s="129"/>
+      <c r="T55" s="191"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="14"/>
+    </row>
+    <row r="56" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="O56" s="131"/>
+      <c r="P56" s="131"/>
+      <c r="Q56" s="131"/>
+      <c r="R56" s="195"/>
+      <c r="S56" s="129"/>
+      <c r="T56" s="129"/>
+    </row>
+    <row r="57" spans="4:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N57" s="129"/>
+      <c r="O57" s="129"/>
+      <c r="P57" s="129"/>
+      <c r="Q57" s="129"/>
+      <c r="R57" s="129"/>
+      <c r="S57" s="129"/>
+    </row>
+    <row r="58" spans="4:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="155" t="s">
+        <v>237</v>
+      </c>
+      <c r="G58" s="155"/>
+      <c r="H58" s="155"/>
+      <c r="I58" s="155"/>
+      <c r="J58" s="190" t="s">
+        <v>238</v>
+      </c>
+      <c r="K58" s="155"/>
+      <c r="L58" s="155"/>
+      <c r="M58" s="155"/>
+    </row>
+    <row r="59" spans="4:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="97" t="s">
+        <v>215</v>
+      </c>
+      <c r="E59" s="98" t="s">
+        <v>216</v>
+      </c>
+      <c r="F59" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="I59" s="100" t="s">
+        <v>211</v>
+      </c>
+      <c r="J59" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="K59" s="98" t="s">
+        <v>2</v>
+      </c>
+      <c r="L59" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="100" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="D60" s="179">
+        <v>14</v>
+      </c>
+      <c r="E60" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="114">
+        <v>1.6694034748597599</v>
+      </c>
+      <c r="G60" s="114">
+        <v>2.8631346027687301</v>
+      </c>
+      <c r="H60" s="133">
+        <v>0.91627292446532504</v>
+      </c>
+      <c r="I60" s="115">
+        <v>6</v>
+      </c>
+      <c r="J60" s="192">
+        <v>1.8716683459222501</v>
+      </c>
+      <c r="K60" s="133">
+        <v>2.8920662596319802</v>
+      </c>
+      <c r="L60" s="114">
+        <v>0.90109769670162998</v>
+      </c>
+      <c r="M60" s="130">
+        <v>-1</v>
+      </c>
+      <c r="R60" s="191"/>
+      <c r="S60" s="191"/>
+      <c r="T60" s="191"/>
+      <c r="U60" s="191"/>
+      <c r="V60" s="129"/>
+      <c r="W60" s="129"/>
+    </row>
+    <row r="61" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="D61" s="180"/>
+      <c r="E61" s="153" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="132">
+        <v>1.68814282715754</v>
+      </c>
+      <c r="G61" s="102">
+        <v>2.6370715572724599</v>
+      </c>
+      <c r="H61" s="106">
+        <v>0.92553063381835099</v>
+      </c>
+      <c r="I61" s="103">
+        <v>10</v>
+      </c>
+      <c r="J61" s="107">
+        <v>2.0266915069861202</v>
+      </c>
+      <c r="K61" s="131">
+        <v>3.3041747487395901</v>
+      </c>
+      <c r="L61" s="132">
+        <v>0.93052967471808901</v>
+      </c>
+      <c r="M61" s="6">
+        <v>9</v>
+      </c>
+      <c r="R61" s="191"/>
+      <c r="S61" s="191"/>
+      <c r="T61" s="191"/>
+      <c r="U61" s="191"/>
+      <c r="V61" s="129"/>
+      <c r="W61" s="129"/>
+    </row>
+    <row r="62" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="D62" s="180"/>
+      <c r="E62" s="153" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="131">
+        <v>2.3955166648425901</v>
+      </c>
+      <c r="G62" s="106">
+        <v>3.9394499960077098</v>
+      </c>
+      <c r="H62" s="106">
+        <v>0.81399577288686298</v>
+      </c>
+      <c r="I62" s="108">
+        <v>4</v>
+      </c>
+      <c r="J62" s="104">
+        <v>1.40851515885283</v>
+      </c>
+      <c r="K62" s="132">
+        <v>1.82884617928689</v>
+      </c>
+      <c r="L62" s="132">
+        <v>0.93458900397100697</v>
+      </c>
+      <c r="M62" s="193">
+        <v>-26</v>
+      </c>
+      <c r="R62" s="191"/>
+      <c r="S62" s="191"/>
+      <c r="T62" s="191"/>
+      <c r="U62" s="191"/>
+      <c r="V62" s="129"/>
+      <c r="W62" s="129"/>
+    </row>
+    <row r="63" spans="4:23" x14ac:dyDescent="0.2">
+      <c r="D63" s="180"/>
+      <c r="E63" s="153" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="132">
+        <v>3.49637808647475</v>
+      </c>
+      <c r="G63" s="102">
+        <v>5.5705857717349998</v>
+      </c>
+      <c r="H63" s="102">
+        <v>0.95114531328013696</v>
+      </c>
+      <c r="I63" s="103">
+        <v>12</v>
+      </c>
+      <c r="J63" s="107">
+        <v>3.9502869519813402</v>
+      </c>
+      <c r="K63" s="131">
+        <v>7.7375523253014098</v>
+      </c>
+      <c r="L63" s="131">
+        <v>0.94440656659134303</v>
+      </c>
+      <c r="M63" s="6">
+        <v>10</v>
+      </c>
+      <c r="R63" s="191"/>
+      <c r="S63" s="191"/>
+      <c r="T63" s="191"/>
+      <c r="U63" s="191"/>
+      <c r="V63" s="129"/>
+      <c r="W63" s="129"/>
+    </row>
+    <row r="64" spans="4:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="181"/>
+      <c r="E64" s="154" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="110">
+        <f>AVERAGE(F60:F63)</f>
+        <v>2.3123602633336597</v>
+      </c>
+      <c r="G64" s="110">
+        <f>AVERAGE(G60:G63)</f>
+        <v>3.7525604819459746</v>
+      </c>
+      <c r="H64" s="109">
+        <f>AVERAGE(H60:H63)</f>
+        <v>0.90173616111266897</v>
+      </c>
+      <c r="I64" s="146" cm="1">
+        <f t="array" ref="I64">AVERAGE(ABS(I60:I63))</f>
+        <v>8</v>
+      </c>
+      <c r="J64" s="112">
+        <f>AVERAGE(J60:J63)</f>
+        <v>2.314290490935635</v>
+      </c>
+      <c r="K64" s="109">
+        <f>AVERAGE(K60:K63)</f>
+        <v>3.9406598782399676</v>
+      </c>
+      <c r="L64" s="110">
+        <f>AVERAGE(L60:L63)</f>
+        <v>0.92765573549551728</v>
+      </c>
+      <c r="M64" s="111" cm="1">
+        <f t="array" ref="M64">AVERAGE(ABS(M60:M63))</f>
+        <v>11.5</v>
+      </c>
+      <c r="R64" s="131"/>
+      <c r="S64" s="131"/>
+      <c r="T64" s="132"/>
+      <c r="U64" s="194"/>
+      <c r="V64" s="129"/>
+      <c r="W64" s="129"/>
+    </row>
+    <row r="65" spans="10:23" x14ac:dyDescent="0.2">
+      <c r="R65" s="129"/>
+      <c r="S65" s="129"/>
+      <c r="T65" s="129"/>
+      <c r="U65" s="129"/>
+      <c r="V65" s="129"/>
+      <c r="W65" s="129"/>
+    </row>
+    <row r="66" spans="10:23" x14ac:dyDescent="0.2">
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="R66" s="129"/>
+      <c r="S66" s="129"/>
+      <c r="T66" s="129"/>
+      <c r="U66" s="129"/>
+      <c r="V66" s="129"/>
+      <c r="W66" s="129"/>
+    </row>
+    <row r="67" spans="10:23" x14ac:dyDescent="0.2">
+      <c r="R67" s="129"/>
+      <c r="S67" s="129"/>
+      <c r="T67" s="129"/>
+      <c r="U67" s="129"/>
+      <c r="V67" s="129"/>
+      <c r="W67" s="129"/>
+    </row>
+    <row r="68" spans="10:23" x14ac:dyDescent="0.2">
+      <c r="R68" s="129"/>
+      <c r="S68" s="129"/>
+      <c r="T68" s="129"/>
+      <c r="U68" s="129"/>
+      <c r="V68" s="129"/>
+      <c r="W68" s="129"/>
+    </row>
+    <row r="71" spans="10:23" x14ac:dyDescent="0.2">
+      <c r="N71" s="14"/>
+      <c r="O71" s="14"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+      <c r="T71" s="14"/>
+    </row>
+    <row r="72" spans="10:23" x14ac:dyDescent="0.2">
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="14"/>
+      <c r="S72" s="14"/>
+      <c r="T72" s="14"/>
+    </row>
+    <row r="73" spans="10:23" x14ac:dyDescent="0.2">
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="14"/>
+      <c r="S73" s="14"/>
+      <c r="T73" s="14"/>
+    </row>
+    <row r="74" spans="10:23" x14ac:dyDescent="0.2">
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="14"/>
+      <c r="T74" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="23">
+    <mergeCell ref="D60:D64"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J58:M58"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="D40:D44"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="D50:D54"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="D31:D35"/>
@@ -14695,17 +15121,6 @@
     <mergeCell ref="D26:D30"/>
     <mergeCell ref="N19:Q19"/>
     <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="D50:D54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="D40:D44"/>
-    <mergeCell ref="D45:D49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
